--- a/data Ukraine.xlsx
+++ b/data Ukraine.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\DanIT\_Ukraine\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{487C7C19-6B07-4D29-B5E8-7A05C2E61486}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5930B5C8-1AB7-4FE8-B121-59209BAA8CBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="898" activeTab="4" xr2:uid="{21FA5A86-4C69-4AEC-AC84-BE14EF54DEBB}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="898" activeTab="3" xr2:uid="{21FA5A86-4C69-4AEC-AC84-BE14EF54DEBB}"/>
   </bookViews>
   <sheets>
     <sheet name="personal data" sheetId="12" r:id="rId1"/>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="549" uniqueCount="395">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="549" uniqueCount="397">
   <si>
     <t>Ukraine is the second-largest European country (kraine covers an area of 603,550 sq km)</t>
   </si>
@@ -712,9 +712,6 @@
 Provides training on Power BI (PZU Ukraine, Microsoft Ukraine, Bank of Georgia, Savushkin product, Ukrtelecom, Epicenter, Arterium, Galichpharm).</t>
   </si>
   <si>
-    <t>Parental leave</t>
-  </si>
-  <si>
     <t>Consolidated Information Analyst</t>
   </si>
   <si>
@@ -1278,6 +1275,15 @@
   </si>
   <si>
     <t>We decided that our daughter would attend a Waldorf school. This means that parents are actively involved in the school's life. So, my analytical and organizational skills came in handy: in the financial team I set the school budget and monitored its implementation; organized catering for pupils; in the household team I was in charge of purchasing inventory and later became the secretary of the school's Board.</t>
+  </si>
+  <si>
+    <t>Parental leave (2.)</t>
+  </si>
+  <si>
+    <t>Impel Griffin, Ukraine</t>
+  </si>
+  <si>
+    <t>Parental leave (1.)</t>
   </si>
 </sst>
 </file>
@@ -1760,47 +1766,47 @@
         <v>186</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B2" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
+        <v>284</v>
+      </c>
+      <c r="B5" t="s">
         <v>285</v>
-      </c>
-      <c r="B5" t="s">
-        <v>286</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
+        <v>294</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>295</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>296</v>
       </c>
     </row>
   </sheetData>
@@ -1864,7 +1870,7 @@
     </row>
     <row r="5" spans="1:4" ht="28.8">
       <c r="B5" s="5" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
   </sheetData>
@@ -1892,21 +1898,21 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="13" t="s">
+        <v>279</v>
+      </c>
+      <c r="B1" s="13" t="s">
         <v>280</v>
       </c>
-      <c r="B1" s="13" t="s">
-        <v>281</v>
-      </c>
       <c r="C1" s="13" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B2" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C2">
         <v>14</v>
@@ -1914,10 +1920,10 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B3" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C3">
         <v>12</v>
@@ -1925,10 +1931,10 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B4" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C4">
         <v>8</v>
@@ -1936,10 +1942,10 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B5" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C5">
         <v>6</v>
@@ -1947,10 +1953,10 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B6" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C6">
         <v>2</v>
@@ -1987,7 +1993,7 @@
         <v>190</v>
       </c>
       <c r="C1" s="15" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D1" s="15" t="s">
         <v>195</v>
@@ -1996,42 +2002,42 @@
         <v>199</v>
       </c>
       <c r="F1" s="15" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="G1" s="15" t="s">
         <v>209</v>
       </c>
       <c r="H1" s="15" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="I1" s="15" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="J1" s="15" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="K1" s="15" t="s">
+        <v>260</v>
+      </c>
+      <c r="L1" s="15" t="s">
         <v>261</v>
       </c>
-      <c r="L1" s="15" t="s">
-        <v>262</v>
-      </c>
       <c r="M1" s="15" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="N1" s="15" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="O1" s="15" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="P1" s="15" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="2" spans="1:16">
       <c r="A2" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -2060,7 +2066,7 @@
     </row>
     <row r="3" spans="1:16">
       <c r="A3" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -2089,7 +2095,7 @@
     </row>
     <row r="4" spans="1:16">
       <c r="A4" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -2103,7 +2109,7 @@
     </row>
     <row r="5" spans="1:16">
       <c r="A5" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -2132,7 +2138,7 @@
     </row>
     <row r="6" spans="1:16">
       <c r="A6" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B6">
         <v>1</v>
@@ -2140,7 +2146,7 @@
     </row>
     <row r="7" spans="1:16">
       <c r="A7" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B7">
         <v>1</v>
@@ -2148,7 +2154,7 @@
     </row>
     <row r="8" spans="1:16">
       <c r="A8" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B8">
         <v>1</v>
@@ -2171,7 +2177,7 @@
     </row>
     <row r="9" spans="1:16">
       <c r="A9" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D9">
         <v>1</v>
@@ -2179,7 +2185,7 @@
     </row>
     <row r="10" spans="1:16">
       <c r="A10" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B10">
         <v>1</v>
@@ -2187,7 +2193,7 @@
     </row>
     <row r="11" spans="1:16">
       <c r="A11" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B11">
         <v>1</v>
@@ -2195,7 +2201,7 @@
     </row>
     <row r="12" spans="1:16">
       <c r="A12" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B12">
         <v>1</v>
@@ -2206,7 +2212,7 @@
     </row>
     <row r="13" spans="1:16">
       <c r="A13" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B13">
         <v>1</v>
@@ -2217,7 +2223,7 @@
     </row>
     <row r="14" spans="1:16">
       <c r="A14" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D14">
         <v>1</v>
@@ -2225,7 +2231,7 @@
     </row>
     <row r="15" spans="1:16">
       <c r="A15" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D15">
         <v>1</v>
@@ -2251,7 +2257,7 @@
     </row>
     <row r="16" spans="1:16">
       <c r="A16" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="F16">
         <v>1</v>
@@ -2271,7 +2277,7 @@
     </row>
     <row r="17" spans="1:16">
       <c r="A17" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="H17">
         <v>1</v>
@@ -2288,7 +2294,7 @@
     </row>
     <row r="18" spans="1:16">
       <c r="A18" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B18">
         <v>1</v>
@@ -2299,7 +2305,7 @@
     </row>
     <row r="19" spans="1:16">
       <c r="A19" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B19">
         <v>1</v>
@@ -2322,7 +2328,7 @@
     </row>
     <row r="20" spans="1:16">
       <c r="A20" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B20">
         <v>1</v>
@@ -2342,7 +2348,7 @@
     </row>
     <row r="21" spans="1:16">
       <c r="A21" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B21">
         <v>1</v>
@@ -2350,7 +2356,7 @@
     </row>
     <row r="22" spans="1:16">
       <c r="A22" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -2358,7 +2364,7 @@
     </row>
     <row r="23" spans="1:16">
       <c r="A23" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -2366,7 +2372,7 @@
     </row>
     <row r="24" spans="1:16">
       <c r="A24" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="K24">
         <v>1</v>
@@ -2374,7 +2380,7 @@
     </row>
     <row r="25" spans="1:16">
       <c r="A25" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="K25">
         <v>1</v>
@@ -2382,7 +2388,7 @@
     </row>
     <row r="26" spans="1:16">
       <c r="A26" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B26">
         <v>1</v>
@@ -2393,7 +2399,7 @@
     </row>
     <row r="27" spans="1:16">
       <c r="A27" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B27">
         <v>1</v>
@@ -2404,7 +2410,7 @@
     </row>
     <row r="28" spans="1:16">
       <c r="A28" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -2412,7 +2418,7 @@
     </row>
     <row r="29" spans="1:16">
       <c r="A29" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="J29">
         <v>1</v>
@@ -2423,7 +2429,7 @@
     </row>
     <row r="30" spans="1:16">
       <c r="A30" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="J30">
         <v>1</v>
@@ -2434,7 +2440,7 @@
     </row>
     <row r="31" spans="1:16">
       <c r="A31" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B31">
         <v>1</v>
@@ -2475,7 +2481,7 @@
     </row>
     <row r="32" spans="1:16">
       <c r="A32" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B32">
         <v>1</v>
@@ -2483,7 +2489,7 @@
     </row>
     <row r="33" spans="1:14">
       <c r="A33" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D33">
         <v>1</v>
@@ -2509,7 +2515,7 @@
     </row>
     <row r="34" spans="1:14">
       <c r="A34" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B34">
         <v>1</v>
@@ -2538,7 +2544,7 @@
     </row>
     <row r="35" spans="1:14">
       <c r="A35" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B35">
         <v>1</v>
@@ -2564,7 +2570,7 @@
     </row>
     <row r="36" spans="1:14">
       <c r="A36" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="D36">
         <v>1</v>
@@ -2584,7 +2590,7 @@
     </row>
     <row r="37" spans="1:14">
       <c r="A37" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="E37">
         <v>1</v>
@@ -2601,7 +2607,7 @@
     </row>
     <row r="38" spans="1:14">
       <c r="A38" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E38">
         <v>1</v>
@@ -2618,7 +2624,7 @@
     </row>
     <row r="39" spans="1:14">
       <c r="A39" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="E39">
         <v>1</v>
@@ -2638,7 +2644,7 @@
     </row>
     <row r="40" spans="1:14">
       <c r="A40" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C40">
         <v>1</v>
@@ -2668,9 +2674,9 @@
   </sheetPr>
   <dimension ref="A1:L26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K8" sqref="K8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -2706,16 +2712,16 @@
         <v>200</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="H1" s="6" t="s">
         <v>194</v>
       </c>
       <c r="I1" s="6" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="J1" s="6" t="s">
         <v>191</v>
@@ -2735,31 +2741,31 @@
         <v>45323</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D2" s="4" t="s">
+        <v>382</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>351</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>240</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>346</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>349</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>368</v>
+      </c>
+      <c r="K2" s="4" t="s">
         <v>383</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>352</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>241</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>347</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>350</v>
-      </c>
-      <c r="I2" s="4" t="s">
-        <v>246</v>
-      </c>
-      <c r="J2" s="5" t="s">
-        <v>369</v>
-      </c>
-      <c r="K2" s="4" t="s">
-        <v>384</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="57.6">
@@ -2779,19 +2785,19 @@
         <v>201</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="K3" s="4" t="s">
         <v>193</v>
@@ -2805,31 +2811,31 @@
         <v>44713</v>
       </c>
       <c r="C4" s="4" t="s">
+        <v>299</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>298</v>
+      </c>
+      <c r="E4" s="4" t="s">
         <v>300</v>
       </c>
-      <c r="D4" s="4" t="s">
-        <v>299</v>
-      </c>
-      <c r="E4" s="4" t="s">
+      <c r="F4" s="4" t="s">
+        <v>353</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>346</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>350</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>246</v>
+      </c>
+      <c r="J4" s="5" t="s">
+        <v>378</v>
+      </c>
+      <c r="K4" s="4" t="s">
         <v>301</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>354</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>347</v>
-      </c>
-      <c r="H4" s="4" t="s">
-        <v>351</v>
-      </c>
-      <c r="I4" s="4" t="s">
-        <v>247</v>
-      </c>
-      <c r="J4" s="5" t="s">
-        <v>379</v>
-      </c>
-      <c r="K4" s="4" t="s">
-        <v>302</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="57.6">
@@ -2849,19 +2855,19 @@
         <v>202</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="J5" s="5" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="K5" s="4" t="s">
         <v>196</v>
@@ -2884,19 +2890,19 @@
         <v>203</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="J6" s="5" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="K6" s="4" t="s">
         <v>204</v>
@@ -2910,7 +2916,7 @@
         <v>44317</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>205</v>
@@ -2919,19 +2925,19 @@
         <v>206</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="I7" s="4" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="J7" s="5" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="K7" s="4" t="s">
         <v>207</v>
@@ -2951,22 +2957,22 @@
         <v>208</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="I8" s="4" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="J8" s="5" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="K8" s="4" t="s">
         <v>210</v>
@@ -2980,16 +2986,16 @@
         <v>43556</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>211</v>
+        <v>394</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="J9" s="5" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="K9" s="4" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="57.6">
@@ -3000,31 +3006,31 @@
         <v>42856</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D10" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="E10" s="4" t="s">
         <v>212</v>
       </c>
-      <c r="E10" s="4" t="s">
+      <c r="F10" s="4" t="s">
+        <v>353</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>348</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>349</v>
+      </c>
+      <c r="I10" s="4" t="s">
+        <v>249</v>
+      </c>
+      <c r="J10" s="5" t="s">
+        <v>364</v>
+      </c>
+      <c r="K10" s="4" t="s">
         <v>213</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>354</v>
-      </c>
-      <c r="G10" s="4" t="s">
-        <v>349</v>
-      </c>
-      <c r="H10" s="4" t="s">
-        <v>350</v>
-      </c>
-      <c r="I10" s="4" t="s">
-        <v>250</v>
-      </c>
-      <c r="J10" s="5" t="s">
-        <v>365</v>
-      </c>
-      <c r="K10" s="4" t="s">
-        <v>214</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="57.6">
@@ -3035,31 +3041,31 @@
         <v>41183</v>
       </c>
       <c r="C11" s="4" t="s">
+        <v>395</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="E11" s="4" t="s">
         <v>304</v>
       </c>
-      <c r="D11" s="4" t="s">
-        <v>303</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>305</v>
-      </c>
       <c r="F11" s="4" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="G11" s="4" t="s">
+        <v>348</v>
+      </c>
+      <c r="H11" s="4" t="s">
         <v>349</v>
       </c>
-      <c r="H11" s="4" t="s">
-        <v>350</v>
-      </c>
       <c r="I11" s="4" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="J11" s="5" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="K11" s="4" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="57.6">
@@ -3070,16 +3076,16 @@
         <v>40664</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>211</v>
+        <v>396</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="J12" s="5" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="K12" s="4" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="72">
@@ -3090,31 +3096,31 @@
         <v>39873</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="G13" s="4" t="s">
+        <v>348</v>
+      </c>
+      <c r="H13" s="4" t="s">
         <v>349</v>
       </c>
-      <c r="H13" s="4" t="s">
-        <v>350</v>
-      </c>
       <c r="I13" s="4" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="J13" s="5" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="K13" s="4" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="72">
@@ -3125,31 +3131,31 @@
         <v>39873</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="G14" s="4" t="s">
+        <v>348</v>
+      </c>
+      <c r="H14" s="4" t="s">
         <v>349</v>
       </c>
-      <c r="H14" s="4" t="s">
-        <v>350</v>
-      </c>
       <c r="I14" s="4" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="J14" s="5" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="K14" s="4" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="72">
@@ -3160,31 +3166,31 @@
         <v>38504</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="G15" s="4" t="s">
+        <v>348</v>
+      </c>
+      <c r="H15" s="4" t="s">
         <v>349</v>
       </c>
-      <c r="H15" s="4" t="s">
-        <v>350</v>
-      </c>
       <c r="I15" s="4" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="J15" s="5" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="K15" s="4" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="72">
@@ -3195,31 +3201,31 @@
         <v>38504</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="G16" s="4" t="s">
+        <v>348</v>
+      </c>
+      <c r="H16" s="4" t="s">
         <v>349</v>
       </c>
-      <c r="H16" s="4" t="s">
-        <v>350</v>
-      </c>
       <c r="I16" s="4" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="J16" s="5" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="K16" s="4" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="17" spans="1:11" ht="86.4">
@@ -3230,31 +3236,31 @@
         <v>37408</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="G17" s="4" t="s">
+        <v>348</v>
+      </c>
+      <c r="H17" s="4" t="s">
         <v>349</v>
       </c>
-      <c r="H17" s="4" t="s">
-        <v>350</v>
-      </c>
       <c r="I17" s="4" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="J17" s="5" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="K17" s="4" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="18" spans="1:11" ht="57.6">
@@ -3265,31 +3271,31 @@
         <v>45383</v>
       </c>
       <c r="C18" s="4" t="s">
+        <v>261</v>
+      </c>
+      <c r="D18" s="4" t="s">
         <v>262</v>
       </c>
-      <c r="D18" s="4" t="s">
-        <v>263</v>
-      </c>
       <c r="E18" s="4" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="H18" s="4" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="I18" s="4" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="J18" s="5" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="19" spans="1:11" ht="57.6">
@@ -3300,31 +3306,31 @@
         <v>44652</v>
       </c>
       <c r="C19" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>359</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>240</v>
+      </c>
+      <c r="G19" s="4" t="s">
+        <v>346</v>
+      </c>
+      <c r="H19" s="4" t="s">
+        <v>350</v>
+      </c>
+      <c r="I19" s="4" t="s">
+        <v>246</v>
+      </c>
+      <c r="J19" s="5" t="s">
+        <v>372</v>
+      </c>
+      <c r="K19" s="1" t="s">
         <v>267</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>266</v>
-      </c>
-      <c r="E19" s="4" t="s">
-        <v>360</v>
-      </c>
-      <c r="F19" s="4" t="s">
-        <v>241</v>
-      </c>
-      <c r="G19" s="4" t="s">
-        <v>347</v>
-      </c>
-      <c r="H19" s="4" t="s">
-        <v>351</v>
-      </c>
-      <c r="I19" s="4" t="s">
-        <v>247</v>
-      </c>
-      <c r="J19" s="5" t="s">
-        <v>373</v>
-      </c>
-      <c r="K19" s="1" t="s">
-        <v>268</v>
       </c>
     </row>
     <row r="20" spans="1:11" ht="57.6">
@@ -3335,31 +3341,31 @@
         <v>44835</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D20" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>359</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>240</v>
+      </c>
+      <c r="G20" s="4" t="s">
+        <v>346</v>
+      </c>
+      <c r="H20" s="4" t="s">
+        <v>350</v>
+      </c>
+      <c r="I20" s="4" t="s">
+        <v>246</v>
+      </c>
+      <c r="J20" s="5" t="s">
+        <v>367</v>
+      </c>
+      <c r="K20" s="1" t="s">
         <v>269</v>
-      </c>
-      <c r="E20" s="4" t="s">
-        <v>360</v>
-      </c>
-      <c r="F20" s="4" t="s">
-        <v>241</v>
-      </c>
-      <c r="G20" s="4" t="s">
-        <v>347</v>
-      </c>
-      <c r="H20" s="4" t="s">
-        <v>351</v>
-      </c>
-      <c r="I20" s="4" t="s">
-        <v>247</v>
-      </c>
-      <c r="J20" s="5" t="s">
-        <v>368</v>
-      </c>
-      <c r="K20" s="1" t="s">
-        <v>270</v>
       </c>
     </row>
     <row r="21" spans="1:11" ht="57.6">
@@ -3370,31 +3376,31 @@
         <v>44835</v>
       </c>
       <c r="C21" s="4" t="s">
+        <v>270</v>
+      </c>
+      <c r="D21" s="4" t="s">
         <v>271</v>
       </c>
-      <c r="D21" s="4" t="s">
+      <c r="E21" s="4" t="s">
+        <v>359</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>240</v>
+      </c>
+      <c r="G21" s="4" t="s">
+        <v>346</v>
+      </c>
+      <c r="H21" s="4" t="s">
+        <v>350</v>
+      </c>
+      <c r="I21" s="4" t="s">
+        <v>246</v>
+      </c>
+      <c r="J21" s="5" t="s">
+        <v>367</v>
+      </c>
+      <c r="K21" s="1" t="s">
         <v>272</v>
-      </c>
-      <c r="E21" s="4" t="s">
-        <v>360</v>
-      </c>
-      <c r="F21" s="4" t="s">
-        <v>241</v>
-      </c>
-      <c r="G21" s="4" t="s">
-        <v>347</v>
-      </c>
-      <c r="H21" s="4" t="s">
-        <v>351</v>
-      </c>
-      <c r="I21" s="4" t="s">
-        <v>247</v>
-      </c>
-      <c r="J21" s="5" t="s">
-        <v>368</v>
-      </c>
-      <c r="K21" s="1" t="s">
-        <v>273</v>
       </c>
     </row>
     <row r="22" spans="1:11" ht="57.6">
@@ -3405,31 +3411,31 @@
         <v>43525</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D22" s="4" t="s">
+        <v>273</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>361</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>240</v>
+      </c>
+      <c r="G22" s="4" t="s">
+        <v>346</v>
+      </c>
+      <c r="H22" s="4" t="s">
+        <v>350</v>
+      </c>
+      <c r="I22" s="4" t="s">
+        <v>249</v>
+      </c>
+      <c r="J22" s="5" t="s">
+        <v>371</v>
+      </c>
+      <c r="K22" s="1" t="s">
         <v>274</v>
-      </c>
-      <c r="E22" s="4" t="s">
-        <v>362</v>
-      </c>
-      <c r="F22" s="4" t="s">
-        <v>241</v>
-      </c>
-      <c r="G22" s="4" t="s">
-        <v>347</v>
-      </c>
-      <c r="H22" s="4" t="s">
-        <v>351</v>
-      </c>
-      <c r="I22" s="4" t="s">
-        <v>250</v>
-      </c>
-      <c r="J22" s="5" t="s">
-        <v>372</v>
-      </c>
-      <c r="K22" s="1" t="s">
-        <v>275</v>
       </c>
     </row>
     <row r="23" spans="1:11" ht="57.6">
@@ -3440,31 +3446,31 @@
         <v>42005</v>
       </c>
       <c r="C23" s="4" t="s">
+        <v>276</v>
+      </c>
+      <c r="D23" s="4" t="s">
         <v>277</v>
       </c>
-      <c r="D23" s="4" t="s">
-        <v>278</v>
-      </c>
       <c r="E23" s="4" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="H23" s="4" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="I23" s="4" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="J23" s="5" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="K23" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="24" spans="1:11" ht="57.6">
@@ -3475,31 +3481,31 @@
         <v>45383</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="H24" s="4" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="I24" s="17" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="J24" s="5" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="K24" s="1" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="25" spans="1:11" ht="72">
@@ -3510,31 +3516,31 @@
         <v>43983</v>
       </c>
       <c r="C25" s="4" t="s">
+        <v>330</v>
+      </c>
+      <c r="D25" s="4" t="s">
         <v>331</v>
       </c>
-      <c r="D25" s="4" t="s">
-        <v>332</v>
-      </c>
       <c r="E25" s="4" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="F25" s="17" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="G25" s="4" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="H25" s="4" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="I25" s="17" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="J25" s="5" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="K25" s="4" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="26" spans="1:11" ht="86.4">
@@ -3545,31 +3551,31 @@
         <v>44593</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F26" s="17" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="G26" s="4" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="H26" s="4" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="I26" s="17" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="J26" s="5" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="K26" s="4" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
   </sheetData>
@@ -3618,7 +3624,7 @@
   </sheetPr>
   <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
@@ -3636,13 +3642,13 @@
         <v>185</v>
       </c>
       <c r="B1" s="6" t="s">
+        <v>342</v>
+      </c>
+      <c r="C1" s="6" t="s">
         <v>343</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="D1" s="6" t="s">
         <v>344</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>345</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="100.8">
@@ -3650,27 +3656,27 @@
         <v>190</v>
       </c>
       <c r="B2" s="17" t="s">
+        <v>338</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>339</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="D2" s="4" t="s">
         <v>340</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>341</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="57.6">
       <c r="A3" s="4" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="187.2">
@@ -3678,13 +3684,13 @@
         <v>195</v>
       </c>
       <c r="B4" s="4" t="s">
+        <v>335</v>
+      </c>
+      <c r="C4" s="4" t="s">
         <v>336</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="D4" s="4" t="s">
         <v>337</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>338</v>
       </c>
     </row>
   </sheetData>
@@ -3714,39 +3720,39 @@
         <v>45</v>
       </c>
       <c r="B1" s="13" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
+        <v>216</v>
+      </c>
+      <c r="B3" t="s">
         <v>217</v>
-      </c>
-      <c r="B3" t="s">
-        <v>218</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B4" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B5" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
   </sheetData>
@@ -4626,10 +4632,10 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="B9" t="s">
         <v>292</v>
-      </c>
-      <c r="B9" t="s">
-        <v>293</v>
       </c>
     </row>
   </sheetData>

--- a/data Ukraine.xlsx
+++ b/data Ukraine.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\DanIT\_Ukraine\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\_GitHub\DataSources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5930B5C8-1AB7-4FE8-B121-59209BAA8CBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62045C7E-2C36-49C1-B4A0-6207A9DA4279}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="898" activeTab="3" xr2:uid="{21FA5A86-4C69-4AEC-AC84-BE14EF54DEBB}"/>
   </bookViews>
@@ -28,7 +28,6 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">іноземці!$A$1:$C$1</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -49,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="549" uniqueCount="397">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="549" uniqueCount="398">
   <si>
     <t>Ukraine is the second-largest European country (kraine covers an area of 603,550 sq km)</t>
   </si>
@@ -1181,61 +1180,16 @@
     <t>The family-migrants.</t>
   </si>
   <si>
-    <t>https://github.com/IrynaChyzh/logo/blob/main/BIJB.jpg</t>
-  </si>
-  <si>
-    <t>https://github.com/IrynaChyzh/logo/blob/main/Blago.png</t>
-  </si>
-  <si>
-    <t>https://github.com/IrynaChyzh/logo/blob/main/Dahl.jpg</t>
-  </si>
-  <si>
-    <t>https://github.com/IrynaChyzh/logo/blob/main/DanIT.png</t>
-  </si>
-  <si>
     <t>https://github.com/IrynaChyzh/logo/blob/main/Google.png</t>
   </si>
   <si>
-    <t>https://github.com/IrynaChyzh/logo/blob/main/IB.png</t>
-  </si>
-  <si>
-    <t>https://github.com/IrynaChyzh/logo/blob/main/Impel.png</t>
-  </si>
-  <si>
-    <t>https://github.com/IrynaChyzh/logo/blob/main/KNTEU.jpg</t>
-  </si>
-  <si>
     <t>https://github.com/IrynaChyzh/logo/blob/main/Laba.png</t>
   </si>
   <si>
     <t>https://github.com/IrynaChyzh/logo/blob/main/Microsoft.png</t>
   </si>
   <si>
-    <t>https://github.com/IrynaChyzh/logo/blob/main/Pershii.jpg</t>
-  </si>
-  <si>
     <t>https://github.com/IrynaChyzh/logo/blob/main/Prometheus.png</t>
-  </si>
-  <si>
-    <t>https://github.com/IrynaChyzh/logo/blob/main/SS.png</t>
-  </si>
-  <si>
-    <t>https://github.com/IrynaChyzh/logo/blob/main/Udemy.png</t>
-  </si>
-  <si>
-    <t>https://github.com/IrynaChyzh/logo/blob/main/Ukraine.jpg</t>
-  </si>
-  <si>
-    <t>https://github.com/IrynaChyzh/logo/blob/main/Virtido.jpg</t>
-  </si>
-  <si>
-    <t>https://github.com/IrynaChyzh/logo/blob/main/Yavir.jpg</t>
-  </si>
-  <si>
-    <t>https://github.com/IrynaChyzh/logo/blob/main/maternity%201.jpg</t>
-  </si>
-  <si>
-    <t>https://github.com/IrynaChyzh/logo/blob/main/maternity%202.jpg</t>
   </si>
   <si>
     <t>Integration course</t>
@@ -1284,6 +1238,54 @@
   </si>
   <si>
     <t>Parental leave (1.)</t>
+  </si>
+  <si>
+    <t>https://github.com/IrynaChyzh/logo/blob/main/Borisfen%2C%20Yavir.jpg</t>
+  </si>
+  <si>
+    <t>https://github.com/IrynaChyzh/logo/blob/main/Competence%20Center%20BIJB%2C%20Ukraine.jpg</t>
+  </si>
+  <si>
+    <t>https://github.com/IrynaChyzh/logo/blob/main/DAN.IT%20Education%2C%20Ukraine.png</t>
+  </si>
+  <si>
+    <t>https://github.com/IrynaChyzh/logo/blob/main/East%20Ukrainian%20National%20University%20V.%20Dahl%20(H%2B).jpg</t>
+  </si>
+  <si>
+    <t>https://github.com/IrynaChyzh/logo/blob/main/Flagman%2C%20Ukraine.png</t>
+  </si>
+  <si>
+    <t>https://github.com/IrynaChyzh/logo/blob/main/Impel%20Griffin%2C%20Ukraine.jpg</t>
+  </si>
+  <si>
+    <t>https://github.com/IrynaChyzh/logo/blob/main/Internationaler%20Bund%20(IB)%2C%20Germany.png</t>
+  </si>
+  <si>
+    <t>https://github.com/IrynaChyzh/logo/blob/main/Kyiv%20National%20University%20of%20Trade%20and%20Economics%20(H%2B).jpg</t>
+  </si>
+  <si>
+    <t>https://github.com/IrynaChyzh/logo/blob/main/Parental%20leave%20(1.).jpg</t>
+  </si>
+  <si>
+    <t>https://github.com/IrynaChyzh/logo/blob/main/Parental%20leave%20(2.).jpg</t>
+  </si>
+  <si>
+    <t>https://github.com/IrynaChyzh/logo/blob/main/Pawnshops%20(2x)%2C%20Ukraine.jpg</t>
+  </si>
+  <si>
+    <t>https://github.com/IrynaChyzh/logo/blob/main/Pawnshops%20(4x)%2C%20Ukraine.png</t>
+  </si>
+  <si>
+    <t>https://github.com/IrynaChyzh/logo/blob/main/SoftServe%2C%20Ukraine.png</t>
+  </si>
+  <si>
+    <t>https://github.com/IrynaChyzh/logo/blob/main/Virtido%2C%20Switzerland.jpg</t>
+  </si>
+  <si>
+    <t>https://github.com/IrynaChyzh/logo/blob/main/Ukraine.png</t>
+  </si>
+  <si>
+    <t>Laba</t>
   </si>
 </sst>
 </file>
@@ -2675,8 +2677,8 @@
   <dimension ref="A1:L26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D14" sqref="D14"/>
+      <pane ySplit="1" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -2733,7 +2735,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="57.6">
+    <row r="2" spans="1:12" ht="43.2">
       <c r="A2" s="11">
         <v>44927</v>
       </c>
@@ -2744,7 +2746,7 @@
         <v>355</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>382</v>
+        <v>367</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>351</v>
@@ -2762,13 +2764,13 @@
         <v>245</v>
       </c>
       <c r="J2" s="5" t="s">
+        <v>388</v>
+      </c>
+      <c r="K2" s="4" t="s">
         <v>368</v>
       </c>
-      <c r="K2" s="4" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" ht="57.6">
+    </row>
+    <row r="3" spans="1:12" ht="43.2">
       <c r="A3" s="11">
         <v>44531</v>
       </c>
@@ -2797,13 +2799,13 @@
         <v>246</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>375</v>
+        <v>394</v>
       </c>
       <c r="K3" s="4" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="57.6">
+    <row r="4" spans="1:12" ht="43.2">
       <c r="A4" s="11">
         <v>44562</v>
       </c>
@@ -2832,7 +2834,7 @@
         <v>246</v>
       </c>
       <c r="J4" s="5" t="s">
-        <v>378</v>
+        <v>395</v>
       </c>
       <c r="K4" s="4" t="s">
         <v>301</v>
@@ -2867,13 +2869,13 @@
         <v>247</v>
       </c>
       <c r="J5" s="5" t="s">
-        <v>366</v>
+        <v>384</v>
       </c>
       <c r="K5" s="4" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="57.6">
+    <row r="6" spans="1:12" ht="43.2">
       <c r="A6" s="11">
         <v>43040</v>
       </c>
@@ -2902,13 +2904,13 @@
         <v>247</v>
       </c>
       <c r="J6" s="5" t="s">
-        <v>366</v>
+        <v>386</v>
       </c>
       <c r="K6" s="4" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="57.6">
+    <row r="7" spans="1:12" ht="43.2">
       <c r="A7" s="11">
         <v>43678</v>
       </c>
@@ -2937,7 +2939,7 @@
         <v>247</v>
       </c>
       <c r="J7" s="5" t="s">
-        <v>373</v>
+        <v>392</v>
       </c>
       <c r="K7" s="4" t="s">
         <v>207</v>
@@ -2972,13 +2974,13 @@
         <v>247</v>
       </c>
       <c r="J8" s="5" t="s">
-        <v>363</v>
+        <v>383</v>
       </c>
       <c r="K8" s="4" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="57.6">
+    <row r="9" spans="1:12" ht="28.8">
       <c r="A9" s="11">
         <v>42917</v>
       </c>
@@ -2986,19 +2988,19 @@
         <v>43556</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>394</v>
+        <v>379</v>
       </c>
       <c r="F9" s="4" t="s">
         <v>354</v>
       </c>
       <c r="J9" s="5" t="s">
-        <v>381</v>
+        <v>391</v>
       </c>
       <c r="K9" s="4" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" ht="57.6">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="43.2">
       <c r="A10" s="11">
         <v>41183</v>
       </c>
@@ -3027,13 +3029,13 @@
         <v>249</v>
       </c>
       <c r="J10" s="5" t="s">
-        <v>364</v>
+        <v>393</v>
       </c>
       <c r="K10" s="4" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="57.6">
+    <row r="11" spans="1:12" ht="43.2">
       <c r="A11" s="11">
         <v>40695</v>
       </c>
@@ -3041,7 +3043,7 @@
         <v>41183</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>395</v>
+        <v>380</v>
       </c>
       <c r="D11" s="4" t="s">
         <v>302</v>
@@ -3062,13 +3064,13 @@
         <v>249</v>
       </c>
       <c r="J11" s="5" t="s">
-        <v>369</v>
+        <v>387</v>
       </c>
       <c r="K11" s="4" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" ht="57.6">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
       <c r="A12" s="11">
         <v>39722</v>
       </c>
@@ -3076,16 +3078,16 @@
         <v>40664</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>396</v>
+        <v>381</v>
       </c>
       <c r="F12" s="4" t="s">
         <v>354</v>
       </c>
       <c r="J12" s="5" t="s">
-        <v>380</v>
+        <v>390</v>
       </c>
       <c r="K12" s="4" t="s">
-        <v>385</v>
+        <v>370</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="72">
@@ -3117,10 +3119,10 @@
         <v>247</v>
       </c>
       <c r="J13" s="5" t="s">
-        <v>370</v>
+        <v>389</v>
       </c>
       <c r="K13" s="4" t="s">
-        <v>387</v>
+        <v>372</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="72">
@@ -3152,10 +3154,10 @@
         <v>247</v>
       </c>
       <c r="J14" s="5" t="s">
-        <v>370</v>
+        <v>389</v>
       </c>
       <c r="K14" s="4" t="s">
-        <v>388</v>
+        <v>373</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="72">
@@ -3187,10 +3189,10 @@
         <v>247</v>
       </c>
       <c r="J15" s="5" t="s">
-        <v>370</v>
+        <v>389</v>
       </c>
       <c r="K15" s="4" t="s">
-        <v>389</v>
+        <v>374</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="72">
@@ -3222,10 +3224,10 @@
         <v>247</v>
       </c>
       <c r="J16" s="5" t="s">
-        <v>370</v>
+        <v>389</v>
       </c>
       <c r="K16" s="4" t="s">
-        <v>390</v>
+        <v>375</v>
       </c>
     </row>
     <row r="17" spans="1:11" ht="86.4">
@@ -3257,13 +3259,13 @@
         <v>249</v>
       </c>
       <c r="J17" s="5" t="s">
-        <v>365</v>
+        <v>385</v>
       </c>
       <c r="K17" s="4" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" ht="57.6">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" ht="28.8">
       <c r="A18" s="11">
         <v>45383</v>
       </c>
@@ -3292,13 +3294,13 @@
         <v>246</v>
       </c>
       <c r="J18" s="5" t="s">
-        <v>376</v>
+        <v>396</v>
       </c>
       <c r="K18" s="1" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="19" spans="1:11" ht="57.6">
+    <row r="19" spans="1:11" ht="43.2">
       <c r="A19" s="11">
         <v>44652</v>
       </c>
@@ -3327,13 +3329,13 @@
         <v>246</v>
       </c>
       <c r="J19" s="5" t="s">
-        <v>372</v>
+        <v>365</v>
       </c>
       <c r="K19" s="1" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="57.6">
+    <row r="20" spans="1:11" ht="43.2">
       <c r="A20" s="11">
         <v>44835</v>
       </c>
@@ -3362,13 +3364,13 @@
         <v>246</v>
       </c>
       <c r="J20" s="5" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="K20" s="1" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="21" spans="1:11" ht="57.6">
+    <row r="21" spans="1:11" ht="43.2">
       <c r="A21" s="11">
         <v>44835</v>
       </c>
@@ -3397,7 +3399,7 @@
         <v>246</v>
       </c>
       <c r="J21" s="5" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="K21" s="1" t="s">
         <v>272</v>
@@ -3411,7 +3413,7 @@
         <v>43525</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>278</v>
+        <v>397</v>
       </c>
       <c r="D22" s="4" t="s">
         <v>273</v>
@@ -3432,13 +3434,13 @@
         <v>249</v>
       </c>
       <c r="J22" s="5" t="s">
-        <v>371</v>
+        <v>364</v>
       </c>
       <c r="K22" s="1" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="23" spans="1:11" ht="57.6">
+    <row r="23" spans="1:11" ht="43.2">
       <c r="A23" s="11">
         <v>42005</v>
       </c>
@@ -3467,13 +3469,13 @@
         <v>249</v>
       </c>
       <c r="J23" s="5" t="s">
-        <v>374</v>
+        <v>366</v>
       </c>
       <c r="K23" s="1" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="24" spans="1:11" ht="57.6">
+    <row r="24" spans="1:11" ht="43.2">
       <c r="A24" s="11">
         <v>44470</v>
       </c>
@@ -3502,7 +3504,7 @@
         <v>247</v>
       </c>
       <c r="J24" s="5" t="s">
-        <v>374</v>
+        <v>366</v>
       </c>
       <c r="K24" s="1" t="s">
         <v>286</v>
@@ -3537,10 +3539,10 @@
         <v>247</v>
       </c>
       <c r="J25" s="5" t="s">
+        <v>396</v>
+      </c>
+      <c r="K25" s="4" t="s">
         <v>377</v>
-      </c>
-      <c r="K25" s="4" t="s">
-        <v>392</v>
       </c>
     </row>
     <row r="26" spans="1:11" ht="86.4">
@@ -3572,10 +3574,10 @@
         <v>247</v>
       </c>
       <c r="J26" s="5" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="K26" s="4" t="s">
-        <v>393</v>
+        <v>378</v>
       </c>
     </row>
   </sheetData>
@@ -3587,31 +3589,6 @@
     <hyperlink ref="K22" r:id="rId5" xr:uid="{20EA4274-6531-4DA8-8A0B-F9819B9532D9}"/>
     <hyperlink ref="K23" r:id="rId6" xr:uid="{FB84C33D-42A2-4245-8EC0-ED2B80CD5EBD}"/>
     <hyperlink ref="K24" r:id="rId7" xr:uid="{C7E225B0-BAE2-459E-A1E6-10EEDA86C089}"/>
-    <hyperlink ref="J8" r:id="rId8" xr:uid="{5DE6F906-5FED-495A-A0DE-D0751EF83142}"/>
-    <hyperlink ref="J10" r:id="rId9" xr:uid="{7216B79D-C911-4C40-B629-889C53DF3031}"/>
-    <hyperlink ref="J17" r:id="rId10" xr:uid="{603BD16F-9100-404F-9563-5DC49E0AE473}"/>
-    <hyperlink ref="J5" r:id="rId11" xr:uid="{286A36A2-CC6E-4CCD-B626-673677184B33}"/>
-    <hyperlink ref="J6" r:id="rId12" xr:uid="{E1FB8796-D94A-4B2D-9360-A6214F06C7FB}"/>
-    <hyperlink ref="J20" r:id="rId13" xr:uid="{648371F6-0243-4908-94CD-5473487AC77D}"/>
-    <hyperlink ref="J21" r:id="rId14" xr:uid="{B225001C-9FBB-4655-8643-9CF53B977C20}"/>
-    <hyperlink ref="J2" r:id="rId15" xr:uid="{FE7338C7-96A2-45A0-B993-2A2140C11727}"/>
-    <hyperlink ref="J11" r:id="rId16" xr:uid="{E13B102A-A63D-4DCB-BD65-74C351F1F4BB}"/>
-    <hyperlink ref="J13" r:id="rId17" xr:uid="{DBFAA2E5-719B-4B34-B8CD-778533B0314A}"/>
-    <hyperlink ref="J14" r:id="rId18" xr:uid="{50C76AF1-5F1E-40AD-9A1B-6819370B7002}"/>
-    <hyperlink ref="J15" r:id="rId19" xr:uid="{879230AB-B0F3-433D-8A5B-14AC1CF32DC7}"/>
-    <hyperlink ref="J16" r:id="rId20" xr:uid="{DE9A5D2B-65E6-4338-BEF7-116C8B08A9B0}"/>
-    <hyperlink ref="J22" r:id="rId21" xr:uid="{0BCC4E9B-F175-4D32-A16A-A710809D4A01}"/>
-    <hyperlink ref="J19" r:id="rId22" xr:uid="{D0E6CBB6-3B0D-453E-9533-EF0D1193A32B}"/>
-    <hyperlink ref="J7" r:id="rId23" xr:uid="{775D1FC0-6FB6-4DB0-B555-1A8B006CF1F3}"/>
-    <hyperlink ref="J23" r:id="rId24" xr:uid="{798D15DC-BD9D-4995-AA1F-84B85C6E8346}"/>
-    <hyperlink ref="J24" r:id="rId25" xr:uid="{BD4624F7-682D-42FF-8D64-E9C7F6901C73}"/>
-    <hyperlink ref="J3" r:id="rId26" xr:uid="{71F8E93B-F4BD-4FF3-9204-4C0BD3CF6FE0}"/>
-    <hyperlink ref="J18" r:id="rId27" xr:uid="{9EB70017-0E55-4D65-8C0C-F2D819951C2D}"/>
-    <hyperlink ref="J25" r:id="rId28" xr:uid="{3A066916-2167-4372-B955-E18D511455DA}"/>
-    <hyperlink ref="J4" r:id="rId29" xr:uid="{BA0FD294-EB62-48EF-8293-740027FEA1AA}"/>
-    <hyperlink ref="J26" r:id="rId30" xr:uid="{984C10B3-A16B-4CAA-824A-AE77D689837B}"/>
-    <hyperlink ref="J12" r:id="rId31" xr:uid="{1287E767-5BE3-4E5C-87A9-2C7C7E84665B}"/>
-    <hyperlink ref="J9" r:id="rId32" xr:uid="{DD993EA6-CE15-4B6B-94A4-C7C87163AE82}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data Ukraine.xlsx
+++ b/data Ukraine.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\_GitHub\DataSources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62045C7E-2C36-49C1-B4A0-6207A9DA4279}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{079DB53B-3652-4F50-80D5-4D4CD3F01907}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="898" activeTab="3" xr2:uid="{21FA5A86-4C69-4AEC-AC84-BE14EF54DEBB}"/>
   </bookViews>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="549" uniqueCount="398">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="549" uniqueCount="397">
   <si>
     <t>Ukraine is the second-largest European country (kraine covers an area of 603,550 sq km)</t>
   </si>
@@ -1283,9 +1283,6 @@
   </si>
   <si>
     <t>https://github.com/IrynaChyzh/logo/blob/main/Ukraine.png</t>
-  </si>
-  <si>
-    <t>Laba</t>
   </si>
 </sst>
 </file>
@@ -2735,7 +2732,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="43.2">
+    <row r="2" spans="1:12" ht="86.4">
       <c r="A2" s="11">
         <v>44927</v>
       </c>
@@ -2770,7 +2767,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="43.2">
+    <row r="3" spans="1:12" ht="72">
       <c r="A3" s="11">
         <v>44531</v>
       </c>
@@ -2805,7 +2802,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="43.2">
+    <row r="4" spans="1:12" ht="72">
       <c r="A4" s="11">
         <v>44562</v>
       </c>
@@ -2840,7 +2837,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="57.6">
+    <row r="5" spans="1:12" ht="86.4">
       <c r="A5" s="11">
         <v>44287</v>
       </c>
@@ -2875,7 +2872,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="43.2">
+    <row r="6" spans="1:12" ht="72">
       <c r="A6" s="11">
         <v>43040</v>
       </c>
@@ -2910,7 +2907,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="43.2">
+    <row r="7" spans="1:12" ht="86.4">
       <c r="A7" s="11">
         <v>43678</v>
       </c>
@@ -2945,7 +2942,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="72">
+    <row r="8" spans="1:12" ht="86.4">
       <c r="A8" s="11">
         <v>43586</v>
       </c>
@@ -2980,7 +2977,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="28.8">
+    <row r="9" spans="1:12" ht="72">
       <c r="A9" s="11">
         <v>42917</v>
       </c>
@@ -3000,7 +2997,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="43.2">
+    <row r="10" spans="1:12" ht="86.4">
       <c r="A10" s="11">
         <v>41183</v>
       </c>
@@ -3035,7 +3032,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="43.2">
+    <row r="11" spans="1:12" ht="72">
       <c r="A11" s="11">
         <v>40695</v>
       </c>
@@ -3070,7 +3067,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="12" spans="1:12">
+    <row r="12" spans="1:12" ht="72">
       <c r="A12" s="11">
         <v>39722</v>
       </c>
@@ -3090,7 +3087,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="72">
+    <row r="13" spans="1:12" ht="115.2">
       <c r="A13" s="11">
         <v>38961</v>
       </c>
@@ -3125,7 +3122,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="72">
+    <row r="14" spans="1:12" ht="115.2">
       <c r="A14" s="11">
         <v>38626</v>
       </c>
@@ -3160,7 +3157,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="72">
+    <row r="15" spans="1:12" ht="115.2">
       <c r="A15" s="11">
         <v>37408</v>
       </c>
@@ -3195,7 +3192,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="72">
+    <row r="16" spans="1:12" ht="115.2">
       <c r="A16" s="11">
         <v>37408</v>
       </c>
@@ -3230,7 +3227,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="86.4">
+    <row r="17" spans="1:11" ht="115.2">
       <c r="A17" s="11">
         <v>36039</v>
       </c>
@@ -3265,7 +3262,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="18" spans="1:11" ht="28.8">
+    <row r="18" spans="1:11" ht="57.6">
       <c r="A18" s="11">
         <v>45383</v>
       </c>
@@ -3300,7 +3297,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="19" spans="1:11" ht="43.2">
+    <row r="19" spans="1:11" ht="57.6">
       <c r="A19" s="11">
         <v>44652</v>
       </c>
@@ -3335,7 +3332,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="43.2">
+    <row r="20" spans="1:11" ht="57.6">
       <c r="A20" s="11">
         <v>44835</v>
       </c>
@@ -3370,7 +3367,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="21" spans="1:11" ht="43.2">
+    <row r="21" spans="1:11" ht="57.6">
       <c r="A21" s="11">
         <v>44835</v>
       </c>
@@ -3413,7 +3410,7 @@
         <v>43525</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>397</v>
+        <v>278</v>
       </c>
       <c r="D22" s="4" t="s">
         <v>273</v>
@@ -3440,7 +3437,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="23" spans="1:11" ht="43.2">
+    <row r="23" spans="1:11" ht="57.6">
       <c r="A23" s="11">
         <v>42005</v>
       </c>
@@ -3475,7 +3472,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="24" spans="1:11" ht="43.2">
+    <row r="24" spans="1:11" ht="57.6">
       <c r="A24" s="11">
         <v>44470</v>
       </c>

--- a/data Ukraine.xlsx
+++ b/data Ukraine.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\_GitHub\DataSources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{079DB53B-3652-4F50-80D5-4D4CD3F01907}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8161803-E35A-49B3-A7E7-BB79839AB1E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="898" activeTab="3" xr2:uid="{21FA5A86-4C69-4AEC-AC84-BE14EF54DEBB}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="898" activeTab="7" xr2:uid="{21FA5A86-4C69-4AEC-AC84-BE14EF54DEBB}"/>
   </bookViews>
   <sheets>
     <sheet name="personal data" sheetId="12" r:id="rId1"/>
@@ -20,12 +20,12 @@
     <sheet name="recommendations" sheetId="7" r:id="rId5"/>
     <sheet name="demo" sheetId="9" r:id="rId6"/>
     <sheet name="facts Ukraine" sheetId="8" r:id="rId7"/>
-    <sheet name="іноземці" sheetId="3" r:id="rId8"/>
+    <sheet name="famous people" sheetId="3" r:id="rId8"/>
     <sheet name="video" sheetId="2" r:id="rId9"/>
     <sheet name="Аркуш1" sheetId="1" r:id="rId10"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">іноземці!$A$1:$C$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">'famous people'!$A$1:$C$1</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="549" uniqueCount="397">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="553" uniqueCount="401">
   <si>
     <t>Ukraine is the second-largest European country (kraine covers an area of 603,550 sq km)</t>
   </si>
@@ -383,12 +383,6 @@
   </si>
   <si>
     <t>The fact is that Lenny’s grandfather was from Kyiv: he was a Ukrainian Ashkenazi who moved to New York. The surname “Kravitz” is an Americanized version of the Ukrainian surname “Kravets”.</t>
-  </si>
-  <si>
-    <t>Descendants of Ukrainian Jews who emigrated to the United States have made significant contributions to world culture. These emigrants, most of them from Odesa, fled the waves of Jewish pogroms in the Russian Empire in the late 19th and early 20th centuries. Some of their descendents include musician and poet Bob Dylan, film director Steven Spielberg, illusionist David Copperfield, conductor Leonard Bernstein, composer George Gershwin, singer Amy Winehouse, and actors Sylvester Stallone, Dustin Hoffman, Leonard Nimoy, and Liev Schreiber.</t>
-  </si>
-  <si>
-    <t>Ukrainians are only just beginning to understand their country’s multiculturalism and the contributions of different diaspora and national communities to their joint existence. The next step is to continue integrating these stories into the collective Ukrainian identity, further enriching an already immense collection of family stories. </t>
   </si>
   <si>
     <t>Nicole Scherzinger</t>
@@ -1283,6 +1277,24 @@
   </si>
   <si>
     <t>https://github.com/IrynaChyzh/logo/blob/main/Ukraine.png</t>
+  </si>
+  <si>
+    <t>David Copperfield</t>
+  </si>
+  <si>
+    <t>An American magician, described by Forbes as the most commercially successful magician in history.</t>
+  </si>
+  <si>
+    <t>Copperfield was born David Seth Kotkin. His mother was born in Jerusalem, while his paternal grandparents were Jewish emigrants from Ukraine.</t>
+  </si>
+  <si>
+    <t>Leonard Bernstein</t>
+  </si>
+  <si>
+    <t>An American conductor, composer, pianist, music educator, author, and humanitarian. Considered to be one of the most important conductors of his time.</t>
+  </si>
+  <si>
+    <t>Bernstein was born to Ukrainian Jewish parents, Jennie (née Resnick) and Samuel Joseph Bernstein, both of whom immigrated to the United States from Rivne, Ukraine.</t>
   </si>
 </sst>
 </file>
@@ -1762,50 +1774,50 @@
   <sheetData>
     <row r="1" spans="1:2" ht="43.2">
       <c r="A1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="B2" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B5" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
   </sheetData>
@@ -1869,7 +1881,7 @@
     </row>
     <row r="5" spans="1:4" ht="28.8">
       <c r="B5" s="5" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
   </sheetData>
@@ -1897,21 +1909,21 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="13" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="B1" s="13" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="C1" s="13" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B2" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C2">
         <v>14</v>
@@ -1919,10 +1931,10 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B3" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="C3">
         <v>12</v>
@@ -1930,10 +1942,10 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B4" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="C4">
         <v>8</v>
@@ -1941,10 +1953,10 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B5" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="C5">
         <v>6</v>
@@ -1952,10 +1964,10 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="B6" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C6">
         <v>2</v>
@@ -1989,54 +2001,54 @@
         <v>45</v>
       </c>
       <c r="B1" s="15" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C1" s="15" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="D1" s="15" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="E1" s="15" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="F1" s="15" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="G1" s="15" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="H1" s="15" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="I1" s="15" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="J1" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="K1" s="15" t="s">
         <v>258</v>
       </c>
-      <c r="K1" s="15" t="s">
-        <v>260</v>
-      </c>
       <c r="L1" s="15" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="M1" s="15" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="N1" s="15" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="O1" s="15" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="P1" s="15" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="2" spans="1:16">
       <c r="A2" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -2065,7 +2077,7 @@
     </row>
     <row r="3" spans="1:16">
       <c r="A3" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -2094,7 +2106,7 @@
     </row>
     <row r="4" spans="1:16">
       <c r="A4" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -2108,7 +2120,7 @@
     </row>
     <row r="5" spans="1:16">
       <c r="A5" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -2137,7 +2149,7 @@
     </row>
     <row r="6" spans="1:16">
       <c r="A6" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B6">
         <v>1</v>
@@ -2145,7 +2157,7 @@
     </row>
     <row r="7" spans="1:16">
       <c r="A7" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B7">
         <v>1</v>
@@ -2153,7 +2165,7 @@
     </row>
     <row r="8" spans="1:16">
       <c r="A8" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B8">
         <v>1</v>
@@ -2176,7 +2188,7 @@
     </row>
     <row r="9" spans="1:16">
       <c r="A9" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="D9">
         <v>1</v>
@@ -2184,7 +2196,7 @@
     </row>
     <row r="10" spans="1:16">
       <c r="A10" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="B10">
         <v>1</v>
@@ -2192,7 +2204,7 @@
     </row>
     <row r="11" spans="1:16">
       <c r="A11" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="B11">
         <v>1</v>
@@ -2200,7 +2212,7 @@
     </row>
     <row r="12" spans="1:16">
       <c r="A12" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B12">
         <v>1</v>
@@ -2211,7 +2223,7 @@
     </row>
     <row r="13" spans="1:16">
       <c r="A13" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="B13">
         <v>1</v>
@@ -2222,7 +2234,7 @@
     </row>
     <row r="14" spans="1:16">
       <c r="A14" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D14">
         <v>1</v>
@@ -2230,7 +2242,7 @@
     </row>
     <row r="15" spans="1:16">
       <c r="A15" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="D15">
         <v>1</v>
@@ -2256,7 +2268,7 @@
     </row>
     <row r="16" spans="1:16">
       <c r="A16" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="F16">
         <v>1</v>
@@ -2276,7 +2288,7 @@
     </row>
     <row r="17" spans="1:16">
       <c r="A17" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="H17">
         <v>1</v>
@@ -2293,7 +2305,7 @@
     </row>
     <row r="18" spans="1:16">
       <c r="A18" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B18">
         <v>1</v>
@@ -2304,7 +2316,7 @@
     </row>
     <row r="19" spans="1:16">
       <c r="A19" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B19">
         <v>1</v>
@@ -2327,7 +2339,7 @@
     </row>
     <row r="20" spans="1:16">
       <c r="A20" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B20">
         <v>1</v>
@@ -2347,7 +2359,7 @@
     </row>
     <row r="21" spans="1:16">
       <c r="A21" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B21">
         <v>1</v>
@@ -2355,7 +2367,7 @@
     </row>
     <row r="22" spans="1:16">
       <c r="A22" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -2363,7 +2375,7 @@
     </row>
     <row r="23" spans="1:16">
       <c r="A23" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -2371,7 +2383,7 @@
     </row>
     <row r="24" spans="1:16">
       <c r="A24" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="K24">
         <v>1</v>
@@ -2379,7 +2391,7 @@
     </row>
     <row r="25" spans="1:16">
       <c r="A25" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="K25">
         <v>1</v>
@@ -2387,7 +2399,7 @@
     </row>
     <row r="26" spans="1:16">
       <c r="A26" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="B26">
         <v>1</v>
@@ -2398,7 +2410,7 @@
     </row>
     <row r="27" spans="1:16">
       <c r="A27" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="B27">
         <v>1</v>
@@ -2409,7 +2421,7 @@
     </row>
     <row r="28" spans="1:16">
       <c r="A28" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -2417,7 +2429,7 @@
     </row>
     <row r="29" spans="1:16">
       <c r="A29" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="J29">
         <v>1</v>
@@ -2428,7 +2440,7 @@
     </row>
     <row r="30" spans="1:16">
       <c r="A30" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="J30">
         <v>1</v>
@@ -2439,7 +2451,7 @@
     </row>
     <row r="31" spans="1:16">
       <c r="A31" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="B31">
         <v>1</v>
@@ -2480,7 +2492,7 @@
     </row>
     <row r="32" spans="1:16">
       <c r="A32" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="B32">
         <v>1</v>
@@ -2488,7 +2500,7 @@
     </row>
     <row r="33" spans="1:14">
       <c r="A33" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="D33">
         <v>1</v>
@@ -2514,7 +2526,7 @@
     </row>
     <row r="34" spans="1:14">
       <c r="A34" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="B34">
         <v>1</v>
@@ -2543,7 +2555,7 @@
     </row>
     <row r="35" spans="1:14">
       <c r="A35" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="B35">
         <v>1</v>
@@ -2569,7 +2581,7 @@
     </row>
     <row r="36" spans="1:14">
       <c r="A36" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="D36">
         <v>1</v>
@@ -2589,7 +2601,7 @@
     </row>
     <row r="37" spans="1:14">
       <c r="A37" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="E37">
         <v>1</v>
@@ -2606,7 +2618,7 @@
     </row>
     <row r="38" spans="1:14">
       <c r="A38" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="E38">
         <v>1</v>
@@ -2623,7 +2635,7 @@
     </row>
     <row r="39" spans="1:14">
       <c r="A39" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="E39">
         <v>1</v>
@@ -2643,7 +2655,7 @@
     </row>
     <row r="40" spans="1:14">
       <c r="A40" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="C40">
         <v>1</v>
@@ -2673,7 +2685,7 @@
   </sheetPr>
   <dimension ref="A1:L26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C23" sqref="C23"/>
     </sheetView>
@@ -2696,40 +2708,40 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" s="6" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B1" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>198</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>350</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>343</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>192</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>277</v>
+      </c>
+      <c r="J1" s="6" t="s">
         <v>189</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>185</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>186</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>200</v>
-      </c>
-      <c r="F1" s="6" t="s">
-        <v>352</v>
-      </c>
-      <c r="G1" s="6" t="s">
-        <v>345</v>
-      </c>
-      <c r="H1" s="6" t="s">
-        <v>194</v>
-      </c>
-      <c r="I1" s="6" t="s">
-        <v>279</v>
-      </c>
-      <c r="J1" s="6" t="s">
-        <v>191</v>
       </c>
       <c r="K1" s="6" t="s">
         <v>46</v>
       </c>
       <c r="L1" s="6" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="86.4">
@@ -2740,31 +2752,31 @@
         <v>45323</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="72">
@@ -2775,31 +2787,31 @@
         <v>44593</v>
       </c>
       <c r="C3" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="D3" s="4" t="s">
         <v>190</v>
       </c>
-      <c r="D3" s="4" t="s">
-        <v>192</v>
-      </c>
       <c r="E3" s="4" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="K3" s="4" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="72">
@@ -2810,31 +2822,31 @@
         <v>44713</v>
       </c>
       <c r="C4" s="4" t="s">
+        <v>297</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>296</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>298</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>351</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>344</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>348</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="J4" s="5" t="s">
+        <v>393</v>
+      </c>
+      <c r="K4" s="4" t="s">
         <v>299</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>298</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>300</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>353</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>346</v>
-      </c>
-      <c r="H4" s="4" t="s">
-        <v>350</v>
-      </c>
-      <c r="I4" s="4" t="s">
-        <v>246</v>
-      </c>
-      <c r="J4" s="5" t="s">
-        <v>395</v>
-      </c>
-      <c r="K4" s="4" t="s">
-        <v>301</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="86.4">
@@ -2845,31 +2857,31 @@
         <v>44593</v>
       </c>
       <c r="C5" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="D5" s="4" t="s">
         <v>195</v>
       </c>
-      <c r="D5" s="4" t="s">
-        <v>197</v>
-      </c>
       <c r="E5" s="4" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="J5" s="5" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="K5" s="4" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="72">
@@ -2880,31 +2892,31 @@
         <v>44531</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="J6" s="5" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="K6" s="4" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="86.4">
@@ -2915,31 +2927,31 @@
         <v>44317</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="D7" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>351</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>344</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>348</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="J7" s="5" t="s">
+        <v>390</v>
+      </c>
+      <c r="K7" s="4" t="s">
         <v>205</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>206</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>353</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>346</v>
-      </c>
-      <c r="H7" s="4" t="s">
-        <v>350</v>
-      </c>
-      <c r="I7" s="4" t="s">
-        <v>247</v>
-      </c>
-      <c r="J7" s="5" t="s">
-        <v>392</v>
-      </c>
-      <c r="K7" s="4" t="s">
-        <v>207</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="86.4">
@@ -2950,31 +2962,31 @@
         <v>44317</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D8" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>351</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>344</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>348</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="J8" s="5" t="s">
+        <v>381</v>
+      </c>
+      <c r="K8" s="4" t="s">
         <v>208</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>296</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>353</v>
-      </c>
-      <c r="G8" s="4" t="s">
-        <v>346</v>
-      </c>
-      <c r="H8" s="4" t="s">
-        <v>350</v>
-      </c>
-      <c r="I8" s="4" t="s">
-        <v>247</v>
-      </c>
-      <c r="J8" s="5" t="s">
-        <v>383</v>
-      </c>
-      <c r="K8" s="4" t="s">
-        <v>210</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="72">
@@ -2985,16 +2997,16 @@
         <v>43556</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="J9" s="5" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="K9" s="4" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="86.4">
@@ -3005,31 +3017,31 @@
         <v>42856</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="D10" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>351</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>346</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>347</v>
+      </c>
+      <c r="I10" s="4" t="s">
+        <v>247</v>
+      </c>
+      <c r="J10" s="5" t="s">
+        <v>391</v>
+      </c>
+      <c r="K10" s="4" t="s">
         <v>211</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>212</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>353</v>
-      </c>
-      <c r="G10" s="4" t="s">
-        <v>348</v>
-      </c>
-      <c r="H10" s="4" t="s">
-        <v>349</v>
-      </c>
-      <c r="I10" s="4" t="s">
-        <v>249</v>
-      </c>
-      <c r="J10" s="5" t="s">
-        <v>393</v>
-      </c>
-      <c r="K10" s="4" t="s">
-        <v>213</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="72">
@@ -3040,31 +3052,31 @@
         <v>41183</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="D11" s="4" t="s">
+        <v>300</v>
+      </c>
+      <c r="E11" s="4" t="s">
         <v>302</v>
       </c>
-      <c r="E11" s="4" t="s">
-        <v>304</v>
-      </c>
       <c r="F11" s="4" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="I11" s="4" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="J11" s="5" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="K11" s="4" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="72">
@@ -3075,16 +3087,16 @@
         <v>40664</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="J12" s="5" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="K12" s="4" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="115.2">
@@ -3095,31 +3107,31 @@
         <v>39873</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="I13" s="4" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="J13" s="5" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="K13" s="4" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="115.2">
@@ -3130,31 +3142,31 @@
         <v>39873</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="I14" s="4" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="J14" s="5" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="K14" s="4" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="115.2">
@@ -3165,31 +3177,31 @@
         <v>38504</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="H15" s="4" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="I15" s="4" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="J15" s="5" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="K15" s="4" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="115.2">
@@ -3200,31 +3212,31 @@
         <v>38504</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="H16" s="4" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="I16" s="4" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="J16" s="5" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="K16" s="4" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
     </row>
     <row r="17" spans="1:11" ht="115.2">
@@ -3235,31 +3247,31 @@
         <v>37408</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="H17" s="4" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="I17" s="4" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="J17" s="5" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="K17" s="4" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="18" spans="1:11" ht="57.6">
@@ -3270,31 +3282,31 @@
         <v>45383</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="D18" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>356</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>344</v>
+      </c>
+      <c r="H18" s="4" t="s">
+        <v>348</v>
+      </c>
+      <c r="I18" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="J18" s="5" t="s">
+        <v>394</v>
+      </c>
+      <c r="K18" s="1" t="s">
         <v>262</v>
-      </c>
-      <c r="E18" s="4" t="s">
-        <v>358</v>
-      </c>
-      <c r="F18" s="4" t="s">
-        <v>240</v>
-      </c>
-      <c r="G18" s="4" t="s">
-        <v>346</v>
-      </c>
-      <c r="H18" s="4" t="s">
-        <v>350</v>
-      </c>
-      <c r="I18" s="4" t="s">
-        <v>246</v>
-      </c>
-      <c r="J18" s="5" t="s">
-        <v>396</v>
-      </c>
-      <c r="K18" s="1" t="s">
-        <v>264</v>
       </c>
     </row>
     <row r="19" spans="1:11" ht="57.6">
@@ -3305,31 +3317,31 @@
         <v>44652</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="D19" s="4" t="s">
+        <v>263</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>357</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="G19" s="4" t="s">
+        <v>344</v>
+      </c>
+      <c r="H19" s="4" t="s">
+        <v>348</v>
+      </c>
+      <c r="I19" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="J19" s="5" t="s">
+        <v>363</v>
+      </c>
+      <c r="K19" s="1" t="s">
         <v>265</v>
-      </c>
-      <c r="E19" s="4" t="s">
-        <v>359</v>
-      </c>
-      <c r="F19" s="4" t="s">
-        <v>240</v>
-      </c>
-      <c r="G19" s="4" t="s">
-        <v>346</v>
-      </c>
-      <c r="H19" s="4" t="s">
-        <v>350</v>
-      </c>
-      <c r="I19" s="4" t="s">
-        <v>246</v>
-      </c>
-      <c r="J19" s="5" t="s">
-        <v>365</v>
-      </c>
-      <c r="K19" s="1" t="s">
-        <v>267</v>
       </c>
     </row>
     <row r="20" spans="1:11" ht="57.6">
@@ -3340,31 +3352,31 @@
         <v>44835</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="H20" s="4" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="I20" s="4" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="J20" s="5" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="21" spans="1:11" ht="57.6">
@@ -3375,31 +3387,31 @@
         <v>44835</v>
       </c>
       <c r="C21" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>357</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="G21" s="4" t="s">
+        <v>344</v>
+      </c>
+      <c r="H21" s="4" t="s">
+        <v>348</v>
+      </c>
+      <c r="I21" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="J21" s="5" t="s">
+        <v>361</v>
+      </c>
+      <c r="K21" s="1" t="s">
         <v>270</v>
-      </c>
-      <c r="D21" s="4" t="s">
-        <v>271</v>
-      </c>
-      <c r="E21" s="4" t="s">
-        <v>359</v>
-      </c>
-      <c r="F21" s="4" t="s">
-        <v>240</v>
-      </c>
-      <c r="G21" s="4" t="s">
-        <v>346</v>
-      </c>
-      <c r="H21" s="4" t="s">
-        <v>350</v>
-      </c>
-      <c r="I21" s="4" t="s">
-        <v>246</v>
-      </c>
-      <c r="J21" s="5" t="s">
-        <v>363</v>
-      </c>
-      <c r="K21" s="1" t="s">
-        <v>272</v>
       </c>
     </row>
     <row r="22" spans="1:11" ht="57.6">
@@ -3410,31 +3422,31 @@
         <v>43525</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="H22" s="4" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="I22" s="4" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="J22" s="5" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="K22" s="1" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="23" spans="1:11" ht="57.6">
@@ -3445,31 +3457,31 @@
         <v>42005</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="H23" s="4" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="I23" s="4" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="J23" s="5" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="K23" s="1" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="24" spans="1:11" ht="57.6">
@@ -3480,31 +3492,31 @@
         <v>45383</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="H24" s="4" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="I24" s="17" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="J24" s="5" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="K24" s="1" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
     </row>
     <row r="25" spans="1:11" ht="72">
@@ -3515,31 +3527,31 @@
         <v>43983</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="F25" s="17" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="G25" s="4" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="H25" s="4" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="I25" s="17" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="J25" s="5" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="K25" s="4" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
     </row>
     <row r="26" spans="1:11" ht="86.4">
@@ -3550,31 +3562,31 @@
         <v>44593</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="F26" s="17" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="G26" s="4" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="H26" s="4" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="I26" s="17" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="J26" s="5" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="K26" s="4" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
     </row>
   </sheetData>
@@ -3613,58 +3625,58 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="6" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B1" s="6" t="s">
+        <v>340</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>341</v>
+      </c>
+      <c r="D1" s="6" t="s">
         <v>342</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>343</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>344</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="100.8">
       <c r="A2" s="4" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B2" s="17" t="s">
+        <v>336</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>337</v>
+      </c>
+      <c r="D2" s="4" t="s">
         <v>338</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>339</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>340</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="57.6">
       <c r="A3" s="4" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="187.2">
       <c r="A4" s="4" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B4" s="4" t="s">
+        <v>333</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>334</v>
+      </c>
+      <c r="D4" s="4" t="s">
         <v>335</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>336</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>337</v>
       </c>
     </row>
   </sheetData>
@@ -3694,39 +3706,39 @@
         <v>45</v>
       </c>
       <c r="B1" s="13" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B2" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B3" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B4" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B5" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
     </row>
   </sheetData>
@@ -3750,23 +3762,23 @@
   <sheetData>
     <row r="1" spans="1:18" ht="25.8">
       <c r="B1" s="10" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="2" spans="1:18" ht="24.6">
       <c r="B2" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="R2" s="1" t="s">
         <v>162</v>
-      </c>
-      <c r="R2" s="1" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="3" spans="1:18">
       <c r="R3" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="4" spans="1:18">
@@ -3774,328 +3786,328 @@
     </row>
     <row r="5" spans="1:18">
       <c r="B5" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="R5" s="1"/>
     </row>
     <row r="6" spans="1:18">
       <c r="B6" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="R6" s="1"/>
     </row>
     <row r="7" spans="1:18">
       <c r="B7" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="R7" s="1"/>
     </row>
     <row r="8" spans="1:18">
       <c r="B8" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="9" spans="1:18">
       <c r="B9" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="10" spans="1:18">
       <c r="B10" s="7" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="11" spans="1:18">
       <c r="B11" s="7" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="12" spans="1:18">
       <c r="B12" s="7" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="13" spans="1:18">
       <c r="B13" s="7" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="14" spans="1:18">
       <c r="B14" s="7" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="15" spans="1:18">
       <c r="B15" s="7" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="16" spans="1:18">
       <c r="A16" s="8" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="8" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="8" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="B19" s="8" t="s">
         <v>140</v>
-      </c>
-      <c r="B19" s="8" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="8" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="8" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="8" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="8" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="B24" s="8" t="s">
         <v>146</v>
-      </c>
-      <c r="B24" s="8" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="8" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="8" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="8" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="8" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="8" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="B30" s="8" t="s">
         <v>153</v>
-      </c>
-      <c r="B30" s="8" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="8" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="8" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="33" spans="1:12">
       <c r="A33" s="8" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="34" spans="1:12">
       <c r="A34" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="B34" s="8" t="s">
         <v>158</v>
-      </c>
-      <c r="B34" s="8" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="35" spans="1:12">
       <c r="A35" s="8" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="36" spans="1:12">
       <c r="A36" s="8" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B36" s="8" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="37" spans="1:12">
       <c r="A37" s="8" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B37" s="8" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="J37" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="L37" s="1" t="s">
         <v>182</v>
-      </c>
-      <c r="L37" s="1" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="38" spans="1:12">
       <c r="A38" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="B38" s="8" t="s">
         <v>168</v>
       </c>
-      <c r="B38" s="8" t="s">
-        <v>170</v>
-      </c>
       <c r="C38" s="1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="39" spans="1:12">
       <c r="A39" s="8" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B39" s="8" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="40" spans="1:12">
       <c r="A40" s="8" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B40" s="8" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="41" spans="1:12">
       <c r="A41" s="8" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B41" s="8" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="42" spans="1:12">
       <c r="A42" s="8" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B42" s="8" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="43" spans="1:12">
       <c r="A43" s="8" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B43" s="8" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="44" spans="1:12">
       <c r="A44" s="8" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B44" s="8" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="45" spans="1:12">
       <c r="A45" s="8" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B45" s="8" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="46" spans="1:12">
       <c r="A46" s="8" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B46" s="8" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="47" spans="1:12">
       <c r="A47" s="8" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B47" s="8" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
   </sheetData>
@@ -4114,10 +4126,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D23FE8FE-059B-4013-8CE6-251A60371C34}">
-  <dimension ref="A1:J36"/>
+  <dimension ref="A1:J38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
+      <selection activeCell="B50" sqref="B50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -4131,7 +4143,7 @@
     <col min="7" max="10" width="8.88671875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:3">
       <c r="A1" s="6" t="s">
         <v>45</v>
       </c>
@@ -4142,7 +4154,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="115.2">
+    <row r="2" spans="1:3" ht="28.8">
       <c r="A2" s="4" t="s">
         <v>38</v>
       </c>
@@ -4152,11 +4164,8 @@
       <c r="C2" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="F2" s="4" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="72">
+    </row>
+    <row r="3" spans="1:3" ht="28.8">
       <c r="A3" s="4" t="s">
         <v>92</v>
       </c>
@@ -4166,11 +4175,8 @@
       <c r="C3" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="F3" s="4" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="86.4">
+    </row>
+    <row r="4" spans="1:3" ht="86.4">
       <c r="A4" s="4" t="s">
         <v>24</v>
       </c>
@@ -4181,7 +4187,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="28.8">
+    <row r="5" spans="1:3" ht="28.8">
       <c r="A5" s="4" t="s">
         <v>75</v>
       </c>
@@ -4192,7 +4198,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="43.2">
+    <row r="6" spans="1:3" ht="43.2">
       <c r="A6" s="4" t="s">
         <v>70</v>
       </c>
@@ -4203,7 +4209,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="43.2">
+    <row r="7" spans="1:3" ht="43.2">
       <c r="A7" s="4" t="s">
         <v>68</v>
       </c>
@@ -4214,7 +4220,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="28.8">
+    <row r="8" spans="1:3" ht="28.8">
       <c r="A8" s="4" t="s">
         <v>79</v>
       </c>
@@ -4225,7 +4231,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="28.8">
+    <row r="9" spans="1:3" ht="28.8">
       <c r="A9" s="4" t="s">
         <v>44</v>
       </c>
@@ -4236,18 +4242,18 @@
         <v>50</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="28.8">
+    <row r="10" spans="1:3" ht="28.8">
       <c r="A10" s="4" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B10" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="C10" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="C10" s="4" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="43.2">
+    </row>
+    <row r="11" spans="1:3" ht="43.2">
       <c r="A11" s="4" t="s">
         <v>27</v>
       </c>
@@ -4258,7 +4264,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="57.6">
+    <row r="12" spans="1:3" ht="57.6">
       <c r="A12" s="4" t="s">
         <v>55</v>
       </c>
@@ -4266,7 +4272,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:3">
       <c r="A13" s="4" t="s">
         <v>90</v>
       </c>
@@ -4274,7 +4280,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="43.2">
+    <row r="14" spans="1:3" ht="43.2">
       <c r="A14" s="4" t="s">
         <v>42</v>
       </c>
@@ -4285,18 +4291,18 @@
         <v>41</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="43.2">
+    <row r="15" spans="1:3" ht="43.2">
       <c r="A15" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="C15" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="B15" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="43.2">
+    </row>
+    <row r="16" spans="1:3" ht="43.2">
       <c r="A16" s="4" t="s">
         <v>60</v>
       </c>
@@ -4394,13 +4400,13 @@
     </row>
     <row r="25" spans="1:3" ht="28.8">
       <c r="A25" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="C25" s="4" t="s">
         <v>113</v>
-      </c>
-      <c r="B25" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="28.8">
@@ -4487,13 +4493,13 @@
     </row>
     <row r="34" spans="1:3" ht="86.4">
       <c r="A34" s="4" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="57.6">
@@ -4501,10 +4507,10 @@
         <v>62</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="28.8">
@@ -4512,10 +4518,32 @@
         <v>53</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>121</v>
+        <v>119</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="28.8">
+      <c r="A37" s="4" t="s">
+        <v>395</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>396</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="43.2">
+      <c r="A38" s="4" t="s">
+        <v>398</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>399</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>400</v>
       </c>
     </row>
   </sheetData>
@@ -4606,10 +4634,10 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="B9" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
   </sheetData>

--- a/data Ukraine.xlsx
+++ b/data Ukraine.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\_GitHub\DataSources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8161803-E35A-49B3-A7E7-BB79839AB1E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16D18E38-E660-404B-9ADA-A585D150B358}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="898" activeTab="7" xr2:uid="{21FA5A86-4C69-4AEC-AC84-BE14EF54DEBB}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="898" activeTab="6" xr2:uid="{21FA5A86-4C69-4AEC-AC84-BE14EF54DEBB}"/>
   </bookViews>
   <sheets>
     <sheet name="personal data" sheetId="12" r:id="rId1"/>
@@ -19,13 +19,13 @@
     <sheet name="experience" sheetId="4" r:id="rId4"/>
     <sheet name="recommendations" sheetId="7" r:id="rId5"/>
     <sheet name="demo" sheetId="9" r:id="rId6"/>
-    <sheet name="facts Ukraine" sheetId="8" r:id="rId7"/>
-    <sheet name="famous people" sheetId="3" r:id="rId8"/>
+    <sheet name="famous people" sheetId="3" r:id="rId7"/>
+    <sheet name="facts Ukraine" sheetId="8" r:id="rId8"/>
     <sheet name="video" sheetId="2" r:id="rId9"/>
     <sheet name="Аркуш1" sheetId="1" r:id="rId10"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">'famous people'!$A$1:$C$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'famous people'!$A$1:$C$39</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="553" uniqueCount="401">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="562" uniqueCount="410">
   <si>
     <t>Ukraine is the second-largest European country (kraine covers an area of 603,550 sq km)</t>
   </si>
@@ -216,13 +216,6 @@
     <t>The father of the famous Michael Douglas was born in Odessa. His name is Issur Danilovich Demsky. After moving to America, Issur took the name of Kirk Douglas and succeeded in the career of movie star. The actor is still called in the American media Spartacus - the name of his Oscar.</t>
   </si>
   <si>
-    <t>Jack Pelens</t>
-  </si>
-  <si>
-    <t>Famous American actor Jack Pelens - Ukrainian descent. His parents were Palagnyuk .
-He said: "I'm Ukrainian, not Russian!"</t>
-  </si>
-  <si>
     <t>Robert Hossein</t>
   </si>
   <si>
@@ -244,9 +237,6 @@
     <t>Sigmund Freud</t>
   </si>
   <si>
-    <t>his mother - Amalia Nathanson - was born in Odessa, Ukraine</t>
-  </si>
-  <si>
     <t>Mike Douglas</t>
   </si>
   <si>
@@ -386,9 +376,6 @@
   </si>
   <si>
     <t>Nicole Scherzinger</t>
-  </si>
-  <si>
-    <t>the famous American singer</t>
   </si>
   <si>
     <t>The celebrity's grandmother is Ukrainian.
@@ -1282,19 +1269,58 @@
     <t>David Copperfield</t>
   </si>
   <si>
-    <t>An American magician, described by Forbes as the most commercially successful magician in history.</t>
-  </si>
-  <si>
     <t>Copperfield was born David Seth Kotkin. His mother was born in Jerusalem, while his paternal grandparents were Jewish emigrants from Ukraine.</t>
   </si>
   <si>
     <t>Leonard Bernstein</t>
   </si>
   <si>
-    <t>An American conductor, composer, pianist, music educator, author, and humanitarian. Considered to be one of the most important conductors of his time.</t>
-  </si>
-  <si>
     <t>Bernstein was born to Ukrainian Jewish parents, Jennie (née Resnick) and Samuel Joseph Bernstein, both of whom immigrated to the United States from Rivne, Ukraine.</t>
+  </si>
+  <si>
+    <t>George Gershwin</t>
+  </si>
+  <si>
+    <t>Gershwin was of Jewish ancestry. His grandfather, Jakov Gershowitz, was born in Odessa, Ukraine, and had served for 25 years as a mechanic.</t>
+  </si>
+  <si>
+    <t>https://www.ukrainer.net/de-ukrainian-descent/</t>
+  </si>
+  <si>
+    <t>Leonard Nimoy</t>
+  </si>
+  <si>
+    <t>an American actor and director.</t>
+  </si>
+  <si>
+    <t>an American composer and pianist whose compositions spanned popular, jazz and classical genres.</t>
+  </si>
+  <si>
+    <t>an American conductor, composer, pianist, music educator, author, and humanitarian. Considered to be one of the most important conductors of his time.</t>
+  </si>
+  <si>
+    <t>an American magician, described by Forbes as the most commercially successful magician in history.</t>
+  </si>
+  <si>
+    <t>Leonard Simon Nimoy was born to Jewish immigrants from Iziaslav, Ukraine.</t>
+  </si>
+  <si>
+    <t>an American screen and stage actor, known to film audiences for playing tough guys and villains.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">an American actor and film producer. </t>
+  </si>
+  <si>
+    <t>an American singer, songwriter, dancer, actress, and television personality.</t>
+  </si>
+  <si>
+    <t>a French film actor, director, and writer.</t>
+  </si>
+  <si>
+    <t>an Austrian neurologist and the founder of psychoanalysis</t>
+  </si>
+  <si>
+    <t>his mother - Amalia Nathanson - was born in Brody, Ukraine  to Jacob Nathanson and Sarah Wilenz and later grew up in Odesa, Ukraine, where her mother came from.</t>
   </si>
 </sst>
 </file>
@@ -1774,50 +1800,50 @@
   <sheetData>
     <row r="1" spans="1:2" ht="43.2">
       <c r="A1" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="B2" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="B5" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
     </row>
   </sheetData>
@@ -1831,10 +1857,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B26FD4B6-EA49-4964-A42D-930F3EF100E6}">
-  <dimension ref="A2:F5"/>
+  <dimension ref="A2:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1881,7 +1907,12 @@
     </row>
     <row r="5" spans="1:4" ht="28.8">
       <c r="B5" s="5" t="s">
-        <v>288</v>
+        <v>284</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="B7" s="4" t="s">
+        <v>397</v>
       </c>
     </row>
   </sheetData>
@@ -1909,21 +1940,21 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="13" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="B1" s="13" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="C1" s="13" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="B2" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="C2">
         <v>14</v>
@@ -1931,10 +1962,10 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="B3" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="C3">
         <v>12</v>
@@ -1942,10 +1973,10 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="B4" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="C4">
         <v>8</v>
@@ -1953,10 +1984,10 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="B5" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="C5">
         <v>6</v>
@@ -1964,10 +1995,10 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="B6" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="C6">
         <v>2</v>
@@ -2001,54 +2032,54 @@
         <v>45</v>
       </c>
       <c r="B1" s="15" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="C1" s="15" t="s">
+        <v>293</v>
+      </c>
+      <c r="D1" s="15" t="s">
+        <v>189</v>
+      </c>
+      <c r="E1" s="15" t="s">
+        <v>193</v>
+      </c>
+      <c r="F1" s="15" t="s">
+        <v>304</v>
+      </c>
+      <c r="G1" s="15" t="s">
+        <v>203</v>
+      </c>
+      <c r="H1" s="15" t="s">
+        <v>305</v>
+      </c>
+      <c r="I1" s="15" t="s">
         <v>297</v>
       </c>
-      <c r="D1" s="15" t="s">
-        <v>193</v>
-      </c>
-      <c r="E1" s="15" t="s">
-        <v>197</v>
-      </c>
-      <c r="F1" s="15" t="s">
-        <v>308</v>
-      </c>
-      <c r="G1" s="15" t="s">
-        <v>207</v>
-      </c>
-      <c r="H1" s="15" t="s">
-        <v>309</v>
-      </c>
-      <c r="I1" s="15" t="s">
-        <v>301</v>
-      </c>
       <c r="J1" s="15" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="K1" s="15" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="L1" s="15" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="M1" s="15" t="s">
+        <v>260</v>
+      </c>
+      <c r="N1" s="15" t="s">
         <v>264</v>
       </c>
-      <c r="N1" s="15" t="s">
-        <v>268</v>
-      </c>
       <c r="O1" s="15" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="P1" s="15" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
     </row>
     <row r="2" spans="1:16">
       <c r="A2" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -2077,7 +2108,7 @@
     </row>
     <row r="3" spans="1:16">
       <c r="A3" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -2106,7 +2137,7 @@
     </row>
     <row r="4" spans="1:16">
       <c r="A4" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -2120,7 +2151,7 @@
     </row>
     <row r="5" spans="1:16">
       <c r="A5" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -2149,7 +2180,7 @@
     </row>
     <row r="6" spans="1:16">
       <c r="A6" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="B6">
         <v>1</v>
@@ -2157,7 +2188,7 @@
     </row>
     <row r="7" spans="1:16">
       <c r="A7" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="B7">
         <v>1</v>
@@ -2165,7 +2196,7 @@
     </row>
     <row r="8" spans="1:16">
       <c r="A8" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="B8">
         <v>1</v>
@@ -2188,7 +2219,7 @@
     </row>
     <row r="9" spans="1:16">
       <c r="A9" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="D9">
         <v>1</v>
@@ -2196,7 +2227,7 @@
     </row>
     <row r="10" spans="1:16">
       <c r="A10" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="B10">
         <v>1</v>
@@ -2204,7 +2235,7 @@
     </row>
     <row r="11" spans="1:16">
       <c r="A11" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="B11">
         <v>1</v>
@@ -2212,7 +2243,7 @@
     </row>
     <row r="12" spans="1:16">
       <c r="A12" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="B12">
         <v>1</v>
@@ -2223,7 +2254,7 @@
     </row>
     <row r="13" spans="1:16">
       <c r="A13" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="B13">
         <v>1</v>
@@ -2234,7 +2265,7 @@
     </row>
     <row r="14" spans="1:16">
       <c r="A14" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="D14">
         <v>1</v>
@@ -2242,7 +2273,7 @@
     </row>
     <row r="15" spans="1:16">
       <c r="A15" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="D15">
         <v>1</v>
@@ -2268,7 +2299,7 @@
     </row>
     <row r="16" spans="1:16">
       <c r="A16" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="F16">
         <v>1</v>
@@ -2288,7 +2319,7 @@
     </row>
     <row r="17" spans="1:16">
       <c r="A17" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="H17">
         <v>1</v>
@@ -2305,7 +2336,7 @@
     </row>
     <row r="18" spans="1:16">
       <c r="A18" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="B18">
         <v>1</v>
@@ -2316,7 +2347,7 @@
     </row>
     <row r="19" spans="1:16">
       <c r="A19" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="B19">
         <v>1</v>
@@ -2339,7 +2370,7 @@
     </row>
     <row r="20" spans="1:16">
       <c r="A20" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="B20">
         <v>1</v>
@@ -2359,7 +2390,7 @@
     </row>
     <row r="21" spans="1:16">
       <c r="A21" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="B21">
         <v>1</v>
@@ -2367,7 +2398,7 @@
     </row>
     <row r="22" spans="1:16">
       <c r="A22" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -2375,7 +2406,7 @@
     </row>
     <row r="23" spans="1:16">
       <c r="A23" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -2383,7 +2414,7 @@
     </row>
     <row r="24" spans="1:16">
       <c r="A24" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="K24">
         <v>1</v>
@@ -2391,7 +2422,7 @@
     </row>
     <row r="25" spans="1:16">
       <c r="A25" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="K25">
         <v>1</v>
@@ -2399,7 +2430,7 @@
     </row>
     <row r="26" spans="1:16">
       <c r="A26" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="B26">
         <v>1</v>
@@ -2410,7 +2441,7 @@
     </row>
     <row r="27" spans="1:16">
       <c r="A27" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="B27">
         <v>1</v>
@@ -2421,7 +2452,7 @@
     </row>
     <row r="28" spans="1:16">
       <c r="A28" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -2429,7 +2460,7 @@
     </row>
     <row r="29" spans="1:16">
       <c r="A29" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="J29">
         <v>1</v>
@@ -2440,7 +2471,7 @@
     </row>
     <row r="30" spans="1:16">
       <c r="A30" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="J30">
         <v>1</v>
@@ -2451,7 +2482,7 @@
     </row>
     <row r="31" spans="1:16">
       <c r="A31" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="B31">
         <v>1</v>
@@ -2492,7 +2523,7 @@
     </row>
     <row r="32" spans="1:16">
       <c r="A32" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="B32">
         <v>1</v>
@@ -2500,7 +2531,7 @@
     </row>
     <row r="33" spans="1:14">
       <c r="A33" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="D33">
         <v>1</v>
@@ -2526,7 +2557,7 @@
     </row>
     <row r="34" spans="1:14">
       <c r="A34" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="B34">
         <v>1</v>
@@ -2555,7 +2586,7 @@
     </row>
     <row r="35" spans="1:14">
       <c r="A35" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="B35">
         <v>1</v>
@@ -2581,7 +2612,7 @@
     </row>
     <row r="36" spans="1:14">
       <c r="A36" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="D36">
         <v>1</v>
@@ -2601,7 +2632,7 @@
     </row>
     <row r="37" spans="1:14">
       <c r="A37" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="E37">
         <v>1</v>
@@ -2618,7 +2649,7 @@
     </row>
     <row r="38" spans="1:14">
       <c r="A38" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="E38">
         <v>1</v>
@@ -2635,7 +2666,7 @@
     </row>
     <row r="39" spans="1:14">
       <c r="A39" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="E39">
         <v>1</v>
@@ -2655,7 +2686,7 @@
     </row>
     <row r="40" spans="1:14">
       <c r="A40" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="C40">
         <v>1</v>
@@ -2708,40 +2739,40 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" s="6" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="H1" s="6" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="I1" s="6" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="J1" s="6" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="K1" s="6" t="s">
         <v>46</v>
       </c>
       <c r="L1" s="6" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="86.4">
@@ -2752,31 +2783,31 @@
         <v>45323</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="72">
@@ -2787,31 +2818,31 @@
         <v>44593</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="K3" s="4" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="72">
@@ -2822,31 +2853,31 @@
         <v>44713</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="G4" s="4" t="s">
+        <v>340</v>
+      </c>
+      <c r="H4" s="4" t="s">
         <v>344</v>
       </c>
-      <c r="H4" s="4" t="s">
-        <v>348</v>
-      </c>
       <c r="I4" s="4" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="J4" s="5" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="K4" s="4" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="86.4">
@@ -2857,31 +2888,31 @@
         <v>44593</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="J5" s="5" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="K5" s="4" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="72">
@@ -2892,31 +2923,31 @@
         <v>44531</v>
       </c>
       <c r="C6" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="E6" s="4" t="s">
         <v>197</v>
       </c>
-      <c r="D6" s="4" t="s">
-        <v>196</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>201</v>
-      </c>
       <c r="F6" s="4" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="J6" s="5" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="K6" s="4" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="86.4">
@@ -2927,31 +2958,31 @@
         <v>44317</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="G7" s="4" t="s">
+        <v>340</v>
+      </c>
+      <c r="H7" s="4" t="s">
         <v>344</v>
       </c>
-      <c r="H7" s="4" t="s">
-        <v>348</v>
-      </c>
       <c r="I7" s="4" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="J7" s="5" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="K7" s="4" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="86.4">
@@ -2962,31 +2993,31 @@
         <v>44317</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="G8" s="4" t="s">
+        <v>340</v>
+      </c>
+      <c r="H8" s="4" t="s">
         <v>344</v>
       </c>
-      <c r="H8" s="4" t="s">
-        <v>348</v>
-      </c>
       <c r="I8" s="4" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="J8" s="5" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="K8" s="4" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="72">
@@ -2997,16 +3028,16 @@
         <v>43556</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="J9" s="5" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="K9" s="4" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="86.4">
@@ -3017,31 +3048,31 @@
         <v>42856</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="I10" s="4" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="J10" s="5" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="K10" s="4" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="72">
@@ -3052,31 +3083,31 @@
         <v>41183</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="I11" s="4" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="J11" s="5" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="K11" s="4" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="72">
@@ -3087,16 +3118,16 @@
         <v>40664</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="J12" s="5" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="K12" s="4" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="115.2">
@@ -3107,31 +3138,31 @@
         <v>39873</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="I13" s="4" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="J13" s="5" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="K13" s="4" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="115.2">
@@ -3142,31 +3173,31 @@
         <v>39873</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="I14" s="4" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="J14" s="5" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="K14" s="4" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="115.2">
@@ -3177,31 +3208,31 @@
         <v>38504</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="H15" s="4" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="I15" s="4" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="J15" s="5" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="K15" s="4" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="115.2">
@@ -3212,31 +3243,31 @@
         <v>38504</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="H16" s="4" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="I16" s="4" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="J16" s="5" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="K16" s="4" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
     </row>
     <row r="17" spans="1:11" ht="115.2">
@@ -3247,31 +3278,31 @@
         <v>37408</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="H17" s="4" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="I17" s="4" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="J17" s="5" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="K17" s="4" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
     </row>
     <row r="18" spans="1:11" ht="57.6">
@@ -3282,31 +3313,31 @@
         <v>45383</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="G18" s="4" t="s">
+        <v>340</v>
+      </c>
+      <c r="H18" s="4" t="s">
         <v>344</v>
       </c>
-      <c r="H18" s="4" t="s">
-        <v>348</v>
-      </c>
       <c r="I18" s="4" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="J18" s="5" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
     </row>
     <row r="19" spans="1:11" ht="57.6">
@@ -3317,31 +3348,31 @@
         <v>44652</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="G19" s="4" t="s">
+        <v>340</v>
+      </c>
+      <c r="H19" s="4" t="s">
         <v>344</v>
       </c>
-      <c r="H19" s="4" t="s">
-        <v>348</v>
-      </c>
       <c r="I19" s="4" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="J19" s="5" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
     </row>
     <row r="20" spans="1:11" ht="57.6">
@@ -3352,31 +3383,31 @@
         <v>44835</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="E20" s="4" t="s">
+        <v>353</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="G20" s="4" t="s">
+        <v>340</v>
+      </c>
+      <c r="H20" s="4" t="s">
+        <v>344</v>
+      </c>
+      <c r="I20" s="4" t="s">
+        <v>240</v>
+      </c>
+      <c r="J20" s="5" t="s">
         <v>357</v>
       </c>
-      <c r="F20" s="4" t="s">
-        <v>238</v>
-      </c>
-      <c r="G20" s="4" t="s">
-        <v>344</v>
-      </c>
-      <c r="H20" s="4" t="s">
-        <v>348</v>
-      </c>
-      <c r="I20" s="4" t="s">
-        <v>244</v>
-      </c>
-      <c r="J20" s="5" t="s">
-        <v>361</v>
-      </c>
       <c r="K20" s="1" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
     </row>
     <row r="21" spans="1:11" ht="57.6">
@@ -3387,31 +3418,31 @@
         <v>44835</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="E21" s="4" t="s">
+        <v>353</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="G21" s="4" t="s">
+        <v>340</v>
+      </c>
+      <c r="H21" s="4" t="s">
+        <v>344</v>
+      </c>
+      <c r="I21" s="4" t="s">
+        <v>240</v>
+      </c>
+      <c r="J21" s="5" t="s">
         <v>357</v>
       </c>
-      <c r="F21" s="4" t="s">
-        <v>238</v>
-      </c>
-      <c r="G21" s="4" t="s">
-        <v>344</v>
-      </c>
-      <c r="H21" s="4" t="s">
-        <v>348</v>
-      </c>
-      <c r="I21" s="4" t="s">
-        <v>244</v>
-      </c>
-      <c r="J21" s="5" t="s">
-        <v>361</v>
-      </c>
       <c r="K21" s="1" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
     </row>
     <row r="22" spans="1:11" ht="57.6">
@@ -3422,31 +3453,31 @@
         <v>43525</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="G22" s="4" t="s">
+        <v>340</v>
+      </c>
+      <c r="H22" s="4" t="s">
         <v>344</v>
       </c>
-      <c r="H22" s="4" t="s">
-        <v>348</v>
-      </c>
       <c r="I22" s="4" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="J22" s="5" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="K22" s="1" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
     </row>
     <row r="23" spans="1:11" ht="57.6">
@@ -3457,31 +3488,31 @@
         <v>42005</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="G23" s="4" t="s">
+        <v>340</v>
+      </c>
+      <c r="H23" s="4" t="s">
         <v>344</v>
       </c>
-      <c r="H23" s="4" t="s">
-        <v>348</v>
-      </c>
       <c r="I23" s="4" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="J23" s="5" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="K23" s="1" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
     </row>
     <row r="24" spans="1:11" ht="57.6">
@@ -3492,31 +3523,31 @@
         <v>45383</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="G24" s="4" t="s">
+        <v>340</v>
+      </c>
+      <c r="H24" s="4" t="s">
         <v>344</v>
       </c>
-      <c r="H24" s="4" t="s">
-        <v>348</v>
-      </c>
       <c r="I24" s="17" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="J24" s="5" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="K24" s="1" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
     </row>
     <row r="25" spans="1:11" ht="72">
@@ -3527,31 +3558,31 @@
         <v>43983</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="F25" s="17" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="G25" s="4" t="s">
+        <v>340</v>
+      </c>
+      <c r="H25" s="4" t="s">
         <v>344</v>
       </c>
-      <c r="H25" s="4" t="s">
-        <v>348</v>
-      </c>
       <c r="I25" s="17" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="J25" s="5" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="K25" s="4" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
     </row>
     <row r="26" spans="1:11" ht="86.4">
@@ -3562,31 +3593,31 @@
         <v>44593</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="F26" s="17" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="G26" s="4" t="s">
+        <v>340</v>
+      </c>
+      <c r="H26" s="4" t="s">
         <v>344</v>
       </c>
-      <c r="H26" s="4" t="s">
-        <v>348</v>
-      </c>
       <c r="I26" s="17" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="J26" s="5" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="K26" s="4" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
     </row>
   </sheetData>
@@ -3625,58 +3656,58 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="6" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="100.8">
       <c r="A2" s="4" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="57.6">
       <c r="A3" s="4" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="187.2">
       <c r="A4" s="4" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
     </row>
   </sheetData>
@@ -3706,39 +3737,39 @@
         <v>45</v>
       </c>
       <c r="B1" s="13" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="B2" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="B3" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="B4" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="B5" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
     </row>
   </sheetData>
@@ -3747,6 +3778,465 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D23FE8FE-059B-4013-8CE6-251A60371C34}">
+  <sheetPr>
+    <tabColor rgb="FF0070C0"/>
+  </sheetPr>
+  <dimension ref="A1:I39"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
+      <selection activeCell="B41" sqref="B41"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="20.109375" style="4" customWidth="1"/>
+    <col min="2" max="2" width="53.21875" style="4" customWidth="1"/>
+    <col min="3" max="3" width="61.77734375" style="4" customWidth="1"/>
+    <col min="4" max="4" width="2.6640625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="65.5546875" style="4" customWidth="1"/>
+    <col min="6" max="9" width="8.88671875" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="28.8">
+      <c r="A2" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="28.8">
+      <c r="A3" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="86.4">
+      <c r="A4" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="28.8">
+      <c r="A5" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="43.2">
+      <c r="A6" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="28.8">
+      <c r="A7" s="4" t="s">
+        <v>391</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>402</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="43.2">
+      <c r="A8" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="28.8">
+      <c r="A9" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="28.8">
+      <c r="A10" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="28.8">
+      <c r="A11" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="43.2">
+      <c r="A12" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="28.8">
+      <c r="A13" s="4" t="s">
+        <v>395</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>400</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="28.8">
+      <c r="A14" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>404</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="43.2">
+      <c r="A15" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="43.2">
+      <c r="A16" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="43.2">
+      <c r="A17" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="43.2">
+      <c r="A18" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="43.2">
+      <c r="A19" s="4" t="s">
+        <v>393</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>401</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="28.8">
+      <c r="A20" s="4" t="s">
+        <v>398</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>399</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>405</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="72">
+      <c r="A22" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="57.6">
+      <c r="A23" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="57.6">
+      <c r="A24" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="72">
+      <c r="A25" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="43.2">
+      <c r="A26" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="43.2">
+      <c r="A27" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="28.8">
+      <c r="A28" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>406</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="28.8">
+      <c r="A29" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="57.6">
+      <c r="A30" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="28.8">
+      <c r="A31" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>407</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="43.2">
+      <c r="A32" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>408</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="72">
+      <c r="A33" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="72">
+      <c r="A34" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="57.6">
+      <c r="A35" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="57.6">
+      <c r="A36" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="86.4">
+      <c r="A37" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="57.6">
+      <c r="A38" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="28.8">
+      <c r="A39" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>115</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:C39" xr:uid="{D23FE8FE-059B-4013-8CE6-251A60371C34}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C39">
+    <sortCondition ref="A2:A39"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83EB879E-03B7-4150-BCB1-D599391A685D}">
   <dimension ref="A1:R47"/>
   <sheetViews>
@@ -3762,23 +4252,23 @@
   <sheetData>
     <row r="1" spans="1:18" ht="25.8">
       <c r="B1" s="10" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
     </row>
     <row r="2" spans="1:18" ht="24.6">
       <c r="B2" s="9" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="R2" s="1" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
     </row>
     <row r="3" spans="1:18">
       <c r="R3" s="1" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
     </row>
     <row r="4" spans="1:18">
@@ -3786,328 +4276,328 @@
     </row>
     <row r="5" spans="1:18">
       <c r="B5" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="R5" s="1"/>
     </row>
     <row r="6" spans="1:18">
       <c r="B6" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="R6" s="1"/>
     </row>
     <row r="7" spans="1:18">
       <c r="B7" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="R7" s="1"/>
     </row>
     <row r="8" spans="1:18">
       <c r="B8" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
     </row>
     <row r="9" spans="1:18">
       <c r="B9" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
     </row>
     <row r="10" spans="1:18">
       <c r="B10" s="7" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
     </row>
     <row r="11" spans="1:18">
       <c r="B11" s="7" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
     </row>
     <row r="12" spans="1:18">
       <c r="B12" s="7" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
     </row>
     <row r="13" spans="1:18">
       <c r="B13" s="7" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
     </row>
     <row r="14" spans="1:18">
       <c r="B14" s="7" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
     </row>
     <row r="15" spans="1:18">
       <c r="B15" s="7" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
     </row>
     <row r="16" spans="1:18">
       <c r="A16" s="8" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="8" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="8" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="8" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="8" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="B21" s="8" t="s">
         <v>138</v>
-      </c>
-      <c r="B21" s="8" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="8" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="8" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="8" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="8" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="B26" s="8" t="s">
         <v>144</v>
-      </c>
-      <c r="B26" s="8" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="8" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="8" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="8" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="8" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="8" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="B32" s="8" t="s">
         <v>151</v>
-      </c>
-      <c r="B32" s="8" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="33" spans="1:12">
       <c r="A33" s="8" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
     </row>
     <row r="34" spans="1:12">
       <c r="A34" s="8" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="B34" s="8" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
     </row>
     <row r="35" spans="1:12">
       <c r="A35" s="8" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
     </row>
     <row r="36" spans="1:12">
       <c r="A36" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="B36" s="8" t="s">
         <v>156</v>
-      </c>
-      <c r="B36" s="8" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="37" spans="1:12">
       <c r="A37" s="8" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="B37" s="8" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="L37" s="1" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
     </row>
     <row r="38" spans="1:12">
       <c r="A38" s="8" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="B38" s="8" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
     </row>
     <row r="39" spans="1:12">
       <c r="A39" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="B39" s="8" t="s">
         <v>166</v>
-      </c>
-      <c r="B39" s="8" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="40" spans="1:12">
       <c r="A40" s="8" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="B40" s="8" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
     </row>
     <row r="41" spans="1:12">
       <c r="A41" s="8" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="B41" s="8" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
     </row>
     <row r="42" spans="1:12">
       <c r="A42" s="8" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="B42" s="8" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
     </row>
     <row r="43" spans="1:12">
       <c r="A43" s="8" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="B43" s="8" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
     </row>
     <row r="44" spans="1:12">
       <c r="A44" s="8" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="B44" s="8" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
     </row>
     <row r="45" spans="1:12">
       <c r="A45" s="8" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="B45" s="8" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
     </row>
     <row r="46" spans="1:12">
       <c r="A46" s="8" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="B46" s="8" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
     </row>
     <row r="47" spans="1:12">
       <c r="A47" s="8" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="B47" s="8" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
     </row>
   </sheetData>
@@ -4120,437 +4610,6 @@
     <hyperlink ref="R3" r:id="rId6" location=":~:text=If%20you%20have%20never%20heard,submarines%2C%20the%20first%20electric%20tram%E2%80%A6" xr:uid="{6397A776-22D9-4617-8343-CBBBA79C4CAA}"/>
     <hyperlink ref="L37" r:id="rId7" xr:uid="{F636893F-1A63-4284-8626-1A91A0912C15}"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D23FE8FE-059B-4013-8CE6-251A60371C34}">
-  <dimension ref="A1:J38"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
-      <selection activeCell="B50" sqref="B50"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
-  <cols>
-    <col min="1" max="1" width="20.109375" style="4" customWidth="1"/>
-    <col min="2" max="2" width="53.21875" style="4" customWidth="1"/>
-    <col min="3" max="3" width="61.77734375" style="4" customWidth="1"/>
-    <col min="4" max="4" width="2.44140625" style="4" customWidth="1"/>
-    <col min="5" max="5" width="2.6640625" style="4" customWidth="1"/>
-    <col min="6" max="6" width="65.5546875" style="4" customWidth="1"/>
-    <col min="7" max="10" width="8.88671875" style="4"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="28.8">
-      <c r="A2" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="28.8">
-      <c r="A3" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="86.4">
-      <c r="A4" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="28.8">
-      <c r="A5" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="43.2">
-      <c r="A6" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="43.2">
-      <c r="A7" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="28.8">
-      <c r="A8" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="28.8">
-      <c r="A9" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="28.8">
-      <c r="A10" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="43.2">
-      <c r="A11" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="57.6">
-      <c r="A12" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="43.2">
-      <c r="A14" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="43.2">
-      <c r="A15" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="43.2">
-      <c r="A16" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="43.2">
-      <c r="A17" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="72">
-      <c r="A19" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="57.6">
-      <c r="A20" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="57.6">
-      <c r="A21" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="72">
-      <c r="A22" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="43.2">
-      <c r="A23" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="43.2">
-      <c r="A24" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="B24" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" ht="28.8">
-      <c r="A25" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="B25" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" ht="28.8">
-      <c r="A26" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="B26" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="C26" s="4" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" ht="57.6">
-      <c r="A27" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="B27" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="C27" s="4" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" ht="28.8">
-      <c r="A28" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="C28" s="4" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
-      <c r="A29" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="C29" s="4" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" ht="72">
-      <c r="A30" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="B30" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="C30" s="4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" ht="72">
-      <c r="A31" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="B31" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="C31" s="4" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" ht="57.6">
-      <c r="A32" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="B32" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="C32" s="4" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" ht="57.6">
-      <c r="A33" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="B33" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="C33" s="4" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" ht="86.4">
-      <c r="A34" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="B34" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="C34" s="4" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" ht="57.6">
-      <c r="A35" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="B35" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="C35" s="4" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" ht="28.8">
-      <c r="A36" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="B36" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="C36" s="4" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" ht="28.8">
-      <c r="A37" s="4" t="s">
-        <v>395</v>
-      </c>
-      <c r="B37" s="4" t="s">
-        <v>396</v>
-      </c>
-      <c r="C37" s="4" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" ht="43.2">
-      <c r="A38" s="4" t="s">
-        <v>398</v>
-      </c>
-      <c r="B38" s="4" t="s">
-        <v>399</v>
-      </c>
-      <c r="C38" s="4" t="s">
-        <v>400</v>
-      </c>
-    </row>
-  </sheetData>
-  <autoFilter ref="A1:C1" xr:uid="{D23FE8FE-059B-4013-8CE6-251A60371C34}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C36">
-    <sortCondition ref="A1:A36"/>
-  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -4634,10 +4693,10 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="B9" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
     </row>
   </sheetData>

--- a/data Ukraine.xlsx
+++ b/data Ukraine.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\_GitHub\DataSources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16D18E38-E660-404B-9ADA-A585D150B358}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{288AAE7A-4F14-4B59-9C74-BD079AA56349}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="898" activeTab="6" xr2:uid="{21FA5A86-4C69-4AEC-AC84-BE14EF54DEBB}"/>
   </bookViews>
@@ -165,9 +165,6 @@
     <t xml:space="preserve"> was born into a Ukrainian Jewish family in Chernov'tsi, Ukraine. Her mother, Elvira, was a physics teacher who ran a pharmacy, and her father, Mark Kunis, was a mechanical engineer who worked as a cab driver after the family emigrated. Her grandparents were Holocaust survivors. In 1991, when she was 7 years old, her family moved to Los Angeles, with US$250.</t>
   </si>
   <si>
-    <t>Alan Wolf Arkin</t>
-  </si>
-  <si>
     <t>was an American actor and filmmaker. In a career spanning seven decades, he received numerous accolades</t>
   </si>
   <si>
@@ -1321,6 +1318,9 @@
   </si>
   <si>
     <t>his mother - Amalia Nathanson - was born in Brody, Ukraine  to Jacob Nathanson and Sarah Wilenz and later grew up in Odesa, Ukraine, where her mother came from.</t>
+  </si>
+  <si>
+    <t>Alan Arkin</t>
   </si>
 </sst>
 </file>
@@ -1800,50 +1800,50 @@
   <sheetData>
     <row r="1" spans="1:2" ht="43.2">
       <c r="A1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
+        <v>277</v>
+      </c>
+      <c r="B5" t="s">
         <v>278</v>
-      </c>
-      <c r="B5" t="s">
-        <v>279</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
+        <v>287</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>288</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>289</v>
       </c>
     </row>
   </sheetData>
@@ -1907,12 +1907,12 @@
     </row>
     <row r="5" spans="1:4" ht="28.8">
       <c r="B5" s="5" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="28.8">
       <c r="B7" s="4" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
   </sheetData>
@@ -1940,21 +1940,21 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="13" t="s">
+        <v>272</v>
+      </c>
+      <c r="B1" s="13" t="s">
         <v>273</v>
       </c>
-      <c r="B1" s="13" t="s">
-        <v>274</v>
-      </c>
       <c r="C1" s="13" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B2" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C2">
         <v>14</v>
@@ -1962,10 +1962,10 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B3" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C3">
         <v>12</v>
@@ -1973,10 +1973,10 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B4" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C4">
         <v>8</v>
@@ -1984,10 +1984,10 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B5" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C5">
         <v>6</v>
@@ -1995,10 +1995,10 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B6" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C6">
         <v>2</v>
@@ -2029,57 +2029,57 @@
   <sheetData>
     <row r="1" spans="1:16" s="16" customFormat="1" ht="25.8" customHeight="1">
       <c r="A1" s="14" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B1" s="15" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C1" s="15" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D1" s="15" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E1" s="15" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F1" s="15" t="s">
+        <v>303</v>
+      </c>
+      <c r="G1" s="15" t="s">
+        <v>202</v>
+      </c>
+      <c r="H1" s="15" t="s">
         <v>304</v>
       </c>
-      <c r="G1" s="15" t="s">
-        <v>203</v>
-      </c>
-      <c r="H1" s="15" t="s">
-        <v>305</v>
-      </c>
       <c r="I1" s="15" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="J1" s="15" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="K1" s="15" t="s">
+        <v>253</v>
+      </c>
+      <c r="L1" s="15" t="s">
         <v>254</v>
       </c>
-      <c r="L1" s="15" t="s">
-        <v>255</v>
-      </c>
       <c r="M1" s="15" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="N1" s="15" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="O1" s="15" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="P1" s="15" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="2" spans="1:16">
       <c r="A2" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -2108,7 +2108,7 @@
     </row>
     <row r="3" spans="1:16">
       <c r="A3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -2137,7 +2137,7 @@
     </row>
     <row r="4" spans="1:16">
       <c r="A4" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -2151,7 +2151,7 @@
     </row>
     <row r="5" spans="1:16">
       <c r="A5" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -2180,7 +2180,7 @@
     </row>
     <row r="6" spans="1:16">
       <c r="A6" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B6">
         <v>1</v>
@@ -2188,7 +2188,7 @@
     </row>
     <row r="7" spans="1:16">
       <c r="A7" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B7">
         <v>1</v>
@@ -2196,7 +2196,7 @@
     </row>
     <row r="8" spans="1:16">
       <c r="A8" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B8">
         <v>1</v>
@@ -2219,7 +2219,7 @@
     </row>
     <row r="9" spans="1:16">
       <c r="A9" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D9">
         <v>1</v>
@@ -2227,7 +2227,7 @@
     </row>
     <row r="10" spans="1:16">
       <c r="A10" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B10">
         <v>1</v>
@@ -2235,7 +2235,7 @@
     </row>
     <row r="11" spans="1:16">
       <c r="A11" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B11">
         <v>1</v>
@@ -2243,7 +2243,7 @@
     </row>
     <row r="12" spans="1:16">
       <c r="A12" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B12">
         <v>1</v>
@@ -2254,7 +2254,7 @@
     </row>
     <row r="13" spans="1:16">
       <c r="A13" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B13">
         <v>1</v>
@@ -2265,7 +2265,7 @@
     </row>
     <row r="14" spans="1:16">
       <c r="A14" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D14">
         <v>1</v>
@@ -2273,7 +2273,7 @@
     </row>
     <row r="15" spans="1:16">
       <c r="A15" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D15">
         <v>1</v>
@@ -2299,7 +2299,7 @@
     </row>
     <row r="16" spans="1:16">
       <c r="A16" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="F16">
         <v>1</v>
@@ -2319,7 +2319,7 @@
     </row>
     <row r="17" spans="1:16">
       <c r="A17" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="H17">
         <v>1</v>
@@ -2336,7 +2336,7 @@
     </row>
     <row r="18" spans="1:16">
       <c r="A18" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B18">
         <v>1</v>
@@ -2347,7 +2347,7 @@
     </row>
     <row r="19" spans="1:16">
       <c r="A19" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B19">
         <v>1</v>
@@ -2370,7 +2370,7 @@
     </row>
     <row r="20" spans="1:16">
       <c r="A20" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B20">
         <v>1</v>
@@ -2390,7 +2390,7 @@
     </row>
     <row r="21" spans="1:16">
       <c r="A21" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B21">
         <v>1</v>
@@ -2398,7 +2398,7 @@
     </row>
     <row r="22" spans="1:16">
       <c r="A22" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -2406,7 +2406,7 @@
     </row>
     <row r="23" spans="1:16">
       <c r="A23" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -2414,7 +2414,7 @@
     </row>
     <row r="24" spans="1:16">
       <c r="A24" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="K24">
         <v>1</v>
@@ -2422,7 +2422,7 @@
     </row>
     <row r="25" spans="1:16">
       <c r="A25" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="K25">
         <v>1</v>
@@ -2430,7 +2430,7 @@
     </row>
     <row r="26" spans="1:16">
       <c r="A26" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B26">
         <v>1</v>
@@ -2441,7 +2441,7 @@
     </row>
     <row r="27" spans="1:16">
       <c r="A27" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B27">
         <v>1</v>
@@ -2452,7 +2452,7 @@
     </row>
     <row r="28" spans="1:16">
       <c r="A28" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -2460,7 +2460,7 @@
     </row>
     <row r="29" spans="1:16">
       <c r="A29" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="J29">
         <v>1</v>
@@ -2471,7 +2471,7 @@
     </row>
     <row r="30" spans="1:16">
       <c r="A30" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="J30">
         <v>1</v>
@@ -2482,7 +2482,7 @@
     </row>
     <row r="31" spans="1:16">
       <c r="A31" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B31">
         <v>1</v>
@@ -2523,7 +2523,7 @@
     </row>
     <row r="32" spans="1:16">
       <c r="A32" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B32">
         <v>1</v>
@@ -2531,7 +2531,7 @@
     </row>
     <row r="33" spans="1:14">
       <c r="A33" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D33">
         <v>1</v>
@@ -2557,7 +2557,7 @@
     </row>
     <row r="34" spans="1:14">
       <c r="A34" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B34">
         <v>1</v>
@@ -2586,7 +2586,7 @@
     </row>
     <row r="35" spans="1:14">
       <c r="A35" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B35">
         <v>1</v>
@@ -2612,7 +2612,7 @@
     </row>
     <row r="36" spans="1:14">
       <c r="A36" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D36">
         <v>1</v>
@@ -2632,7 +2632,7 @@
     </row>
     <row r="37" spans="1:14">
       <c r="A37" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="E37">
         <v>1</v>
@@ -2649,7 +2649,7 @@
     </row>
     <row r="38" spans="1:14">
       <c r="A38" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="E38">
         <v>1</v>
@@ -2666,7 +2666,7 @@
     </row>
     <row r="39" spans="1:14">
       <c r="A39" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="E39">
         <v>1</v>
@@ -2686,7 +2686,7 @@
     </row>
     <row r="40" spans="1:14">
       <c r="A40" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C40">
         <v>1</v>
@@ -2739,40 +2739,40 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="B1" s="6" t="s">
         <v>182</v>
       </c>
-      <c r="B1" s="6" t="s">
-        <v>183</v>
-      </c>
       <c r="C1" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="D1" s="6" t="s">
         <v>179</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="E1" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>345</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>338</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>272</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="L1" s="6" t="s">
         <v>180</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>194</v>
-      </c>
-      <c r="F1" s="6" t="s">
-        <v>346</v>
-      </c>
-      <c r="G1" s="6" t="s">
-        <v>339</v>
-      </c>
-      <c r="H1" s="6" t="s">
-        <v>188</v>
-      </c>
-      <c r="I1" s="6" t="s">
-        <v>273</v>
-      </c>
-      <c r="J1" s="6" t="s">
-        <v>185</v>
-      </c>
-      <c r="K1" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="L1" s="6" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="86.4">
@@ -2783,31 +2783,31 @@
         <v>45323</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D2" s="4" t="s">
+        <v>360</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>344</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>339</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>342</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>381</v>
+      </c>
+      <c r="K2" s="4" t="s">
         <v>361</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>345</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>234</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>340</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>343</v>
-      </c>
-      <c r="I2" s="4" t="s">
-        <v>239</v>
-      </c>
-      <c r="J2" s="5" t="s">
-        <v>382</v>
-      </c>
-      <c r="K2" s="4" t="s">
-        <v>362</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="72">
@@ -2818,31 +2818,31 @@
         <v>44593</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D3" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>346</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>339</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>342</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>387</v>
+      </c>
+      <c r="K3" s="4" t="s">
         <v>186</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>195</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>347</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>340</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>343</v>
-      </c>
-      <c r="I3" s="4" t="s">
-        <v>240</v>
-      </c>
-      <c r="J3" s="5" t="s">
-        <v>388</v>
-      </c>
-      <c r="K3" s="4" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="72">
@@ -2853,31 +2853,31 @@
         <v>44713</v>
       </c>
       <c r="C4" s="4" t="s">
+        <v>292</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>291</v>
+      </c>
+      <c r="E4" s="4" t="s">
         <v>293</v>
       </c>
-      <c r="D4" s="4" t="s">
-        <v>292</v>
-      </c>
-      <c r="E4" s="4" t="s">
+      <c r="F4" s="4" t="s">
+        <v>346</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>339</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>343</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="J4" s="5" t="s">
+        <v>388</v>
+      </c>
+      <c r="K4" s="4" t="s">
         <v>294</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>347</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>340</v>
-      </c>
-      <c r="H4" s="4" t="s">
-        <v>344</v>
-      </c>
-      <c r="I4" s="4" t="s">
-        <v>240</v>
-      </c>
-      <c r="J4" s="5" t="s">
-        <v>389</v>
-      </c>
-      <c r="K4" s="4" t="s">
-        <v>295</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="86.4">
@@ -2888,31 +2888,31 @@
         <v>44593</v>
       </c>
       <c r="C5" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>346</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>340</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>343</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>240</v>
+      </c>
+      <c r="J5" s="5" t="s">
+        <v>377</v>
+      </c>
+      <c r="K5" s="4" t="s">
         <v>189</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>191</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>196</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>347</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>341</v>
-      </c>
-      <c r="H5" s="4" t="s">
-        <v>344</v>
-      </c>
-      <c r="I5" s="4" t="s">
-        <v>241</v>
-      </c>
-      <c r="J5" s="5" t="s">
-        <v>378</v>
-      </c>
-      <c r="K5" s="4" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="72">
@@ -2923,31 +2923,31 @@
         <v>44531</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E6" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>346</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>340</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>343</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>240</v>
+      </c>
+      <c r="J6" s="5" t="s">
+        <v>379</v>
+      </c>
+      <c r="K6" s="4" t="s">
         <v>197</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>347</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>341</v>
-      </c>
-      <c r="H6" s="4" t="s">
-        <v>344</v>
-      </c>
-      <c r="I6" s="4" t="s">
-        <v>241</v>
-      </c>
-      <c r="J6" s="5" t="s">
-        <v>380</v>
-      </c>
-      <c r="K6" s="4" t="s">
-        <v>198</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="86.4">
@@ -2958,31 +2958,31 @@
         <v>44317</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D7" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="E7" s="4" t="s">
         <v>199</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="F7" s="4" t="s">
+        <v>346</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>339</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>343</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>240</v>
+      </c>
+      <c r="J7" s="5" t="s">
+        <v>385</v>
+      </c>
+      <c r="K7" s="4" t="s">
         <v>200</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>347</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>340</v>
-      </c>
-      <c r="H7" s="4" t="s">
-        <v>344</v>
-      </c>
-      <c r="I7" s="4" t="s">
-        <v>241</v>
-      </c>
-      <c r="J7" s="5" t="s">
-        <v>386</v>
-      </c>
-      <c r="K7" s="4" t="s">
-        <v>201</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="86.4">
@@ -2993,31 +2993,31 @@
         <v>44317</v>
       </c>
       <c r="C8" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>289</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>346</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>339</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>343</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>240</v>
+      </c>
+      <c r="J8" s="5" t="s">
+        <v>376</v>
+      </c>
+      <c r="K8" s="4" t="s">
         <v>203</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>202</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>290</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>347</v>
-      </c>
-      <c r="G8" s="4" t="s">
-        <v>340</v>
-      </c>
-      <c r="H8" s="4" t="s">
-        <v>344</v>
-      </c>
-      <c r="I8" s="4" t="s">
-        <v>241</v>
-      </c>
-      <c r="J8" s="5" t="s">
-        <v>377</v>
-      </c>
-      <c r="K8" s="4" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="72">
@@ -3028,16 +3028,16 @@
         <v>43556</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="J9" s="5" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="K9" s="4" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="86.4">
@@ -3048,31 +3048,31 @@
         <v>42856</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D10" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="E10" s="4" t="s">
         <v>205</v>
       </c>
-      <c r="E10" s="4" t="s">
+      <c r="F10" s="4" t="s">
+        <v>346</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>341</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>342</v>
+      </c>
+      <c r="I10" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="J10" s="5" t="s">
+        <v>386</v>
+      </c>
+      <c r="K10" s="4" t="s">
         <v>206</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>347</v>
-      </c>
-      <c r="G10" s="4" t="s">
-        <v>342</v>
-      </c>
-      <c r="H10" s="4" t="s">
-        <v>343</v>
-      </c>
-      <c r="I10" s="4" t="s">
-        <v>243</v>
-      </c>
-      <c r="J10" s="5" t="s">
-        <v>387</v>
-      </c>
-      <c r="K10" s="4" t="s">
-        <v>207</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="72">
@@ -3083,31 +3083,31 @@
         <v>41183</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="G11" s="4" t="s">
+        <v>341</v>
+      </c>
+      <c r="H11" s="4" t="s">
         <v>342</v>
       </c>
-      <c r="H11" s="4" t="s">
-        <v>343</v>
-      </c>
       <c r="I11" s="4" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="J11" s="5" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="K11" s="4" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="72">
@@ -3118,16 +3118,16 @@
         <v>40664</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="J12" s="5" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="K12" s="4" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="115.2">
@@ -3138,31 +3138,31 @@
         <v>39873</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="G13" s="4" t="s">
+        <v>341</v>
+      </c>
+      <c r="H13" s="4" t="s">
         <v>342</v>
       </c>
-      <c r="H13" s="4" t="s">
-        <v>343</v>
-      </c>
       <c r="I13" s="4" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="J13" s="5" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="K13" s="4" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="115.2">
@@ -3173,31 +3173,31 @@
         <v>39873</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="G14" s="4" t="s">
+        <v>341</v>
+      </c>
+      <c r="H14" s="4" t="s">
         <v>342</v>
       </c>
-      <c r="H14" s="4" t="s">
-        <v>343</v>
-      </c>
       <c r="I14" s="4" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="J14" s="5" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="K14" s="4" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="115.2">
@@ -3208,31 +3208,31 @@
         <v>38504</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="G15" s="4" t="s">
+        <v>341</v>
+      </c>
+      <c r="H15" s="4" t="s">
         <v>342</v>
       </c>
-      <c r="H15" s="4" t="s">
-        <v>343</v>
-      </c>
       <c r="I15" s="4" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="J15" s="5" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="K15" s="4" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="115.2">
@@ -3243,31 +3243,31 @@
         <v>38504</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="G16" s="4" t="s">
+        <v>341</v>
+      </c>
+      <c r="H16" s="4" t="s">
         <v>342</v>
       </c>
-      <c r="H16" s="4" t="s">
-        <v>343</v>
-      </c>
       <c r="I16" s="4" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="J16" s="5" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="K16" s="4" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="17" spans="1:11" ht="115.2">
@@ -3278,31 +3278,31 @@
         <v>37408</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="G17" s="4" t="s">
+        <v>341</v>
+      </c>
+      <c r="H17" s="4" t="s">
         <v>342</v>
       </c>
-      <c r="H17" s="4" t="s">
-        <v>343</v>
-      </c>
       <c r="I17" s="4" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="J17" s="5" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="K17" s="4" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="18" spans="1:11" ht="57.6">
@@ -3313,31 +3313,31 @@
         <v>45383</v>
       </c>
       <c r="C18" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="D18" s="4" t="s">
         <v>255</v>
       </c>
-      <c r="D18" s="4" t="s">
-        <v>256</v>
-      </c>
       <c r="E18" s="4" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="H18" s="4" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="I18" s="4" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="J18" s="5" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="19" spans="1:11" ht="57.6">
@@ -3348,31 +3348,31 @@
         <v>44652</v>
       </c>
       <c r="C19" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>352</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="G19" s="4" t="s">
+        <v>339</v>
+      </c>
+      <c r="H19" s="4" t="s">
+        <v>343</v>
+      </c>
+      <c r="I19" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="J19" s="5" t="s">
+        <v>358</v>
+      </c>
+      <c r="K19" s="1" t="s">
         <v>260</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>259</v>
-      </c>
-      <c r="E19" s="4" t="s">
-        <v>353</v>
-      </c>
-      <c r="F19" s="4" t="s">
-        <v>234</v>
-      </c>
-      <c r="G19" s="4" t="s">
-        <v>340</v>
-      </c>
-      <c r="H19" s="4" t="s">
-        <v>344</v>
-      </c>
-      <c r="I19" s="4" t="s">
-        <v>240</v>
-      </c>
-      <c r="J19" s="5" t="s">
-        <v>359</v>
-      </c>
-      <c r="K19" s="1" t="s">
-        <v>261</v>
       </c>
     </row>
     <row r="20" spans="1:11" ht="57.6">
@@ -3383,31 +3383,31 @@
         <v>44835</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D20" s="4" t="s">
+        <v>261</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>352</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="G20" s="4" t="s">
+        <v>339</v>
+      </c>
+      <c r="H20" s="4" t="s">
+        <v>343</v>
+      </c>
+      <c r="I20" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="J20" s="5" t="s">
+        <v>356</v>
+      </c>
+      <c r="K20" s="1" t="s">
         <v>262</v>
-      </c>
-      <c r="E20" s="4" t="s">
-        <v>353</v>
-      </c>
-      <c r="F20" s="4" t="s">
-        <v>234</v>
-      </c>
-      <c r="G20" s="4" t="s">
-        <v>340</v>
-      </c>
-      <c r="H20" s="4" t="s">
-        <v>344</v>
-      </c>
-      <c r="I20" s="4" t="s">
-        <v>240</v>
-      </c>
-      <c r="J20" s="5" t="s">
-        <v>357</v>
-      </c>
-      <c r="K20" s="1" t="s">
-        <v>263</v>
       </c>
     </row>
     <row r="21" spans="1:11" ht="57.6">
@@ -3418,31 +3418,31 @@
         <v>44835</v>
       </c>
       <c r="C21" s="4" t="s">
+        <v>263</v>
+      </c>
+      <c r="D21" s="4" t="s">
         <v>264</v>
       </c>
-      <c r="D21" s="4" t="s">
+      <c r="E21" s="4" t="s">
+        <v>352</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="G21" s="4" t="s">
+        <v>339</v>
+      </c>
+      <c r="H21" s="4" t="s">
+        <v>343</v>
+      </c>
+      <c r="I21" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="J21" s="5" t="s">
+        <v>356</v>
+      </c>
+      <c r="K21" s="1" t="s">
         <v>265</v>
-      </c>
-      <c r="E21" s="4" t="s">
-        <v>353</v>
-      </c>
-      <c r="F21" s="4" t="s">
-        <v>234</v>
-      </c>
-      <c r="G21" s="4" t="s">
-        <v>340</v>
-      </c>
-      <c r="H21" s="4" t="s">
-        <v>344</v>
-      </c>
-      <c r="I21" s="4" t="s">
-        <v>240</v>
-      </c>
-      <c r="J21" s="5" t="s">
-        <v>357</v>
-      </c>
-      <c r="K21" s="1" t="s">
-        <v>266</v>
       </c>
     </row>
     <row r="22" spans="1:11" ht="57.6">
@@ -3453,31 +3453,31 @@
         <v>43525</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D22" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>354</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="G22" s="4" t="s">
+        <v>339</v>
+      </c>
+      <c r="H22" s="4" t="s">
+        <v>343</v>
+      </c>
+      <c r="I22" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="J22" s="5" t="s">
+        <v>357</v>
+      </c>
+      <c r="K22" s="1" t="s">
         <v>267</v>
-      </c>
-      <c r="E22" s="4" t="s">
-        <v>355</v>
-      </c>
-      <c r="F22" s="4" t="s">
-        <v>234</v>
-      </c>
-      <c r="G22" s="4" t="s">
-        <v>340</v>
-      </c>
-      <c r="H22" s="4" t="s">
-        <v>344</v>
-      </c>
-      <c r="I22" s="4" t="s">
-        <v>243</v>
-      </c>
-      <c r="J22" s="5" t="s">
-        <v>358</v>
-      </c>
-      <c r="K22" s="1" t="s">
-        <v>268</v>
       </c>
     </row>
     <row r="23" spans="1:11" ht="57.6">
@@ -3488,31 +3488,31 @@
         <v>42005</v>
       </c>
       <c r="C23" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="D23" s="4" t="s">
         <v>270</v>
       </c>
-      <c r="D23" s="4" t="s">
-        <v>271</v>
-      </c>
       <c r="E23" s="4" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="H23" s="4" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="I23" s="4" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="J23" s="5" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="K23" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="24" spans="1:11" ht="57.6">
@@ -3523,31 +3523,31 @@
         <v>45383</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="H24" s="4" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="I24" s="17" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="J24" s="5" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="K24" s="1" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="25" spans="1:11" ht="72">
@@ -3558,31 +3558,31 @@
         <v>43983</v>
       </c>
       <c r="C25" s="4" t="s">
+        <v>323</v>
+      </c>
+      <c r="D25" s="4" t="s">
         <v>324</v>
       </c>
-      <c r="D25" s="4" t="s">
-        <v>325</v>
-      </c>
       <c r="E25" s="4" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="F25" s="17" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="G25" s="4" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="H25" s="4" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="I25" s="17" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="J25" s="5" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="K25" s="4" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="26" spans="1:11" ht="86.4">
@@ -3593,31 +3593,31 @@
         <v>44593</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="F26" s="17" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="G26" s="4" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="H26" s="4" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="I26" s="17" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="J26" s="5" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="K26" s="4" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
   </sheetData>
@@ -3656,58 +3656,58 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="6" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B1" s="6" t="s">
+        <v>335</v>
+      </c>
+      <c r="C1" s="6" t="s">
         <v>336</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="D1" s="6" t="s">
         <v>337</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>338</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="100.8">
       <c r="A2" s="4" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B2" s="17" t="s">
+        <v>331</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>332</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="D2" s="4" t="s">
         <v>333</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>334</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="57.6">
       <c r="A3" s="4" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="187.2">
       <c r="A4" s="4" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B4" s="4" t="s">
+        <v>328</v>
+      </c>
+      <c r="C4" s="4" t="s">
         <v>329</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="D4" s="4" t="s">
         <v>330</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>331</v>
       </c>
     </row>
   </sheetData>
@@ -3734,42 +3734,42 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B1" s="13" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
+        <v>209</v>
+      </c>
+      <c r="B3" t="s">
         <v>210</v>
-      </c>
-      <c r="B3" t="s">
-        <v>211</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B4" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B5" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
   </sheetData>
@@ -3784,8 +3784,8 @@
   </sheetPr>
   <dimension ref="A1:I39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
-      <selection activeCell="B41" sqref="B41"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -3800,35 +3800,35 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="C1" s="6" t="s">
         <v>46</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="28.8">
       <c r="A2" s="4" t="s">
+        <v>409</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="C2" s="4" t="s">
         <v>39</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="28.8">
       <c r="A3" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="B3" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="C3" s="4" t="s">
         <v>90</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="86.4">
@@ -3844,79 +3844,79 @@
     </row>
     <row r="5" spans="1:3" ht="28.8">
       <c r="A5" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="B5" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="C5" s="4" t="s">
         <v>73</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="43.2">
       <c r="A6" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="B6" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="C6" s="4" t="s">
         <v>68</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="28.8">
       <c r="A7" s="4" t="s">
+        <v>390</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>401</v>
+      </c>
+      <c r="C7" s="4" t="s">
         <v>391</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>402</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>392</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="43.2">
       <c r="A8" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="B8" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="B8" s="4" t="s">
-        <v>66</v>
-      </c>
       <c r="C8" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="28.8">
       <c r="A9" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="B9" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="B9" s="4" t="s">
-        <v>77</v>
-      </c>
       <c r="C9" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="28.8">
       <c r="A10" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B10" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C10" s="4" t="s">
         <v>49</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="28.8">
       <c r="A11" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="C11" s="4" t="s">
         <v>113</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="43.2">
@@ -3927,139 +3927,139 @@
         <v>28</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="28.8">
       <c r="A13" s="4" t="s">
+        <v>394</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>399</v>
+      </c>
+      <c r="C13" s="4" t="s">
         <v>395</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>400</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>396</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="28.8">
       <c r="A14" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>403</v>
+      </c>
+      <c r="C14" s="4" t="s">
         <v>87</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>404</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="43.2">
       <c r="A15" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B15" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="B15" s="4" t="s">
-        <v>43</v>
-      </c>
       <c r="C15" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="43.2">
       <c r="A16" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="B16" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="C16" s="4" t="s">
         <v>121</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="43.2">
       <c r="A17" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C17" s="4" t="s">
         <v>58</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="43.2">
       <c r="A18" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="B18" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="B18" s="4" t="s">
-        <v>71</v>
-      </c>
       <c r="C18" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="43.2">
       <c r="A19" s="4" t="s">
+        <v>392</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>400</v>
+      </c>
+      <c r="C19" s="4" t="s">
         <v>393</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>401</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>394</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="28.8">
       <c r="A20" s="4" t="s">
+        <v>397</v>
+      </c>
+      <c r="B20" s="4" t="s">
         <v>398</v>
       </c>
-      <c r="B20" s="4" t="s">
-        <v>399</v>
-      </c>
       <c r="C20" s="4" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>404</v>
+      </c>
+      <c r="C21" s="4" t="s">
         <v>79</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>405</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="72">
       <c r="A22" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="B22" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="B22" s="4" t="s">
+      <c r="C22" s="4" t="s">
         <v>101</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="57.6">
       <c r="A23" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="C23" s="4" t="s">
         <v>103</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="57.6">
       <c r="A24" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B24" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="B24" s="4" t="s">
-        <v>63</v>
-      </c>
       <c r="C24" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="72">
@@ -4081,73 +4081,73 @@
         <v>34</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="43.2">
       <c r="A27" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B27" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="C27" s="4" t="s">
         <v>92</v>
-      </c>
-      <c r="C27" s="4" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="28.8">
       <c r="A28" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>405</v>
+      </c>
+      <c r="C28" s="4" t="s">
         <v>108</v>
-      </c>
-      <c r="B28" s="4" t="s">
-        <v>406</v>
-      </c>
-      <c r="C28" s="4" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="28.8">
       <c r="A29" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="B29" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="B29" s="4" t="s">
+      <c r="C29" s="4" t="s">
         <v>83</v>
-      </c>
-      <c r="C29" s="4" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="57.6">
       <c r="A30" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="B30" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="B30" s="4" t="s">
+      <c r="C30" s="4" t="s">
         <v>95</v>
-      </c>
-      <c r="C30" s="4" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="28.8">
       <c r="A31" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>406</v>
+      </c>
+      <c r="C31" s="4" t="s">
         <v>55</v>
-      </c>
-      <c r="B31" s="4" t="s">
-        <v>407</v>
-      </c>
-      <c r="C31" s="4" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="43.2">
       <c r="A32" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B32" s="4" t="s">
+        <v>407</v>
+      </c>
+      <c r="C32" s="4" t="s">
         <v>408</v>
-      </c>
-      <c r="C32" s="4" t="s">
-        <v>409</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="72">
@@ -4155,7 +4155,7 @@
         <v>30</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C33" s="4" t="s">
         <v>29</v>
@@ -4163,13 +4163,13 @@
     </row>
     <row r="34" spans="1:3" ht="72">
       <c r="A34" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="C34" s="4" t="s">
         <v>85</v>
-      </c>
-      <c r="B34" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="C34" s="4" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="57.6">
@@ -4180,51 +4180,51 @@
         <v>32</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="57.6">
       <c r="A36" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="B36" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="B36" s="4" t="s">
+      <c r="C36" s="4" t="s">
         <v>98</v>
-      </c>
-      <c r="C36" s="4" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="86.4">
       <c r="A37" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B37" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="C37" s="4" t="s">
         <v>117</v>
-      </c>
-      <c r="C37" s="4" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="57.6">
       <c r="A38" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="28.8">
       <c r="A39" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
   </sheetData>
@@ -4252,23 +4252,23 @@
   <sheetData>
     <row r="1" spans="1:18" ht="25.8">
       <c r="B1" s="10" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="2" spans="1:18" ht="24.6">
       <c r="B2" s="9" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="R2" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="3" spans="1:18">
       <c r="R3" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="4" spans="1:18">
@@ -4276,328 +4276,328 @@
     </row>
     <row r="5" spans="1:18">
       <c r="B5" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="R5" s="1"/>
     </row>
     <row r="6" spans="1:18">
       <c r="B6" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="R6" s="1"/>
     </row>
     <row r="7" spans="1:18">
       <c r="B7" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="R7" s="1"/>
     </row>
     <row r="8" spans="1:18">
       <c r="B8" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="9" spans="1:18">
       <c r="B9" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="10" spans="1:18">
       <c r="B10" s="7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="11" spans="1:18">
       <c r="B11" s="7" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="12" spans="1:18">
       <c r="B12" s="7" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="13" spans="1:18">
       <c r="B13" s="7" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="14" spans="1:18">
       <c r="B14" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="15" spans="1:18">
       <c r="B15" s="7" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="16" spans="1:18">
       <c r="A16" s="8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="B18" s="8" t="s">
         <v>134</v>
-      </c>
-      <c r="B18" s="8" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="B23" s="8" t="s">
         <v>140</v>
-      </c>
-      <c r="B23" s="8" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="8" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="8" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="8" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="8" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="8" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="B29" s="8" t="s">
         <v>147</v>
-      </c>
-      <c r="B29" s="8" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="8" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="8" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="8" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="33" spans="1:12">
       <c r="A33" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="B33" s="8" t="s">
         <v>152</v>
-      </c>
-      <c r="B33" s="8" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="34" spans="1:12">
       <c r="A34" s="8" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B34" s="8" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="35" spans="1:12">
       <c r="A35" s="8" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="36" spans="1:12">
       <c r="A36" s="8" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B36" s="8" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="37" spans="1:12">
       <c r="A37" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="B37" s="8" t="s">
         <v>162</v>
       </c>
-      <c r="B37" s="8" t="s">
-        <v>163</v>
-      </c>
       <c r="G37" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="J37" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="J37" s="1" t="s">
-        <v>176</v>
-      </c>
       <c r="L37" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="38" spans="1:12">
       <c r="A38" s="8" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B38" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="C38" s="1" t="s">
         <v>164</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="39" spans="1:12">
       <c r="A39" s="8" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B39" s="8" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="40" spans="1:12">
       <c r="A40" s="8" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B40" s="8" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="41" spans="1:12">
       <c r="A41" s="8" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B41" s="8" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="42" spans="1:12">
       <c r="A42" s="8" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B42" s="8" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="43" spans="1:12">
       <c r="A43" s="8" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B43" s="8" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="44" spans="1:12">
       <c r="A44" s="8" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B44" s="8" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="45" spans="1:12">
       <c r="A45" s="8" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B45" s="8" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="46" spans="1:12">
       <c r="A46" s="8" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B46" s="8" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="47" spans="1:12">
       <c r="A47" s="8" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B47" s="8" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
   </sheetData>
@@ -4693,10 +4693,10 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="B9" t="s">
         <v>285</v>
-      </c>
-      <c r="B9" t="s">
-        <v>286</v>
       </c>
     </row>
   </sheetData>

--- a/data Ukraine.xlsx
+++ b/data Ukraine.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\_GitHub\DataSources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{288AAE7A-4F14-4B59-9C74-BD079AA56349}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E57207C3-7300-420D-AF60-B87D53B053D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="898" activeTab="6" xr2:uid="{21FA5A86-4C69-4AEC-AC84-BE14EF54DEBB}"/>
   </bookViews>
@@ -129,15 +129,9 @@
     <t>Dylan's paternal grandparents, Anna Kirghiz and Zigman Zimmerman, emigrated from Odessa in Ukraine to the United States, following the pogroms against Jews of 1905.</t>
   </si>
   <si>
-    <t>is an American singer-songwriter. Often considered to be one of the greatest songwriters in history, Dylan has been a major figure in popular culture over his 60-year career. He rose to prominence in the 1960s, when his songs "Blowin' in the Wind" (1963) and "The Times They Are a-Changin'" (1964) became anthems for the civil rights and antiwar movements.</t>
-  </si>
-  <si>
     <t>Gabriel Swann Macht</t>
   </si>
   <si>
-    <t>is an American actor. He is best known for portraying Harvey Specter in the USA Network series Suits (2011–2019).</t>
-  </si>
-  <si>
     <t>Spielberg's paternal grandparents were Jews from Ukraine; his grandmother Rebecca, maiden name Chechik, was from Sudylkiv, and his grandfather Shmuel Spielberg was from Kamianets-Podilskyi. Schmuel escaped to Cincinnati in 1906 to avoid being drafted into the Russian army, and he brought his fiancée Rebecca there in 1908.</t>
   </si>
   <si>
@@ -147,15 +141,9 @@
     <t>Sylvester Stallone</t>
   </si>
   <si>
-    <t>is an American actor and filmmaker. He has received numerous accolades. Stallone is one of only two actors in history (alongside Harrison Ford) to have starred in a box-office No. 1 film across six consecutive decades.</t>
-  </si>
-  <si>
     <t>Milla Jovovich</t>
   </si>
   <si>
-    <t>is an American actress and former fashion model. In 2004, Forbes determined that she was the highest-paid model in the world.</t>
-  </si>
-  <si>
     <t>Mila Kunis</t>
   </si>
   <si>
@@ -177,9 +165,6 @@
     <t>Jeff Goldblum</t>
   </si>
   <si>
-    <t>is an American actor and musician. He has starred in some of the highest-grossing films, such as Jurassic Park (1993) and Independence Day (1996), as well as their sequels.</t>
-  </si>
-  <si>
     <t>Dustin Hoffman</t>
   </si>
   <si>
@@ -240,9 +225,6 @@
     <t> is an American actor and film producer. He has received numerous accolades</t>
   </si>
   <si>
-    <t>is an American actor and musician. His films, in which he has often played eccentric characters, have grossed over $8 billion worldwide, making him one of Hollywood's most bankable stars.</t>
-  </si>
-  <si>
     <t>David Duchovny</t>
   </si>
   <si>
@@ -282,18 +264,12 @@
     <t>is an American musician, best known as the lead singer and songwriter of the heavy metal band Twisted Sister. </t>
   </si>
   <si>
-    <t>is an American singer, best known as the lead singer of the Boston-based rock band Aerosmith, in which he also plays the keyboards, harmonica and percussion. He has been called the "Demon of Screamin'" due to his high screams and his powerful wide vocal range.</t>
-  </si>
-  <si>
     <t>Leonardo DiCaprio</t>
   </si>
   <si>
     <t>Ukrainian grandmother, Olena Smirnova, who lived in Odessa. </t>
   </si>
   <si>
-    <t xml:space="preserve">is an American film director, producer and screenwriter. A major figure of the New Hollywood era and pioneer of the modern blockbuster, he is the most commercially successful director in history. His movies have grossed more than $11 billion. </t>
-  </si>
-  <si>
     <t>Olga Kurylenko</t>
   </si>
   <si>
@@ -324,36 +300,21 @@
     <t>Bill’s mother wrote that her parents spoke Ukrainian, and his grandfather Ivan identified himself as a Ruthenian or “Carpathian” from Halychyna. </t>
   </si>
   <si>
-    <t>was an American actress who began her career in film as a child and successfully transitioned to young adult roles. Queen of Hollywood, Natalie Wood - real name Natalia Zakharenko.</t>
-  </si>
-  <si>
-    <t>Her father’s family had origins in Kharkiv.</t>
-  </si>
-  <si>
     <t>Rick Danko</t>
   </si>
   <si>
-    <t>Canadian Rick Danko gained fame in the legendary rock band The Band, which was at its most popular in the late ’60s and early ’70s. He was a bass player, rhythm guitarist, and co-singer in the group.</t>
-  </si>
-  <si>
     <t>Rick’s paternal grandparents were named Joseph and Paraskeviya Danko. His parents were born in Ukraine, and they later emigrated to Canada.</t>
   </si>
   <si>
     <t>Tony Levin</t>
   </si>
   <si>
-    <t>one of the greatest bass players of our time. He has played with Pink Floyd, King Crimson, Yes, Peter Gabriel, David Bowie, Paul Simon, John Lennon, Lou Reed, and Tom Waits. Ultimately, he has contributed to over 500 albums by various artists. </t>
-  </si>
-  <si>
     <t>“My grandparents were from Berdychiv (in the north-west of Ukraine — ed.), but then they moved to a small town called Ostropil (currently the village of Staryi Ostropil in the west of Ukraine — ed.), which my mother used to call Ostropoliya, and that’s where she was born.”</t>
   </si>
   <si>
     <t>Melanie Safka</t>
   </si>
   <si>
-    <t>The singer Melanie, also professionally known as Melanie Safka, was at the height of her fame in the 1970s. She is a vocalist, guitarist, composer, songwriter, and a symbol of the Woodstock rock festival. Melanie is known as the first pop-rock singer to perform in some of the most famous classical music halls</t>
-  </si>
-  <si>
     <t>Her Ukrainian father owned a discount store chain, and her Italian mother was a jazz singer. Peter Schekeryk, Melanie’s husband and producer, was also of Ukrainian descent.</t>
   </si>
   <si>
@@ -361,9 +322,6 @@
   </si>
   <si>
     <t>“If my voice comes from the depths of my family history, perhaps one of my forefathers in Kyiv was a deacon.”</t>
-  </si>
-  <si>
-    <t>Bolton became known for his series of pop-rock ballads in the late 1980s. The singer has sold more than 75 million records, recorded 8 albums that reached the top 10 charts of Billboard magazine</t>
   </si>
   <si>
     <t>American actor David Duchovny’s grandfather, Moishe Duchovny, emigrated from Berdychiv in 1918 and became a writer and journalist in New York. </t>
@@ -399,9 +357,6 @@
   </si>
   <si>
     <t xml:space="preserve">is an American actress. Winona wants make a film about World War II in Ukraine. </t>
-  </si>
-  <si>
-    <t> is an American actress. Farmiga began her professional acting career on stage in the original Broadway</t>
   </si>
   <si>
     <t>Her parents are Ukrainians: Mykhailo Farmiga, a systems analyst-turned-landscaper, and his wife Lubomyra "Luba" (née Spas), a schoolteacher. Parents moved to the United States from Ukraine. Despite being born in the United States, she did not speak English until she was six years old. She attended a Ukrainian school in New Jersey, performed with the Syzokryli Ukrainian Dance Ensemble, and was a member of Plast.</t>
@@ -1293,9 +1248,6 @@
     <t>an American composer and pianist whose compositions spanned popular, jazz and classical genres.</t>
   </si>
   <si>
-    <t>an American conductor, composer, pianist, music educator, author, and humanitarian. Considered to be one of the most important conductors of his time.</t>
-  </si>
-  <si>
     <t>an American magician, described by Forbes as the most commercially successful magician in history.</t>
   </si>
   <si>
@@ -1321,6 +1273,54 @@
   </si>
   <si>
     <t>Alan Arkin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">is an American singer-songwriter. Often considered to be one of the greatest songwriters in history. </t>
+  </si>
+  <si>
+    <t>is an American actor. He is best known for portraying Harvey Specter in the USA Network series Suits.</t>
+  </si>
+  <si>
+    <t>is an American actor and musician. He has starred in some of the highest-grossing films, such as Jurassic Park and Independence Day.</t>
+  </si>
+  <si>
+    <t>is an American actor and musician, one of Hollywood's most bankable stars.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">an American conductor, composer, pianist, music educator, author, and humanitarian. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">is a vocalist, guitarist, composer, songwriter, and a symbol of the Woodstock rock festival. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bolton became known for his series of pop-rock ballads in the late 1980s. </t>
+  </si>
+  <si>
+    <t>is an American actress and former fashion model. Forbes determined that she was the highest-paid model in the world.</t>
+  </si>
+  <si>
+    <t>Real name Natalia Zakharenko. Her father’s family had origins in Kharkiv.</t>
+  </si>
+  <si>
+    <t>was an American actress who began her career in film as a child and successfully transitioned to young adult roles.</t>
+  </si>
+  <si>
+    <t>gained fame in the legendary rock band The Band. He was a bass player, rhythm guitarist, and co-singer in the group.</t>
+  </si>
+  <si>
+    <t>is an American film director, producer and screenwriter, pioneer of the modern blockbuster.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">is an American lead singer of the rock band Aerosmith, he also plays the keyboards, harmonica and percussion. </t>
+  </si>
+  <si>
+    <t>is an American actor and filmmaker. He is one of only two actors in history (alongside Harrison Ford) to have starred in a box-office No. 1 film across six consecutive decades.</t>
+  </si>
+  <si>
+    <t>one of the greatest bass players of our time. He has played with Pink Floyd, King Crimson, Yes, Peter Gabriel, David Bowie, Paul Simon, John Lennon... contributed to over 500 albums by various artists. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> is an American actresses. </t>
   </si>
 </sst>
 </file>
@@ -1800,50 +1800,50 @@
   <sheetData>
     <row r="1" spans="1:2" ht="43.2">
       <c r="A1" t="s">
-        <v>179</v>
+        <v>164</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>237</v>
+        <v>222</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>274</v>
+        <v>259</v>
       </c>
       <c r="B2" t="s">
-        <v>234</v>
+        <v>219</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>275</v>
+        <v>260</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>235</v>
+        <v>220</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>276</v>
+        <v>261</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>236</v>
+        <v>221</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>277</v>
+        <v>262</v>
       </c>
       <c r="B5" t="s">
-        <v>278</v>
+        <v>263</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>287</v>
+        <v>272</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>288</v>
+        <v>273</v>
       </c>
     </row>
   </sheetData>
@@ -1907,12 +1907,12 @@
     </row>
     <row r="5" spans="1:4" ht="28.8">
       <c r="B5" s="5" t="s">
-        <v>283</v>
+        <v>268</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="28.8">
       <c r="B7" s="4" t="s">
-        <v>396</v>
+        <v>381</v>
       </c>
     </row>
   </sheetData>
@@ -1940,21 +1940,21 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="13" t="s">
-        <v>272</v>
+        <v>257</v>
       </c>
       <c r="B1" s="13" t="s">
-        <v>273</v>
+        <v>258</v>
       </c>
       <c r="C1" s="13" t="s">
-        <v>286</v>
+        <v>271</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>240</v>
+        <v>225</v>
       </c>
       <c r="B2" t="s">
-        <v>245</v>
+        <v>230</v>
       </c>
       <c r="C2">
         <v>14</v>
@@ -1962,10 +1962,10 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>242</v>
+        <v>227</v>
       </c>
       <c r="B3" t="s">
-        <v>247</v>
+        <v>232</v>
       </c>
       <c r="C3">
         <v>12</v>
@@ -1973,10 +1973,10 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>239</v>
+        <v>224</v>
       </c>
       <c r="B4" t="s">
-        <v>244</v>
+        <v>229</v>
       </c>
       <c r="C4">
         <v>8</v>
@@ -1984,10 +1984,10 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>238</v>
+        <v>223</v>
       </c>
       <c r="B5" t="s">
-        <v>243</v>
+        <v>228</v>
       </c>
       <c r="C5">
         <v>6</v>
@@ -1995,10 +1995,10 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>241</v>
+        <v>226</v>
       </c>
       <c r="B6" t="s">
-        <v>246</v>
+        <v>231</v>
       </c>
       <c r="C6">
         <v>2</v>
@@ -2029,57 +2029,57 @@
   <sheetData>
     <row r="1" spans="1:16" s="16" customFormat="1" ht="25.8" customHeight="1">
       <c r="A1" s="14" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B1" s="15" t="s">
-        <v>183</v>
+        <v>168</v>
       </c>
       <c r="C1" s="15" t="s">
-        <v>292</v>
+        <v>277</v>
       </c>
       <c r="D1" s="15" t="s">
-        <v>188</v>
+        <v>173</v>
       </c>
       <c r="E1" s="15" t="s">
-        <v>192</v>
+        <v>177</v>
       </c>
       <c r="F1" s="15" t="s">
-        <v>303</v>
+        <v>288</v>
       </c>
       <c r="G1" s="15" t="s">
-        <v>202</v>
+        <v>187</v>
       </c>
       <c r="H1" s="15" t="s">
-        <v>304</v>
+        <v>289</v>
       </c>
       <c r="I1" s="15" t="s">
-        <v>296</v>
+        <v>281</v>
       </c>
       <c r="J1" s="15" t="s">
-        <v>251</v>
+        <v>236</v>
       </c>
       <c r="K1" s="15" t="s">
-        <v>253</v>
+        <v>238</v>
       </c>
       <c r="L1" s="15" t="s">
+        <v>239</v>
+      </c>
+      <c r="M1" s="15" t="s">
+        <v>244</v>
+      </c>
+      <c r="N1" s="15" t="s">
+        <v>248</v>
+      </c>
+      <c r="O1" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="P1" s="15" t="s">
         <v>254</v>
-      </c>
-      <c r="M1" s="15" t="s">
-        <v>259</v>
-      </c>
-      <c r="N1" s="15" t="s">
-        <v>263</v>
-      </c>
-      <c r="O1" s="15" t="s">
-        <v>271</v>
-      </c>
-      <c r="P1" s="15" t="s">
-        <v>269</v>
       </c>
     </row>
     <row r="2" spans="1:16">
       <c r="A2" t="s">
-        <v>215</v>
+        <v>200</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -2108,7 +2108,7 @@
     </row>
     <row r="3" spans="1:16">
       <c r="A3" t="s">
-        <v>216</v>
+        <v>201</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -2137,7 +2137,7 @@
     </row>
     <row r="4" spans="1:16">
       <c r="A4" t="s">
-        <v>227</v>
+        <v>212</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -2151,7 +2151,7 @@
     </row>
     <row r="5" spans="1:16">
       <c r="A5" t="s">
-        <v>217</v>
+        <v>202</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -2180,7 +2180,7 @@
     </row>
     <row r="6" spans="1:16">
       <c r="A6" t="s">
-        <v>218</v>
+        <v>203</v>
       </c>
       <c r="B6">
         <v>1</v>
@@ -2188,7 +2188,7 @@
     </row>
     <row r="7" spans="1:16">
       <c r="A7" t="s">
-        <v>219</v>
+        <v>204</v>
       </c>
       <c r="B7">
         <v>1</v>
@@ -2196,7 +2196,7 @@
     </row>
     <row r="8" spans="1:16">
       <c r="A8" t="s">
-        <v>220</v>
+        <v>205</v>
       </c>
       <c r="B8">
         <v>1</v>
@@ -2219,7 +2219,7 @@
     </row>
     <row r="9" spans="1:16">
       <c r="A9" t="s">
-        <v>221</v>
+        <v>206</v>
       </c>
       <c r="D9">
         <v>1</v>
@@ -2227,7 +2227,7 @@
     </row>
     <row r="10" spans="1:16">
       <c r="A10" t="s">
-        <v>299</v>
+        <v>284</v>
       </c>
       <c r="B10">
         <v>1</v>
@@ -2235,7 +2235,7 @@
     </row>
     <row r="11" spans="1:16">
       <c r="A11" t="s">
-        <v>300</v>
+        <v>285</v>
       </c>
       <c r="B11">
         <v>1</v>
@@ -2243,7 +2243,7 @@
     </row>
     <row r="12" spans="1:16">
       <c r="A12" t="s">
-        <v>222</v>
+        <v>207</v>
       </c>
       <c r="B12">
         <v>1</v>
@@ -2254,7 +2254,7 @@
     </row>
     <row r="13" spans="1:16">
       <c r="A13" t="s">
-        <v>223</v>
+        <v>208</v>
       </c>
       <c r="B13">
         <v>1</v>
@@ -2265,7 +2265,7 @@
     </row>
     <row r="14" spans="1:16">
       <c r="A14" t="s">
-        <v>224</v>
+        <v>209</v>
       </c>
       <c r="D14">
         <v>1</v>
@@ -2273,7 +2273,7 @@
     </row>
     <row r="15" spans="1:16">
       <c r="A15" t="s">
-        <v>226</v>
+        <v>211</v>
       </c>
       <c r="D15">
         <v>1</v>
@@ -2299,7 +2299,7 @@
     </row>
     <row r="16" spans="1:16">
       <c r="A16" t="s">
-        <v>290</v>
+        <v>275</v>
       </c>
       <c r="F16">
         <v>1</v>
@@ -2319,7 +2319,7 @@
     </row>
     <row r="17" spans="1:16">
       <c r="A17" t="s">
-        <v>228</v>
+        <v>213</v>
       </c>
       <c r="H17">
         <v>1</v>
@@ -2336,7 +2336,7 @@
     </row>
     <row r="18" spans="1:16">
       <c r="A18" t="s">
-        <v>214</v>
+        <v>199</v>
       </c>
       <c r="B18">
         <v>1</v>
@@ -2347,7 +2347,7 @@
     </row>
     <row r="19" spans="1:16">
       <c r="A19" t="s">
-        <v>230</v>
+        <v>215</v>
       </c>
       <c r="B19">
         <v>1</v>
@@ -2370,7 +2370,7 @@
     </row>
     <row r="20" spans="1:16">
       <c r="A20" t="s">
-        <v>231</v>
+        <v>216</v>
       </c>
       <c r="B20">
         <v>1</v>
@@ -2390,7 +2390,7 @@
     </row>
     <row r="21" spans="1:16">
       <c r="A21" t="s">
-        <v>232</v>
+        <v>217</v>
       </c>
       <c r="B21">
         <v>1</v>
@@ -2398,7 +2398,7 @@
     </row>
     <row r="22" spans="1:16">
       <c r="A22" t="s">
-        <v>225</v>
+        <v>210</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -2406,7 +2406,7 @@
     </row>
     <row r="23" spans="1:16">
       <c r="A23" t="s">
-        <v>229</v>
+        <v>214</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -2414,7 +2414,7 @@
     </row>
     <row r="24" spans="1:16">
       <c r="A24" t="s">
-        <v>301</v>
+        <v>286</v>
       </c>
       <c r="K24">
         <v>1</v>
@@ -2422,7 +2422,7 @@
     </row>
     <row r="25" spans="1:16">
       <c r="A25" t="s">
-        <v>302</v>
+        <v>287</v>
       </c>
       <c r="K25">
         <v>1</v>
@@ -2430,7 +2430,7 @@
     </row>
     <row r="26" spans="1:16">
       <c r="A26" t="s">
-        <v>305</v>
+        <v>290</v>
       </c>
       <c r="B26">
         <v>1</v>
@@ -2441,7 +2441,7 @@
     </row>
     <row r="27" spans="1:16">
       <c r="A27" t="s">
-        <v>306</v>
+        <v>291</v>
       </c>
       <c r="B27">
         <v>1</v>
@@ -2452,7 +2452,7 @@
     </row>
     <row r="28" spans="1:16">
       <c r="A28" t="s">
-        <v>307</v>
+        <v>292</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -2460,7 +2460,7 @@
     </row>
     <row r="29" spans="1:16">
       <c r="A29" t="s">
-        <v>308</v>
+        <v>293</v>
       </c>
       <c r="J29">
         <v>1</v>
@@ -2471,7 +2471,7 @@
     </row>
     <row r="30" spans="1:16">
       <c r="A30" t="s">
-        <v>309</v>
+        <v>294</v>
       </c>
       <c r="J30">
         <v>1</v>
@@ -2482,7 +2482,7 @@
     </row>
     <row r="31" spans="1:16">
       <c r="A31" t="s">
-        <v>310</v>
+        <v>295</v>
       </c>
       <c r="B31">
         <v>1</v>
@@ -2523,7 +2523,7 @@
     </row>
     <row r="32" spans="1:16">
       <c r="A32" t="s">
-        <v>311</v>
+        <v>296</v>
       </c>
       <c r="B32">
         <v>1</v>
@@ -2531,7 +2531,7 @@
     </row>
     <row r="33" spans="1:14">
       <c r="A33" t="s">
-        <v>312</v>
+        <v>297</v>
       </c>
       <c r="D33">
         <v>1</v>
@@ -2557,7 +2557,7 @@
     </row>
     <row r="34" spans="1:14">
       <c r="A34" t="s">
-        <v>313</v>
+        <v>298</v>
       </c>
       <c r="B34">
         <v>1</v>
@@ -2586,7 +2586,7 @@
     </row>
     <row r="35" spans="1:14">
       <c r="A35" t="s">
-        <v>314</v>
+        <v>299</v>
       </c>
       <c r="B35">
         <v>1</v>
@@ -2612,7 +2612,7 @@
     </row>
     <row r="36" spans="1:14">
       <c r="A36" t="s">
-        <v>315</v>
+        <v>300</v>
       </c>
       <c r="D36">
         <v>1</v>
@@ -2632,7 +2632,7 @@
     </row>
     <row r="37" spans="1:14">
       <c r="A37" t="s">
-        <v>316</v>
+        <v>301</v>
       </c>
       <c r="E37">
         <v>1</v>
@@ -2649,7 +2649,7 @@
     </row>
     <row r="38" spans="1:14">
       <c r="A38" t="s">
-        <v>317</v>
+        <v>302</v>
       </c>
       <c r="E38">
         <v>1</v>
@@ -2666,7 +2666,7 @@
     </row>
     <row r="39" spans="1:14">
       <c r="A39" t="s">
-        <v>318</v>
+        <v>303</v>
       </c>
       <c r="E39">
         <v>1</v>
@@ -2686,7 +2686,7 @@
     </row>
     <row r="40" spans="1:14">
       <c r="A40" t="s">
-        <v>319</v>
+        <v>304</v>
       </c>
       <c r="C40">
         <v>1</v>
@@ -2739,40 +2739,40 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" s="6" t="s">
-        <v>181</v>
+        <v>166</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>182</v>
+        <v>167</v>
       </c>
       <c r="C1" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="E1" s="6" t="s">
         <v>178</v>
       </c>
-      <c r="D1" s="6" t="s">
-        <v>179</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>193</v>
-      </c>
       <c r="F1" s="6" t="s">
-        <v>345</v>
+        <v>330</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>338</v>
+        <v>323</v>
       </c>
       <c r="H1" s="6" t="s">
-        <v>187</v>
+        <v>172</v>
       </c>
       <c r="I1" s="6" t="s">
-        <v>272</v>
+        <v>257</v>
       </c>
       <c r="J1" s="6" t="s">
-        <v>184</v>
+        <v>169</v>
       </c>
       <c r="K1" s="6" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="L1" s="6" t="s">
-        <v>180</v>
+        <v>165</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="86.4">
@@ -2783,31 +2783,31 @@
         <v>45323</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>348</v>
+        <v>333</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>360</v>
+        <v>345</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>344</v>
+        <v>329</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>233</v>
+        <v>218</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>339</v>
+        <v>324</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>342</v>
+        <v>327</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>238</v>
+        <v>223</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>381</v>
+        <v>366</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>361</v>
+        <v>346</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="72">
@@ -2818,31 +2818,31 @@
         <v>44593</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>183</v>
+        <v>168</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>185</v>
+        <v>170</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>194</v>
+        <v>179</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>346</v>
+        <v>331</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>339</v>
+        <v>324</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>342</v>
+        <v>327</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>239</v>
+        <v>224</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>387</v>
+        <v>372</v>
       </c>
       <c r="K3" s="4" t="s">
-        <v>186</v>
+        <v>171</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="72">
@@ -2853,31 +2853,31 @@
         <v>44713</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>292</v>
+        <v>277</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>291</v>
+        <v>276</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>293</v>
+        <v>278</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>346</v>
+        <v>331</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>339</v>
+        <v>324</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>343</v>
+        <v>328</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>239</v>
+        <v>224</v>
       </c>
       <c r="J4" s="5" t="s">
-        <v>388</v>
+        <v>373</v>
       </c>
       <c r="K4" s="4" t="s">
-        <v>294</v>
+        <v>279</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="86.4">
@@ -2888,31 +2888,31 @@
         <v>44593</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>188</v>
+        <v>173</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>190</v>
+        <v>175</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>195</v>
+        <v>180</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>346</v>
+        <v>331</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>340</v>
+        <v>325</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>343</v>
+        <v>328</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>240</v>
+        <v>225</v>
       </c>
       <c r="J5" s="5" t="s">
-        <v>377</v>
+        <v>362</v>
       </c>
       <c r="K5" s="4" t="s">
-        <v>189</v>
+        <v>174</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="72">
@@ -2923,31 +2923,31 @@
         <v>44531</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>192</v>
+        <v>177</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>191</v>
+        <v>176</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>196</v>
+        <v>181</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>346</v>
+        <v>331</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>340</v>
+        <v>325</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>343</v>
+        <v>328</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>240</v>
+        <v>225</v>
       </c>
       <c r="J6" s="5" t="s">
-        <v>379</v>
+        <v>364</v>
       </c>
       <c r="K6" s="4" t="s">
-        <v>197</v>
+        <v>182</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="86.4">
@@ -2958,31 +2958,31 @@
         <v>44317</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>303</v>
+        <v>288</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>198</v>
+        <v>183</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>199</v>
+        <v>184</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>346</v>
+        <v>331</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>339</v>
+        <v>324</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>343</v>
+        <v>328</v>
       </c>
       <c r="I7" s="4" t="s">
-        <v>240</v>
+        <v>225</v>
       </c>
       <c r="J7" s="5" t="s">
-        <v>385</v>
+        <v>370</v>
       </c>
       <c r="K7" s="4" t="s">
-        <v>200</v>
+        <v>185</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="86.4">
@@ -2993,31 +2993,31 @@
         <v>44317</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>202</v>
+        <v>187</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>201</v>
+        <v>186</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>289</v>
+        <v>274</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>346</v>
+        <v>331</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>339</v>
+        <v>324</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>343</v>
+        <v>328</v>
       </c>
       <c r="I8" s="4" t="s">
-        <v>240</v>
+        <v>225</v>
       </c>
       <c r="J8" s="5" t="s">
-        <v>376</v>
+        <v>361</v>
       </c>
       <c r="K8" s="4" t="s">
-        <v>203</v>
+        <v>188</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="72">
@@ -3028,16 +3028,16 @@
         <v>43556</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>372</v>
+        <v>357</v>
       </c>
       <c r="F9" s="4" t="s">
+        <v>332</v>
+      </c>
+      <c r="J9" s="5" t="s">
+        <v>369</v>
+      </c>
+      <c r="K9" s="4" t="s">
         <v>347</v>
-      </c>
-      <c r="J9" s="5" t="s">
-        <v>384</v>
-      </c>
-      <c r="K9" s="4" t="s">
-        <v>362</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="86.4">
@@ -3048,31 +3048,31 @@
         <v>42856</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>304</v>
+        <v>289</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>204</v>
+        <v>189</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>205</v>
+        <v>190</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>346</v>
+        <v>331</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>341</v>
+        <v>326</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>342</v>
+        <v>327</v>
       </c>
       <c r="I10" s="4" t="s">
-        <v>242</v>
+        <v>227</v>
       </c>
       <c r="J10" s="5" t="s">
-        <v>386</v>
+        <v>371</v>
       </c>
       <c r="K10" s="4" t="s">
-        <v>206</v>
+        <v>191</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="72">
@@ -3083,31 +3083,31 @@
         <v>41183</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>373</v>
+        <v>358</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>295</v>
+        <v>280</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>297</v>
+        <v>282</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>346</v>
+        <v>331</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>341</v>
+        <v>326</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>342</v>
+        <v>327</v>
       </c>
       <c r="I11" s="4" t="s">
-        <v>242</v>
+        <v>227</v>
       </c>
       <c r="J11" s="5" t="s">
-        <v>380</v>
+        <v>365</v>
       </c>
       <c r="K11" s="4" t="s">
-        <v>364</v>
+        <v>349</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="72">
@@ -3118,16 +3118,16 @@
         <v>40664</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>374</v>
+        <v>359</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>347</v>
+        <v>332</v>
       </c>
       <c r="J12" s="5" t="s">
-        <v>383</v>
+        <v>368</v>
       </c>
       <c r="K12" s="4" t="s">
-        <v>363</v>
+        <v>348</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="115.2">
@@ -3138,31 +3138,31 @@
         <v>39873</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>251</v>
+        <v>236</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>298</v>
+        <v>283</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>349</v>
+        <v>334</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>346</v>
+        <v>331</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>341</v>
+        <v>326</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>342</v>
+        <v>327</v>
       </c>
       <c r="I13" s="4" t="s">
-        <v>240</v>
+        <v>225</v>
       </c>
       <c r="J13" s="5" t="s">
-        <v>382</v>
+        <v>367</v>
       </c>
       <c r="K13" s="4" t="s">
-        <v>365</v>
+        <v>350</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="115.2">
@@ -3173,31 +3173,31 @@
         <v>39873</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>251</v>
+        <v>236</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>248</v>
+        <v>233</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>349</v>
+        <v>334</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>233</v>
+        <v>218</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>341</v>
+        <v>326</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>342</v>
+        <v>327</v>
       </c>
       <c r="I14" s="4" t="s">
-        <v>240</v>
+        <v>225</v>
       </c>
       <c r="J14" s="5" t="s">
-        <v>382</v>
+        <v>367</v>
       </c>
       <c r="K14" s="4" t="s">
-        <v>366</v>
+        <v>351</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="115.2">
@@ -3208,31 +3208,31 @@
         <v>38504</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>251</v>
+        <v>236</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>249</v>
+        <v>234</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>349</v>
+        <v>334</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>233</v>
+        <v>218</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>341</v>
+        <v>326</v>
       </c>
       <c r="H15" s="4" t="s">
-        <v>342</v>
+        <v>327</v>
       </c>
       <c r="I15" s="4" t="s">
-        <v>240</v>
+        <v>225</v>
       </c>
       <c r="J15" s="5" t="s">
-        <v>382</v>
+        <v>367</v>
       </c>
       <c r="K15" s="4" t="s">
-        <v>367</v>
+        <v>352</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="115.2">
@@ -3243,31 +3243,31 @@
         <v>38504</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>251</v>
+        <v>236</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>250</v>
+        <v>235</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>349</v>
+        <v>334</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>233</v>
+        <v>218</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>341</v>
+        <v>326</v>
       </c>
       <c r="H16" s="4" t="s">
-        <v>342</v>
+        <v>327</v>
       </c>
       <c r="I16" s="4" t="s">
-        <v>240</v>
+        <v>225</v>
       </c>
       <c r="J16" s="5" t="s">
-        <v>382</v>
+        <v>367</v>
       </c>
       <c r="K16" s="4" t="s">
-        <v>368</v>
+        <v>353</v>
       </c>
     </row>
     <row r="17" spans="1:11" ht="115.2">
@@ -3278,31 +3278,31 @@
         <v>37408</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>253</v>
+        <v>238</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>252</v>
+        <v>237</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>350</v>
+        <v>335</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>233</v>
+        <v>218</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>341</v>
+        <v>326</v>
       </c>
       <c r="H17" s="4" t="s">
-        <v>342</v>
+        <v>327</v>
       </c>
       <c r="I17" s="4" t="s">
-        <v>242</v>
+        <v>227</v>
       </c>
       <c r="J17" s="5" t="s">
-        <v>378</v>
+        <v>363</v>
       </c>
       <c r="K17" s="4" t="s">
-        <v>369</v>
+        <v>354</v>
       </c>
     </row>
     <row r="18" spans="1:11" ht="57.6">
@@ -3313,31 +3313,31 @@
         <v>45383</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>254</v>
+        <v>239</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>255</v>
+        <v>240</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>351</v>
+        <v>336</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>233</v>
+        <v>218</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>339</v>
+        <v>324</v>
       </c>
       <c r="H18" s="4" t="s">
-        <v>343</v>
+        <v>328</v>
       </c>
       <c r="I18" s="4" t="s">
-        <v>239</v>
+        <v>224</v>
       </c>
       <c r="J18" s="5" t="s">
-        <v>389</v>
+        <v>374</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>257</v>
+        <v>242</v>
       </c>
     </row>
     <row r="19" spans="1:11" ht="57.6">
@@ -3348,31 +3348,31 @@
         <v>44652</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>259</v>
+        <v>244</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>258</v>
+        <v>243</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>352</v>
+        <v>337</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>233</v>
+        <v>218</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>339</v>
+        <v>324</v>
       </c>
       <c r="H19" s="4" t="s">
+        <v>328</v>
+      </c>
+      <c r="I19" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="J19" s="5" t="s">
         <v>343</v>
       </c>
-      <c r="I19" s="4" t="s">
-        <v>239</v>
-      </c>
-      <c r="J19" s="5" t="s">
-        <v>358</v>
-      </c>
       <c r="K19" s="1" t="s">
-        <v>260</v>
+        <v>245</v>
       </c>
     </row>
     <row r="20" spans="1:11" ht="57.6">
@@ -3383,31 +3383,31 @@
         <v>44835</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>263</v>
+        <v>248</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>261</v>
+        <v>246</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>352</v>
+        <v>337</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>233</v>
+        <v>218</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>339</v>
+        <v>324</v>
       </c>
       <c r="H20" s="4" t="s">
-        <v>343</v>
+        <v>328</v>
       </c>
       <c r="I20" s="4" t="s">
-        <v>239</v>
+        <v>224</v>
       </c>
       <c r="J20" s="5" t="s">
-        <v>356</v>
+        <v>341</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>262</v>
+        <v>247</v>
       </c>
     </row>
     <row r="21" spans="1:11" ht="57.6">
@@ -3418,31 +3418,31 @@
         <v>44835</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>263</v>
+        <v>248</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>264</v>
+        <v>249</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>352</v>
+        <v>337</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>233</v>
+        <v>218</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>339</v>
+        <v>324</v>
       </c>
       <c r="H21" s="4" t="s">
-        <v>343</v>
+        <v>328</v>
       </c>
       <c r="I21" s="4" t="s">
-        <v>239</v>
+        <v>224</v>
       </c>
       <c r="J21" s="5" t="s">
-        <v>356</v>
+        <v>341</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>265</v>
+        <v>250</v>
       </c>
     </row>
     <row r="22" spans="1:11" ht="57.6">
@@ -3453,31 +3453,31 @@
         <v>43525</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>271</v>
+        <v>256</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>266</v>
+        <v>251</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>354</v>
+        <v>339</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>233</v>
+        <v>218</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>339</v>
+        <v>324</v>
       </c>
       <c r="H22" s="4" t="s">
-        <v>343</v>
+        <v>328</v>
       </c>
       <c r="I22" s="4" t="s">
-        <v>242</v>
+        <v>227</v>
       </c>
       <c r="J22" s="5" t="s">
-        <v>357</v>
+        <v>342</v>
       </c>
       <c r="K22" s="1" t="s">
-        <v>267</v>
+        <v>252</v>
       </c>
     </row>
     <row r="23" spans="1:11" ht="57.6">
@@ -3488,31 +3488,31 @@
         <v>42005</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>269</v>
+        <v>254</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>270</v>
+        <v>255</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>353</v>
+        <v>338</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>233</v>
+        <v>218</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>339</v>
+        <v>324</v>
       </c>
       <c r="H23" s="4" t="s">
-        <v>343</v>
+        <v>328</v>
       </c>
       <c r="I23" s="4" t="s">
-        <v>242</v>
+        <v>227</v>
       </c>
       <c r="J23" s="5" t="s">
-        <v>359</v>
+        <v>344</v>
       </c>
       <c r="K23" s="1" t="s">
-        <v>268</v>
+        <v>253</v>
       </c>
     </row>
     <row r="24" spans="1:11" ht="57.6">
@@ -3523,31 +3523,31 @@
         <v>45383</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>269</v>
+        <v>254</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>322</v>
+        <v>307</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>320</v>
+        <v>305</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>346</v>
+        <v>331</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>339</v>
+        <v>324</v>
       </c>
       <c r="H24" s="4" t="s">
-        <v>343</v>
+        <v>328</v>
       </c>
       <c r="I24" s="17" t="s">
-        <v>240</v>
+        <v>225</v>
       </c>
       <c r="J24" s="5" t="s">
-        <v>359</v>
+        <v>344</v>
       </c>
       <c r="K24" s="1" t="s">
-        <v>279</v>
+        <v>264</v>
       </c>
     </row>
     <row r="25" spans="1:11" ht="72">
@@ -3558,31 +3558,31 @@
         <v>43983</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>323</v>
+        <v>308</v>
       </c>
       <c r="D25" s="4" t="s">
+        <v>309</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>340</v>
+      </c>
+      <c r="F25" s="17" t="s">
+        <v>265</v>
+      </c>
+      <c r="G25" s="4" t="s">
         <v>324</v>
       </c>
-      <c r="E25" s="4" t="s">
+      <c r="H25" s="4" t="s">
+        <v>328</v>
+      </c>
+      <c r="I25" s="17" t="s">
+        <v>225</v>
+      </c>
+      <c r="J25" s="5" t="s">
+        <v>374</v>
+      </c>
+      <c r="K25" s="4" t="s">
         <v>355</v>
-      </c>
-      <c r="F25" s="17" t="s">
-        <v>280</v>
-      </c>
-      <c r="G25" s="4" t="s">
-        <v>339</v>
-      </c>
-      <c r="H25" s="4" t="s">
-        <v>343</v>
-      </c>
-      <c r="I25" s="17" t="s">
-        <v>240</v>
-      </c>
-      <c r="J25" s="5" t="s">
-        <v>389</v>
-      </c>
-      <c r="K25" s="4" t="s">
-        <v>370</v>
       </c>
     </row>
     <row r="26" spans="1:11" ht="86.4">
@@ -3593,31 +3593,31 @@
         <v>44593</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>282</v>
+        <v>267</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>281</v>
+        <v>266</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>321</v>
+        <v>306</v>
       </c>
       <c r="F26" s="17" t="s">
-        <v>280</v>
+        <v>265</v>
       </c>
       <c r="G26" s="4" t="s">
-        <v>339</v>
+        <v>324</v>
       </c>
       <c r="H26" s="4" t="s">
-        <v>343</v>
+        <v>328</v>
       </c>
       <c r="I26" s="17" t="s">
-        <v>240</v>
+        <v>225</v>
       </c>
       <c r="J26" s="5" t="s">
-        <v>375</v>
+        <v>360</v>
       </c>
       <c r="K26" s="4" t="s">
-        <v>371</v>
+        <v>356</v>
       </c>
     </row>
   </sheetData>
@@ -3656,58 +3656,58 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="6" t="s">
-        <v>178</v>
+        <v>163</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>335</v>
+        <v>320</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>336</v>
+        <v>321</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>337</v>
+        <v>322</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="100.8">
       <c r="A2" s="4" t="s">
-        <v>183</v>
+        <v>168</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>331</v>
+        <v>316</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>332</v>
+        <v>317</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>333</v>
+        <v>318</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="57.6">
       <c r="A3" s="4" t="s">
-        <v>292</v>
+        <v>277</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>327</v>
+        <v>312</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>334</v>
+        <v>319</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>326</v>
+        <v>311</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="187.2">
       <c r="A4" s="4" t="s">
-        <v>188</v>
+        <v>173</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>328</v>
+        <v>313</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>329</v>
+        <v>314</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>330</v>
+        <v>315</v>
       </c>
     </row>
   </sheetData>
@@ -3734,42 +3734,42 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="13" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B1" s="13" t="s">
-        <v>256</v>
+        <v>241</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>208</v>
+        <v>193</v>
       </c>
       <c r="B2" t="s">
-        <v>207</v>
+        <v>192</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>209</v>
+        <v>194</v>
       </c>
       <c r="B3" t="s">
-        <v>210</v>
+        <v>195</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>212</v>
+        <v>197</v>
       </c>
       <c r="B4" t="s">
-        <v>211</v>
+        <v>196</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>213</v>
+        <v>198</v>
       </c>
       <c r="B5" t="s">
-        <v>325</v>
+        <v>310</v>
       </c>
     </row>
   </sheetData>
@@ -3784,14 +3784,14 @@
   </sheetPr>
   <dimension ref="A1:I39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="20.109375" style="4" customWidth="1"/>
-    <col min="2" max="2" width="53.21875" style="4" customWidth="1"/>
+    <col min="2" max="2" width="44.5546875" style="4" customWidth="1"/>
     <col min="3" max="3" width="61.77734375" style="4" customWidth="1"/>
     <col min="4" max="4" width="2.6640625" style="4" customWidth="1"/>
     <col min="5" max="5" width="65.5546875" style="4" customWidth="1"/>
@@ -3800,43 +3800,43 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="6" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="28.8">
       <c r="A2" s="4" t="s">
-        <v>409</v>
+        <v>393</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="28.8">
       <c r="A3" s="4" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="86.4">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="43.2">
       <c r="A4" s="4" t="s">
         <v>24</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>26</v>
+        <v>394</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>25</v>
@@ -3844,387 +3844,387 @@
     </row>
     <row r="5" spans="1:3" ht="28.8">
       <c r="A5" s="4" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="43.2">
       <c r="A6" s="4" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="28.8">
       <c r="A7" s="4" t="s">
-        <v>390</v>
+        <v>375</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>401</v>
+        <v>385</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>391</v>
+        <v>376</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="43.2">
       <c r="A8" s="4" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>105</v>
+        <v>91</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="28.8">
       <c r="A9" s="4" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="28.8">
       <c r="A10" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B10" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="B10" s="4" t="s">
-        <v>48</v>
-      </c>
       <c r="C10" s="4" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="28.8">
       <c r="A11" s="4" t="s">
-        <v>112</v>
+        <v>98</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>111</v>
+        <v>97</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>113</v>
+        <v>99</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="43.2">
       <c r="A12" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>28</v>
+        <v>395</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="28.8">
       <c r="A13" s="4" t="s">
-        <v>394</v>
+        <v>379</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>399</v>
+        <v>384</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>395</v>
+        <v>380</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="28.8">
       <c r="A14" s="4" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>403</v>
+        <v>387</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="43.2">
       <c r="A15" s="4" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>42</v>
+        <v>396</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="43.2">
       <c r="A16" s="4" t="s">
-        <v>119</v>
+        <v>104</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>120</v>
+        <v>105</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="43.2">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="28.8">
       <c r="A17" s="4" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>63</v>
+        <v>397</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="43.2">
       <c r="A18" s="4" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>106</v>
+        <v>92</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="43.2">
       <c r="A19" s="4" t="s">
-        <v>392</v>
+        <v>377</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>393</v>
+        <v>378</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="28.8">
       <c r="A20" s="4" t="s">
-        <v>397</v>
+        <v>382</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>398</v>
+        <v>383</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>402</v>
+        <v>386</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="4" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>404</v>
+        <v>388</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="72">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="43.2">
       <c r="A22" s="4" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>100</v>
+        <v>399</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="57.6">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="28.8">
       <c r="A23" s="4" t="s">
-        <v>102</v>
+        <v>89</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>104</v>
+        <v>400</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>103</v>
+        <v>90</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="57.6">
       <c r="A24" s="4" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="72">
       <c r="A25" s="4" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="43.2">
       <c r="A26" s="4" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>34</v>
+        <v>401</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="43.2">
       <c r="A27" s="4" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>91</v>
+        <v>403</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>92</v>
+        <v>402</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="28.8">
       <c r="A28" s="4" t="s">
-        <v>107</v>
+        <v>93</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>405</v>
+        <v>389</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>108</v>
+        <v>94</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="28.8">
       <c r="A29" s="4" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="C29" s="4" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="43.2">
+      <c r="A30" s="4" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" ht="57.6">
-      <c r="A30" s="4" t="s">
-        <v>93</v>
-      </c>
       <c r="B30" s="4" t="s">
-        <v>94</v>
+        <v>404</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="28.8">
       <c r="A31" s="4" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>406</v>
+        <v>390</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="43.2">
       <c r="A32" s="4" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>407</v>
+        <v>391</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>408</v>
+        <v>392</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="72">
       <c r="A33" s="4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>80</v>
+        <v>405</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" ht="72">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="43.2">
       <c r="A34" s="4" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="B34" s="4" t="s">
+        <v>406</v>
+      </c>
+      <c r="C34" s="4" t="s">
         <v>77</v>
-      </c>
-      <c r="C34" s="4" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="57.6">
       <c r="A35" s="4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>32</v>
+        <v>407</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="57.6">
       <c r="A36" s="4" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>97</v>
+        <v>408</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="86.4">
       <c r="A37" s="4" t="s">
-        <v>118</v>
+        <v>103</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>116</v>
+        <v>409</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="57.6">
       <c r="A38" s="4" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>109</v>
+        <v>95</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="28.8">
       <c r="A39" s="4" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>115</v>
+        <v>101</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>114</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -4252,23 +4252,23 @@
   <sheetData>
     <row r="1" spans="1:18" ht="25.8">
       <c r="B1" s="10" t="s">
-        <v>122</v>
+        <v>107</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>156</v>
+        <v>141</v>
       </c>
     </row>
     <row r="2" spans="1:18" ht="24.6">
       <c r="B2" s="9" t="s">
-        <v>155</v>
+        <v>140</v>
       </c>
       <c r="R2" s="1" t="s">
-        <v>157</v>
+        <v>142</v>
       </c>
     </row>
     <row r="3" spans="1:18">
       <c r="R3" s="1" t="s">
-        <v>176</v>
+        <v>161</v>
       </c>
     </row>
     <row r="4" spans="1:18">
@@ -4276,328 +4276,328 @@
     </row>
     <row r="5" spans="1:18">
       <c r="B5" t="s">
-        <v>160</v>
+        <v>145</v>
       </c>
       <c r="R5" s="1"/>
     </row>
     <row r="6" spans="1:18">
       <c r="B6" t="s">
-        <v>159</v>
+        <v>144</v>
       </c>
       <c r="R6" s="1"/>
     </row>
     <row r="7" spans="1:18">
       <c r="B7" t="s">
-        <v>158</v>
+        <v>143</v>
       </c>
       <c r="R7" s="1"/>
     </row>
     <row r="8" spans="1:18">
       <c r="B8" t="s">
-        <v>123</v>
+        <v>108</v>
       </c>
     </row>
     <row r="9" spans="1:18">
       <c r="B9" t="s">
-        <v>124</v>
+        <v>109</v>
       </c>
     </row>
     <row r="10" spans="1:18">
       <c r="B10" s="7" t="s">
-        <v>125</v>
+        <v>110</v>
       </c>
     </row>
     <row r="11" spans="1:18">
       <c r="B11" s="7" t="s">
-        <v>126</v>
+        <v>111</v>
       </c>
     </row>
     <row r="12" spans="1:18">
       <c r="B12" s="7" t="s">
-        <v>127</v>
+        <v>112</v>
       </c>
     </row>
     <row r="13" spans="1:18">
       <c r="B13" s="7" t="s">
-        <v>128</v>
+        <v>113</v>
       </c>
     </row>
     <row r="14" spans="1:18">
       <c r="B14" s="7" t="s">
-        <v>129</v>
+        <v>114</v>
       </c>
     </row>
     <row r="15" spans="1:18">
       <c r="B15" s="7" t="s">
-        <v>130</v>
+        <v>115</v>
       </c>
     </row>
     <row r="16" spans="1:18">
       <c r="A16" s="8" t="s">
-        <v>133</v>
+        <v>118</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>131</v>
+        <v>116</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="8" t="s">
-        <v>133</v>
+        <v>118</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>132</v>
+        <v>117</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="8" t="s">
-        <v>133</v>
+        <v>118</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>134</v>
+        <v>119</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="8" t="s">
-        <v>133</v>
+        <v>118</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>135</v>
+        <v>120</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="8" t="s">
-        <v>133</v>
+        <v>118</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>136</v>
+        <v>121</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="8" t="s">
-        <v>133</v>
+        <v>118</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>137</v>
+        <v>122</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="8" t="s">
-        <v>133</v>
+        <v>118</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>138</v>
+        <v>123</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="8" t="s">
-        <v>139</v>
+        <v>124</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>140</v>
+        <v>125</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="8" t="s">
-        <v>139</v>
+        <v>124</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>141</v>
+        <v>126</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="8" t="s">
-        <v>139</v>
+        <v>124</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>142</v>
+        <v>127</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="8" t="s">
-        <v>139</v>
+        <v>124</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>143</v>
+        <v>128</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="8" t="s">
-        <v>139</v>
+        <v>124</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>144</v>
+        <v>129</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="8" t="s">
-        <v>139</v>
+        <v>124</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>145</v>
+        <v>130</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="8" t="s">
-        <v>146</v>
+        <v>131</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>147</v>
+        <v>132</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="8" t="s">
-        <v>146</v>
+        <v>131</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>148</v>
+        <v>133</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="8" t="s">
-        <v>146</v>
+        <v>131</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>149</v>
+        <v>134</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="8" t="s">
-        <v>146</v>
+        <v>131</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>150</v>
+        <v>135</v>
       </c>
     </row>
     <row r="33" spans="1:12">
       <c r="A33" s="8" t="s">
-        <v>151</v>
+        <v>136</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>152</v>
+        <v>137</v>
       </c>
     </row>
     <row r="34" spans="1:12">
       <c r="A34" s="8" t="s">
-        <v>151</v>
+        <v>136</v>
       </c>
       <c r="B34" s="8" t="s">
-        <v>153</v>
+        <v>138</v>
       </c>
     </row>
     <row r="35" spans="1:12">
       <c r="A35" s="8" t="s">
-        <v>151</v>
+        <v>136</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>154</v>
+        <v>139</v>
       </c>
     </row>
     <row r="36" spans="1:12">
       <c r="A36" s="8" t="s">
-        <v>151</v>
+        <v>136</v>
       </c>
       <c r="B36" s="8" t="s">
-        <v>155</v>
+        <v>140</v>
       </c>
     </row>
     <row r="37" spans="1:12">
       <c r="A37" s="8" t="s">
-        <v>161</v>
+        <v>146</v>
       </c>
       <c r="B37" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="J37" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="L37" s="1" t="s">
         <v>162</v>
-      </c>
-      <c r="G37" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="J37" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="L37" s="1" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="38" spans="1:12">
       <c r="A38" s="8" t="s">
-        <v>161</v>
+        <v>146</v>
       </c>
       <c r="B38" s="8" t="s">
-        <v>163</v>
+        <v>148</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>164</v>
+        <v>149</v>
       </c>
     </row>
     <row r="39" spans="1:12">
       <c r="A39" s="8" t="s">
-        <v>161</v>
+        <v>146</v>
       </c>
       <c r="B39" s="8" t="s">
-        <v>165</v>
+        <v>150</v>
       </c>
     </row>
     <row r="40" spans="1:12">
       <c r="A40" s="8" t="s">
-        <v>161</v>
+        <v>146</v>
       </c>
       <c r="B40" s="8" t="s">
-        <v>166</v>
+        <v>151</v>
       </c>
     </row>
     <row r="41" spans="1:12">
       <c r="A41" s="8" t="s">
-        <v>161</v>
+        <v>146</v>
       </c>
       <c r="B41" s="8" t="s">
-        <v>167</v>
+        <v>152</v>
       </c>
     </row>
     <row r="42" spans="1:12">
       <c r="A42" s="8" t="s">
-        <v>161</v>
+        <v>146</v>
       </c>
       <c r="B42" s="8" t="s">
-        <v>168</v>
+        <v>153</v>
       </c>
     </row>
     <row r="43" spans="1:12">
       <c r="A43" s="8" t="s">
-        <v>161</v>
+        <v>146</v>
       </c>
       <c r="B43" s="8" t="s">
-        <v>169</v>
+        <v>154</v>
       </c>
     </row>
     <row r="44" spans="1:12">
       <c r="A44" s="8" t="s">
-        <v>161</v>
+        <v>146</v>
       </c>
       <c r="B44" s="8" t="s">
-        <v>170</v>
+        <v>155</v>
       </c>
     </row>
     <row r="45" spans="1:12">
       <c r="A45" s="8" t="s">
-        <v>161</v>
+        <v>146</v>
       </c>
       <c r="B45" s="8" t="s">
-        <v>171</v>
+        <v>156</v>
       </c>
     </row>
     <row r="46" spans="1:12">
       <c r="A46" s="8" t="s">
-        <v>161</v>
+        <v>146</v>
       </c>
       <c r="B46" s="8" t="s">
-        <v>172</v>
+        <v>157</v>
       </c>
     </row>
     <row r="47" spans="1:12">
       <c r="A47" s="8" t="s">
-        <v>161</v>
+        <v>146</v>
       </c>
       <c r="B47" s="8" t="s">
-        <v>173</v>
+        <v>158</v>
       </c>
     </row>
   </sheetData>
@@ -4693,10 +4693,10 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
-        <v>284</v>
+        <v>269</v>
       </c>
       <c r="B9" t="s">
-        <v>285</v>
+        <v>270</v>
       </c>
     </row>
   </sheetData>

--- a/data Ukraine.xlsx
+++ b/data Ukraine.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\_GitHub\DataSources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E57207C3-7300-420D-AF60-B87D53B053D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDDF5567-5EBA-4A14-A410-F51975C3522B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="898" activeTab="6" xr2:uid="{21FA5A86-4C69-4AEC-AC84-BE14EF54DEBB}"/>
   </bookViews>
@@ -1320,7 +1320,7 @@
     <t>one of the greatest bass players of our time. He has played with Pink Floyd, King Crimson, Yes, Peter Gabriel, David Bowie, Paul Simon, John Lennon... contributed to over 500 albums by various artists. </t>
   </si>
   <si>
-    <t xml:space="preserve"> is an American actresses. </t>
+    <t xml:space="preserve">are an American actresses. </t>
   </si>
 </sst>
 </file>
@@ -3785,7 +3785,7 @@
   <dimension ref="A1:I39"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
-      <selection activeCell="B39" sqref="B39"/>
+      <selection activeCell="B38" sqref="B38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -3809,7 +3809,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="28.8">
+    <row r="2" spans="1:3" ht="43.2">
       <c r="A2" s="4" t="s">
         <v>393</v>
       </c>
@@ -3886,7 +3886,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="28.8">
+    <row r="9" spans="1:3" ht="43.2">
       <c r="A9" s="4" t="s">
         <v>69</v>
       </c>
@@ -3930,7 +3930,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="28.8">
+    <row r="13" spans="1:3" ht="43.2">
       <c r="A13" s="4" t="s">
         <v>379</v>
       </c>

--- a/data Ukraine.xlsx
+++ b/data Ukraine.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\_GitHub\DataSources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDDF5567-5EBA-4A14-A410-F51975C3522B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A642957-0535-4F48-8CB7-11E9F9C46667}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="898" activeTab="6" xr2:uid="{21FA5A86-4C69-4AEC-AC84-BE14EF54DEBB}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="898" activeTab="3" xr2:uid="{21FA5A86-4C69-4AEC-AC84-BE14EF54DEBB}"/>
   </bookViews>
   <sheets>
     <sheet name="personal data" sheetId="12" r:id="rId1"/>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="562" uniqueCount="410">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="536" uniqueCount="390">
   <si>
     <t>Ukraine is the second-largest European country (kraine covers an area of 603,550 sq km)</t>
   </si>
@@ -583,9 +583,6 @@
     <t>SoftServe, Ukraine</t>
   </si>
   <si>
-    <t>logo</t>
-  </si>
-  <si>
     <t>Senior DW/BI Engineer</t>
   </si>
   <si>
@@ -1113,18 +1110,6 @@
     <t>The family-migrants.</t>
   </si>
   <si>
-    <t>https://github.com/IrynaChyzh/logo/blob/main/Google.png</t>
-  </si>
-  <si>
-    <t>https://github.com/IrynaChyzh/logo/blob/main/Laba.png</t>
-  </si>
-  <si>
-    <t>https://github.com/IrynaChyzh/logo/blob/main/Microsoft.png</t>
-  </si>
-  <si>
-    <t>https://github.com/IrynaChyzh/logo/blob/main/Prometheus.png</t>
-  </si>
-  <si>
     <t>Integration course</t>
   </si>
   <si>
@@ -1171,51 +1156,6 @@
   </si>
   <si>
     <t>Parental leave (1.)</t>
-  </si>
-  <si>
-    <t>https://github.com/IrynaChyzh/logo/blob/main/Borisfen%2C%20Yavir.jpg</t>
-  </si>
-  <si>
-    <t>https://github.com/IrynaChyzh/logo/blob/main/Competence%20Center%20BIJB%2C%20Ukraine.jpg</t>
-  </si>
-  <si>
-    <t>https://github.com/IrynaChyzh/logo/blob/main/DAN.IT%20Education%2C%20Ukraine.png</t>
-  </si>
-  <si>
-    <t>https://github.com/IrynaChyzh/logo/blob/main/East%20Ukrainian%20National%20University%20V.%20Dahl%20(H%2B).jpg</t>
-  </si>
-  <si>
-    <t>https://github.com/IrynaChyzh/logo/blob/main/Flagman%2C%20Ukraine.png</t>
-  </si>
-  <si>
-    <t>https://github.com/IrynaChyzh/logo/blob/main/Impel%20Griffin%2C%20Ukraine.jpg</t>
-  </si>
-  <si>
-    <t>https://github.com/IrynaChyzh/logo/blob/main/Internationaler%20Bund%20(IB)%2C%20Germany.png</t>
-  </si>
-  <si>
-    <t>https://github.com/IrynaChyzh/logo/blob/main/Kyiv%20National%20University%20of%20Trade%20and%20Economics%20(H%2B).jpg</t>
-  </si>
-  <si>
-    <t>https://github.com/IrynaChyzh/logo/blob/main/Parental%20leave%20(1.).jpg</t>
-  </si>
-  <si>
-    <t>https://github.com/IrynaChyzh/logo/blob/main/Parental%20leave%20(2.).jpg</t>
-  </si>
-  <si>
-    <t>https://github.com/IrynaChyzh/logo/blob/main/Pawnshops%20(2x)%2C%20Ukraine.jpg</t>
-  </si>
-  <si>
-    <t>https://github.com/IrynaChyzh/logo/blob/main/Pawnshops%20(4x)%2C%20Ukraine.png</t>
-  </si>
-  <si>
-    <t>https://github.com/IrynaChyzh/logo/blob/main/SoftServe%2C%20Ukraine.png</t>
-  </si>
-  <si>
-    <t>https://github.com/IrynaChyzh/logo/blob/main/Virtido%2C%20Switzerland.jpg</t>
-  </si>
-  <si>
-    <t>https://github.com/IrynaChyzh/logo/blob/main/Ukraine.png</t>
   </si>
   <si>
     <t>David Copperfield</t>
@@ -1803,47 +1743,47 @@
         <v>164</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B2" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
+        <v>261</v>
+      </c>
+      <c r="B5" t="s">
         <v>262</v>
-      </c>
-      <c r="B5" t="s">
-        <v>263</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
+        <v>271</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>272</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>273</v>
       </c>
     </row>
   </sheetData>
@@ -1907,12 +1847,12 @@
     </row>
     <row r="5" spans="1:4" ht="28.8">
       <c r="B5" s="5" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="28.8">
       <c r="B7" s="4" t="s">
-        <v>381</v>
+        <v>361</v>
       </c>
     </row>
   </sheetData>
@@ -1940,21 +1880,21 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="13" t="s">
+        <v>256</v>
+      </c>
+      <c r="B1" s="13" t="s">
         <v>257</v>
       </c>
-      <c r="B1" s="13" t="s">
-        <v>258</v>
-      </c>
       <c r="C1" s="13" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B2" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C2">
         <v>14</v>
@@ -1962,10 +1902,10 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B3" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C3">
         <v>12</v>
@@ -1973,10 +1913,10 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B4" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C4">
         <v>8</v>
@@ -1984,10 +1924,10 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B5" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C5">
         <v>6</v>
@@ -1995,10 +1935,10 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B6" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C6">
         <v>2</v>
@@ -2035,51 +1975,51 @@
         <v>168</v>
       </c>
       <c r="C1" s="15" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D1" s="15" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E1" s="15" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F1" s="15" t="s">
+        <v>287</v>
+      </c>
+      <c r="G1" s="15" t="s">
+        <v>186</v>
+      </c>
+      <c r="H1" s="15" t="s">
         <v>288</v>
       </c>
-      <c r="G1" s="15" t="s">
-        <v>187</v>
-      </c>
-      <c r="H1" s="15" t="s">
-        <v>289</v>
-      </c>
       <c r="I1" s="15" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="J1" s="15" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="K1" s="15" t="s">
+        <v>237</v>
+      </c>
+      <c r="L1" s="15" t="s">
         <v>238</v>
       </c>
-      <c r="L1" s="15" t="s">
-        <v>239</v>
-      </c>
       <c r="M1" s="15" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="N1" s="15" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="O1" s="15" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="P1" s="15" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="2" spans="1:16">
       <c r="A2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -2108,7 +2048,7 @@
     </row>
     <row r="3" spans="1:16">
       <c r="A3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -2137,7 +2077,7 @@
     </row>
     <row r="4" spans="1:16">
       <c r="A4" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -2151,7 +2091,7 @@
     </row>
     <row r="5" spans="1:16">
       <c r="A5" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -2180,7 +2120,7 @@
     </row>
     <row r="6" spans="1:16">
       <c r="A6" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B6">
         <v>1</v>
@@ -2188,7 +2128,7 @@
     </row>
     <row r="7" spans="1:16">
       <c r="A7" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B7">
         <v>1</v>
@@ -2196,7 +2136,7 @@
     </row>
     <row r="8" spans="1:16">
       <c r="A8" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B8">
         <v>1</v>
@@ -2219,7 +2159,7 @@
     </row>
     <row r="9" spans="1:16">
       <c r="A9" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D9">
         <v>1</v>
@@ -2227,7 +2167,7 @@
     </row>
     <row r="10" spans="1:16">
       <c r="A10" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B10">
         <v>1</v>
@@ -2235,7 +2175,7 @@
     </row>
     <row r="11" spans="1:16">
       <c r="A11" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B11">
         <v>1</v>
@@ -2243,7 +2183,7 @@
     </row>
     <row r="12" spans="1:16">
       <c r="A12" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B12">
         <v>1</v>
@@ -2254,7 +2194,7 @@
     </row>
     <row r="13" spans="1:16">
       <c r="A13" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B13">
         <v>1</v>
@@ -2265,7 +2205,7 @@
     </row>
     <row r="14" spans="1:16">
       <c r="A14" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D14">
         <v>1</v>
@@ -2273,7 +2213,7 @@
     </row>
     <row r="15" spans="1:16">
       <c r="A15" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D15">
         <v>1</v>
@@ -2299,7 +2239,7 @@
     </row>
     <row r="16" spans="1:16">
       <c r="A16" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F16">
         <v>1</v>
@@ -2319,7 +2259,7 @@
     </row>
     <row r="17" spans="1:16">
       <c r="A17" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="H17">
         <v>1</v>
@@ -2336,7 +2276,7 @@
     </row>
     <row r="18" spans="1:16">
       <c r="A18" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B18">
         <v>1</v>
@@ -2347,7 +2287,7 @@
     </row>
     <row r="19" spans="1:16">
       <c r="A19" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B19">
         <v>1</v>
@@ -2370,7 +2310,7 @@
     </row>
     <row r="20" spans="1:16">
       <c r="A20" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B20">
         <v>1</v>
@@ -2390,7 +2330,7 @@
     </row>
     <row r="21" spans="1:16">
       <c r="A21" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B21">
         <v>1</v>
@@ -2398,7 +2338,7 @@
     </row>
     <row r="22" spans="1:16">
       <c r="A22" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -2406,7 +2346,7 @@
     </row>
     <row r="23" spans="1:16">
       <c r="A23" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -2414,7 +2354,7 @@
     </row>
     <row r="24" spans="1:16">
       <c r="A24" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="K24">
         <v>1</v>
@@ -2422,7 +2362,7 @@
     </row>
     <row r="25" spans="1:16">
       <c r="A25" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="K25">
         <v>1</v>
@@ -2430,7 +2370,7 @@
     </row>
     <row r="26" spans="1:16">
       <c r="A26" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B26">
         <v>1</v>
@@ -2441,7 +2381,7 @@
     </row>
     <row r="27" spans="1:16">
       <c r="A27" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B27">
         <v>1</v>
@@ -2452,7 +2392,7 @@
     </row>
     <row r="28" spans="1:16">
       <c r="A28" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -2460,7 +2400,7 @@
     </row>
     <row r="29" spans="1:16">
       <c r="A29" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="J29">
         <v>1</v>
@@ -2471,7 +2411,7 @@
     </row>
     <row r="30" spans="1:16">
       <c r="A30" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="J30">
         <v>1</v>
@@ -2482,7 +2422,7 @@
     </row>
     <row r="31" spans="1:16">
       <c r="A31" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B31">
         <v>1</v>
@@ -2523,7 +2463,7 @@
     </row>
     <row r="32" spans="1:16">
       <c r="A32" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B32">
         <v>1</v>
@@ -2531,7 +2471,7 @@
     </row>
     <row r="33" spans="1:14">
       <c r="A33" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D33">
         <v>1</v>
@@ -2557,7 +2497,7 @@
     </row>
     <row r="34" spans="1:14">
       <c r="A34" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B34">
         <v>1</v>
@@ -2586,7 +2526,7 @@
     </row>
     <row r="35" spans="1:14">
       <c r="A35" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B35">
         <v>1</v>
@@ -2612,7 +2552,7 @@
     </row>
     <row r="36" spans="1:14">
       <c r="A36" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D36">
         <v>1</v>
@@ -2632,7 +2572,7 @@
     </row>
     <row r="37" spans="1:14">
       <c r="A37" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="E37">
         <v>1</v>
@@ -2649,7 +2589,7 @@
     </row>
     <row r="38" spans="1:14">
       <c r="A38" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E38">
         <v>1</v>
@@ -2666,7 +2606,7 @@
     </row>
     <row r="39" spans="1:14">
       <c r="A39" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E39">
         <v>1</v>
@@ -2686,7 +2626,7 @@
     </row>
     <row r="40" spans="1:14">
       <c r="A40" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C40">
         <v>1</v>
@@ -2714,11 +2654,11 @@
   <sheetPr>
     <tabColor rgb="FF0070C0"/>
   </sheetPr>
-  <dimension ref="A1:L26"/>
+  <dimension ref="A1:K26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C23" sqref="C23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J1" sqref="J1:J1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -2731,13 +2671,12 @@
     <col min="7" max="7" width="10" style="4" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="8.21875" style="4" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="8.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.77734375" style="4" customWidth="1"/>
-    <col min="11" max="11" width="59.88671875" style="4" customWidth="1"/>
-    <col min="12" max="12" width="26.6640625" style="4" customWidth="1"/>
-    <col min="13" max="16384" width="8.88671875" style="4"/>
+    <col min="10" max="10" width="59.88671875" style="4" customWidth="1"/>
+    <col min="11" max="11" width="26.6640625" style="4" customWidth="1"/>
+    <col min="12" max="16384" width="8.88671875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:11">
       <c r="A1" s="6" t="s">
         <v>166</v>
       </c>
@@ -2751,31 +2690,28 @@
         <v>164</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="H1" s="6" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="I1" s="6" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="J1" s="6" t="s">
-        <v>169</v>
+        <v>40</v>
       </c>
       <c r="K1" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="L1" s="6" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="86.4">
+    <row r="2" spans="1:11" ht="43.2">
       <c r="A2" s="11">
         <v>44927</v>
       </c>
@@ -2783,34 +2719,31 @@
         <v>45323</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>223</v>
-      </c>
-      <c r="J2" s="5" t="s">
-        <v>366</v>
-      </c>
-      <c r="K2" s="4" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" ht="72">
+        <v>222</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="43.2">
       <c r="A3" s="11">
         <v>44531</v>
       </c>
@@ -2821,31 +2754,28 @@
         <v>168</v>
       </c>
       <c r="D3" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>330</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>323</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>326</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="J3" s="4" t="s">
         <v>170</v>
       </c>
-      <c r="E3" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>331</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>324</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>327</v>
-      </c>
-      <c r="I3" s="4" t="s">
-        <v>224</v>
-      </c>
-      <c r="J3" s="5" t="s">
-        <v>372</v>
-      </c>
-      <c r="K3" s="4" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" ht="72">
+    </row>
+    <row r="4" spans="1:11" ht="43.2">
       <c r="A4" s="11">
         <v>44562</v>
       </c>
@@ -2853,34 +2783,31 @@
         <v>44713</v>
       </c>
       <c r="C4" s="4" t="s">
+        <v>276</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="E4" s="4" t="s">
         <v>277</v>
       </c>
-      <c r="D4" s="4" t="s">
-        <v>276</v>
-      </c>
-      <c r="E4" s="4" t="s">
+      <c r="F4" s="4" t="s">
+        <v>330</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>323</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>327</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="J4" s="4" t="s">
         <v>278</v>
       </c>
-      <c r="F4" s="4" t="s">
-        <v>331</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>324</v>
-      </c>
-      <c r="H4" s="4" t="s">
-        <v>328</v>
-      </c>
-      <c r="I4" s="4" t="s">
-        <v>224</v>
-      </c>
-      <c r="J4" s="5" t="s">
-        <v>373</v>
-      </c>
-      <c r="K4" s="4" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" ht="86.4">
+    </row>
+    <row r="5" spans="1:11" ht="57.6">
       <c r="A5" s="11">
         <v>44287</v>
       </c>
@@ -2888,34 +2815,31 @@
         <v>44593</v>
       </c>
       <c r="C5" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>330</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>324</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>327</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="J5" s="4" t="s">
         <v>173</v>
       </c>
-      <c r="D5" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>180</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>331</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>325</v>
-      </c>
-      <c r="H5" s="4" t="s">
-        <v>328</v>
-      </c>
-      <c r="I5" s="4" t="s">
-        <v>225</v>
-      </c>
-      <c r="J5" s="5" t="s">
-        <v>362</v>
-      </c>
-      <c r="K5" s="4" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" ht="72">
+    </row>
+    <row r="6" spans="1:11" ht="43.2">
       <c r="A6" s="11">
         <v>43040</v>
       </c>
@@ -2923,34 +2847,31 @@
         <v>44531</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E6" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>330</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>324</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>327</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="J6" s="4" t="s">
         <v>181</v>
       </c>
-      <c r="F6" s="4" t="s">
-        <v>331</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>325</v>
-      </c>
-      <c r="H6" s="4" t="s">
-        <v>328</v>
-      </c>
-      <c r="I6" s="4" t="s">
-        <v>225</v>
-      </c>
-      <c r="J6" s="5" t="s">
-        <v>364</v>
-      </c>
-      <c r="K6" s="4" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" ht="86.4">
+    </row>
+    <row r="7" spans="1:11" ht="43.2">
       <c r="A7" s="11">
         <v>43678</v>
       </c>
@@ -2958,34 +2879,31 @@
         <v>44317</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D7" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="E7" s="4" t="s">
         <v>183</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="F7" s="4" t="s">
+        <v>330</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>323</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>327</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="J7" s="4" t="s">
         <v>184</v>
       </c>
-      <c r="F7" s="4" t="s">
-        <v>331</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>324</v>
-      </c>
-      <c r="H7" s="4" t="s">
-        <v>328</v>
-      </c>
-      <c r="I7" s="4" t="s">
-        <v>225</v>
-      </c>
-      <c r="J7" s="5" t="s">
-        <v>370</v>
-      </c>
-      <c r="K7" s="4" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" ht="86.4">
+    </row>
+    <row r="8" spans="1:11" ht="72">
       <c r="A8" s="11">
         <v>43586</v>
       </c>
@@ -2993,34 +2911,31 @@
         <v>44317</v>
       </c>
       <c r="C8" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>273</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>330</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>323</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>327</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="J8" s="4" t="s">
         <v>187</v>
       </c>
-      <c r="D8" s="4" t="s">
-        <v>186</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>274</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>331</v>
-      </c>
-      <c r="G8" s="4" t="s">
-        <v>324</v>
-      </c>
-      <c r="H8" s="4" t="s">
-        <v>328</v>
-      </c>
-      <c r="I8" s="4" t="s">
-        <v>225</v>
-      </c>
-      <c r="J8" s="5" t="s">
-        <v>361</v>
-      </c>
-      <c r="K8" s="4" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" ht="72">
+    </row>
+    <row r="9" spans="1:11" ht="28.8">
       <c r="A9" s="11">
         <v>42917</v>
       </c>
@@ -3028,19 +2943,16 @@
         <v>43556</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>332</v>
-      </c>
-      <c r="J9" s="5" t="s">
-        <v>369</v>
-      </c>
-      <c r="K9" s="4" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" ht="86.4">
+        <v>331</v>
+      </c>
+      <c r="J9" s="4" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="43.2">
       <c r="A10" s="11">
         <v>41183</v>
       </c>
@@ -3048,34 +2960,31 @@
         <v>42856</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D10" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="E10" s="4" t="s">
         <v>189</v>
       </c>
-      <c r="E10" s="4" t="s">
+      <c r="F10" s="4" t="s">
+        <v>330</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>325</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>326</v>
+      </c>
+      <c r="I10" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="J10" s="4" t="s">
         <v>190</v>
       </c>
-      <c r="F10" s="4" t="s">
-        <v>331</v>
-      </c>
-      <c r="G10" s="4" t="s">
-        <v>326</v>
-      </c>
-      <c r="H10" s="4" t="s">
-        <v>327</v>
-      </c>
-      <c r="I10" s="4" t="s">
-        <v>227</v>
-      </c>
-      <c r="J10" s="5" t="s">
-        <v>371</v>
-      </c>
-      <c r="K10" s="4" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" ht="72">
+    </row>
+    <row r="11" spans="1:11" ht="43.2">
       <c r="A11" s="11">
         <v>40695</v>
       </c>
@@ -3083,34 +2992,31 @@
         <v>41183</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="G11" s="4" t="s">
+        <v>325</v>
+      </c>
+      <c r="H11" s="4" t="s">
         <v>326</v>
       </c>
-      <c r="H11" s="4" t="s">
-        <v>327</v>
-      </c>
       <c r="I11" s="4" t="s">
-        <v>227</v>
-      </c>
-      <c r="J11" s="5" t="s">
-        <v>365</v>
-      </c>
-      <c r="K11" s="4" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" ht="72">
+        <v>226</v>
+      </c>
+      <c r="J11" s="4" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
       <c r="A12" s="11">
         <v>39722</v>
       </c>
@@ -3118,19 +3024,16 @@
         <v>40664</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>332</v>
-      </c>
-      <c r="J12" s="5" t="s">
-        <v>368</v>
-      </c>
-      <c r="K12" s="4" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" ht="115.2">
+        <v>331</v>
+      </c>
+      <c r="J12" s="4" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="72">
       <c r="A13" s="11">
         <v>38961</v>
       </c>
@@ -3138,34 +3041,31 @@
         <v>39873</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="G13" s="4" t="s">
+        <v>325</v>
+      </c>
+      <c r="H13" s="4" t="s">
         <v>326</v>
       </c>
-      <c r="H13" s="4" t="s">
-        <v>327</v>
-      </c>
       <c r="I13" s="4" t="s">
-        <v>225</v>
-      </c>
-      <c r="J13" s="5" t="s">
-        <v>367</v>
-      </c>
-      <c r="K13" s="4" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" ht="115.2">
+        <v>224</v>
+      </c>
+      <c r="J13" s="4" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="72">
       <c r="A14" s="11">
         <v>38626</v>
       </c>
@@ -3173,34 +3073,31 @@
         <v>39873</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="G14" s="4" t="s">
+        <v>325</v>
+      </c>
+      <c r="H14" s="4" t="s">
         <v>326</v>
       </c>
-      <c r="H14" s="4" t="s">
-        <v>327</v>
-      </c>
       <c r="I14" s="4" t="s">
-        <v>225</v>
-      </c>
-      <c r="J14" s="5" t="s">
-        <v>367</v>
-      </c>
-      <c r="K14" s="4" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" ht="115.2">
+        <v>224</v>
+      </c>
+      <c r="J14" s="4" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="72">
       <c r="A15" s="11">
         <v>37408</v>
       </c>
@@ -3208,34 +3105,31 @@
         <v>38504</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="G15" s="4" t="s">
+        <v>325</v>
+      </c>
+      <c r="H15" s="4" t="s">
         <v>326</v>
       </c>
-      <c r="H15" s="4" t="s">
-        <v>327</v>
-      </c>
       <c r="I15" s="4" t="s">
-        <v>225</v>
-      </c>
-      <c r="J15" s="5" t="s">
-        <v>367</v>
-      </c>
-      <c r="K15" s="4" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" ht="115.2">
+        <v>224</v>
+      </c>
+      <c r="J15" s="4" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="72">
       <c r="A16" s="11">
         <v>37408</v>
       </c>
@@ -3243,34 +3137,31 @@
         <v>38504</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="G16" s="4" t="s">
+        <v>325</v>
+      </c>
+      <c r="H16" s="4" t="s">
         <v>326</v>
       </c>
-      <c r="H16" s="4" t="s">
-        <v>327</v>
-      </c>
       <c r="I16" s="4" t="s">
-        <v>225</v>
-      </c>
-      <c r="J16" s="5" t="s">
-        <v>367</v>
-      </c>
-      <c r="K16" s="4" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" ht="115.2">
+        <v>224</v>
+      </c>
+      <c r="J16" s="4" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="86.4">
       <c r="A17" s="11">
         <v>36039</v>
       </c>
@@ -3278,34 +3169,31 @@
         <v>37408</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="G17" s="4" t="s">
+        <v>325</v>
+      </c>
+      <c r="H17" s="4" t="s">
         <v>326</v>
       </c>
-      <c r="H17" s="4" t="s">
-        <v>327</v>
-      </c>
       <c r="I17" s="4" t="s">
-        <v>227</v>
-      </c>
-      <c r="J17" s="5" t="s">
-        <v>363</v>
-      </c>
-      <c r="K17" s="4" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" ht="57.6">
+        <v>226</v>
+      </c>
+      <c r="J17" s="4" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="28.8">
       <c r="A18" s="11">
         <v>45383</v>
       </c>
@@ -3313,34 +3201,31 @@
         <v>45383</v>
       </c>
       <c r="C18" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="D18" s="4" t="s">
         <v>239</v>
       </c>
-      <c r="D18" s="4" t="s">
-        <v>240</v>
-      </c>
       <c r="E18" s="4" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="H18" s="4" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="I18" s="4" t="s">
-        <v>224</v>
-      </c>
-      <c r="J18" s="5" t="s">
-        <v>374</v>
-      </c>
-      <c r="K18" s="1" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" ht="57.6">
+        <v>223</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="43.2">
       <c r="A19" s="11">
         <v>44652</v>
       </c>
@@ -3348,34 +3233,31 @@
         <v>44652</v>
       </c>
       <c r="C19" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>336</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="G19" s="4" t="s">
+        <v>323</v>
+      </c>
+      <c r="H19" s="4" t="s">
+        <v>327</v>
+      </c>
+      <c r="I19" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="J19" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="D19" s="4" t="s">
-        <v>243</v>
-      </c>
-      <c r="E19" s="4" t="s">
-        <v>337</v>
-      </c>
-      <c r="F19" s="4" t="s">
-        <v>218</v>
-      </c>
-      <c r="G19" s="4" t="s">
-        <v>324</v>
-      </c>
-      <c r="H19" s="4" t="s">
-        <v>328</v>
-      </c>
-      <c r="I19" s="4" t="s">
-        <v>224</v>
-      </c>
-      <c r="J19" s="5" t="s">
-        <v>343</v>
-      </c>
-      <c r="K19" s="1" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" ht="57.6">
+    </row>
+    <row r="20" spans="1:10" ht="43.2">
       <c r="A20" s="11">
         <v>44835</v>
       </c>
@@ -3383,34 +3265,31 @@
         <v>44835</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D20" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>336</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="G20" s="4" t="s">
+        <v>323</v>
+      </c>
+      <c r="H20" s="4" t="s">
+        <v>327</v>
+      </c>
+      <c r="I20" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="J20" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="E20" s="4" t="s">
-        <v>337</v>
-      </c>
-      <c r="F20" s="4" t="s">
-        <v>218</v>
-      </c>
-      <c r="G20" s="4" t="s">
-        <v>324</v>
-      </c>
-      <c r="H20" s="4" t="s">
-        <v>328</v>
-      </c>
-      <c r="I20" s="4" t="s">
-        <v>224</v>
-      </c>
-      <c r="J20" s="5" t="s">
-        <v>341</v>
-      </c>
-      <c r="K20" s="1" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" ht="57.6">
+    </row>
+    <row r="21" spans="1:10" ht="43.2">
       <c r="A21" s="11">
         <v>44835</v>
       </c>
@@ -3418,34 +3297,31 @@
         <v>44835</v>
       </c>
       <c r="C21" s="4" t="s">
+        <v>247</v>
+      </c>
+      <c r="D21" s="4" t="s">
         <v>248</v>
       </c>
-      <c r="D21" s="4" t="s">
+      <c r="E21" s="4" t="s">
+        <v>336</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="G21" s="4" t="s">
+        <v>323</v>
+      </c>
+      <c r="H21" s="4" t="s">
+        <v>327</v>
+      </c>
+      <c r="I21" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="J21" s="1" t="s">
         <v>249</v>
       </c>
-      <c r="E21" s="4" t="s">
-        <v>337</v>
-      </c>
-      <c r="F21" s="4" t="s">
-        <v>218</v>
-      </c>
-      <c r="G21" s="4" t="s">
-        <v>324</v>
-      </c>
-      <c r="H21" s="4" t="s">
-        <v>328</v>
-      </c>
-      <c r="I21" s="4" t="s">
-        <v>224</v>
-      </c>
-      <c r="J21" s="5" t="s">
-        <v>341</v>
-      </c>
-      <c r="K21" s="1" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" ht="57.6">
+    </row>
+    <row r="22" spans="1:10" ht="43.2">
       <c r="A22" s="11">
         <v>43525</v>
       </c>
@@ -3453,34 +3329,31 @@
         <v>43525</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D22" s="4" t="s">
+        <v>250</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>338</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="G22" s="4" t="s">
+        <v>323</v>
+      </c>
+      <c r="H22" s="4" t="s">
+        <v>327</v>
+      </c>
+      <c r="I22" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="J22" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="E22" s="4" t="s">
-        <v>339</v>
-      </c>
-      <c r="F22" s="4" t="s">
-        <v>218</v>
-      </c>
-      <c r="G22" s="4" t="s">
-        <v>324</v>
-      </c>
-      <c r="H22" s="4" t="s">
-        <v>328</v>
-      </c>
-      <c r="I22" s="4" t="s">
-        <v>227</v>
-      </c>
-      <c r="J22" s="5" t="s">
-        <v>342</v>
-      </c>
-      <c r="K22" s="1" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" ht="57.6">
+    </row>
+    <row r="23" spans="1:10" ht="43.2">
       <c r="A23" s="11">
         <v>42005</v>
       </c>
@@ -3488,34 +3361,31 @@
         <v>42005</v>
       </c>
       <c r="C23" s="4" t="s">
+        <v>253</v>
+      </c>
+      <c r="D23" s="4" t="s">
         <v>254</v>
       </c>
-      <c r="D23" s="4" t="s">
-        <v>255</v>
-      </c>
       <c r="E23" s="4" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="H23" s="4" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="I23" s="4" t="s">
-        <v>227</v>
-      </c>
-      <c r="J23" s="5" t="s">
-        <v>344</v>
-      </c>
-      <c r="K23" s="1" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" ht="57.6">
+        <v>226</v>
+      </c>
+      <c r="J23" s="1" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" ht="43.2">
       <c r="A24" s="11">
         <v>44470</v>
       </c>
@@ -3523,34 +3393,31 @@
         <v>45383</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="H24" s="4" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="I24" s="17" t="s">
-        <v>225</v>
-      </c>
-      <c r="J24" s="5" t="s">
-        <v>344</v>
-      </c>
-      <c r="K24" s="1" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" ht="72">
+        <v>224</v>
+      </c>
+      <c r="J24" s="1" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" ht="72">
       <c r="A25" s="11">
         <v>41791</v>
       </c>
@@ -3558,34 +3425,31 @@
         <v>43983</v>
       </c>
       <c r="C25" s="4" t="s">
+        <v>307</v>
+      </c>
+      <c r="D25" s="4" t="s">
         <v>308</v>
       </c>
-      <c r="D25" s="4" t="s">
-        <v>309</v>
-      </c>
       <c r="E25" s="4" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="F25" s="17" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G25" s="4" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="H25" s="4" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="I25" s="17" t="s">
-        <v>225</v>
-      </c>
-      <c r="J25" s="5" t="s">
-        <v>374</v>
-      </c>
-      <c r="K25" s="4" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" ht="86.4">
+        <v>224</v>
+      </c>
+      <c r="J25" s="4" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" ht="86.4">
       <c r="A26" s="11">
         <v>42156</v>
       </c>
@@ -3593,42 +3457,39 @@
         <v>44593</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="F26" s="17" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G26" s="4" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="H26" s="4" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="I26" s="17" t="s">
-        <v>225</v>
-      </c>
-      <c r="J26" s="5" t="s">
-        <v>360</v>
-      </c>
-      <c r="K26" s="4" t="s">
-        <v>356</v>
+        <v>224</v>
+      </c>
+      <c r="J26" s="4" t="s">
+        <v>351</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="K18" r:id="rId1" xr:uid="{AD16D78D-A693-4585-A01A-A979A4FD0C46}"/>
-    <hyperlink ref="K19" r:id="rId2" xr:uid="{1D2CE6FA-8699-4791-A5AC-833C43219A25}"/>
-    <hyperlink ref="K20" r:id="rId3" xr:uid="{8ED34344-07F9-422D-B9C5-0FE69EE7BE01}"/>
-    <hyperlink ref="K21" r:id="rId4" xr:uid="{78F05B85-38F6-4D9D-9057-54F43431FE4B}"/>
-    <hyperlink ref="K22" r:id="rId5" xr:uid="{20EA4274-6531-4DA8-8A0B-F9819B9532D9}"/>
-    <hyperlink ref="K23" r:id="rId6" xr:uid="{FB84C33D-42A2-4245-8EC0-ED2B80CD5EBD}"/>
-    <hyperlink ref="K24" r:id="rId7" xr:uid="{C7E225B0-BAE2-459E-A1E6-10EEDA86C089}"/>
+    <hyperlink ref="J18" r:id="rId1" xr:uid="{AD16D78D-A693-4585-A01A-A979A4FD0C46}"/>
+    <hyperlink ref="J19" r:id="rId2" xr:uid="{1D2CE6FA-8699-4791-A5AC-833C43219A25}"/>
+    <hyperlink ref="J20" r:id="rId3" xr:uid="{8ED34344-07F9-422D-B9C5-0FE69EE7BE01}"/>
+    <hyperlink ref="J21" r:id="rId4" xr:uid="{78F05B85-38F6-4D9D-9057-54F43431FE4B}"/>
+    <hyperlink ref="J22" r:id="rId5" xr:uid="{20EA4274-6531-4DA8-8A0B-F9819B9532D9}"/>
+    <hyperlink ref="J23" r:id="rId6" xr:uid="{FB84C33D-42A2-4245-8EC0-ED2B80CD5EBD}"/>
+    <hyperlink ref="J24" r:id="rId7" xr:uid="{C7E225B0-BAE2-459E-A1E6-10EEDA86C089}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3659,13 +3520,13 @@
         <v>163</v>
       </c>
       <c r="B1" s="6" t="s">
+        <v>319</v>
+      </c>
+      <c r="C1" s="6" t="s">
         <v>320</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="D1" s="6" t="s">
         <v>321</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>322</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="100.8">
@@ -3673,41 +3534,41 @@
         <v>168</v>
       </c>
       <c r="B2" s="17" t="s">
+        <v>315</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>316</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="D2" s="4" t="s">
         <v>317</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>318</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="57.6">
       <c r="A3" s="4" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="187.2">
       <c r="A4" s="4" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B4" s="4" t="s">
+        <v>312</v>
+      </c>
+      <c r="C4" s="4" t="s">
         <v>313</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="D4" s="4" t="s">
         <v>314</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>315</v>
       </c>
     </row>
   </sheetData>
@@ -3737,39 +3598,39 @@
         <v>39</v>
       </c>
       <c r="B1" s="13" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
+        <v>193</v>
+      </c>
+      <c r="B3" t="s">
         <v>194</v>
-      </c>
-      <c r="B3" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B4" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B5" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
   </sheetData>
@@ -3784,7 +3645,7 @@
   </sheetPr>
   <dimension ref="A1:I39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
+    <sheetView topLeftCell="A33" workbookViewId="0">
       <selection activeCell="B38" sqref="B38"/>
     </sheetView>
   </sheetViews>
@@ -3811,7 +3672,7 @@
     </row>
     <row r="2" spans="1:3" ht="43.2">
       <c r="A2" s="4" t="s">
-        <v>393</v>
+        <v>373</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>34</v>
@@ -3836,7 +3697,7 @@
         <v>24</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>394</v>
+        <v>374</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>25</v>
@@ -3866,13 +3727,13 @@
     </row>
     <row r="7" spans="1:3" ht="28.8">
       <c r="A7" s="4" t="s">
-        <v>375</v>
+        <v>355</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>385</v>
+        <v>365</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>376</v>
+        <v>356</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="43.2">
@@ -3924,7 +3785,7 @@
         <v>26</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>395</v>
+        <v>375</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>42</v>
@@ -3932,13 +3793,13 @@
     </row>
     <row r="13" spans="1:3" ht="43.2">
       <c r="A13" s="4" t="s">
-        <v>379</v>
+        <v>359</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>384</v>
+        <v>364</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>380</v>
+        <v>360</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="28.8">
@@ -3946,7 +3807,7 @@
         <v>78</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>387</v>
+        <v>367</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>79</v>
@@ -3957,7 +3818,7 @@
         <v>37</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>396</v>
+        <v>376</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>36</v>
@@ -3979,7 +3840,7 @@
         <v>52</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>397</v>
+        <v>377</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>53</v>
@@ -3998,24 +3859,24 @@
     </row>
     <row r="19" spans="1:3" ht="43.2">
       <c r="A19" s="4" t="s">
-        <v>377</v>
+        <v>357</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>398</v>
+        <v>378</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>378</v>
+        <v>358</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="28.8">
       <c r="A20" s="4" t="s">
-        <v>382</v>
+        <v>362</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>383</v>
+        <v>363</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>386</v>
+        <v>366</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -4023,7 +3884,7 @@
         <v>71</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>388</v>
+        <v>368</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>72</v>
@@ -4034,7 +3895,7 @@
         <v>87</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>399</v>
+        <v>379</v>
       </c>
       <c r="C22" s="4" t="s">
         <v>88</v>
@@ -4045,7 +3906,7 @@
         <v>89</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>400</v>
+        <v>380</v>
       </c>
       <c r="C23" s="4" t="s">
         <v>90</v>
@@ -4078,7 +3939,7 @@
         <v>30</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>401</v>
+        <v>381</v>
       </c>
       <c r="C26" s="4" t="s">
         <v>45</v>
@@ -4089,10 +3950,10 @@
         <v>46</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>403</v>
+        <v>383</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>402</v>
+        <v>382</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="28.8">
@@ -4100,7 +3961,7 @@
         <v>93</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>389</v>
+        <v>369</v>
       </c>
       <c r="C28" s="4" t="s">
         <v>94</v>
@@ -4122,7 +3983,7 @@
         <v>83</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>404</v>
+        <v>384</v>
       </c>
       <c r="C30" s="4" t="s">
         <v>84</v>
@@ -4133,7 +3994,7 @@
         <v>49</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>390</v>
+        <v>370</v>
       </c>
       <c r="C31" s="4" t="s">
         <v>50</v>
@@ -4144,10 +4005,10 @@
         <v>55</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>391</v>
+        <v>371</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>392</v>
+        <v>372</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="72">
@@ -4155,7 +4016,7 @@
         <v>28</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>405</v>
+        <v>385</v>
       </c>
       <c r="C33" s="4" t="s">
         <v>27</v>
@@ -4166,7 +4027,7 @@
         <v>76</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>406</v>
+        <v>386</v>
       </c>
       <c r="C34" s="4" t="s">
         <v>77</v>
@@ -4177,7 +4038,7 @@
         <v>29</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>407</v>
+        <v>387</v>
       </c>
       <c r="C35" s="4" t="s">
         <v>51</v>
@@ -4188,7 +4049,7 @@
         <v>85</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>408</v>
+        <v>388</v>
       </c>
       <c r="C36" s="4" t="s">
         <v>86</v>
@@ -4199,7 +4060,7 @@
         <v>103</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>409</v>
+        <v>389</v>
       </c>
       <c r="C37" s="4" t="s">
         <v>102</v>
@@ -4241,7 +4102,7 @@
   <dimension ref="A1:R47"/>
   <sheetViews>
     <sheetView topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+      <selection activeCell="A41" sqref="A41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -4693,10 +4554,10 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="B9" t="s">
         <v>269</v>
-      </c>
-      <c r="B9" t="s">
-        <v>270</v>
       </c>
     </row>
   </sheetData>

--- a/data Ukraine.xlsx
+++ b/data Ukraine.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\_GitHub\DataSources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A642957-0535-4F48-8CB7-11E9F9C46667}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{317144B2-B67D-423B-BF52-B0344E38F246}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="898" activeTab="3" xr2:uid="{21FA5A86-4C69-4AEC-AC84-BE14EF54DEBB}"/>
   </bookViews>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="536" uniqueCount="390">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="544" uniqueCount="395">
   <si>
     <t>Ukraine is the second-largest European country (kraine covers an area of 603,550 sq km)</t>
   </si>
@@ -1261,6 +1261,21 @@
   </si>
   <si>
     <t xml:space="preserve">are an American actresses. </t>
+  </si>
+  <si>
+    <t>now</t>
+  </si>
+  <si>
+    <t>The Best Company Ever</t>
+  </si>
+  <si>
+    <t>Business Intelligence Specialist</t>
+  </si>
+  <si>
+    <t>The company-dream</t>
+  </si>
+  <si>
+    <t>I deep and apply my passion for data analysis and strategy. With my great curiosity for new areas and tools I successfully work in your team and take my professional activities to a next level. My skills and passion for data-driven decision making I am a valuable addition to your team and contribute to the further development of your business intelligence strategy.</t>
   </si>
 </sst>
 </file>
@@ -2654,11 +2669,11 @@
   <sheetPr>
     <tabColor rgb="FF0070C0"/>
   </sheetPr>
-  <dimension ref="A1:K26"/>
+  <dimension ref="A1:K27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J1" sqref="J1:J1048576"/>
+      <selection pane="bottomLeft" activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -2711,24 +2726,24 @@
         <v>165</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="43.2">
+    <row r="2" spans="1:11" ht="86.4">
       <c r="A2" s="11">
-        <v>44927</v>
-      </c>
-      <c r="B2" s="11">
-        <v>45323</v>
+        <v>45444</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>390</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>332</v>
+        <v>391</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>340</v>
+        <v>392</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>328</v>
+        <v>393</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>217</v>
+        <v>330</v>
       </c>
       <c r="G2" s="4" t="s">
         <v>323</v>
@@ -2736,31 +2751,28 @@
       <c r="H2" s="4" t="s">
         <v>326</v>
       </c>
-      <c r="I2" s="4" t="s">
-        <v>222</v>
-      </c>
       <c r="J2" s="4" t="s">
-        <v>341</v>
+        <v>394</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="43.2">
       <c r="A3" s="11">
-        <v>44531</v>
+        <v>44927</v>
       </c>
       <c r="B3" s="11">
-        <v>44593</v>
+        <v>45323</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>168</v>
+        <v>332</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>169</v>
+        <v>340</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>178</v>
+        <v>328</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>330</v>
+        <v>217</v>
       </c>
       <c r="G3" s="4" t="s">
         <v>323</v>
@@ -2769,27 +2781,27 @@
         <v>326</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>170</v>
+        <v>341</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="43.2">
       <c r="A4" s="11">
-        <v>44562</v>
+        <v>44531</v>
       </c>
       <c r="B4" s="11">
-        <v>44713</v>
+        <v>44593</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>276</v>
+        <v>168</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>275</v>
+        <v>169</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>277</v>
+        <v>178</v>
       </c>
       <c r="F4" s="4" t="s">
         <v>330</v>
@@ -2798,62 +2810,62 @@
         <v>323</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="I4" s="4" t="s">
         <v>223</v>
       </c>
       <c r="J4" s="4" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" ht="57.6">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="43.2">
       <c r="A5" s="11">
-        <v>44287</v>
+        <v>44562</v>
       </c>
       <c r="B5" s="11">
-        <v>44593</v>
+        <v>44713</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>172</v>
+        <v>276</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>174</v>
+        <v>275</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>179</v>
+        <v>277</v>
       </c>
       <c r="F5" s="4" t="s">
         <v>330</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="H5" s="4" t="s">
         <v>327</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="J5" s="4" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" ht="43.2">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="57.6">
       <c r="A6" s="11">
-        <v>43040</v>
+        <v>44287</v>
       </c>
       <c r="B6" s="11">
-        <v>44531</v>
+        <v>44593</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F6" s="4" t="s">
         <v>330</v>
@@ -2868,30 +2880,30 @@
         <v>224</v>
       </c>
       <c r="J6" s="4" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="43.2">
       <c r="A7" s="11">
-        <v>43678</v>
+        <v>43040</v>
       </c>
       <c r="B7" s="11">
-        <v>44317</v>
+        <v>44531</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>287</v>
+        <v>176</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="F7" s="4" t="s">
         <v>330</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="H7" s="4" t="s">
         <v>327</v>
@@ -2900,24 +2912,24 @@
         <v>224</v>
       </c>
       <c r="J7" s="4" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" ht="72">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="43.2">
       <c r="A8" s="11">
-        <v>43586</v>
+        <v>43678</v>
       </c>
       <c r="B8" s="11">
         <v>44317</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>186</v>
+        <v>287</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>273</v>
+        <v>183</v>
       </c>
       <c r="F8" s="4" t="s">
         <v>330</v>
@@ -2932,73 +2944,73 @@
         <v>224</v>
       </c>
       <c r="J8" s="4" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="72">
+      <c r="A9" s="11">
+        <v>43586</v>
+      </c>
+      <c r="B9" s="11">
+        <v>44317</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>273</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>330</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>323</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>327</v>
+      </c>
+      <c r="I9" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="J9" s="4" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="28.8">
-      <c r="A9" s="11">
+    <row r="10" spans="1:11" ht="28.8">
+      <c r="A10" s="11">
         <v>42917</v>
       </c>
-      <c r="B9" s="11">
+      <c r="B10" s="11">
         <v>43556</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C10" s="4" t="s">
         <v>352</v>
       </c>
-      <c r="F9" s="4" t="s">
+      <c r="F10" s="4" t="s">
         <v>331</v>
       </c>
-      <c r="J9" s="4" t="s">
+      <c r="J10" s="4" t="s">
         <v>342</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" ht="43.2">
-      <c r="A10" s="11">
-        <v>41183</v>
-      </c>
-      <c r="B10" s="11">
-        <v>42856</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>288</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>188</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>189</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>330</v>
-      </c>
-      <c r="G10" s="4" t="s">
-        <v>325</v>
-      </c>
-      <c r="H10" s="4" t="s">
-        <v>326</v>
-      </c>
-      <c r="I10" s="4" t="s">
-        <v>226</v>
-      </c>
-      <c r="J10" s="4" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="43.2">
       <c r="A11" s="11">
-        <v>40695</v>
+        <v>41183</v>
       </c>
       <c r="B11" s="11">
-        <v>41183</v>
+        <v>42856</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>353</v>
+        <v>288</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>279</v>
+        <v>188</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>281</v>
+        <v>189</v>
       </c>
       <c r="F11" s="4" t="s">
         <v>330</v>
@@ -3013,61 +3025,61 @@
         <v>226</v>
       </c>
       <c r="J11" s="4" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="43.2">
+      <c r="A12" s="11">
+        <v>40695</v>
+      </c>
+      <c r="B12" s="11">
+        <v>41183</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>353</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>279</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>281</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>330</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>325</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>326</v>
+      </c>
+      <c r="I12" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="J12" s="4" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="12" spans="1:11">
-      <c r="A12" s="11">
+    <row r="13" spans="1:11">
+      <c r="A13" s="11">
         <v>39722</v>
       </c>
-      <c r="B12" s="11">
+      <c r="B13" s="11">
         <v>40664</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="C13" s="4" t="s">
         <v>354</v>
       </c>
-      <c r="F12" s="4" t="s">
+      <c r="F13" s="4" t="s">
         <v>331</v>
       </c>
-      <c r="J12" s="4" t="s">
+      <c r="J13" s="4" t="s">
         <v>343</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" ht="72">
-      <c r="A13" s="11">
-        <v>38961</v>
-      </c>
-      <c r="B13" s="11">
-        <v>39873</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>235</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>282</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>333</v>
-      </c>
-      <c r="F13" s="4" t="s">
-        <v>330</v>
-      </c>
-      <c r="G13" s="4" t="s">
-        <v>325</v>
-      </c>
-      <c r="H13" s="4" t="s">
-        <v>326</v>
-      </c>
-      <c r="I13" s="4" t="s">
-        <v>224</v>
-      </c>
-      <c r="J13" s="4" t="s">
-        <v>345</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="72">
       <c r="A14" s="11">
-        <v>38626</v>
+        <v>38961</v>
       </c>
       <c r="B14" s="11">
         <v>39873</v>
@@ -3076,13 +3088,13 @@
         <v>235</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>232</v>
+        <v>282</v>
       </c>
       <c r="E14" s="4" t="s">
         <v>333</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>217</v>
+        <v>330</v>
       </c>
       <c r="G14" s="4" t="s">
         <v>325</v>
@@ -3094,21 +3106,21 @@
         <v>224</v>
       </c>
       <c r="J14" s="4" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="72">
       <c r="A15" s="11">
-        <v>37408</v>
+        <v>38626</v>
       </c>
       <c r="B15" s="11">
-        <v>38504</v>
+        <v>39873</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>235</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E15" s="4" t="s">
         <v>333</v>
@@ -3126,7 +3138,7 @@
         <v>224</v>
       </c>
       <c r="J15" s="4" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="72">
@@ -3140,7 +3152,7 @@
         <v>235</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E16" s="4" t="s">
         <v>333</v>
@@ -3158,24 +3170,24 @@
         <v>224</v>
       </c>
       <c r="J16" s="4" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" ht="86.4">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="72">
       <c r="A17" s="11">
-        <v>36039</v>
+        <v>37408</v>
       </c>
       <c r="B17" s="11">
-        <v>37408</v>
+        <v>38504</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="F17" s="4" t="s">
         <v>217</v>
@@ -3187,59 +3199,59 @@
         <v>326</v>
       </c>
       <c r="I17" s="4" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="J17" s="4" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" ht="28.8">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="86.4">
       <c r="A18" s="11">
-        <v>45383</v>
+        <v>36039</v>
       </c>
       <c r="B18" s="11">
-        <v>45383</v>
+        <v>37408</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="F18" s="4" t="s">
         <v>217</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="H18" s="4" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="I18" s="4" t="s">
-        <v>223</v>
-      </c>
-      <c r="J18" s="1" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" ht="43.2">
+        <v>226</v>
+      </c>
+      <c r="J18" s="4" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="28.8">
       <c r="A19" s="11">
-        <v>44652</v>
+        <v>45383</v>
       </c>
       <c r="B19" s="11">
-        <v>44652</v>
+        <v>45383</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="F19" s="4" t="s">
         <v>217</v>
@@ -3254,21 +3266,21 @@
         <v>223</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="43.2">
       <c r="A20" s="11">
-        <v>44835</v>
+        <v>44652</v>
       </c>
       <c r="B20" s="11">
-        <v>44835</v>
+        <v>44652</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="E20" s="4" t="s">
         <v>336</v>
@@ -3286,7 +3298,7 @@
         <v>223</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="43.2">
@@ -3300,7 +3312,7 @@
         <v>247</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="E21" s="4" t="s">
         <v>336</v>
@@ -3318,24 +3330,24 @@
         <v>223</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="43.2">
       <c r="A22" s="11">
-        <v>43525</v>
+        <v>44835</v>
       </c>
       <c r="B22" s="11">
-        <v>43525</v>
+        <v>44835</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>255</v>
+        <v>247</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="F22" s="4" t="s">
         <v>217</v>
@@ -3347,27 +3359,27 @@
         <v>327</v>
       </c>
       <c r="I22" s="4" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
     </row>
     <row r="23" spans="1:10" ht="43.2">
       <c r="A23" s="11">
-        <v>42005</v>
+        <v>43525</v>
       </c>
       <c r="B23" s="11">
-        <v>42005</v>
+        <v>43525</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="F23" s="4" t="s">
         <v>217</v>
@@ -3382,27 +3394,27 @@
         <v>226</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="24" spans="1:10" ht="43.2">
       <c r="A24" s="11">
-        <v>44470</v>
+        <v>42005</v>
       </c>
       <c r="B24" s="11">
-        <v>45383</v>
+        <v>42005</v>
       </c>
       <c r="C24" s="4" t="s">
         <v>253</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>306</v>
+        <v>254</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>304</v>
+        <v>337</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>330</v>
+        <v>217</v>
       </c>
       <c r="G24" s="4" t="s">
         <v>323</v>
@@ -3410,31 +3422,31 @@
       <c r="H24" s="4" t="s">
         <v>327</v>
       </c>
-      <c r="I24" s="17" t="s">
-        <v>224</v>
+      <c r="I24" s="4" t="s">
+        <v>226</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" ht="72">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" ht="43.2">
       <c r="A25" s="11">
-        <v>41791</v>
+        <v>44470</v>
       </c>
       <c r="B25" s="11">
-        <v>43983</v>
+        <v>45383</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>307</v>
+        <v>253</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>339</v>
-      </c>
-      <c r="F25" s="17" t="s">
-        <v>264</v>
+        <v>304</v>
+      </c>
+      <c r="F25" s="4" t="s">
+        <v>330</v>
       </c>
       <c r="G25" s="4" t="s">
         <v>323</v>
@@ -3445,25 +3457,25 @@
       <c r="I25" s="17" t="s">
         <v>224</v>
       </c>
-      <c r="J25" s="4" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" ht="86.4">
+      <c r="J25" s="1" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" ht="72">
       <c r="A26" s="11">
-        <v>42156</v>
+        <v>41791</v>
       </c>
       <c r="B26" s="11">
-        <v>44593</v>
+        <v>43983</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>266</v>
+        <v>307</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>265</v>
+        <v>308</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>305</v>
+        <v>339</v>
       </c>
       <c r="F26" s="17" t="s">
         <v>264</v>
@@ -3478,18 +3490,50 @@
         <v>224</v>
       </c>
       <c r="J26" s="4" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" ht="86.4">
+      <c r="A27" s="11">
+        <v>42156</v>
+      </c>
+      <c r="B27" s="11">
+        <v>44593</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>305</v>
+      </c>
+      <c r="F27" s="17" t="s">
+        <v>264</v>
+      </c>
+      <c r="G27" s="4" t="s">
+        <v>323</v>
+      </c>
+      <c r="H27" s="4" t="s">
+        <v>327</v>
+      </c>
+      <c r="I27" s="17" t="s">
+        <v>224</v>
+      </c>
+      <c r="J27" s="4" t="s">
         <v>351</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="J18" r:id="rId1" xr:uid="{AD16D78D-A693-4585-A01A-A979A4FD0C46}"/>
-    <hyperlink ref="J19" r:id="rId2" xr:uid="{1D2CE6FA-8699-4791-A5AC-833C43219A25}"/>
-    <hyperlink ref="J20" r:id="rId3" xr:uid="{8ED34344-07F9-422D-B9C5-0FE69EE7BE01}"/>
-    <hyperlink ref="J21" r:id="rId4" xr:uid="{78F05B85-38F6-4D9D-9057-54F43431FE4B}"/>
-    <hyperlink ref="J22" r:id="rId5" xr:uid="{20EA4274-6531-4DA8-8A0B-F9819B9532D9}"/>
-    <hyperlink ref="J23" r:id="rId6" xr:uid="{FB84C33D-42A2-4245-8EC0-ED2B80CD5EBD}"/>
-    <hyperlink ref="J24" r:id="rId7" xr:uid="{C7E225B0-BAE2-459E-A1E6-10EEDA86C089}"/>
+    <hyperlink ref="J19" r:id="rId1" xr:uid="{AD16D78D-A693-4585-A01A-A979A4FD0C46}"/>
+    <hyperlink ref="J20" r:id="rId2" xr:uid="{1D2CE6FA-8699-4791-A5AC-833C43219A25}"/>
+    <hyperlink ref="J21" r:id="rId3" xr:uid="{8ED34344-07F9-422D-B9C5-0FE69EE7BE01}"/>
+    <hyperlink ref="J22" r:id="rId4" xr:uid="{78F05B85-38F6-4D9D-9057-54F43431FE4B}"/>
+    <hyperlink ref="J23" r:id="rId5" xr:uid="{20EA4274-6531-4DA8-8A0B-F9819B9532D9}"/>
+    <hyperlink ref="J24" r:id="rId6" xr:uid="{FB84C33D-42A2-4245-8EC0-ED2B80CD5EBD}"/>
+    <hyperlink ref="J25" r:id="rId7" xr:uid="{C7E225B0-BAE2-459E-A1E6-10EEDA86C089}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data Ukraine.xlsx
+++ b/data Ukraine.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\_GitHub\DataSources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{317144B2-B67D-423B-BF52-B0344E38F246}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B094A0D-7A22-4872-8E8B-9942F60A4576}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="898" activeTab="3" xr2:uid="{21FA5A86-4C69-4AEC-AC84-BE14EF54DEBB}"/>
   </bookViews>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="544" uniqueCount="395">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="543" uniqueCount="394">
   <si>
     <t>Ukraine is the second-largest European country (kraine covers an area of 603,550 sq km)</t>
   </si>
@@ -1261,9 +1261,6 @@
   </si>
   <si>
     <t xml:space="preserve">are an American actresses. </t>
-  </si>
-  <si>
-    <t>now</t>
   </si>
   <si>
     <t>The Best Company Ever</t>
@@ -2673,7 +2670,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K6" sqref="K6"/>
+      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -2730,17 +2727,17 @@
       <c r="A2" s="11">
         <v>45444</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="11">
+        <v>46388</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>390</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="D2" s="4" t="s">
         <v>391</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="E2" s="4" t="s">
         <v>392</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>393</v>
       </c>
       <c r="F2" s="4" t="s">
         <v>330</v>
@@ -2752,7 +2749,7 @@
         <v>326</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="43.2">

--- a/data Ukraine.xlsx
+++ b/data Ukraine.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\_GitHub\DataSources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B094A0D-7A22-4872-8E8B-9942F60A4576}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39A59255-1A46-4A29-A790-C4F6A732C01B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="898" activeTab="3" xr2:uid="{21FA5A86-4C69-4AEC-AC84-BE14EF54DEBB}"/>
   </bookViews>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="543" uniqueCount="394">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="543" uniqueCount="395">
   <si>
     <t>Ukraine is the second-largest European country (kraine covers an area of 603,550 sq km)</t>
   </si>
@@ -1273,6 +1273,9 @@
   </si>
   <si>
     <t>I deep and apply my passion for data analysis and strategy. With my great curiosity for new areas and tools I successfully work in your team and take my professional activities to a next level. My skills and passion for data-driven decision making I am a valuable addition to your team and contribute to the further development of your business intelligence strategy.</t>
+  </si>
+  <si>
+    <t>Laba</t>
   </si>
 </sst>
 </file>
@@ -2669,8 +2672,8 @@
   <dimension ref="A1:K27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
+      <pane ySplit="1" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -3370,7 +3373,7 @@
         <v>43525</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>255</v>
+        <v>394</v>
       </c>
       <c r="D23" s="4" t="s">
         <v>250</v>

--- a/data Ukraine.xlsx
+++ b/data Ukraine.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\_GitHub\DataSources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39A59255-1A46-4A29-A790-C4F6A732C01B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4767CBA8-913B-4649-B8B8-DD4F7950E4A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="898" activeTab="3" xr2:uid="{21FA5A86-4C69-4AEC-AC84-BE14EF54DEBB}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="898" activeTab="1" xr2:uid="{21FA5A86-4C69-4AEC-AC84-BE14EF54DEBB}"/>
   </bookViews>
   <sheets>
     <sheet name="personal data" sheetId="12" r:id="rId1"/>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="543" uniqueCount="395">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="544" uniqueCount="396">
   <si>
     <t>Ukraine is the second-largest European country (kraine covers an area of 603,550 sq km)</t>
   </si>
@@ -1276,6 +1276,9 @@
   </si>
   <si>
     <t>Laba</t>
+  </si>
+  <si>
+    <t>Order</t>
   </si>
 </sst>
 </file>
@@ -1342,12 +1345,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -1363,7 +1372,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1403,6 +1412,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1885,15 +1897,15 @@
   <sheetPr>
     <tabColor rgb="FF0070C0"/>
   </sheetPr>
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4">
       <c r="A1" s="13" t="s">
         <v>256</v>
       </c>
@@ -1903,8 +1915,11 @@
       <c r="C1" s="13" t="s">
         <v>270</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="D1" s="13" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>224</v>
       </c>
@@ -1914,8 +1929,11 @@
       <c r="C2">
         <v>14</v>
       </c>
-    </row>
-    <row r="3" spans="1:3">
+      <c r="D2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
         <v>226</v>
       </c>
@@ -1925,8 +1943,11 @@
       <c r="C3">
         <v>12</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
+      <c r="D3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
         <v>223</v>
       </c>
@@ -1936,8 +1957,11 @@
       <c r="C4">
         <v>8</v>
       </c>
-    </row>
-    <row r="5" spans="1:3">
+      <c r="D4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" t="s">
         <v>222</v>
       </c>
@@ -1947,8 +1971,11 @@
       <c r="C5">
         <v>6</v>
       </c>
-    </row>
-    <row r="6" spans="1:3">
+      <c r="D5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" t="s">
         <v>225</v>
       </c>
@@ -1957,6 +1984,9 @@
       </c>
       <c r="C6">
         <v>2</v>
+      </c>
+      <c r="D6">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -2671,9 +2701,9 @@
   </sheetPr>
   <dimension ref="A1:K27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C24" sqref="C24"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -2762,13 +2792,13 @@
       <c r="B3" s="11">
         <v>45323</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="18" t="s">
         <v>332</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>340</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="18" t="s">
         <v>328</v>
       </c>
       <c r="F3" s="4" t="s">

--- a/data Ukraine.xlsx
+++ b/data Ukraine.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\_GitHub\DataSources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4767CBA8-913B-4649-B8B8-DD4F7950E4A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{919E0343-F98E-4E7C-87BE-4B41660D8AD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="898" activeTab="1" xr2:uid="{21FA5A86-4C69-4AEC-AC84-BE14EF54DEBB}"/>
   </bookViews>
@@ -1900,7 +1900,7 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1955,7 +1955,7 @@
         <v>228</v>
       </c>
       <c r="C4">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D4">
         <v>1</v>

--- a/data Ukraine.xlsx
+++ b/data Ukraine.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\_GitHub\DataSources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{919E0343-F98E-4E7C-87BE-4B41660D8AD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49BFC96D-3139-44E3-8162-5E73AC94BCBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="898" activeTab="1" xr2:uid="{21FA5A86-4C69-4AEC-AC84-BE14EF54DEBB}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="898" activeTab="3" xr2:uid="{21FA5A86-4C69-4AEC-AC84-BE14EF54DEBB}"/>
   </bookViews>
   <sheets>
     <sheet name="personal data" sheetId="12" r:id="rId1"/>
@@ -1899,7 +1899,7 @@
   </sheetPr>
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
@@ -2701,9 +2701,9 @@
   </sheetPr>
   <dimension ref="A1:K27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I3" sqref="I3"/>
+      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -2761,7 +2761,7 @@
         <v>45444</v>
       </c>
       <c r="B2" s="11">
-        <v>46388</v>
+        <v>45292</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>390</v>

--- a/data Ukraine.xlsx
+++ b/data Ukraine.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\_GitHub\DataSources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49BFC96D-3139-44E3-8162-5E73AC94BCBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34F6F954-441A-478D-B613-5DE06438A23C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="898" activeTab="3" xr2:uid="{21FA5A86-4C69-4AEC-AC84-BE14EF54DEBB}"/>
   </bookViews>
@@ -2761,7 +2761,7 @@
         <v>45444</v>
       </c>
       <c r="B2" s="11">
-        <v>45292</v>
+        <v>45627</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>390</v>

--- a/data Ukraine.xlsx
+++ b/data Ukraine.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\_GitHub\DataSources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34F6F954-441A-478D-B613-5DE06438A23C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE76D74A-C360-40B8-944A-37CEF19F3972}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="898" activeTab="3" xr2:uid="{21FA5A86-4C69-4AEC-AC84-BE14EF54DEBB}"/>
   </bookViews>
@@ -2761,7 +2761,7 @@
         <v>45444</v>
       </c>
       <c r="B2" s="11">
-        <v>45627</v>
+        <v>45992</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>390</v>

--- a/data Ukraine.xlsx
+++ b/data Ukraine.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\_GitHub\DataSources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE76D74A-C360-40B8-944A-37CEF19F3972}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CD75BA8-BA8E-4B65-9F27-06110099C17F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="898" activeTab="3" xr2:uid="{21FA5A86-4C69-4AEC-AC84-BE14EF54DEBB}"/>
   </bookViews>
@@ -2702,8 +2702,8 @@
   <dimension ref="A1:K27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
+      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -3272,7 +3272,7 @@
         <v>45383</v>
       </c>
       <c r="B19" s="11">
-        <v>45383</v>
+        <v>45392</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>238</v>
@@ -3304,7 +3304,7 @@
         <v>44652</v>
       </c>
       <c r="B20" s="11">
-        <v>44652</v>
+        <v>44681</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>243</v>
@@ -3336,7 +3336,7 @@
         <v>44835</v>
       </c>
       <c r="B21" s="11">
-        <v>44835</v>
+        <v>44859</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>247</v>
@@ -3365,10 +3365,10 @@
     </row>
     <row r="22" spans="1:10" ht="43.2">
       <c r="A22" s="11">
-        <v>44835</v>
+        <v>44859</v>
       </c>
       <c r="B22" s="11">
-        <v>44835</v>
+        <v>44865</v>
       </c>
       <c r="C22" s="4" t="s">
         <v>247</v>
@@ -3400,7 +3400,7 @@
         <v>43525</v>
       </c>
       <c r="B23" s="11">
-        <v>43525</v>
+        <v>43555</v>
       </c>
       <c r="C23" s="4" t="s">
         <v>394</v>
@@ -3432,7 +3432,7 @@
         <v>42005</v>
       </c>
       <c r="B24" s="11">
-        <v>42005</v>
+        <v>42029</v>
       </c>
       <c r="C24" s="4" t="s">
         <v>253</v>
@@ -3577,7 +3577,7 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>

--- a/data Ukraine.xlsx
+++ b/data Ukraine.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\_GitHub\DataSources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CD75BA8-BA8E-4B65-9F27-06110099C17F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{281384BE-6CFA-4844-83E7-C1A30AF1B2C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="898" activeTab="3" xr2:uid="{21FA5A86-4C69-4AEC-AC84-BE14EF54DEBB}"/>
   </bookViews>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="544" uniqueCount="396">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="546" uniqueCount="397">
   <si>
     <t>Ukraine is the second-largest European country (kraine covers an area of 603,550 sq km)</t>
   </si>
@@ -779,18 +779,12 @@
     <t xml:space="preserve">Postgraduate in Economics, organization and management of enterprises </t>
   </si>
   <si>
-    <t>Master's degree in "Management of Organizations, Business Manager" (with distinction)</t>
-  </si>
-  <si>
     <t>Bachelor's degree in Philology (English-Ukrainian)</t>
   </si>
   <si>
     <t>Kyiv National University of Trade and Economics (H+)</t>
   </si>
   <si>
-    <t xml:space="preserve">Economic Cybernetics (1-4 courses), Faculty of Engineering and Management </t>
-  </si>
-  <si>
     <t>East Ukrainian National University V. Dahl (H+)</t>
   </si>
   <si>
@@ -830,9 +824,6 @@
     <t>https://www.cloudskillsboost.google/public_profiles/f7ffcede-792e-4ac1-814a-528be5d01e68/badges/2736371</t>
   </si>
   <si>
-    <t>Power BI. Visualization and Dashboards, cloud business analytics</t>
-  </si>
-  <si>
     <t>https://my.l-a-b-a.com/uploads/certificates/pdf_certificate/5ddfe46a7eae2.pdf</t>
   </si>
   <si>
@@ -840,9 +831,6 @@
   </si>
   <si>
     <t>Prometheus</t>
-  </si>
-  <si>
-    <t>Financial management (Kyiv Mohyla Business School)</t>
   </si>
   <si>
     <t>LABA</t>
@@ -879,9 +867,6 @@
     <t>Volunteering</t>
   </si>
   <si>
-    <t>Active in various committees of the Waldorf School in Kyiv.</t>
-  </si>
-  <si>
     <t>Borisfen, Yavir</t>
   </si>
   <si>
@@ -922,9 +907,6 @@
     <t>BI consulting and report creating (insurance branch).</t>
   </si>
   <si>
-    <t>Administrator of Sales Dep., Assistant of Sales Director</t>
-  </si>
-  <si>
     <t>Impel Griffin</t>
   </si>
   <si>
@@ -1007,9 +989,6 @@
   </si>
   <si>
     <t>Ukraine</t>
-  </si>
-  <si>
-    <t>Help the family-migrants from the ATO area (Eastern Ukraine)</t>
   </si>
   <si>
     <t>https://app.powerbi.com/view?r=eyJrIjoiZTYzMTdhZTMtNjFiYy00ZWEwLThjMzItMzc4MmU5MzNlNzdkIiwidCI6IjQ2ODI3OThjLWU0YTYtNGQ5NC1iMDI1LTdkZGQ1Mjc5NTkwYiIsImMiOjl9</t>
@@ -1138,147 +1117,171 @@
 My second language is German.</t>
   </si>
   <si>
-    <t>I had an incredibly interesting study of economic cybernetics with great teachers. But I decided to change my specialty because I didn't really understand what I would be able to do after graduation. 
+    <t>In 2014 Russia's war against Ukraine began. People from eastern regions (where I come from) were the first to feel it. My friend with three children and a niece needed help: we organized their departure from the occupied territory, found housing in western Ukraine and for several years helped them with clothes, things, money and usefull contacts.</t>
+  </si>
+  <si>
+    <t>We decided that our daughter would attend a Waldorf school. This means that parents are actively involved in the school's life. So, my analytical and organizational skills came in handy: in the financial team I set the school budget and monitored its implementation; organized catering for pupils; in the household team I was in charge of purchasing inventory and later became the secretary of the school's Board.</t>
+  </si>
+  <si>
+    <t>Parental leave (2.)</t>
+  </si>
+  <si>
+    <t>Impel Griffin, Ukraine</t>
+  </si>
+  <si>
+    <t>Parental leave (1.)</t>
+  </si>
+  <si>
+    <t>David Copperfield</t>
+  </si>
+  <si>
+    <t>Copperfield was born David Seth Kotkin. His mother was born in Jerusalem, while his paternal grandparents were Jewish emigrants from Ukraine.</t>
+  </si>
+  <si>
+    <t>Leonard Bernstein</t>
+  </si>
+  <si>
+    <t>Bernstein was born to Ukrainian Jewish parents, Jennie (née Resnick) and Samuel Joseph Bernstein, both of whom immigrated to the United States from Rivne, Ukraine.</t>
+  </si>
+  <si>
+    <t>George Gershwin</t>
+  </si>
+  <si>
+    <t>Gershwin was of Jewish ancestry. His grandfather, Jakov Gershowitz, was born in Odessa, Ukraine, and had served for 25 years as a mechanic.</t>
+  </si>
+  <si>
+    <t>https://www.ukrainer.net/de-ukrainian-descent/</t>
+  </si>
+  <si>
+    <t>Leonard Nimoy</t>
+  </si>
+  <si>
+    <t>an American actor and director.</t>
+  </si>
+  <si>
+    <t>an American composer and pianist whose compositions spanned popular, jazz and classical genres.</t>
+  </si>
+  <si>
+    <t>an American magician, described by Forbes as the most commercially successful magician in history.</t>
+  </si>
+  <si>
+    <t>Leonard Simon Nimoy was born to Jewish immigrants from Iziaslav, Ukraine.</t>
+  </si>
+  <si>
+    <t>an American screen and stage actor, known to film audiences for playing tough guys and villains.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">an American actor and film producer. </t>
+  </si>
+  <si>
+    <t>an American singer, songwriter, dancer, actress, and television personality.</t>
+  </si>
+  <si>
+    <t>a French film actor, director, and writer.</t>
+  </si>
+  <si>
+    <t>an Austrian neurologist and the founder of psychoanalysis</t>
+  </si>
+  <si>
+    <t>his mother - Amalia Nathanson - was born in Brody, Ukraine  to Jacob Nathanson and Sarah Wilenz and later grew up in Odesa, Ukraine, where her mother came from.</t>
+  </si>
+  <si>
+    <t>Alan Arkin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">is an American singer-songwriter. Often considered to be one of the greatest songwriters in history. </t>
+  </si>
+  <si>
+    <t>is an American actor. He is best known for portraying Harvey Specter in the USA Network series Suits.</t>
+  </si>
+  <si>
+    <t>is an American actor and musician. He has starred in some of the highest-grossing films, such as Jurassic Park and Independence Day.</t>
+  </si>
+  <si>
+    <t>is an American actor and musician, one of Hollywood's most bankable stars.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">an American conductor, composer, pianist, music educator, author, and humanitarian. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">is a vocalist, guitarist, composer, songwriter, and a symbol of the Woodstock rock festival. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bolton became known for his series of pop-rock ballads in the late 1980s. </t>
+  </si>
+  <si>
+    <t>is an American actress and former fashion model. Forbes determined that she was the highest-paid model in the world.</t>
+  </si>
+  <si>
+    <t>Real name Natalia Zakharenko. Her father’s family had origins in Kharkiv.</t>
+  </si>
+  <si>
+    <t>was an American actress who began her career in film as a child and successfully transitioned to young adult roles.</t>
+  </si>
+  <si>
+    <t>gained fame in the legendary rock band The Band. He was a bass player, rhythm guitarist, and co-singer in the group.</t>
+  </si>
+  <si>
+    <t>is an American film director, producer and screenwriter, pioneer of the modern blockbuster.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">is an American lead singer of the rock band Aerosmith, he also plays the keyboards, harmonica and percussion. </t>
+  </si>
+  <si>
+    <t>is an American actor and filmmaker. He is one of only two actors in history (alongside Harrison Ford) to have starred in a box-office No. 1 film across six consecutive decades.</t>
+  </si>
+  <si>
+    <t>one of the greatest bass players of our time. He has played with Pink Floyd, King Crimson, Yes, Peter Gabriel, David Bowie, Paul Simon, John Lennon... contributed to over 500 albums by various artists. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">are an American actresses. </t>
+  </si>
+  <si>
+    <t>The Best Company Ever</t>
+  </si>
+  <si>
+    <t>Business Intelligence Specialist</t>
+  </si>
+  <si>
+    <t>The company-dream</t>
+  </si>
+  <si>
+    <t>I deep and apply my passion for data analysis and strategy. With my great curiosity for new areas and tools I successfully work in your team and take my professional activities to a next level. My skills and passion for data-driven decision making I am a valuable addition to your team and contribute to the further development of your business intelligence strategy.</t>
+  </si>
+  <si>
+    <t>Laba</t>
+  </si>
+  <si>
+    <t>Order</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Active parents of the Waldorf School </t>
+  </si>
+  <si>
+    <t>Help the family-migrants</t>
+  </si>
+  <si>
+    <t>Power BI</t>
+  </si>
+  <si>
+    <t>Economic Cybernetics</t>
+  </si>
+  <si>
+    <t>I had an incredibly interesting study of economic cybernetics with great teachers. But I decided to change my specialty on the 4th course because I didn't really understand what I would be able to do after graduation. 
 Now I realize that it was Data science :) 
 As life has shown, I could not stay without data and its analysis for a long time, so I “returned” to my vocation.</t>
   </si>
   <si>
-    <t>In 2014 Russia's war against Ukraine began. People from eastern regions (where I come from) were the first to feel it. My friend with three children and a niece needed help: we organized their departure from the occupied territory, found housing in western Ukraine and for several years helped them with clothes, things, money and usefull contacts.</t>
-  </si>
-  <si>
-    <t>We decided that our daughter would attend a Waldorf school. This means that parents are actively involved in the school's life. So, my analytical and organizational skills came in handy: in the financial team I set the school budget and monitored its implementation; organized catering for pupils; in the household team I was in charge of purchasing inventory and later became the secretary of the school's Board.</t>
-  </si>
-  <si>
-    <t>Parental leave (2.)</t>
-  </si>
-  <si>
-    <t>Impel Griffin, Ukraine</t>
-  </si>
-  <si>
-    <t>Parental leave (1.)</t>
-  </si>
-  <si>
-    <t>David Copperfield</t>
-  </si>
-  <si>
-    <t>Copperfield was born David Seth Kotkin. His mother was born in Jerusalem, while his paternal grandparents were Jewish emigrants from Ukraine.</t>
-  </si>
-  <si>
-    <t>Leonard Bernstein</t>
-  </si>
-  <si>
-    <t>Bernstein was born to Ukrainian Jewish parents, Jennie (née Resnick) and Samuel Joseph Bernstein, both of whom immigrated to the United States from Rivne, Ukraine.</t>
-  </si>
-  <si>
-    <t>George Gershwin</t>
-  </si>
-  <si>
-    <t>Gershwin was of Jewish ancestry. His grandfather, Jakov Gershowitz, was born in Odessa, Ukraine, and had served for 25 years as a mechanic.</t>
-  </si>
-  <si>
-    <t>https://www.ukrainer.net/de-ukrainian-descent/</t>
-  </si>
-  <si>
-    <t>Leonard Nimoy</t>
-  </si>
-  <si>
-    <t>an American actor and director.</t>
-  </si>
-  <si>
-    <t>an American composer and pianist whose compositions spanned popular, jazz and classical genres.</t>
-  </si>
-  <si>
-    <t>an American magician, described by Forbes as the most commercially successful magician in history.</t>
-  </si>
-  <si>
-    <t>Leonard Simon Nimoy was born to Jewish immigrants from Iziaslav, Ukraine.</t>
-  </si>
-  <si>
-    <t>an American screen and stage actor, known to film audiences for playing tough guys and villains.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">an American actor and film producer. </t>
-  </si>
-  <si>
-    <t>an American singer, songwriter, dancer, actress, and television personality.</t>
-  </si>
-  <si>
-    <t>a French film actor, director, and writer.</t>
-  </si>
-  <si>
-    <t>an Austrian neurologist and the founder of psychoanalysis</t>
-  </si>
-  <si>
-    <t>his mother - Amalia Nathanson - was born in Brody, Ukraine  to Jacob Nathanson and Sarah Wilenz and later grew up in Odesa, Ukraine, where her mother came from.</t>
-  </si>
-  <si>
-    <t>Alan Arkin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">is an American singer-songwriter. Often considered to be one of the greatest songwriters in history. </t>
-  </si>
-  <si>
-    <t>is an American actor. He is best known for portraying Harvey Specter in the USA Network series Suits.</t>
-  </si>
-  <si>
-    <t>is an American actor and musician. He has starred in some of the highest-grossing films, such as Jurassic Park and Independence Day.</t>
-  </si>
-  <si>
-    <t>is an American actor and musician, one of Hollywood's most bankable stars.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">an American conductor, composer, pianist, music educator, author, and humanitarian. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">is a vocalist, guitarist, composer, songwriter, and a symbol of the Woodstock rock festival. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bolton became known for his series of pop-rock ballads in the late 1980s. </t>
-  </si>
-  <si>
-    <t>is an American actress and former fashion model. Forbes determined that she was the highest-paid model in the world.</t>
-  </si>
-  <si>
-    <t>Real name Natalia Zakharenko. Her father’s family had origins in Kharkiv.</t>
-  </si>
-  <si>
-    <t>was an American actress who began her career in film as a child and successfully transitioned to young adult roles.</t>
-  </si>
-  <si>
-    <t>gained fame in the legendary rock band The Band. He was a bass player, rhythm guitarist, and co-singer in the group.</t>
-  </si>
-  <si>
-    <t>is an American film director, producer and screenwriter, pioneer of the modern blockbuster.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">is an American lead singer of the rock band Aerosmith, he also plays the keyboards, harmonica and percussion. </t>
-  </si>
-  <si>
-    <t>is an American actor and filmmaker. He is one of only two actors in history (alongside Harrison Ford) to have starred in a box-office No. 1 film across six consecutive decades.</t>
-  </si>
-  <si>
-    <t>one of the greatest bass players of our time. He has played with Pink Floyd, King Crimson, Yes, Peter Gabriel, David Bowie, Paul Simon, John Lennon... contributed to over 500 albums by various artists. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">are an American actresses. </t>
-  </si>
-  <si>
-    <t>The Best Company Ever</t>
-  </si>
-  <si>
-    <t>Business Intelligence Specialist</t>
-  </si>
-  <si>
-    <t>The company-dream</t>
-  </si>
-  <si>
-    <t>I deep and apply my passion for data analysis and strategy. With my great curiosity for new areas and tools I successfully work in your team and take my professional activities to a next level. My skills and passion for data-driven decision making I am a valuable addition to your team and contribute to the further development of your business intelligence strategy.</t>
-  </si>
-  <si>
-    <t>Laba</t>
-  </si>
-  <si>
-    <t>Order</t>
+    <t>Master's degree in "Management of Organizations, Business Manager"</t>
+  </si>
+  <si>
+    <t>Assistant of Sales Director</t>
+  </si>
+  <si>
+    <t>A new mom</t>
+  </si>
+  <si>
+    <t>A happy mom</t>
   </si>
 </sst>
 </file>
@@ -1345,18 +1348,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -1413,7 +1410,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1775,7 +1772,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="B2" t="s">
         <v>218</v>
@@ -1783,7 +1780,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>219</v>
@@ -1791,7 +1788,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="B4" s="12" t="s">
         <v>220</v>
@@ -1799,18 +1796,18 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="B5" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
     </row>
   </sheetData>
@@ -1874,12 +1871,12 @@
     </row>
     <row r="5" spans="1:4" ht="28.8">
       <c r="B5" s="5" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="28.8">
       <c r="B7" s="4" t="s">
-        <v>361</v>
+        <v>353</v>
       </c>
     </row>
   </sheetData>
@@ -1907,16 +1904,16 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="13" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="B1" s="13" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="C1" s="13" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="D1" s="13" t="s">
-        <v>395</v>
+        <v>387</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -2020,7 +2017,7 @@
         <v>168</v>
       </c>
       <c r="C1" s="15" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="D1" s="15" t="s">
         <v>172</v>
@@ -2029,37 +2026,37 @@
         <v>176</v>
       </c>
       <c r="F1" s="15" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="G1" s="15" t="s">
         <v>186</v>
       </c>
       <c r="H1" s="15" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="I1" s="15" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="J1" s="15" t="s">
+        <v>234</v>
+      </c>
+      <c r="K1" s="15" t="s">
         <v>235</v>
       </c>
-      <c r="K1" s="15" t="s">
-        <v>237</v>
-      </c>
       <c r="L1" s="15" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="M1" s="15" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="N1" s="15" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="O1" s="15" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="P1" s="15" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
     </row>
     <row r="2" spans="1:16">
@@ -2212,7 +2209,7 @@
     </row>
     <row r="10" spans="1:16">
       <c r="A10" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="B10">
         <v>1</v>
@@ -2220,7 +2217,7 @@
     </row>
     <row r="11" spans="1:16">
       <c r="A11" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="B11">
         <v>1</v>
@@ -2284,7 +2281,7 @@
     </row>
     <row r="16" spans="1:16">
       <c r="A16" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="F16">
         <v>1</v>
@@ -2399,7 +2396,7 @@
     </row>
     <row r="24" spans="1:16">
       <c r="A24" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="K24">
         <v>1</v>
@@ -2407,7 +2404,7 @@
     </row>
     <row r="25" spans="1:16">
       <c r="A25" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="K25">
         <v>1</v>
@@ -2415,7 +2412,7 @@
     </row>
     <row r="26" spans="1:16">
       <c r="A26" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="B26">
         <v>1</v>
@@ -2426,7 +2423,7 @@
     </row>
     <row r="27" spans="1:16">
       <c r="A27" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="B27">
         <v>1</v>
@@ -2437,7 +2434,7 @@
     </row>
     <row r="28" spans="1:16">
       <c r="A28" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -2445,7 +2442,7 @@
     </row>
     <row r="29" spans="1:16">
       <c r="A29" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="J29">
         <v>1</v>
@@ -2456,7 +2453,7 @@
     </row>
     <row r="30" spans="1:16">
       <c r="A30" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="J30">
         <v>1</v>
@@ -2467,7 +2464,7 @@
     </row>
     <row r="31" spans="1:16">
       <c r="A31" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="B31">
         <v>1</v>
@@ -2508,7 +2505,7 @@
     </row>
     <row r="32" spans="1:16">
       <c r="A32" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="B32">
         <v>1</v>
@@ -2516,7 +2513,7 @@
     </row>
     <row r="33" spans="1:14">
       <c r="A33" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="D33">
         <v>1</v>
@@ -2542,7 +2539,7 @@
     </row>
     <row r="34" spans="1:14">
       <c r="A34" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="B34">
         <v>1</v>
@@ -2571,7 +2568,7 @@
     </row>
     <row r="35" spans="1:14">
       <c r="A35" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="B35">
         <v>1</v>
@@ -2597,7 +2594,7 @@
     </row>
     <row r="36" spans="1:14">
       <c r="A36" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="D36">
         <v>1</v>
@@ -2617,7 +2614,7 @@
     </row>
     <row r="37" spans="1:14">
       <c r="A37" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="E37">
         <v>1</v>
@@ -2634,7 +2631,7 @@
     </row>
     <row r="38" spans="1:14">
       <c r="A38" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="E38">
         <v>1</v>
@@ -2651,7 +2648,7 @@
     </row>
     <row r="39" spans="1:14">
       <c r="A39" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="E39">
         <v>1</v>
@@ -2671,7 +2668,7 @@
     </row>
     <row r="40" spans="1:14">
       <c r="A40" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="C40">
         <v>1</v>
@@ -2702,8 +2699,8 @@
   <dimension ref="A1:K27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A27" sqref="A27"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -2738,16 +2735,16 @@
         <v>177</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>329</v>
+        <v>322</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>322</v>
+        <v>315</v>
       </c>
       <c r="H1" s="6" t="s">
         <v>171</v>
       </c>
       <c r="I1" s="6" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="J1" s="6" t="s">
         <v>40</v>
@@ -2764,25 +2761,25 @@
         <v>45992</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>390</v>
+        <v>382</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>391</v>
+        <v>383</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>392</v>
+        <v>384</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>330</v>
+        <v>323</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>323</v>
+        <v>316</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>393</v>
+        <v>385</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="43.2">
@@ -2793,28 +2790,28 @@
         <v>45323</v>
       </c>
       <c r="C3" s="18" t="s">
-        <v>332</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>340</v>
+        <v>325</v>
+      </c>
+      <c r="D3" s="18" t="s">
+        <v>333</v>
       </c>
       <c r="E3" s="18" t="s">
-        <v>328</v>
+        <v>321</v>
       </c>
       <c r="F3" s="4" t="s">
         <v>217</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>323</v>
+        <v>316</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="I3" s="4" t="s">
         <v>222</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>341</v>
+        <v>334</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="43.2">
@@ -2834,13 +2831,13 @@
         <v>178</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>330</v>
+        <v>323</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>323</v>
+        <v>316</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="I4" s="4" t="s">
         <v>223</v>
@@ -2857,28 +2854,28 @@
         <v>44713</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>330</v>
+        <v>323</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>323</v>
+        <v>316</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
       <c r="I5" s="4" t="s">
         <v>223</v>
       </c>
       <c r="J5" s="4" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="57.6">
@@ -2898,13 +2895,13 @@
         <v>179</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>330</v>
+        <v>323</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
       <c r="I6" s="4" t="s">
         <v>224</v>
@@ -2930,13 +2927,13 @@
         <v>180</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>330</v>
+        <v>323</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
       <c r="I7" s="4" t="s">
         <v>224</v>
@@ -2953,7 +2950,7 @@
         <v>44317</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>182</v>
@@ -2962,13 +2959,13 @@
         <v>183</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>330</v>
+        <v>323</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>323</v>
+        <v>316</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
       <c r="I8" s="4" t="s">
         <v>224</v>
@@ -2991,16 +2988,16 @@
         <v>185</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>330</v>
+        <v>323</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>323</v>
+        <v>316</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
       <c r="I9" s="4" t="s">
         <v>224</v>
@@ -3017,13 +3014,16 @@
         <v>43556</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>352</v>
+        <v>344</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>396</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>331</v>
+        <v>324</v>
       </c>
       <c r="J10" s="4" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="43.2">
@@ -3034,7 +3034,7 @@
         <v>42856</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="D11" s="4" t="s">
         <v>188</v>
@@ -3043,13 +3043,13 @@
         <v>189</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>330</v>
+        <v>323</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="I11" s="4" t="s">
         <v>226</v>
@@ -3066,28 +3066,28 @@
         <v>41183</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>353</v>
+        <v>345</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>279</v>
+        <v>394</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>330</v>
+        <v>323</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="I12" s="4" t="s">
         <v>226</v>
       </c>
       <c r="J12" s="4" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -3098,13 +3098,16 @@
         <v>40664</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>354</v>
+        <v>346</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>395</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>331</v>
+        <v>324</v>
       </c>
       <c r="J13" s="4" t="s">
-        <v>343</v>
+        <v>336</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="72">
@@ -3115,28 +3118,28 @@
         <v>39873</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>330</v>
+        <v>323</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="I14" s="4" t="s">
         <v>224</v>
       </c>
       <c r="J14" s="4" t="s">
-        <v>345</v>
+        <v>338</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="72">
@@ -3147,28 +3150,28 @@
         <v>39873</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D15" s="4" t="s">
         <v>232</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="F15" s="4" t="s">
         <v>217</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="H15" s="4" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="I15" s="4" t="s">
         <v>224</v>
       </c>
       <c r="J15" s="4" t="s">
-        <v>346</v>
+        <v>339</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="72">
@@ -3179,28 +3182,28 @@
         <v>38504</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>233</v>
+        <v>393</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="F16" s="4" t="s">
         <v>217</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="H16" s="4" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="I16" s="4" t="s">
         <v>224</v>
       </c>
       <c r="J16" s="4" t="s">
-        <v>347</v>
+        <v>340</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="72">
@@ -3211,31 +3214,31 @@
         <v>38504</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="F17" s="4" t="s">
         <v>217</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="H17" s="4" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="I17" s="4" t="s">
         <v>224</v>
       </c>
       <c r="J17" s="4" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" ht="86.4">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="100.8">
       <c r="A18" s="11">
         <v>36039</v>
       </c>
@@ -3243,28 +3246,28 @@
         <v>37408</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>236</v>
+        <v>391</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>334</v>
+        <v>327</v>
       </c>
       <c r="F18" s="4" t="s">
         <v>217</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="H18" s="4" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="I18" s="4" t="s">
         <v>226</v>
       </c>
       <c r="J18" s="4" t="s">
-        <v>349</v>
+        <v>392</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="28.8">
@@ -3275,60 +3278,60 @@
         <v>45392</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>335</v>
+        <v>328</v>
       </c>
       <c r="F19" s="4" t="s">
         <v>217</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>323</v>
+        <v>316</v>
       </c>
       <c r="H19" s="4" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
       <c r="I19" s="4" t="s">
         <v>223</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="43.2">
       <c r="A20" s="11">
-        <v>44652</v>
+        <v>44621</v>
       </c>
       <c r="B20" s="11">
         <v>44681</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>336</v>
+        <v>329</v>
       </c>
       <c r="F20" s="4" t="s">
         <v>217</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>323</v>
+        <v>316</v>
       </c>
       <c r="H20" s="4" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
       <c r="I20" s="4" t="s">
         <v>223</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="43.2">
@@ -3339,28 +3342,28 @@
         <v>44859</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>336</v>
+        <v>329</v>
       </c>
       <c r="F21" s="4" t="s">
         <v>217</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>323</v>
+        <v>316</v>
       </c>
       <c r="H21" s="4" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
       <c r="I21" s="4" t="s">
         <v>223</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="43.2">
@@ -3371,31 +3374,31 @@
         <v>44865</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>336</v>
+        <v>329</v>
       </c>
       <c r="F22" s="4" t="s">
         <v>217</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>323</v>
+        <v>316</v>
       </c>
       <c r="H22" s="4" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
       <c r="I22" s="4" t="s">
         <v>223</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" ht="43.2">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="28.8">
       <c r="A23" s="11">
         <v>43525</v>
       </c>
@@ -3403,28 +3406,28 @@
         <v>43555</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>394</v>
+        <v>386</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>250</v>
+        <v>390</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>338</v>
+        <v>331</v>
       </c>
       <c r="F23" s="4" t="s">
         <v>217</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>323</v>
+        <v>316</v>
       </c>
       <c r="H23" s="4" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
       <c r="I23" s="4" t="s">
         <v>226</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
     </row>
     <row r="24" spans="1:10" ht="43.2">
@@ -3435,28 +3438,28 @@
         <v>42029</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>254</v>
+        <v>286</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="F24" s="4" t="s">
         <v>217</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>323</v>
+        <v>316</v>
       </c>
       <c r="H24" s="4" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
       <c r="I24" s="4" t="s">
         <v>226</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
     </row>
     <row r="25" spans="1:10" ht="43.2">
@@ -3467,28 +3470,28 @@
         <v>45383</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>330</v>
+        <v>323</v>
       </c>
       <c r="G25" s="4" t="s">
-        <v>323</v>
+        <v>316</v>
       </c>
       <c r="H25" s="4" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
       <c r="I25" s="17" t="s">
         <v>224</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
     </row>
     <row r="26" spans="1:10" ht="72">
@@ -3499,28 +3502,28 @@
         <v>43983</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>308</v>
+        <v>389</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>339</v>
+        <v>332</v>
       </c>
       <c r="F26" s="17" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="G26" s="4" t="s">
-        <v>323</v>
+        <v>316</v>
       </c>
       <c r="H26" s="4" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
       <c r="I26" s="17" t="s">
         <v>224</v>
       </c>
       <c r="J26" s="4" t="s">
-        <v>350</v>
+        <v>342</v>
       </c>
     </row>
     <row r="27" spans="1:10" ht="86.4">
@@ -3531,28 +3534,28 @@
         <v>44593</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>265</v>
+        <v>388</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="F27" s="17" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="G27" s="4" t="s">
-        <v>323</v>
+        <v>316</v>
       </c>
       <c r="H27" s="4" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
       <c r="I27" s="17" t="s">
         <v>224</v>
       </c>
       <c r="J27" s="4" t="s">
-        <v>351</v>
+        <v>343</v>
       </c>
     </row>
   </sheetData>
@@ -3566,6 +3569,7 @@
     <hyperlink ref="J25" r:id="rId7" xr:uid="{C7E225B0-BAE2-459E-A1E6-10EEDA86C089}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId8"/>
 </worksheet>
 </file>
 
@@ -3594,13 +3598,13 @@
         <v>163</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>319</v>
+        <v>312</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="100.8">
@@ -3608,27 +3612,27 @@
         <v>168</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="57.6">
       <c r="A3" s="4" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="B3" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>311</v>
       </c>
-      <c r="C3" s="4" t="s">
-        <v>318</v>
-      </c>
       <c r="D3" s="4" t="s">
-        <v>310</v>
+        <v>303</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="187.2">
@@ -3636,13 +3640,13 @@
         <v>172</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>314</v>
+        <v>307</v>
       </c>
     </row>
   </sheetData>
@@ -3672,7 +3676,7 @@
         <v>39</v>
       </c>
       <c r="B1" s="13" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -3704,7 +3708,7 @@
         <v>197</v>
       </c>
       <c r="B5" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
     </row>
   </sheetData>
@@ -3746,7 +3750,7 @@
     </row>
     <row r="2" spans="1:3" ht="43.2">
       <c r="A2" s="4" t="s">
-        <v>373</v>
+        <v>365</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>34</v>
@@ -3771,7 +3775,7 @@
         <v>24</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>374</v>
+        <v>366</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>25</v>
@@ -3801,13 +3805,13 @@
     </row>
     <row r="7" spans="1:3" ht="28.8">
       <c r="A7" s="4" t="s">
-        <v>355</v>
+        <v>347</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>356</v>
+        <v>348</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="43.2">
@@ -3859,7 +3863,7 @@
         <v>26</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>375</v>
+        <v>367</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>42</v>
@@ -3867,13 +3871,13 @@
     </row>
     <row r="13" spans="1:3" ht="43.2">
       <c r="A13" s="4" t="s">
-        <v>359</v>
+        <v>351</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>364</v>
+        <v>356</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>360</v>
+        <v>352</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="28.8">
@@ -3881,7 +3885,7 @@
         <v>78</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>79</v>
@@ -3892,7 +3896,7 @@
         <v>37</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>376</v>
+        <v>368</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>36</v>
@@ -3914,7 +3918,7 @@
         <v>52</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>377</v>
+        <v>369</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>53</v>
@@ -3933,24 +3937,24 @@
     </row>
     <row r="19" spans="1:3" ht="43.2">
       <c r="A19" s="4" t="s">
-        <v>357</v>
+        <v>349</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>378</v>
+        <v>370</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>358</v>
+        <v>350</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="28.8">
       <c r="A20" s="4" t="s">
-        <v>362</v>
+        <v>354</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>363</v>
+        <v>355</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>366</v>
+        <v>358</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -3958,7 +3962,7 @@
         <v>71</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>368</v>
+        <v>360</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>72</v>
@@ -3969,7 +3973,7 @@
         <v>87</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>379</v>
+        <v>371</v>
       </c>
       <c r="C22" s="4" t="s">
         <v>88</v>
@@ -3980,7 +3984,7 @@
         <v>89</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>380</v>
+        <v>372</v>
       </c>
       <c r="C23" s="4" t="s">
         <v>90</v>
@@ -4013,7 +4017,7 @@
         <v>30</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>381</v>
+        <v>373</v>
       </c>
       <c r="C26" s="4" t="s">
         <v>45</v>
@@ -4024,10 +4028,10 @@
         <v>46</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>383</v>
+        <v>375</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>382</v>
+        <v>374</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="28.8">
@@ -4035,7 +4039,7 @@
         <v>93</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>369</v>
+        <v>361</v>
       </c>
       <c r="C28" s="4" t="s">
         <v>94</v>
@@ -4057,7 +4061,7 @@
         <v>83</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>384</v>
+        <v>376</v>
       </c>
       <c r="C30" s="4" t="s">
         <v>84</v>
@@ -4068,7 +4072,7 @@
         <v>49</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>370</v>
+        <v>362</v>
       </c>
       <c r="C31" s="4" t="s">
         <v>50</v>
@@ -4079,10 +4083,10 @@
         <v>55</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>371</v>
+        <v>363</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>372</v>
+        <v>364</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="72">
@@ -4090,7 +4094,7 @@
         <v>28</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>385</v>
+        <v>377</v>
       </c>
       <c r="C33" s="4" t="s">
         <v>27</v>
@@ -4101,7 +4105,7 @@
         <v>76</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>386</v>
+        <v>378</v>
       </c>
       <c r="C34" s="4" t="s">
         <v>77</v>
@@ -4112,7 +4116,7 @@
         <v>29</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>387</v>
+        <v>379</v>
       </c>
       <c r="C35" s="4" t="s">
         <v>51</v>
@@ -4123,7 +4127,7 @@
         <v>85</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>388</v>
+        <v>380</v>
       </c>
       <c r="C36" s="4" t="s">
         <v>86</v>
@@ -4134,7 +4138,7 @@
         <v>103</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>389</v>
+        <v>381</v>
       </c>
       <c r="C37" s="4" t="s">
         <v>102</v>
@@ -4628,10 +4632,10 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="B9" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
     </row>
   </sheetData>

--- a/data Ukraine.xlsx
+++ b/data Ukraine.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\_GitHub\DataSources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{281384BE-6CFA-4844-83E7-C1A30AF1B2C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EA418EB-BF78-4F74-B784-29EA3C9196FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="898" activeTab="3" xr2:uid="{21FA5A86-4C69-4AEC-AC84-BE14EF54DEBB}"/>
   </bookViews>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="546" uniqueCount="397">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="552" uniqueCount="397">
   <si>
     <t>Ukraine is the second-largest European country (kraine covers an area of 603,550 sq km)</t>
   </si>
@@ -1369,7 +1369,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1409,9 +1409,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2699,8 +2696,8 @@
   <dimension ref="A1:K27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E7" sqref="E7"/>
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -2789,13 +2786,13 @@
       <c r="B3" s="11">
         <v>45323</v>
       </c>
-      <c r="C3" s="18" t="s">
+      <c r="C3" s="4" t="s">
         <v>325</v>
       </c>
-      <c r="D3" s="18" t="s">
+      <c r="D3" s="4" t="s">
         <v>333</v>
       </c>
-      <c r="E3" s="18" t="s">
+      <c r="E3" s="4" t="s">
         <v>321</v>
       </c>
       <c r="F3" s="4" t="s">
@@ -3022,6 +3019,15 @@
       <c r="F10" s="4" t="s">
         <v>324</v>
       </c>
+      <c r="G10" s="4" t="s">
+        <v>318</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>319</v>
+      </c>
+      <c r="I10" s="4" t="s">
+        <v>224</v>
+      </c>
       <c r="J10" s="4" t="s">
         <v>335</v>
       </c>
@@ -3105,6 +3111,15 @@
       </c>
       <c r="F13" s="4" t="s">
         <v>324</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>318</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>319</v>
+      </c>
+      <c r="I13" s="4" t="s">
+        <v>226</v>
       </c>
       <c r="J13" s="4" t="s">
         <v>336</v>

--- a/data Ukraine.xlsx
+++ b/data Ukraine.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\_GitHub\DataSources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EA418EB-BF78-4F74-B784-29EA3C9196FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54DC66DD-C2FA-4040-A253-57C745DFED9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="898" activeTab="3" xr2:uid="{21FA5A86-4C69-4AEC-AC84-BE14EF54DEBB}"/>
   </bookViews>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="552" uniqueCount="397">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="656" uniqueCount="404">
   <si>
     <t>Ukraine is the second-largest European country (kraine covers an area of 603,550 sq km)</t>
   </si>
@@ -1282,6 +1282,35 @@
   </si>
   <si>
     <t>A happy mom</t>
+  </si>
+  <si>
+    <t>Postgraduate in Economics, organization and management of enterprises. 
+Writing a dissertation on the topic Competencies of a trading company.</t>
+  </si>
+  <si>
+    <t>Postgraduate</t>
+  </si>
+  <si>
+    <t>Master's degree in "Management of Organizations, Business Manager". 
+Diploma on Formation of optimal organizational behavior of an enterprise. Internship at Metro Cash &amp; Carry (8 weeks).</t>
+  </si>
+  <si>
+    <t>Student</t>
+  </si>
+  <si>
+    <t>Bachelor's degree in Philology (English-Ukrainian). 
+At the same time I was getting a second high degree in linguistics - so that I wouldn't forget English :) 
+My second language is German.</t>
+  </si>
+  <si>
+    <t>Economic Cybernetics Economic Cybernetics (1-4 courses), Faculty of Engineering and Management. 
+I had an incredibly interesting study of economic cybernetics with great teachers. But I decided to change my specialty because I didn't really understand what I would be able to do after graduation. 
+Now I realize that it was Data science :) 
+As life has shown, I could not stay without data and its analysis for a long time, so I “returned” to my vocation.</t>
+  </si>
+  <si>
+    <t>Course development: theory, practice; video recording.
+Mentoring students during the course. Conducting webinars and QA sessions.</t>
   </si>
 </sst>
 </file>
@@ -2696,8 +2725,8 @@
   <dimension ref="A1:K27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I14" sqref="I14"/>
+      <pane ySplit="1" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J26" sqref="J26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -3168,7 +3197,7 @@
         <v>234</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>232</v>
+        <v>398</v>
       </c>
       <c r="E15" s="4" t="s">
         <v>326</v>
@@ -3186,7 +3215,7 @@
         <v>224</v>
       </c>
       <c r="J15" s="4" t="s">
-        <v>339</v>
+        <v>397</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="72">
@@ -3200,7 +3229,7 @@
         <v>234</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>393</v>
+        <v>400</v>
       </c>
       <c r="E16" s="4" t="s">
         <v>326</v>
@@ -3218,7 +3247,7 @@
         <v>224</v>
       </c>
       <c r="J16" s="4" t="s">
-        <v>340</v>
+        <v>399</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="72">
@@ -3232,7 +3261,7 @@
         <v>234</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>233</v>
+        <v>400</v>
       </c>
       <c r="E17" s="4" t="s">
         <v>326</v>
@@ -3250,10 +3279,10 @@
         <v>224</v>
       </c>
       <c r="J17" s="4" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" ht="100.8">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="115.2">
       <c r="A18" s="11">
         <v>36039</v>
       </c>
@@ -3264,7 +3293,7 @@
         <v>235</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>391</v>
+        <v>400</v>
       </c>
       <c r="E18" s="4" t="s">
         <v>327</v>
@@ -3282,7 +3311,7 @@
         <v>226</v>
       </c>
       <c r="J18" s="4" t="s">
-        <v>392</v>
+        <v>402</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="28.8">
@@ -3296,7 +3325,7 @@
         <v>236</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>237</v>
+        <v>400</v>
       </c>
       <c r="E19" s="4" t="s">
         <v>328</v>
@@ -3313,8 +3342,8 @@
       <c r="I19" s="4" t="s">
         <v>223</v>
       </c>
-      <c r="J19" s="1" t="s">
-        <v>239</v>
+      <c r="J19" s="4" t="s">
+        <v>237</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="43.2">
@@ -3328,7 +3357,7 @@
         <v>241</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>240</v>
+        <v>400</v>
       </c>
       <c r="E20" s="4" t="s">
         <v>329</v>
@@ -3345,8 +3374,8 @@
       <c r="I20" s="4" t="s">
         <v>223</v>
       </c>
-      <c r="J20" s="1" t="s">
-        <v>242</v>
+      <c r="J20" s="4" t="s">
+        <v>240</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="43.2">
@@ -3360,7 +3389,7 @@
         <v>245</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>243</v>
+        <v>400</v>
       </c>
       <c r="E21" s="4" t="s">
         <v>329</v>
@@ -3377,8 +3406,8 @@
       <c r="I21" s="4" t="s">
         <v>223</v>
       </c>
-      <c r="J21" s="1" t="s">
-        <v>244</v>
+      <c r="J21" s="4" t="s">
+        <v>243</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="43.2">
@@ -3392,7 +3421,7 @@
         <v>245</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>246</v>
+        <v>400</v>
       </c>
       <c r="E22" s="4" t="s">
         <v>329</v>
@@ -3409,8 +3438,8 @@
       <c r="I22" s="4" t="s">
         <v>223</v>
       </c>
-      <c r="J22" s="1" t="s">
-        <v>247</v>
+      <c r="J22" s="4" t="s">
+        <v>246</v>
       </c>
     </row>
     <row r="23" spans="1:10" ht="28.8">
@@ -3424,7 +3453,7 @@
         <v>386</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>390</v>
+        <v>400</v>
       </c>
       <c r="E23" s="4" t="s">
         <v>331</v>
@@ -3441,8 +3470,8 @@
       <c r="I23" s="4" t="s">
         <v>226</v>
       </c>
-      <c r="J23" s="1" t="s">
-        <v>248</v>
+      <c r="J23" s="4" t="s">
+        <v>390</v>
       </c>
     </row>
     <row r="24" spans="1:10" ht="43.2">
@@ -3456,7 +3485,7 @@
         <v>250</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>286</v>
+        <v>400</v>
       </c>
       <c r="E24" s="4" t="s">
         <v>330</v>
@@ -3473,8 +3502,8 @@
       <c r="I24" s="4" t="s">
         <v>226</v>
       </c>
-      <c r="J24" s="1" t="s">
-        <v>249</v>
+      <c r="J24" s="4" t="s">
+        <v>286</v>
       </c>
     </row>
     <row r="25" spans="1:10" ht="43.2">
@@ -3505,8 +3534,8 @@
       <c r="I25" s="17" t="s">
         <v>224</v>
       </c>
-      <c r="J25" s="1" t="s">
-        <v>259</v>
+      <c r="J25" s="4" t="s">
+        <v>403</v>
       </c>
     </row>
     <row r="26" spans="1:10" ht="72">
@@ -3574,17 +3603,8 @@
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="J19" r:id="rId1" xr:uid="{AD16D78D-A693-4585-A01A-A979A4FD0C46}"/>
-    <hyperlink ref="J20" r:id="rId2" xr:uid="{1D2CE6FA-8699-4791-A5AC-833C43219A25}"/>
-    <hyperlink ref="J21" r:id="rId3" xr:uid="{8ED34344-07F9-422D-B9C5-0FE69EE7BE01}"/>
-    <hyperlink ref="J22" r:id="rId4" xr:uid="{78F05B85-38F6-4D9D-9057-54F43431FE4B}"/>
-    <hyperlink ref="J23" r:id="rId5" xr:uid="{20EA4274-6531-4DA8-8A0B-F9819B9532D9}"/>
-    <hyperlink ref="J24" r:id="rId6" xr:uid="{FB84C33D-42A2-4245-8EC0-ED2B80CD5EBD}"/>
-    <hyperlink ref="J25" r:id="rId7" xr:uid="{C7E225B0-BAE2-459E-A1E6-10EEDA86C089}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId8"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3593,10 +3613,10 @@
   <sheetPr>
     <tabColor rgb="FF0070C0"/>
   </sheetPr>
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:J23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11:J23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -3608,7 +3628,7 @@
     <col min="5" max="5" width="8.88671875" style="17"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:10">
       <c r="A1" s="6" t="s">
         <v>163</v>
       </c>
@@ -3622,7 +3642,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="100.8">
+    <row r="2" spans="1:10" ht="100.8">
       <c r="A2" s="4" t="s">
         <v>168</v>
       </c>
@@ -3636,7 +3656,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="57.6">
+    <row r="3" spans="1:10" ht="57.6">
       <c r="A3" s="4" t="s">
         <v>271</v>
       </c>
@@ -3650,7 +3670,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="187.2">
+    <row r="4" spans="1:10" ht="187.2">
       <c r="A4" s="4" t="s">
         <v>172</v>
       </c>
@@ -3664,7 +3684,432 @@
         <v>307</v>
       </c>
     </row>
+    <row r="11" spans="1:10" ht="201.6">
+      <c r="A11" s="11">
+        <v>38626</v>
+      </c>
+      <c r="B11" s="11">
+        <v>39873</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>326</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>318</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>319</v>
+      </c>
+      <c r="I11" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="J11" s="4" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="230.4">
+      <c r="A12" s="11">
+        <v>37408</v>
+      </c>
+      <c r="B12" s="11">
+        <v>38504</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>393</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>326</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>318</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>319</v>
+      </c>
+      <c r="I12" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="J12" s="4" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="244.8">
+      <c r="A13" s="11">
+        <v>37408</v>
+      </c>
+      <c r="B13" s="11">
+        <v>38504</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>326</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>318</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>319</v>
+      </c>
+      <c r="I13" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="J13" s="4" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="409.6">
+      <c r="A14" s="11">
+        <v>36039</v>
+      </c>
+      <c r="B14" s="11">
+        <v>37408</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>391</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>327</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>318</v>
+      </c>
+      <c r="H14" s="4" t="s">
+        <v>319</v>
+      </c>
+      <c r="I14" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="J14" s="4" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="86.4">
+      <c r="A15" s="11">
+        <v>45383</v>
+      </c>
+      <c r="B15" s="11">
+        <v>45392</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>328</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>316</v>
+      </c>
+      <c r="H15" s="4" t="s">
+        <v>320</v>
+      </c>
+      <c r="I15" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="129.6">
+      <c r="A16" s="11">
+        <v>44621</v>
+      </c>
+      <c r="B16" s="11">
+        <v>44681</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>240</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>329</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>316</v>
+      </c>
+      <c r="H16" s="4" t="s">
+        <v>320</v>
+      </c>
+      <c r="I16" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="129.6">
+      <c r="A17" s="11">
+        <v>44835</v>
+      </c>
+      <c r="B17" s="11">
+        <v>44859</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>329</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>316</v>
+      </c>
+      <c r="H17" s="4" t="s">
+        <v>320</v>
+      </c>
+      <c r="I17" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="129.6">
+      <c r="A18" s="11">
+        <v>44859</v>
+      </c>
+      <c r="B18" s="11">
+        <v>44865</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>246</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>329</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>316</v>
+      </c>
+      <c r="H18" s="4" t="s">
+        <v>320</v>
+      </c>
+      <c r="I18" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="57.6">
+      <c r="A19" s="11">
+        <v>43525</v>
+      </c>
+      <c r="B19" s="11">
+        <v>43555</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>386</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>390</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>331</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="G19" s="4" t="s">
+        <v>316</v>
+      </c>
+      <c r="H19" s="4" t="s">
+        <v>320</v>
+      </c>
+      <c r="I19" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" ht="115.2">
+      <c r="A20" s="11">
+        <v>42005</v>
+      </c>
+      <c r="B20" s="11">
+        <v>42029</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>250</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>286</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>330</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="G20" s="4" t="s">
+        <v>316</v>
+      </c>
+      <c r="H20" s="4" t="s">
+        <v>320</v>
+      </c>
+      <c r="I20" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="115.2">
+      <c r="A21" s="11">
+        <v>44470</v>
+      </c>
+      <c r="B21" s="11">
+        <v>45383</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>250</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>300</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>298</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>323</v>
+      </c>
+      <c r="G21" s="4" t="s">
+        <v>316</v>
+      </c>
+      <c r="H21" s="4" t="s">
+        <v>320</v>
+      </c>
+      <c r="I21" s="17" t="s">
+        <v>224</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="409.6">
+      <c r="A22" s="11">
+        <v>41791</v>
+      </c>
+      <c r="B22" s="11">
+        <v>43983</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>389</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>332</v>
+      </c>
+      <c r="F22" s="17" t="s">
+        <v>260</v>
+      </c>
+      <c r="G22" s="4" t="s">
+        <v>316</v>
+      </c>
+      <c r="H22" s="4" t="s">
+        <v>320</v>
+      </c>
+      <c r="I22" s="17" t="s">
+        <v>224</v>
+      </c>
+      <c r="J22" s="4" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="409.6">
+      <c r="A23" s="11">
+        <v>42156</v>
+      </c>
+      <c r="B23" s="11">
+        <v>44593</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>261</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>388</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>299</v>
+      </c>
+      <c r="F23" s="17" t="s">
+        <v>260</v>
+      </c>
+      <c r="G23" s="4" t="s">
+        <v>316</v>
+      </c>
+      <c r="H23" s="4" t="s">
+        <v>320</v>
+      </c>
+      <c r="I23" s="17" t="s">
+        <v>224</v>
+      </c>
+      <c r="J23" s="4" t="s">
+        <v>343</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="J15" r:id="rId1" xr:uid="{B6C59A97-A03F-4D90-B30C-3B0EDD31DBE3}"/>
+    <hyperlink ref="J16" r:id="rId2" xr:uid="{BA071E1B-013B-4B01-AC2A-DDF3792DF5C2}"/>
+    <hyperlink ref="J17" r:id="rId3" xr:uid="{96A3CBB5-9D8F-4B03-A0C2-3680ABC42B9C}"/>
+    <hyperlink ref="J18" r:id="rId4" xr:uid="{AE95BF82-060B-4250-978C-4016E7730066}"/>
+    <hyperlink ref="J19" r:id="rId5" xr:uid="{9D95A897-4739-4330-A265-AE646BF7F704}"/>
+    <hyperlink ref="J20" r:id="rId6" xr:uid="{657F26E4-26BD-4204-8966-C88EA2CA32A9}"/>
+    <hyperlink ref="J21" r:id="rId7" xr:uid="{04C22C6B-86A6-41CC-BC08-B1DEE0E7E148}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/data Ukraine.xlsx
+++ b/data Ukraine.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\_GitHub\DataSources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54DC66DD-C2FA-4040-A253-57C745DFED9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC55FE27-8964-4FF3-A56A-D49839A47641}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="898" activeTab="3" xr2:uid="{21FA5A86-4C69-4AEC-AC84-BE14EF54DEBB}"/>
   </bookViews>
@@ -1089,12 +1089,6 @@
     <t>The family-migrants.</t>
   </si>
   <si>
-    <t>Integration course</t>
-  </si>
-  <si>
-    <t>Student of the integration course: German language (DTZ B1), life in Germany (LiD)</t>
-  </si>
-  <si>
     <t>My son was born. Now I have a complete set of happy moms: a boy and a girl :)</t>
   </si>
   <si>
@@ -1298,19 +1292,23 @@
     <t>Student</t>
   </si>
   <si>
-    <t>Bachelor's degree in Philology (English-Ukrainian). 
-At the same time I was getting a second high degree in linguistics - so that I wouldn't forget English :) 
-My second language is German.</t>
-  </si>
-  <si>
-    <t>Economic Cybernetics Economic Cybernetics (1-4 courses), Faculty of Engineering and Management. 
+    <t>Course development: theory, practice; video recording.
+Mentoring students during the course. Conducting webinars and QA sessions.</t>
+  </si>
+  <si>
+    <t>Integration course: German language (DTZ B1), life in Germany (LiD)</t>
+  </si>
+  <si>
+    <t>Power BI. Power BI. Visualization and Dashboards, cloud business analytics</t>
+  </si>
+  <si>
+    <t>Bachelor's degree in Philology (English-Ukrainian). At the same time I was getting a second high degree in linguistics - so that I wouldn't forget English :) My second language was German.</t>
+  </si>
+  <si>
+    <t>Economic Cybernetics (1-4 courses), Faculty of Engineering and Management. 
 I had an incredibly interesting study of economic cybernetics with great teachers. But I decided to change my specialty because I didn't really understand what I would be able to do after graduation. 
 Now I realize that it was Data science :) 
 As life has shown, I could not stay without data and its analysis for a long time, so I “returned” to my vocation.</t>
-  </si>
-  <si>
-    <t>Course development: theory, practice; video recording.
-Mentoring students during the course. Conducting webinars and QA sessions.</t>
   </si>
 </sst>
 </file>
@@ -1902,7 +1900,7 @@
     </row>
     <row r="7" spans="1:4" ht="28.8">
       <c r="B7" s="4" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
     </row>
   </sheetData>
@@ -1939,7 +1937,7 @@
         <v>265</v>
       </c>
       <c r="D1" s="13" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -2725,8 +2723,8 @@
   <dimension ref="A1:K27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J26" sqref="J26"/>
+      <pane ySplit="1" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -2787,13 +2785,13 @@
         <v>45992</v>
       </c>
       <c r="C2" s="4" t="s">
+        <v>380</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>381</v>
+      </c>
+      <c r="E2" s="4" t="s">
         <v>382</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>383</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>384</v>
       </c>
       <c r="F2" s="4" t="s">
         <v>323</v>
@@ -2805,7 +2803,7 @@
         <v>319</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="43.2">
@@ -2819,7 +2817,7 @@
         <v>325</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>333</v>
+        <v>398</v>
       </c>
       <c r="E3" s="4" t="s">
         <v>321</v>
@@ -2837,7 +2835,7 @@
         <v>222</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>334</v>
+        <v>400</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="43.2">
@@ -3040,10 +3038,10 @@
         <v>43556</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="F10" s="4" t="s">
         <v>324</v>
@@ -3058,7 +3056,7 @@
         <v>224</v>
       </c>
       <c r="J10" s="4" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="43.2">
@@ -3101,10 +3099,10 @@
         <v>41183</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="E12" s="4" t="s">
         <v>275</v>
@@ -3122,7 +3120,7 @@
         <v>226</v>
       </c>
       <c r="J12" s="4" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -3133,10 +3131,10 @@
         <v>40664</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="F13" s="4" t="s">
         <v>324</v>
@@ -3151,7 +3149,7 @@
         <v>226</v>
       </c>
       <c r="J13" s="4" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="72">
@@ -3183,7 +3181,7 @@
         <v>224</v>
       </c>
       <c r="J14" s="4" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="72">
@@ -3197,7 +3195,7 @@
         <v>234</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="E15" s="4" t="s">
         <v>326</v>
@@ -3215,7 +3213,7 @@
         <v>224</v>
       </c>
       <c r="J15" s="4" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="72">
@@ -3229,7 +3227,7 @@
         <v>234</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="E16" s="4" t="s">
         <v>326</v>
@@ -3247,7 +3245,7 @@
         <v>224</v>
       </c>
       <c r="J16" s="4" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="72">
@@ -3261,7 +3259,7 @@
         <v>234</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="E17" s="4" t="s">
         <v>326</v>
@@ -3279,7 +3277,7 @@
         <v>224</v>
       </c>
       <c r="J17" s="4" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="115.2">
@@ -3293,7 +3291,7 @@
         <v>235</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="E18" s="4" t="s">
         <v>327</v>
@@ -3311,7 +3309,7 @@
         <v>226</v>
       </c>
       <c r="J18" s="4" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="28.8">
@@ -3325,7 +3323,7 @@
         <v>236</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="E19" s="4" t="s">
         <v>328</v>
@@ -3357,7 +3355,7 @@
         <v>241</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="E20" s="4" t="s">
         <v>329</v>
@@ -3389,7 +3387,7 @@
         <v>245</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="E21" s="4" t="s">
         <v>329</v>
@@ -3421,7 +3419,7 @@
         <v>245</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="E22" s="4" t="s">
         <v>329</v>
@@ -3450,10 +3448,10 @@
         <v>43555</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="E23" s="4" t="s">
         <v>331</v>
@@ -3471,7 +3469,7 @@
         <v>226</v>
       </c>
       <c r="J23" s="4" t="s">
-        <v>390</v>
+        <v>401</v>
       </c>
     </row>
     <row r="24" spans="1:10" ht="43.2">
@@ -3485,7 +3483,7 @@
         <v>250</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="E24" s="4" t="s">
         <v>330</v>
@@ -3535,7 +3533,7 @@
         <v>224</v>
       </c>
       <c r="J25" s="4" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
     </row>
     <row r="26" spans="1:10" ht="72">
@@ -3549,7 +3547,7 @@
         <v>301</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="E26" s="4" t="s">
         <v>332</v>
@@ -3567,7 +3565,7 @@
         <v>224</v>
       </c>
       <c r="J26" s="4" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
     </row>
     <row r="27" spans="1:10" ht="86.4">
@@ -3581,7 +3579,7 @@
         <v>261</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="E27" s="4" t="s">
         <v>299</v>
@@ -3599,7 +3597,7 @@
         <v>224</v>
       </c>
       <c r="J27" s="4" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
     </row>
   </sheetData>
@@ -3713,7 +3711,7 @@
         <v>224</v>
       </c>
       <c r="J11" s="4" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="230.4">
@@ -3727,7 +3725,7 @@
         <v>234</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="E12" s="4" t="s">
         <v>326</v>
@@ -3745,7 +3743,7 @@
         <v>224</v>
       </c>
       <c r="J12" s="4" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="244.8">
@@ -3777,7 +3775,7 @@
         <v>224</v>
       </c>
       <c r="J13" s="4" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="409.6">
@@ -3791,7 +3789,7 @@
         <v>235</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="E14" s="4" t="s">
         <v>327</v>
@@ -3809,7 +3807,7 @@
         <v>226</v>
       </c>
       <c r="J14" s="4" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="86.4">
@@ -3948,10 +3946,10 @@
         <v>43555</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="E19" s="4" t="s">
         <v>331</v>
@@ -4047,7 +4045,7 @@
         <v>301</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="E22" s="4" t="s">
         <v>332</v>
@@ -4065,7 +4063,7 @@
         <v>224</v>
       </c>
       <c r="J22" s="4" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
     </row>
     <row r="23" spans="1:10" ht="409.6">
@@ -4079,7 +4077,7 @@
         <v>261</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="E23" s="4" t="s">
         <v>299</v>
@@ -4097,7 +4095,7 @@
         <v>224</v>
       </c>
       <c r="J23" s="4" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
     </row>
   </sheetData>
@@ -4210,7 +4208,7 @@
     </row>
     <row r="2" spans="1:3" ht="43.2">
       <c r="A2" s="4" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>34</v>
@@ -4235,7 +4233,7 @@
         <v>24</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>25</v>
@@ -4265,13 +4263,13 @@
     </row>
     <row r="7" spans="1:3" ht="28.8">
       <c r="A7" s="4" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="43.2">
@@ -4323,7 +4321,7 @@
         <v>26</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>42</v>
@@ -4331,13 +4329,13 @@
     </row>
     <row r="13" spans="1:3" ht="43.2">
       <c r="A13" s="4" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="28.8">
@@ -4345,7 +4343,7 @@
         <v>78</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>79</v>
@@ -4356,7 +4354,7 @@
         <v>37</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>36</v>
@@ -4378,7 +4376,7 @@
         <v>52</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>53</v>
@@ -4397,24 +4395,24 @@
     </row>
     <row r="19" spans="1:3" ht="43.2">
       <c r="A19" s="4" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="28.8">
       <c r="A20" s="4" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -4422,7 +4420,7 @@
         <v>71</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>72</v>
@@ -4433,7 +4431,7 @@
         <v>87</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="C22" s="4" t="s">
         <v>88</v>
@@ -4444,7 +4442,7 @@
         <v>89</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="C23" s="4" t="s">
         <v>90</v>
@@ -4477,7 +4475,7 @@
         <v>30</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="C26" s="4" t="s">
         <v>45</v>
@@ -4488,10 +4486,10 @@
         <v>46</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="28.8">
@@ -4499,7 +4497,7 @@
         <v>93</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="C28" s="4" t="s">
         <v>94</v>
@@ -4521,7 +4519,7 @@
         <v>83</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="C30" s="4" t="s">
         <v>84</v>
@@ -4532,7 +4530,7 @@
         <v>49</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="C31" s="4" t="s">
         <v>50</v>
@@ -4543,10 +4541,10 @@
         <v>55</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="72">
@@ -4554,7 +4552,7 @@
         <v>28</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="C33" s="4" t="s">
         <v>27</v>
@@ -4565,7 +4563,7 @@
         <v>76</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="C34" s="4" t="s">
         <v>77</v>
@@ -4576,7 +4574,7 @@
         <v>29</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="C35" s="4" t="s">
         <v>51</v>
@@ -4587,7 +4585,7 @@
         <v>85</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="C36" s="4" t="s">
         <v>86</v>
@@ -4598,7 +4596,7 @@
         <v>103</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="C37" s="4" t="s">
         <v>102</v>

--- a/data Ukraine.xlsx
+++ b/data Ukraine.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\_GitHub\DataSources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC55FE27-8964-4FF3-A56A-D49839A47641}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C122B450-4A31-4D73-A0A8-F83417D90D02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="898" activeTab="3" xr2:uid="{21FA5A86-4C69-4AEC-AC84-BE14EF54DEBB}"/>
   </bookViews>
@@ -2723,8 +2723,8 @@
   <dimension ref="A1:K27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J19" sqref="J19"/>
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -3154,7 +3154,7 @@
     </row>
     <row r="14" spans="1:11" ht="72">
       <c r="A14" s="11">
-        <v>38961</v>
+        <v>39083</v>
       </c>
       <c r="B14" s="11">
         <v>39873</v>

--- a/data Ukraine.xlsx
+++ b/data Ukraine.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\_GitHub\DataSources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C122B450-4A31-4D73-A0A8-F83417D90D02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E531D20C-A30F-477F-B946-324783ED5A9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="898" activeTab="3" xr2:uid="{21FA5A86-4C69-4AEC-AC84-BE14EF54DEBB}"/>
   </bookViews>
@@ -2723,8 +2723,8 @@
   <dimension ref="A1:K27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A15" sqref="A15"/>
+      <pane ySplit="1" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -3154,7 +3154,7 @@
     </row>
     <row r="14" spans="1:11" ht="72">
       <c r="A14" s="11">
-        <v>39083</v>
+        <v>38961</v>
       </c>
       <c r="B14" s="11">
         <v>39873</v>
@@ -3186,7 +3186,7 @@
     </row>
     <row r="15" spans="1:11" ht="72">
       <c r="A15" s="11">
-        <v>38626</v>
+        <v>38718</v>
       </c>
       <c r="B15" s="11">
         <v>39873</v>

--- a/data Ukraine.xlsx
+++ b/data Ukraine.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\_GitHub\DataSources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E531D20C-A30F-477F-B946-324783ED5A9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE5E80F4-0316-4C3A-AB99-10686D9AE441}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="898" activeTab="3" xr2:uid="{21FA5A86-4C69-4AEC-AC84-BE14EF54DEBB}"/>
   </bookViews>
@@ -2723,8 +2723,8 @@
   <dimension ref="A1:K27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D15" sqref="D15"/>
+      <pane ySplit="1" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -3250,7 +3250,7 @@
     </row>
     <row r="17" spans="1:10" ht="72">
       <c r="A17" s="11">
-        <v>37408</v>
+        <v>37438</v>
       </c>
       <c r="B17" s="11">
         <v>38504</v>

--- a/data Ukraine.xlsx
+++ b/data Ukraine.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\_GitHub\DataSources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE5E80F4-0316-4C3A-AB99-10686D9AE441}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1DA8A84-DB3A-479D-8271-31D3D1323DFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="898" activeTab="3" xr2:uid="{21FA5A86-4C69-4AEC-AC84-BE14EF54DEBB}"/>
   </bookViews>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="656" uniqueCount="404">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="648" uniqueCount="403">
   <si>
     <t>Ukraine is the second-largest European country (kraine covers an area of 603,550 sq km)</t>
   </si>
@@ -1285,10 +1285,6 @@
     <t>Postgraduate</t>
   </si>
   <si>
-    <t>Master's degree in "Management of Organizations, Business Manager". 
-Diploma on Formation of optimal organizational behavior of an enterprise. Internship at Metro Cash &amp; Carry (8 weeks).</t>
-  </si>
-  <si>
     <t>Student</t>
   </si>
   <si>
@@ -1300,15 +1296,17 @@
   </si>
   <si>
     <t>Power BI. Power BI. Visualization and Dashboards, cloud business analytics</t>
-  </si>
-  <si>
-    <t>Bachelor's degree in Philology (English-Ukrainian). At the same time I was getting a second high degree in linguistics - so that I wouldn't forget English :) My second language was German.</t>
   </si>
   <si>
     <t>Economic Cybernetics (1-4 courses), Faculty of Engineering and Management. 
 I had an incredibly interesting study of economic cybernetics with great teachers. But I decided to change my specialty because I didn't really understand what I would be able to do after graduation. 
 Now I realize that it was Data science :) 
 As life has shown, I could not stay without data and its analysis for a long time, so I “returned” to my vocation.</t>
+  </si>
+  <si>
+    <t>Master's degree in "Management of Organizations, Business Manager". 
+Diploma on Formation of optimal organizational behavior of an enterprise. Internship at Metro Cash &amp; Carry (8 weeks).
+Bachelor's degree in Philology (English-Ukrainian). At the same time I was getting a second high degree in linguistics - so that I wouldn't forget English :) My second language was German.</t>
   </si>
 </sst>
 </file>
@@ -2720,11 +2718,11 @@
   <sheetPr>
     <tabColor rgb="FF0070C0"/>
   </sheetPr>
-  <dimension ref="A1:K27"/>
+  <dimension ref="A1:K26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A18" sqref="A18"/>
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -2817,7 +2815,7 @@
         <v>325</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="E3" s="4" t="s">
         <v>321</v>
@@ -2835,7 +2833,7 @@
         <v>222</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="43.2">
@@ -3216,9 +3214,9 @@
         <v>395</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="72">
+    <row r="16" spans="1:11" ht="86.4">
       <c r="A16" s="11">
-        <v>37408</v>
+        <v>37438</v>
       </c>
       <c r="B16" s="11">
         <v>38504</v>
@@ -3227,7 +3225,7 @@
         <v>234</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="E16" s="4" t="s">
         <v>326</v>
@@ -3245,24 +3243,24 @@
         <v>224</v>
       </c>
       <c r="J16" s="4" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="115.2">
+      <c r="A17" s="11">
+        <v>36039</v>
+      </c>
+      <c r="B17" s="11">
+        <v>37408</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="D17" s="4" t="s">
         <v>397</v>
       </c>
-    </row>
-    <row r="17" spans="1:10" ht="72">
-      <c r="A17" s="11">
-        <v>37438</v>
-      </c>
-      <c r="B17" s="11">
-        <v>38504</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>234</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>398</v>
-      </c>
       <c r="E17" s="4" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="F17" s="4" t="s">
         <v>217</v>
@@ -3274,59 +3272,59 @@
         <v>319</v>
       </c>
       <c r="I17" s="4" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="J17" s="4" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" ht="115.2">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="28.8">
       <c r="A18" s="11">
-        <v>36039</v>
+        <v>45383</v>
       </c>
       <c r="B18" s="11">
-        <v>37408</v>
+        <v>45392</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="F18" s="4" t="s">
         <v>217</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="H18" s="4" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="I18" s="4" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="J18" s="4" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" ht="28.8">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="43.2">
       <c r="A19" s="11">
-        <v>45383</v>
+        <v>44621</v>
       </c>
       <c r="B19" s="11">
-        <v>45392</v>
+        <v>44681</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="F19" s="4" t="s">
         <v>217</v>
@@ -3341,21 +3339,21 @@
         <v>223</v>
       </c>
       <c r="J19" s="4" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="43.2">
       <c r="A20" s="11">
-        <v>44621</v>
+        <v>44835</v>
       </c>
       <c r="B20" s="11">
-        <v>44681</v>
+        <v>44859</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="E20" s="4" t="s">
         <v>329</v>
@@ -3373,21 +3371,21 @@
         <v>223</v>
       </c>
       <c r="J20" s="4" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="43.2">
       <c r="A21" s="11">
-        <v>44835</v>
+        <v>44859</v>
       </c>
       <c r="B21" s="11">
-        <v>44859</v>
+        <v>44865</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>245</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="E21" s="4" t="s">
         <v>329</v>
@@ -3405,24 +3403,24 @@
         <v>223</v>
       </c>
       <c r="J21" s="4" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" ht="43.2">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="28.8">
       <c r="A22" s="11">
-        <v>44859</v>
+        <v>43525</v>
       </c>
       <c r="B22" s="11">
-        <v>44865</v>
+        <v>43555</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>245</v>
+        <v>384</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="F22" s="4" t="s">
         <v>217</v>
@@ -3434,27 +3432,27 @@
         <v>320</v>
       </c>
       <c r="I22" s="4" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="J22" s="4" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" ht="28.8">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="43.2">
       <c r="A23" s="11">
-        <v>43525</v>
+        <v>42005</v>
       </c>
       <c r="B23" s="11">
-        <v>43555</v>
+        <v>42029</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>384</v>
+        <v>250</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="F23" s="4" t="s">
         <v>217</v>
@@ -3469,27 +3467,27 @@
         <v>226</v>
       </c>
       <c r="J23" s="4" t="s">
-        <v>401</v>
+        <v>286</v>
       </c>
     </row>
     <row r="24" spans="1:10" ht="43.2">
       <c r="A24" s="11">
-        <v>42005</v>
+        <v>44470</v>
       </c>
       <c r="B24" s="11">
-        <v>42029</v>
+        <v>45383</v>
       </c>
       <c r="C24" s="4" t="s">
         <v>250</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>398</v>
+        <v>300</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>330</v>
+        <v>298</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>217</v>
+        <v>323</v>
       </c>
       <c r="G24" s="4" t="s">
         <v>316</v>
@@ -3497,31 +3495,31 @@
       <c r="H24" s="4" t="s">
         <v>320</v>
       </c>
-      <c r="I24" s="4" t="s">
-        <v>226</v>
+      <c r="I24" s="17" t="s">
+        <v>224</v>
       </c>
       <c r="J24" s="4" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" ht="43.2">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" ht="72">
       <c r="A25" s="11">
-        <v>44470</v>
+        <v>41791</v>
       </c>
       <c r="B25" s="11">
-        <v>45383</v>
+        <v>43983</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>250</v>
+        <v>301</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>300</v>
+        <v>387</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>298</v>
-      </c>
-      <c r="F25" s="4" t="s">
-        <v>323</v>
+        <v>332</v>
+      </c>
+      <c r="F25" s="17" t="s">
+        <v>260</v>
       </c>
       <c r="G25" s="4" t="s">
         <v>316</v>
@@ -3533,24 +3531,24 @@
         <v>224</v>
       </c>
       <c r="J25" s="4" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" ht="72">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" ht="86.4">
       <c r="A26" s="11">
-        <v>41791</v>
+        <v>42156</v>
       </c>
       <c r="B26" s="11">
-        <v>43983</v>
+        <v>44593</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>301</v>
+        <v>261</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>332</v>
+        <v>299</v>
       </c>
       <c r="F26" s="17" t="s">
         <v>260</v>
@@ -3565,38 +3563,6 @@
         <v>224</v>
       </c>
       <c r="J26" s="4" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" ht="86.4">
-      <c r="A27" s="11">
-        <v>42156</v>
-      </c>
-      <c r="B27" s="11">
-        <v>44593</v>
-      </c>
-      <c r="C27" s="4" t="s">
-        <v>261</v>
-      </c>
-      <c r="D27" s="4" t="s">
-        <v>386</v>
-      </c>
-      <c r="E27" s="4" t="s">
-        <v>299</v>
-      </c>
-      <c r="F27" s="17" t="s">
-        <v>260</v>
-      </c>
-      <c r="G27" s="4" t="s">
-        <v>316</v>
-      </c>
-      <c r="H27" s="4" t="s">
-        <v>320</v>
-      </c>
-      <c r="I27" s="17" t="s">
-        <v>224</v>
-      </c>
-      <c r="J27" s="4" t="s">
         <v>341</v>
       </c>
     </row>

--- a/data Ukraine.xlsx
+++ b/data Ukraine.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\_GitHub\DataSources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1DA8A84-DB3A-479D-8271-31D3D1323DFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05CAB324-4D63-4793-8C4E-6A7197BBBC90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="898" activeTab="3" xr2:uid="{21FA5A86-4C69-4AEC-AC84-BE14EF54DEBB}"/>
   </bookViews>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="648" uniqueCount="403">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="648" uniqueCount="404">
   <si>
     <t>Ukraine is the second-largest European country (kraine covers an area of 603,550 sq km)</t>
   </si>
@@ -1288,10 +1288,6 @@
     <t>Student</t>
   </si>
   <si>
-    <t>Course development: theory, practice; video recording.
-Mentoring students during the course. Conducting webinars and QA sessions.</t>
-  </si>
-  <si>
     <t>Integration course: German language (DTZ B1), life in Germany (LiD)</t>
   </si>
   <si>
@@ -1307,6 +1303,13 @@
     <t>Master's degree in "Management of Organizations, Business Manager". 
 Diploma on Formation of optimal organizational behavior of an enterprise. Internship at Metro Cash &amp; Carry (8 weeks).
 Bachelor's degree in Philology (English-Ukrainian). At the same time I was getting a second high degree in linguistics - so that I wouldn't forget English :) My second language was German.</t>
+  </si>
+  <si>
+    <t>Author/Trainer of Online Course</t>
+  </si>
+  <si>
+    <t>Business Intelligence Course development: theory, practice; video recording.
+Mentoring students during the course. Conducting webinars and QA sessions.</t>
   </si>
 </sst>
 </file>
@@ -2721,8 +2724,8 @@
   <dimension ref="A1:K26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A17" sqref="A17"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -2833,7 +2836,7 @@
         <v>222</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="43.2">
@@ -2841,7 +2844,7 @@
         <v>44531</v>
       </c>
       <c r="B4" s="11">
-        <v>44593</v>
+        <v>44621</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>168</v>
@@ -2873,7 +2876,7 @@
         <v>44562</v>
       </c>
       <c r="B5" s="11">
-        <v>44713</v>
+        <v>44621</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>271</v>
@@ -2905,7 +2908,7 @@
         <v>44287</v>
       </c>
       <c r="B6" s="11">
-        <v>44593</v>
+        <v>45261</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>172</v>
@@ -3243,7 +3246,7 @@
         <v>224</v>
       </c>
       <c r="J16" s="4" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="115.2">
@@ -3275,7 +3278,7 @@
         <v>226</v>
       </c>
       <c r="J17" s="4" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="28.8">
@@ -3435,7 +3438,7 @@
         <v>226</v>
       </c>
       <c r="J22" s="4" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="23" spans="1:10" ht="43.2">
@@ -3470,18 +3473,18 @@
         <v>286</v>
       </c>
     </row>
-    <row r="24" spans="1:10" ht="43.2">
+    <row r="24" spans="1:10" ht="57.6">
       <c r="A24" s="11">
         <v>44470</v>
       </c>
       <c r="B24" s="11">
-        <v>45383</v>
+        <v>45261</v>
       </c>
       <c r="C24" s="4" t="s">
         <v>250</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>300</v>
+        <v>402</v>
       </c>
       <c r="E24" s="4" t="s">
         <v>298</v>
@@ -3499,7 +3502,7 @@
         <v>224</v>
       </c>
       <c r="J24" s="4" t="s">
-        <v>398</v>
+        <v>403</v>
       </c>
     </row>
     <row r="25" spans="1:10" ht="72">

--- a/data Ukraine.xlsx
+++ b/data Ukraine.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\_GitHub\DataSources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05CAB324-4D63-4793-8C4E-6A7197BBBC90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD2E269C-ABCC-4E95-A11D-D941F45A8778}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="898" activeTab="3" xr2:uid="{21FA5A86-4C69-4AEC-AC84-BE14EF54DEBB}"/>
   </bookViews>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="648" uniqueCount="404">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="648" uniqueCount="405">
   <si>
     <t>Ukraine is the second-largest European country (kraine covers an area of 603,550 sq km)</t>
   </si>
@@ -1310,6 +1310,9 @@
   <si>
     <t>Business Intelligence Course development: theory, practice; video recording.
 Mentoring students during the course. Conducting webinars and QA sessions.</t>
+  </si>
+  <si>
+    <t>We decided that our daughter would attend a Waldorf school. This means that parents are actively involved in the school's life. So, my analytical and organizational skills came in handy: in the financial team I managed the school budget; organized catering for pupils; in the household team I purchased inventory and later became the secretary of the school's Board.</t>
   </si>
 </sst>
 </file>
@@ -2724,8 +2727,8 @@
   <dimension ref="A1:K26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B7" sqref="B7"/>
+      <pane ySplit="1" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J30" sqref="J30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -3566,7 +3569,7 @@
         <v>224</v>
       </c>
       <c r="J26" s="4" t="s">
-        <v>341</v>
+        <v>404</v>
       </c>
     </row>
   </sheetData>

--- a/data Ukraine.xlsx
+++ b/data Ukraine.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\_GitHub\DataSources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD2E269C-ABCC-4E95-A11D-D941F45A8778}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{368D90D4-08D6-46B4-A3E5-93683A9DEAFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="898" activeTab="3" xr2:uid="{21FA5A86-4C69-4AEC-AC84-BE14EF54DEBB}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="898" activeTab="2" xr2:uid="{21FA5A86-4C69-4AEC-AC84-BE14EF54DEBB}"/>
   </bookViews>
   <sheets>
     <sheet name="personal data" sheetId="12" r:id="rId1"/>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="648" uniqueCount="405">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="648" uniqueCount="404">
   <si>
     <t>Ukraine is the second-largest European country (kraine covers an area of 603,550 sq km)</t>
   </si>
@@ -831,9 +831,6 @@
   </si>
   <si>
     <t>Prometheus</t>
-  </si>
-  <si>
-    <t>LABA</t>
   </si>
   <si>
     <t>Language</t>
@@ -1800,7 +1797,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B2" t="s">
         <v>218</v>
@@ -1808,7 +1805,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>219</v>
@@ -1816,7 +1813,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B4" s="12" t="s">
         <v>220</v>
@@ -1824,18 +1821,18 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
+        <v>256</v>
+      </c>
+      <c r="B5" t="s">
         <v>257</v>
-      </c>
-      <c r="B5" t="s">
-        <v>258</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
+        <v>265</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>266</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>267</v>
       </c>
     </row>
   </sheetData>
@@ -1899,12 +1896,12 @@
     </row>
     <row r="5" spans="1:4" ht="28.8">
       <c r="B5" s="5" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="28.8">
       <c r="B7" s="4" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
   </sheetData>
@@ -1932,16 +1929,16 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="13" t="s">
+        <v>251</v>
+      </c>
+      <c r="B1" s="13" t="s">
         <v>252</v>
       </c>
-      <c r="B1" s="13" t="s">
-        <v>253</v>
-      </c>
       <c r="C1" s="13" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D1" s="13" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -2026,9 +2023,9 @@
   </sheetPr>
   <dimension ref="A1:P40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B14" sqref="B14"/>
+      <selection pane="bottomLeft" activeCell="O2" sqref="O2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -2045,7 +2042,7 @@
         <v>168</v>
       </c>
       <c r="C1" s="15" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D1" s="15" t="s">
         <v>172</v>
@@ -2054,16 +2051,16 @@
         <v>176</v>
       </c>
       <c r="F1" s="15" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="G1" s="15" t="s">
         <v>186</v>
       </c>
       <c r="H1" s="15" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="I1" s="15" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="J1" s="15" t="s">
         <v>234</v>
@@ -2081,7 +2078,7 @@
         <v>245</v>
       </c>
       <c r="O1" s="15" t="s">
-        <v>251</v>
+        <v>383</v>
       </c>
       <c r="P1" s="15" t="s">
         <v>250</v>
@@ -2237,7 +2234,7 @@
     </row>
     <row r="10" spans="1:16">
       <c r="A10" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B10">
         <v>1</v>
@@ -2245,7 +2242,7 @@
     </row>
     <row r="11" spans="1:16">
       <c r="A11" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B11">
         <v>1</v>
@@ -2309,7 +2306,7 @@
     </row>
     <row r="16" spans="1:16">
       <c r="A16" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="F16">
         <v>1</v>
@@ -2424,7 +2421,7 @@
     </row>
     <row r="24" spans="1:16">
       <c r="A24" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="K24">
         <v>1</v>
@@ -2432,7 +2429,7 @@
     </row>
     <row r="25" spans="1:16">
       <c r="A25" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="K25">
         <v>1</v>
@@ -2440,7 +2437,7 @@
     </row>
     <row r="26" spans="1:16">
       <c r="A26" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B26">
         <v>1</v>
@@ -2451,7 +2448,7 @@
     </row>
     <row r="27" spans="1:16">
       <c r="A27" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B27">
         <v>1</v>
@@ -2462,7 +2459,7 @@
     </row>
     <row r="28" spans="1:16">
       <c r="A28" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -2470,7 +2467,7 @@
     </row>
     <row r="29" spans="1:16">
       <c r="A29" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="J29">
         <v>1</v>
@@ -2481,7 +2478,7 @@
     </row>
     <row r="30" spans="1:16">
       <c r="A30" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="J30">
         <v>1</v>
@@ -2492,7 +2489,7 @@
     </row>
     <row r="31" spans="1:16">
       <c r="A31" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B31">
         <v>1</v>
@@ -2533,7 +2530,7 @@
     </row>
     <row r="32" spans="1:16">
       <c r="A32" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B32">
         <v>1</v>
@@ -2541,7 +2538,7 @@
     </row>
     <row r="33" spans="1:14">
       <c r="A33" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D33">
         <v>1</v>
@@ -2567,7 +2564,7 @@
     </row>
     <row r="34" spans="1:14">
       <c r="A34" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B34">
         <v>1</v>
@@ -2596,7 +2593,7 @@
     </row>
     <row r="35" spans="1:14">
       <c r="A35" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B35">
         <v>1</v>
@@ -2622,7 +2619,7 @@
     </row>
     <row r="36" spans="1:14">
       <c r="A36" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D36">
         <v>1</v>
@@ -2642,7 +2639,7 @@
     </row>
     <row r="37" spans="1:14">
       <c r="A37" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="E37">
         <v>1</v>
@@ -2659,7 +2656,7 @@
     </row>
     <row r="38" spans="1:14">
       <c r="A38" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E38">
         <v>1</v>
@@ -2676,7 +2673,7 @@
     </row>
     <row r="39" spans="1:14">
       <c r="A39" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="E39">
         <v>1</v>
@@ -2696,7 +2693,7 @@
     </row>
     <row r="40" spans="1:14">
       <c r="A40" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C40">
         <v>1</v>
@@ -2726,8 +2723,8 @@
   </sheetPr>
   <dimension ref="A1:K26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="J30" sqref="J30"/>
     </sheetView>
   </sheetViews>
@@ -2763,16 +2760,16 @@
         <v>177</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="H1" s="6" t="s">
         <v>171</v>
       </c>
       <c r="I1" s="6" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="J1" s="6" t="s">
         <v>40</v>
@@ -2789,25 +2786,25 @@
         <v>45992</v>
       </c>
       <c r="C2" s="4" t="s">
+        <v>379</v>
+      </c>
+      <c r="D2" s="4" t="s">
         <v>380</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="E2" s="4" t="s">
         <v>381</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="F2" s="4" t="s">
+        <v>322</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>315</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>318</v>
+      </c>
+      <c r="J2" s="4" t="s">
         <v>382</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>323</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>316</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>319</v>
-      </c>
-      <c r="J2" s="4" t="s">
-        <v>383</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="43.2">
@@ -2818,28 +2815,28 @@
         <v>45323</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="F3" s="4" t="s">
         <v>217</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="I3" s="4" t="s">
         <v>222</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="43.2">
@@ -2859,13 +2856,13 @@
         <v>178</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="I4" s="4" t="s">
         <v>223</v>
@@ -2882,28 +2879,28 @@
         <v>44621</v>
       </c>
       <c r="C5" s="4" t="s">
+        <v>270</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="E5" s="4" t="s">
         <v>271</v>
       </c>
-      <c r="D5" s="4" t="s">
-        <v>270</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>272</v>
-      </c>
       <c r="F5" s="4" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="I5" s="4" t="s">
         <v>223</v>
       </c>
       <c r="J5" s="4" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="57.6">
@@ -2923,13 +2920,13 @@
         <v>179</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="I6" s="4" t="s">
         <v>224</v>
@@ -2955,13 +2952,13 @@
         <v>180</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="I7" s="4" t="s">
         <v>224</v>
@@ -2978,7 +2975,7 @@
         <v>44317</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>182</v>
@@ -2987,13 +2984,13 @@
         <v>183</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="I8" s="4" t="s">
         <v>224</v>
@@ -3016,16 +3013,16 @@
         <v>185</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="I9" s="4" t="s">
         <v>224</v>
@@ -3042,25 +3039,25 @@
         <v>43556</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="G10" s="4" t="s">
+        <v>317</v>
+      </c>
+      <c r="H10" s="4" t="s">
         <v>318</v>
-      </c>
-      <c r="H10" s="4" t="s">
-        <v>319</v>
       </c>
       <c r="I10" s="4" t="s">
         <v>224</v>
       </c>
       <c r="J10" s="4" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="43.2">
@@ -3071,7 +3068,7 @@
         <v>42856</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D11" s="4" t="s">
         <v>188</v>
@@ -3080,13 +3077,13 @@
         <v>189</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="G11" s="4" t="s">
+        <v>317</v>
+      </c>
+      <c r="H11" s="4" t="s">
         <v>318</v>
-      </c>
-      <c r="H11" s="4" t="s">
-        <v>319</v>
       </c>
       <c r="I11" s="4" t="s">
         <v>226</v>
@@ -3103,28 +3100,28 @@
         <v>41183</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="G12" s="4" t="s">
+        <v>317</v>
+      </c>
+      <c r="H12" s="4" t="s">
         <v>318</v>
-      </c>
-      <c r="H12" s="4" t="s">
-        <v>319</v>
       </c>
       <c r="I12" s="4" t="s">
         <v>226</v>
       </c>
       <c r="J12" s="4" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -3135,25 +3132,25 @@
         <v>40664</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="G13" s="4" t="s">
+        <v>317</v>
+      </c>
+      <c r="H13" s="4" t="s">
         <v>318</v>
-      </c>
-      <c r="H13" s="4" t="s">
-        <v>319</v>
       </c>
       <c r="I13" s="4" t="s">
         <v>226</v>
       </c>
       <c r="J13" s="4" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="72">
@@ -3167,25 +3164,25 @@
         <v>234</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="G14" s="4" t="s">
+        <v>317</v>
+      </c>
+      <c r="H14" s="4" t="s">
         <v>318</v>
-      </c>
-      <c r="H14" s="4" t="s">
-        <v>319</v>
       </c>
       <c r="I14" s="4" t="s">
         <v>224</v>
       </c>
       <c r="J14" s="4" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="72">
@@ -3199,25 +3196,25 @@
         <v>234</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="F15" s="4" t="s">
         <v>217</v>
       </c>
       <c r="G15" s="4" t="s">
+        <v>317</v>
+      </c>
+      <c r="H15" s="4" t="s">
         <v>318</v>
-      </c>
-      <c r="H15" s="4" t="s">
-        <v>319</v>
       </c>
       <c r="I15" s="4" t="s">
         <v>224</v>
       </c>
       <c r="J15" s="4" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="86.4">
@@ -3231,25 +3228,25 @@
         <v>234</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="F16" s="4" t="s">
         <v>217</v>
       </c>
       <c r="G16" s="4" t="s">
+        <v>317</v>
+      </c>
+      <c r="H16" s="4" t="s">
         <v>318</v>
-      </c>
-      <c r="H16" s="4" t="s">
-        <v>319</v>
       </c>
       <c r="I16" s="4" t="s">
         <v>224</v>
       </c>
       <c r="J16" s="4" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="115.2">
@@ -3263,25 +3260,25 @@
         <v>235</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="F17" s="4" t="s">
         <v>217</v>
       </c>
       <c r="G17" s="4" t="s">
+        <v>317</v>
+      </c>
+      <c r="H17" s="4" t="s">
         <v>318</v>
-      </c>
-      <c r="H17" s="4" t="s">
-        <v>319</v>
       </c>
       <c r="I17" s="4" t="s">
         <v>226</v>
       </c>
       <c r="J17" s="4" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="28.8">
@@ -3295,19 +3292,19 @@
         <v>236</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="F18" s="4" t="s">
         <v>217</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="H18" s="4" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="I18" s="4" t="s">
         <v>223</v>
@@ -3327,19 +3324,19 @@
         <v>241</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F19" s="4" t="s">
         <v>217</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="H19" s="4" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="I19" s="4" t="s">
         <v>223</v>
@@ -3359,19 +3356,19 @@
         <v>245</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F20" s="4" t="s">
         <v>217</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="H20" s="4" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="I20" s="4" t="s">
         <v>223</v>
@@ -3391,19 +3388,19 @@
         <v>245</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F21" s="4" t="s">
         <v>217</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="H21" s="4" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="I21" s="4" t="s">
         <v>223</v>
@@ -3420,28 +3417,28 @@
         <v>43555</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="F22" s="4" t="s">
         <v>217</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="H22" s="4" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="I22" s="4" t="s">
         <v>226</v>
       </c>
       <c r="J22" s="4" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="23" spans="1:10" ht="43.2">
@@ -3455,25 +3452,25 @@
         <v>250</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="F23" s="4" t="s">
         <v>217</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="H23" s="4" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="I23" s="4" t="s">
         <v>226</v>
       </c>
       <c r="J23" s="4" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="24" spans="1:10" ht="57.6">
@@ -3487,25 +3484,25 @@
         <v>250</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="H24" s="4" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="I24" s="17" t="s">
         <v>224</v>
       </c>
       <c r="J24" s="4" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="25" spans="1:10" ht="72">
@@ -3516,28 +3513,28 @@
         <v>43983</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="F25" s="17" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="G25" s="4" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="H25" s="4" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="I25" s="17" t="s">
         <v>224</v>
       </c>
       <c r="J25" s="4" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="26" spans="1:10" ht="86.4">
@@ -3548,28 +3545,28 @@
         <v>44593</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="F26" s="17" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="G26" s="4" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="H26" s="4" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="I26" s="17" t="s">
         <v>224</v>
       </c>
       <c r="J26" s="4" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
   </sheetData>
@@ -3603,13 +3600,13 @@
         <v>163</v>
       </c>
       <c r="B1" s="6" t="s">
+        <v>311</v>
+      </c>
+      <c r="C1" s="6" t="s">
         <v>312</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="D1" s="6" t="s">
         <v>313</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>314</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="100.8">
@@ -3617,27 +3614,27 @@
         <v>168</v>
       </c>
       <c r="B2" s="17" t="s">
+        <v>307</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>308</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="D2" s="4" t="s">
         <v>309</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>310</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="57.6">
       <c r="A3" s="4" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="187.2">
@@ -3645,13 +3642,13 @@
         <v>172</v>
       </c>
       <c r="B4" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="C4" s="4" t="s">
         <v>305</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="D4" s="4" t="s">
         <v>306</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>307</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="201.6">
@@ -3668,22 +3665,22 @@
         <v>232</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="F11" s="4" t="s">
         <v>217</v>
       </c>
       <c r="G11" s="4" t="s">
+        <v>317</v>
+      </c>
+      <c r="H11" s="4" t="s">
         <v>318</v>
-      </c>
-      <c r="H11" s="4" t="s">
-        <v>319</v>
       </c>
       <c r="I11" s="4" t="s">
         <v>224</v>
       </c>
       <c r="J11" s="4" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="230.4">
@@ -3697,25 +3694,25 @@
         <v>234</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="F12" s="4" t="s">
         <v>217</v>
       </c>
       <c r="G12" s="4" t="s">
+        <v>317</v>
+      </c>
+      <c r="H12" s="4" t="s">
         <v>318</v>
-      </c>
-      <c r="H12" s="4" t="s">
-        <v>319</v>
       </c>
       <c r="I12" s="4" t="s">
         <v>224</v>
       </c>
       <c r="J12" s="4" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="244.8">
@@ -3732,22 +3729,22 @@
         <v>233</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="F13" s="4" t="s">
         <v>217</v>
       </c>
       <c r="G13" s="4" t="s">
+        <v>317</v>
+      </c>
+      <c r="H13" s="4" t="s">
         <v>318</v>
-      </c>
-      <c r="H13" s="4" t="s">
-        <v>319</v>
       </c>
       <c r="I13" s="4" t="s">
         <v>224</v>
       </c>
       <c r="J13" s="4" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="409.6">
@@ -3761,25 +3758,25 @@
         <v>235</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="F14" s="4" t="s">
         <v>217</v>
       </c>
       <c r="G14" s="4" t="s">
+        <v>317</v>
+      </c>
+      <c r="H14" s="4" t="s">
         <v>318</v>
-      </c>
-      <c r="H14" s="4" t="s">
-        <v>319</v>
       </c>
       <c r="I14" s="4" t="s">
         <v>226</v>
       </c>
       <c r="J14" s="4" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="86.4">
@@ -3796,16 +3793,16 @@
         <v>237</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="F15" s="4" t="s">
         <v>217</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="H15" s="4" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="I15" s="4" t="s">
         <v>223</v>
@@ -3828,16 +3825,16 @@
         <v>240</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F16" s="4" t="s">
         <v>217</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="H16" s="4" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="I16" s="4" t="s">
         <v>223</v>
@@ -3860,16 +3857,16 @@
         <v>243</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F17" s="4" t="s">
         <v>217</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="H17" s="4" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="I17" s="4" t="s">
         <v>223</v>
@@ -3892,16 +3889,16 @@
         <v>246</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F18" s="4" t="s">
         <v>217</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="H18" s="4" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="I18" s="4" t="s">
         <v>223</v>
@@ -3918,22 +3915,22 @@
         <v>43555</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="F19" s="4" t="s">
         <v>217</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="H19" s="4" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="I19" s="4" t="s">
         <v>226</v>
@@ -3953,19 +3950,19 @@
         <v>250</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="F20" s="4" t="s">
         <v>217</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="H20" s="4" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="I20" s="4" t="s">
         <v>226</v>
@@ -3985,25 +3982,25 @@
         <v>250</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="H21" s="4" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="I21" s="17" t="s">
         <v>224</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="409.6">
@@ -4014,28 +4011,28 @@
         <v>43983</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="F22" s="17" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="H22" s="4" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="I22" s="17" t="s">
         <v>224</v>
       </c>
       <c r="J22" s="4" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="23" spans="1:10" ht="409.6">
@@ -4046,28 +4043,28 @@
         <v>44593</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="F23" s="17" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="H23" s="4" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="I23" s="17" t="s">
         <v>224</v>
       </c>
       <c r="J23" s="4" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
   </sheetData>
@@ -4138,7 +4135,7 @@
         <v>197</v>
       </c>
       <c r="B5" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
   </sheetData>
@@ -4180,7 +4177,7 @@
     </row>
     <row r="2" spans="1:3" ht="43.2">
       <c r="A2" s="4" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>34</v>
@@ -4205,7 +4202,7 @@
         <v>24</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>25</v>
@@ -4235,13 +4232,13 @@
     </row>
     <row r="7" spans="1:3" ht="28.8">
       <c r="A7" s="4" t="s">
+        <v>344</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>354</v>
+      </c>
+      <c r="C7" s="4" t="s">
         <v>345</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>355</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>346</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="43.2">
@@ -4293,7 +4290,7 @@
         <v>26</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>42</v>
@@ -4301,13 +4298,13 @@
     </row>
     <row r="13" spans="1:3" ht="43.2">
       <c r="A13" s="4" t="s">
+        <v>348</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>353</v>
+      </c>
+      <c r="C13" s="4" t="s">
         <v>349</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>354</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>350</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="28.8">
@@ -4315,7 +4312,7 @@
         <v>78</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>79</v>
@@ -4326,7 +4323,7 @@
         <v>37</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>36</v>
@@ -4348,7 +4345,7 @@
         <v>52</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>53</v>
@@ -4367,24 +4364,24 @@
     </row>
     <row r="19" spans="1:3" ht="43.2">
       <c r="A19" s="4" t="s">
+        <v>346</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>367</v>
+      </c>
+      <c r="C19" s="4" t="s">
         <v>347</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>368</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>348</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="28.8">
       <c r="A20" s="4" t="s">
+        <v>351</v>
+      </c>
+      <c r="B20" s="4" t="s">
         <v>352</v>
       </c>
-      <c r="B20" s="4" t="s">
-        <v>353</v>
-      </c>
       <c r="C20" s="4" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -4392,7 +4389,7 @@
         <v>71</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>72</v>
@@ -4403,7 +4400,7 @@
         <v>87</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C22" s="4" t="s">
         <v>88</v>
@@ -4414,7 +4411,7 @@
         <v>89</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C23" s="4" t="s">
         <v>90</v>
@@ -4447,7 +4444,7 @@
         <v>30</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C26" s="4" t="s">
         <v>45</v>
@@ -4458,10 +4455,10 @@
         <v>46</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="28.8">
@@ -4469,7 +4466,7 @@
         <v>93</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C28" s="4" t="s">
         <v>94</v>
@@ -4491,7 +4488,7 @@
         <v>83</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C30" s="4" t="s">
         <v>84</v>
@@ -4502,7 +4499,7 @@
         <v>49</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C31" s="4" t="s">
         <v>50</v>
@@ -4513,10 +4510,10 @@
         <v>55</v>
       </c>
       <c r="B32" s="4" t="s">
+        <v>360</v>
+      </c>
+      <c r="C32" s="4" t="s">
         <v>361</v>
-      </c>
-      <c r="C32" s="4" t="s">
-        <v>362</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="72">
@@ -4524,7 +4521,7 @@
         <v>28</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C33" s="4" t="s">
         <v>27</v>
@@ -4535,7 +4532,7 @@
         <v>76</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C34" s="4" t="s">
         <v>77</v>
@@ -4546,7 +4543,7 @@
         <v>29</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C35" s="4" t="s">
         <v>51</v>
@@ -4557,7 +4554,7 @@
         <v>85</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C36" s="4" t="s">
         <v>86</v>
@@ -4568,7 +4565,7 @@
         <v>103</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C37" s="4" t="s">
         <v>102</v>
@@ -5062,10 +5059,10 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="B9" t="s">
         <v>263</v>
-      </c>
-      <c r="B9" t="s">
-        <v>264</v>
       </c>
     </row>
   </sheetData>

--- a/data Ukraine.xlsx
+++ b/data Ukraine.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\_GitHub\DataSources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{368D90D4-08D6-46B4-A3E5-93683A9DEAFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BA3A3EC-B306-4E71-AA9C-1B9B1DD56015}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="898" activeTab="2" xr2:uid="{21FA5A86-4C69-4AEC-AC84-BE14EF54DEBB}"/>
   </bookViews>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="648" uniqueCount="404">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="649" uniqueCount="403">
   <si>
     <t>Ukraine is the second-largest European country (kraine covers an area of 603,550 sq km)</t>
   </si>
@@ -902,9 +902,6 @@
   </si>
   <si>
     <t>BI consulting and report creating (insurance branch).</t>
-  </si>
-  <si>
-    <t>Impel Griffin</t>
   </si>
   <si>
     <t>One of the largest clining company in Ukraine.</t>
@@ -1901,7 +1898,7 @@
     </row>
     <row r="7" spans="1:4" ht="28.8">
       <c r="B7" s="4" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
   </sheetData>
@@ -1938,7 +1935,7 @@
         <v>264</v>
       </c>
       <c r="D1" s="13" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -2021,20 +2018,25 @@
   <sheetPr>
     <tabColor rgb="FF0070C0"/>
   </sheetPr>
-  <dimension ref="A1:P40"/>
+  <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O2" sqref="O2"/>
+      <pane ySplit="1" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="Q41" sqref="Q41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="20.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="16" width="12" customWidth="1"/>
+    <col min="2" max="11" width="12" customWidth="1"/>
+    <col min="12" max="12" width="8.33203125" customWidth="1"/>
+    <col min="13" max="13" width="9.33203125" customWidth="1"/>
+    <col min="14" max="14" width="7.44140625" customWidth="1"/>
+    <col min="15" max="15" width="6.88671875" customWidth="1"/>
+    <col min="16" max="16" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="16" customFormat="1" ht="25.8" customHeight="1">
+    <row r="1" spans="1:17" s="16" customFormat="1" ht="46.8" customHeight="1">
       <c r="A1" s="14" t="s">
         <v>39</v>
       </c>
@@ -2051,16 +2053,16 @@
         <v>176</v>
       </c>
       <c r="F1" s="15" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="G1" s="15" t="s">
         <v>186</v>
       </c>
       <c r="H1" s="15" t="s">
-        <v>281</v>
-      </c>
-      <c r="I1" s="15" t="s">
-        <v>273</v>
+        <v>280</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>341</v>
       </c>
       <c r="J1" s="15" t="s">
         <v>234</v>
@@ -2078,13 +2080,16 @@
         <v>245</v>
       </c>
       <c r="O1" s="15" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="P1" s="15" t="s">
         <v>250</v>
       </c>
-    </row>
-    <row r="2" spans="1:16">
+      <c r="Q1" s="15" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" t="s">
         <v>199</v>
       </c>
@@ -2112,8 +2117,11 @@
       <c r="O2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:16">
+      <c r="Q2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" t="s">
         <v>200</v>
       </c>
@@ -2141,8 +2149,11 @@
       <c r="O3">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:16">
+      <c r="Q3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" t="s">
         <v>211</v>
       </c>
@@ -2156,7 +2167,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:16">
+    <row r="5" spans="1:17">
       <c r="A5" t="s">
         <v>201</v>
       </c>
@@ -2185,7 +2196,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:16">
+    <row r="6" spans="1:17">
       <c r="A6" t="s">
         <v>202</v>
       </c>
@@ -2193,7 +2204,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16">
+    <row r="7" spans="1:17">
       <c r="A7" t="s">
         <v>203</v>
       </c>
@@ -2201,7 +2212,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:16">
+    <row r="8" spans="1:17">
       <c r="A8" t="s">
         <v>204</v>
       </c>
@@ -2224,7 +2235,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:16">
+    <row r="9" spans="1:17">
       <c r="A9" t="s">
         <v>205</v>
       </c>
@@ -2232,23 +2243,23 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:16">
+    <row r="10" spans="1:17">
       <c r="A10" t="s">
+        <v>275</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
+      <c r="A11" t="s">
         <v>276</v>
       </c>
-      <c r="B10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16">
-      <c r="A11" t="s">
-        <v>277</v>
-      </c>
       <c r="B11">
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:16">
+    <row r="12" spans="1:17">
       <c r="A12" t="s">
         <v>206</v>
       </c>
@@ -2259,7 +2270,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:16">
+    <row r="13" spans="1:17">
       <c r="A13" t="s">
         <v>207</v>
       </c>
@@ -2270,7 +2281,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:16">
+    <row r="14" spans="1:17">
       <c r="A14" t="s">
         <v>208</v>
       </c>
@@ -2278,7 +2289,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:16">
+    <row r="15" spans="1:17">
       <c r="A15" t="s">
         <v>210</v>
       </c>
@@ -2303,8 +2314,11 @@
       <c r="K15">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:16">
+      <c r="Q15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" t="s">
         <v>268</v>
       </c>
@@ -2323,8 +2337,11 @@
       <c r="K16">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:16">
+      <c r="Q16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" t="s">
         <v>212</v>
       </c>
@@ -2340,8 +2357,11 @@
       <c r="K17">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:16">
+      <c r="Q17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" t="s">
         <v>198</v>
       </c>
@@ -2352,7 +2372,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:16">
+    <row r="19" spans="1:17">
       <c r="A19" t="s">
         <v>214</v>
       </c>
@@ -2374,8 +2394,11 @@
       <c r="O19">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="1:16">
+      <c r="Q19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" t="s">
         <v>215</v>
       </c>
@@ -2395,7 +2418,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:16">
+    <row r="21" spans="1:17">
       <c r="A21" t="s">
         <v>216</v>
       </c>
@@ -2403,7 +2426,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:16">
+    <row r="22" spans="1:17">
       <c r="A22" t="s">
         <v>209</v>
       </c>
@@ -2411,7 +2434,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:16">
+    <row r="23" spans="1:17">
       <c r="A23" t="s">
         <v>213</v>
       </c>
@@ -2419,282 +2442,300 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:16">
+    <row r="24" spans="1:17">
       <c r="A24" t="s">
+        <v>277</v>
+      </c>
+      <c r="K24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
+      <c r="A25" t="s">
         <v>278</v>
       </c>
-      <c r="K24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:16">
-      <c r="A25" t="s">
-        <v>279</v>
-      </c>
       <c r="K25">
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:16">
+    <row r="26" spans="1:17">
       <c r="A26" t="s">
+        <v>281</v>
+      </c>
+      <c r="B26">
+        <v>1</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17">
+      <c r="A27" t="s">
         <v>282</v>
       </c>
-      <c r="B26">
-        <v>1</v>
-      </c>
-      <c r="L26">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:16">
-      <c r="A27" t="s">
+      <c r="B27">
+        <v>1</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17">
+      <c r="A28" t="s">
         <v>283</v>
       </c>
-      <c r="B27">
-        <v>1</v>
-      </c>
-      <c r="L27">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:16">
-      <c r="A28" t="s">
+      <c r="N28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17">
+      <c r="A29" t="s">
         <v>284</v>
       </c>
-      <c r="N28">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:16">
-      <c r="A29" t="s">
+      <c r="J29">
+        <v>1</v>
+      </c>
+      <c r="P29">
+        <v>1</v>
+      </c>
+      <c r="Q29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17">
+      <c r="A30" t="s">
         <v>285</v>
       </c>
-      <c r="J29">
-        <v>1</v>
-      </c>
-      <c r="P29">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:16">
-      <c r="A30" t="s">
+      <c r="J30">
+        <v>1</v>
+      </c>
+      <c r="K30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17">
+      <c r="A31" t="s">
         <v>286</v>
       </c>
-      <c r="J30">
-        <v>1</v>
-      </c>
-      <c r="K30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:16">
-      <c r="A31" t="s">
+      <c r="B31">
+        <v>1</v>
+      </c>
+      <c r="C31">
+        <v>1</v>
+      </c>
+      <c r="D31">
+        <v>1</v>
+      </c>
+      <c r="E31">
+        <v>1</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>1</v>
+      </c>
+      <c r="H31">
+        <v>1</v>
+      </c>
+      <c r="I31">
+        <v>1</v>
+      </c>
+      <c r="J31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>1</v>
+      </c>
+      <c r="N31">
+        <v>1</v>
+      </c>
+      <c r="O31">
+        <v>1</v>
+      </c>
+      <c r="Q31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17">
+      <c r="A32" t="s">
         <v>287</v>
       </c>
-      <c r="B31">
-        <v>1</v>
-      </c>
-      <c r="C31">
-        <v>1</v>
-      </c>
-      <c r="D31">
-        <v>1</v>
-      </c>
-      <c r="E31">
-        <v>1</v>
-      </c>
-      <c r="F31">
-        <v>1</v>
-      </c>
-      <c r="G31">
-        <v>1</v>
-      </c>
-      <c r="H31">
-        <v>1</v>
-      </c>
-      <c r="I31">
-        <v>1</v>
-      </c>
-      <c r="J31">
-        <v>1</v>
-      </c>
-      <c r="M31">
-        <v>1</v>
-      </c>
-      <c r="N31">
-        <v>1</v>
-      </c>
-      <c r="O31">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:16">
-      <c r="A32" t="s">
+      <c r="B32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17">
+      <c r="A33" t="s">
         <v>288</v>
       </c>
-      <c r="B32">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:14">
-      <c r="A33" t="s">
+      <c r="D33">
+        <v>1</v>
+      </c>
+      <c r="E33">
+        <v>1</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="H33">
+        <v>1</v>
+      </c>
+      <c r="I33">
+        <v>1</v>
+      </c>
+      <c r="J33">
+        <v>1</v>
+      </c>
+      <c r="K33">
+        <v>1</v>
+      </c>
+      <c r="Q33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17">
+      <c r="A34" t="s">
         <v>289</v>
       </c>
-      <c r="D33">
-        <v>1</v>
-      </c>
-      <c r="E33">
-        <v>1</v>
-      </c>
-      <c r="F33">
-        <v>1</v>
-      </c>
-      <c r="H33">
-        <v>1</v>
-      </c>
-      <c r="I33">
-        <v>1</v>
-      </c>
-      <c r="J33">
-        <v>1</v>
-      </c>
-      <c r="K33">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:14">
-      <c r="A34" t="s">
+      <c r="B34">
+        <v>1</v>
+      </c>
+      <c r="C34">
+        <v>1</v>
+      </c>
+      <c r="D34">
+        <v>1</v>
+      </c>
+      <c r="E34">
+        <v>1</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>1</v>
+      </c>
+      <c r="M34">
+        <v>1</v>
+      </c>
+      <c r="N34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17">
+      <c r="A35" t="s">
         <v>290</v>
       </c>
-      <c r="B34">
-        <v>1</v>
-      </c>
-      <c r="C34">
-        <v>1</v>
-      </c>
-      <c r="D34">
-        <v>1</v>
-      </c>
-      <c r="E34">
-        <v>1</v>
-      </c>
-      <c r="F34">
-        <v>1</v>
-      </c>
-      <c r="G34">
-        <v>1</v>
-      </c>
-      <c r="M34">
-        <v>1</v>
-      </c>
-      <c r="N34">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:14">
-      <c r="A35" t="s">
+      <c r="B35">
+        <v>1</v>
+      </c>
+      <c r="C35">
+        <v>1</v>
+      </c>
+      <c r="D35">
+        <v>1</v>
+      </c>
+      <c r="E35">
+        <v>1</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>1</v>
+      </c>
+      <c r="M35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17">
+      <c r="A36" t="s">
         <v>291</v>
       </c>
-      <c r="B35">
-        <v>1</v>
-      </c>
-      <c r="C35">
-        <v>1</v>
-      </c>
-      <c r="D35">
-        <v>1</v>
-      </c>
-      <c r="E35">
-        <v>1</v>
-      </c>
-      <c r="F35">
-        <v>1</v>
-      </c>
-      <c r="G35">
-        <v>1</v>
-      </c>
-      <c r="M35">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:14">
-      <c r="A36" t="s">
+      <c r="D36">
+        <v>1</v>
+      </c>
+      <c r="E36">
+        <v>1</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="H36">
+        <v>1</v>
+      </c>
+      <c r="J36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17">
+      <c r="A37" t="s">
         <v>292</v>
       </c>
-      <c r="D36">
-        <v>1</v>
-      </c>
-      <c r="E36">
-        <v>1</v>
-      </c>
-      <c r="F36">
-        <v>1</v>
-      </c>
-      <c r="H36">
-        <v>1</v>
-      </c>
-      <c r="J36">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:14">
-      <c r="A37" t="s">
+      <c r="E37">
+        <v>1</v>
+      </c>
+      <c r="H37">
+        <v>1</v>
+      </c>
+      <c r="I37">
+        <v>1</v>
+      </c>
+      <c r="J37">
+        <v>1</v>
+      </c>
+      <c r="Q37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17">
+      <c r="A38" t="s">
         <v>293</v>
       </c>
-      <c r="E37">
-        <v>1</v>
-      </c>
-      <c r="H37">
-        <v>1</v>
-      </c>
-      <c r="I37">
-        <v>1</v>
-      </c>
-      <c r="J37">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:14">
-      <c r="A38" t="s">
+      <c r="E38">
+        <v>1</v>
+      </c>
+      <c r="F38">
+        <v>1</v>
+      </c>
+      <c r="H38">
+        <v>1</v>
+      </c>
+      <c r="J38">
+        <v>1</v>
+      </c>
+      <c r="Q38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17">
+      <c r="A39" t="s">
         <v>294</v>
       </c>
-      <c r="E38">
-        <v>1</v>
-      </c>
-      <c r="F38">
-        <v>1</v>
-      </c>
-      <c r="H38">
-        <v>1</v>
-      </c>
-      <c r="J38">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:14">
-      <c r="A39" t="s">
+      <c r="E39">
+        <v>1</v>
+      </c>
+      <c r="F39">
+        <v>1</v>
+      </c>
+      <c r="H39">
+        <v>1</v>
+      </c>
+      <c r="I39">
+        <v>1</v>
+      </c>
+      <c r="J39">
+        <v>1</v>
+      </c>
+      <c r="Q39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17">
+      <c r="A40" t="s">
         <v>295</v>
       </c>
-      <c r="E39">
-        <v>1</v>
-      </c>
-      <c r="F39">
-        <v>1</v>
-      </c>
-      <c r="H39">
-        <v>1</v>
-      </c>
-      <c r="I39">
-        <v>1</v>
-      </c>
-      <c r="J39">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:14">
-      <c r="A40" t="s">
-        <v>296</v>
-      </c>
       <c r="C40">
         <v>1</v>
       </c>
@@ -2708,6 +2749,9 @@
         <v>1</v>
       </c>
       <c r="I40">
+        <v>1</v>
+      </c>
+      <c r="Q40">
         <v>1</v>
       </c>
     </row>
@@ -2724,8 +2768,8 @@
   <dimension ref="A1:K26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J30" sqref="J30"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C26" sqref="C2:C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -2760,10 +2804,10 @@
         <v>177</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="H1" s="6" t="s">
         <v>171</v>
@@ -2786,25 +2830,25 @@
         <v>45992</v>
       </c>
       <c r="C2" s="4" t="s">
+        <v>378</v>
+      </c>
+      <c r="D2" s="4" t="s">
         <v>379</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="E2" s="4" t="s">
         <v>380</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="F2" s="4" t="s">
+        <v>321</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>314</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>317</v>
+      </c>
+      <c r="J2" s="4" t="s">
         <v>381</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>322</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>315</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>318</v>
-      </c>
-      <c r="J2" s="4" t="s">
-        <v>382</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="43.2">
@@ -2815,28 +2859,28 @@
         <v>45323</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="F3" s="4" t="s">
         <v>217</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="I3" s="4" t="s">
         <v>222</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="43.2">
@@ -2856,13 +2900,13 @@
         <v>178</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="I4" s="4" t="s">
         <v>223</v>
@@ -2888,13 +2932,13 @@
         <v>271</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="I5" s="4" t="s">
         <v>223</v>
@@ -2920,13 +2964,13 @@
         <v>179</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="I6" s="4" t="s">
         <v>224</v>
@@ -2952,13 +2996,13 @@
         <v>180</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="I7" s="4" t="s">
         <v>224</v>
@@ -2975,7 +3019,7 @@
         <v>44317</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>182</v>
@@ -2984,13 +3028,13 @@
         <v>183</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="I8" s="4" t="s">
         <v>224</v>
@@ -3016,13 +3060,13 @@
         <v>267</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="I9" s="4" t="s">
         <v>224</v>
@@ -3039,25 +3083,25 @@
         <v>43556</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="G10" s="4" t="s">
+        <v>316</v>
+      </c>
+      <c r="H10" s="4" t="s">
         <v>317</v>
-      </c>
-      <c r="H10" s="4" t="s">
-        <v>318</v>
       </c>
       <c r="I10" s="4" t="s">
         <v>224</v>
       </c>
       <c r="J10" s="4" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="43.2">
@@ -3068,7 +3112,7 @@
         <v>42856</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D11" s="4" t="s">
         <v>188</v>
@@ -3077,13 +3121,13 @@
         <v>189</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="G11" s="4" t="s">
+        <v>316</v>
+      </c>
+      <c r="H11" s="4" t="s">
         <v>317</v>
-      </c>
-      <c r="H11" s="4" t="s">
-        <v>318</v>
       </c>
       <c r="I11" s="4" t="s">
         <v>226</v>
@@ -3100,28 +3144,28 @@
         <v>41183</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="G12" s="4" t="s">
+        <v>316</v>
+      </c>
+      <c r="H12" s="4" t="s">
         <v>317</v>
-      </c>
-      <c r="H12" s="4" t="s">
-        <v>318</v>
       </c>
       <c r="I12" s="4" t="s">
         <v>226</v>
       </c>
       <c r="J12" s="4" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -3132,25 +3176,25 @@
         <v>40664</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="G13" s="4" t="s">
+        <v>316</v>
+      </c>
+      <c r="H13" s="4" t="s">
         <v>317</v>
-      </c>
-      <c r="H13" s="4" t="s">
-        <v>318</v>
       </c>
       <c r="I13" s="4" t="s">
         <v>226</v>
       </c>
       <c r="J13" s="4" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="72">
@@ -3164,25 +3208,25 @@
         <v>234</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="G14" s="4" t="s">
+        <v>316</v>
+      </c>
+      <c r="H14" s="4" t="s">
         <v>317</v>
-      </c>
-      <c r="H14" s="4" t="s">
-        <v>318</v>
       </c>
       <c r="I14" s="4" t="s">
         <v>224</v>
       </c>
       <c r="J14" s="4" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="72">
@@ -3196,25 +3240,25 @@
         <v>234</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="F15" s="4" t="s">
         <v>217</v>
       </c>
       <c r="G15" s="4" t="s">
+        <v>316</v>
+      </c>
+      <c r="H15" s="4" t="s">
         <v>317</v>
-      </c>
-      <c r="H15" s="4" t="s">
-        <v>318</v>
       </c>
       <c r="I15" s="4" t="s">
         <v>224</v>
       </c>
       <c r="J15" s="4" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="86.4">
@@ -3228,25 +3272,25 @@
         <v>234</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="F16" s="4" t="s">
         <v>217</v>
       </c>
       <c r="G16" s="4" t="s">
+        <v>316</v>
+      </c>
+      <c r="H16" s="4" t="s">
         <v>317</v>
-      </c>
-      <c r="H16" s="4" t="s">
-        <v>318</v>
       </c>
       <c r="I16" s="4" t="s">
         <v>224</v>
       </c>
       <c r="J16" s="4" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="115.2">
@@ -3260,25 +3304,25 @@
         <v>235</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="F17" s="4" t="s">
         <v>217</v>
       </c>
       <c r="G17" s="4" t="s">
+        <v>316</v>
+      </c>
+      <c r="H17" s="4" t="s">
         <v>317</v>
-      </c>
-      <c r="H17" s="4" t="s">
-        <v>318</v>
       </c>
       <c r="I17" s="4" t="s">
         <v>226</v>
       </c>
       <c r="J17" s="4" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="28.8">
@@ -3292,19 +3336,19 @@
         <v>236</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="F18" s="4" t="s">
         <v>217</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="H18" s="4" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="I18" s="4" t="s">
         <v>223</v>
@@ -3324,19 +3368,19 @@
         <v>241</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="F19" s="4" t="s">
         <v>217</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="H19" s="4" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="I19" s="4" t="s">
         <v>223</v>
@@ -3356,19 +3400,19 @@
         <v>245</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="F20" s="4" t="s">
         <v>217</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="H20" s="4" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="I20" s="4" t="s">
         <v>223</v>
@@ -3388,19 +3432,19 @@
         <v>245</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="F21" s="4" t="s">
         <v>217</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="H21" s="4" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="I21" s="4" t="s">
         <v>223</v>
@@ -3417,28 +3461,28 @@
         <v>43555</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="F22" s="4" t="s">
         <v>217</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="H22" s="4" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="I22" s="4" t="s">
         <v>226</v>
       </c>
       <c r="J22" s="4" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="23" spans="1:10" ht="43.2">
@@ -3452,25 +3496,25 @@
         <v>250</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F23" s="4" t="s">
         <v>217</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="H23" s="4" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="I23" s="4" t="s">
         <v>226</v>
       </c>
       <c r="J23" s="4" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="24" spans="1:10" ht="57.6">
@@ -3484,25 +3528,25 @@
         <v>250</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="H24" s="4" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="I24" s="17" t="s">
         <v>224</v>
       </c>
       <c r="J24" s="4" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="25" spans="1:10" ht="72">
@@ -3513,28 +3557,28 @@
         <v>43983</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="F25" s="17" t="s">
         <v>259</v>
       </c>
       <c r="G25" s="4" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="H25" s="4" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="I25" s="17" t="s">
         <v>224</v>
       </c>
       <c r="J25" s="4" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="26" spans="1:10" ht="86.4">
@@ -3548,25 +3592,25 @@
         <v>260</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="F26" s="17" t="s">
         <v>259</v>
       </c>
       <c r="G26" s="4" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="H26" s="4" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="I26" s="17" t="s">
         <v>224</v>
       </c>
       <c r="J26" s="4" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
   </sheetData>
@@ -3600,13 +3644,13 @@
         <v>163</v>
       </c>
       <c r="B1" s="6" t="s">
+        <v>310</v>
+      </c>
+      <c r="C1" s="6" t="s">
         <v>311</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="D1" s="6" t="s">
         <v>312</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>313</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="100.8">
@@ -3614,13 +3658,13 @@
         <v>168</v>
       </c>
       <c r="B2" s="17" t="s">
+        <v>306</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>307</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="D2" s="4" t="s">
         <v>308</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>309</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="57.6">
@@ -3628,13 +3672,13 @@
         <v>270</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="187.2">
@@ -3642,13 +3686,13 @@
         <v>172</v>
       </c>
       <c r="B4" s="4" t="s">
+        <v>303</v>
+      </c>
+      <c r="C4" s="4" t="s">
         <v>304</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="D4" s="4" t="s">
         <v>305</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>306</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="201.6">
@@ -3665,22 +3709,22 @@
         <v>232</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="F11" s="4" t="s">
         <v>217</v>
       </c>
       <c r="G11" s="4" t="s">
+        <v>316</v>
+      </c>
+      <c r="H11" s="4" t="s">
         <v>317</v>
-      </c>
-      <c r="H11" s="4" t="s">
-        <v>318</v>
       </c>
       <c r="I11" s="4" t="s">
         <v>224</v>
       </c>
       <c r="J11" s="4" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="230.4">
@@ -3694,25 +3738,25 @@
         <v>234</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="F12" s="4" t="s">
         <v>217</v>
       </c>
       <c r="G12" s="4" t="s">
+        <v>316</v>
+      </c>
+      <c r="H12" s="4" t="s">
         <v>317</v>
-      </c>
-      <c r="H12" s="4" t="s">
-        <v>318</v>
       </c>
       <c r="I12" s="4" t="s">
         <v>224</v>
       </c>
       <c r="J12" s="4" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="244.8">
@@ -3729,22 +3773,22 @@
         <v>233</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="F13" s="4" t="s">
         <v>217</v>
       </c>
       <c r="G13" s="4" t="s">
+        <v>316</v>
+      </c>
+      <c r="H13" s="4" t="s">
         <v>317</v>
-      </c>
-      <c r="H13" s="4" t="s">
-        <v>318</v>
       </c>
       <c r="I13" s="4" t="s">
         <v>224</v>
       </c>
       <c r="J13" s="4" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="409.6">
@@ -3758,25 +3802,25 @@
         <v>235</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="F14" s="4" t="s">
         <v>217</v>
       </c>
       <c r="G14" s="4" t="s">
+        <v>316</v>
+      </c>
+      <c r="H14" s="4" t="s">
         <v>317</v>
-      </c>
-      <c r="H14" s="4" t="s">
-        <v>318</v>
       </c>
       <c r="I14" s="4" t="s">
         <v>226</v>
       </c>
       <c r="J14" s="4" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="86.4">
@@ -3793,16 +3837,16 @@
         <v>237</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="F15" s="4" t="s">
         <v>217</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="H15" s="4" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="I15" s="4" t="s">
         <v>223</v>
@@ -3825,16 +3869,16 @@
         <v>240</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="F16" s="4" t="s">
         <v>217</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="H16" s="4" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="I16" s="4" t="s">
         <v>223</v>
@@ -3857,16 +3901,16 @@
         <v>243</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="F17" s="4" t="s">
         <v>217</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="H17" s="4" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="I17" s="4" t="s">
         <v>223</v>
@@ -3889,16 +3933,16 @@
         <v>246</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="F18" s="4" t="s">
         <v>217</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="H18" s="4" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="I18" s="4" t="s">
         <v>223</v>
@@ -3915,22 +3959,22 @@
         <v>43555</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="F19" s="4" t="s">
         <v>217</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="H19" s="4" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="I19" s="4" t="s">
         <v>226</v>
@@ -3950,19 +3994,19 @@
         <v>250</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F20" s="4" t="s">
         <v>217</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="H20" s="4" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="I20" s="4" t="s">
         <v>226</v>
@@ -3982,19 +4026,19 @@
         <v>250</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="H21" s="4" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="I21" s="17" t="s">
         <v>224</v>
@@ -4011,28 +4055,28 @@
         <v>43983</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="F22" s="17" t="s">
         <v>259</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="H22" s="4" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="I22" s="17" t="s">
         <v>224</v>
       </c>
       <c r="J22" s="4" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="23" spans="1:10" ht="409.6">
@@ -4046,25 +4090,25 @@
         <v>260</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="F23" s="17" t="s">
         <v>259</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="H23" s="4" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="I23" s="17" t="s">
         <v>224</v>
       </c>
       <c r="J23" s="4" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
   </sheetData>
@@ -4135,7 +4179,7 @@
         <v>197</v>
       </c>
       <c r="B5" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
   </sheetData>
@@ -4177,7 +4221,7 @@
     </row>
     <row r="2" spans="1:3" ht="43.2">
       <c r="A2" s="4" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>34</v>
@@ -4202,7 +4246,7 @@
         <v>24</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>25</v>
@@ -4232,13 +4276,13 @@
     </row>
     <row r="7" spans="1:3" ht="28.8">
       <c r="A7" s="4" t="s">
+        <v>343</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>353</v>
+      </c>
+      <c r="C7" s="4" t="s">
         <v>344</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>354</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>345</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="43.2">
@@ -4290,7 +4334,7 @@
         <v>26</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>42</v>
@@ -4298,13 +4342,13 @@
     </row>
     <row r="13" spans="1:3" ht="43.2">
       <c r="A13" s="4" t="s">
+        <v>347</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>352</v>
+      </c>
+      <c r="C13" s="4" t="s">
         <v>348</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>353</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>349</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="28.8">
@@ -4312,7 +4356,7 @@
         <v>78</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>79</v>
@@ -4323,7 +4367,7 @@
         <v>37</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>36</v>
@@ -4345,7 +4389,7 @@
         <v>52</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>53</v>
@@ -4364,24 +4408,24 @@
     </row>
     <row r="19" spans="1:3" ht="43.2">
       <c r="A19" s="4" t="s">
+        <v>345</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>366</v>
+      </c>
+      <c r="C19" s="4" t="s">
         <v>346</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>367</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>347</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="28.8">
       <c r="A20" s="4" t="s">
+        <v>350</v>
+      </c>
+      <c r="B20" s="4" t="s">
         <v>351</v>
       </c>
-      <c r="B20" s="4" t="s">
-        <v>352</v>
-      </c>
       <c r="C20" s="4" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -4389,7 +4433,7 @@
         <v>71</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>72</v>
@@ -4400,7 +4444,7 @@
         <v>87</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C22" s="4" t="s">
         <v>88</v>
@@ -4411,7 +4455,7 @@
         <v>89</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C23" s="4" t="s">
         <v>90</v>
@@ -4444,7 +4488,7 @@
         <v>30</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C26" s="4" t="s">
         <v>45</v>
@@ -4455,10 +4499,10 @@
         <v>46</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="28.8">
@@ -4466,7 +4510,7 @@
         <v>93</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C28" s="4" t="s">
         <v>94</v>
@@ -4488,7 +4532,7 @@
         <v>83</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C30" s="4" t="s">
         <v>84</v>
@@ -4499,7 +4543,7 @@
         <v>49</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C31" s="4" t="s">
         <v>50</v>
@@ -4510,10 +4554,10 @@
         <v>55</v>
       </c>
       <c r="B32" s="4" t="s">
+        <v>359</v>
+      </c>
+      <c r="C32" s="4" t="s">
         <v>360</v>
-      </c>
-      <c r="C32" s="4" t="s">
-        <v>361</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="72">
@@ -4521,7 +4565,7 @@
         <v>28</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C33" s="4" t="s">
         <v>27</v>
@@ -4532,7 +4576,7 @@
         <v>76</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C34" s="4" t="s">
         <v>77</v>
@@ -4543,7 +4587,7 @@
         <v>29</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C35" s="4" t="s">
         <v>51</v>
@@ -4554,7 +4598,7 @@
         <v>85</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C36" s="4" t="s">
         <v>86</v>
@@ -4565,7 +4609,7 @@
         <v>103</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C37" s="4" t="s">
         <v>102</v>

--- a/data Ukraine.xlsx
+++ b/data Ukraine.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\_GitHub\DataSources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BA3A3EC-B306-4E71-AA9C-1B9B1DD56015}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D65F586C-553A-4A8A-96C0-8A8B3128C4E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="898" activeTab="2" xr2:uid="{21FA5A86-4C69-4AEC-AC84-BE14EF54DEBB}"/>
   </bookViews>
@@ -26,6 +26,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'famous people'!$A$1:$C$39</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">tools!$B$1:$S$41</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -48,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="649" uniqueCount="403">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="692" uniqueCount="410">
   <si>
     <t>Ukraine is the second-largest European country (kraine covers an area of 603,550 sq km)</t>
   </si>
@@ -970,9 +971,6 @@
     <t>Strategic Planning</t>
   </si>
   <si>
-    <t>Google Docs</t>
-  </si>
-  <si>
     <t>The largest online education platform in Ukraine</t>
   </si>
   <si>
@@ -1307,6 +1305,30 @@
   </si>
   <si>
     <t>We decided that our daughter would attend a Waldorf school. This means that parents are actively involved in the school's life. So, my analytical and organizational skills came in handy: in the financial team I managed the school budget; organized catering for pupils; in the household team I purchased inventory and later became the secretary of the school's Board.</t>
+  </si>
+  <si>
+    <t>Analitycal skills</t>
+  </si>
+  <si>
+    <t>Google Sheets</t>
+  </si>
+  <si>
+    <t>Managerial tools</t>
+  </si>
+  <si>
+    <t>Data analysis tools</t>
+  </si>
+  <si>
+    <t>Cloud tools</t>
+  </si>
+  <si>
+    <t>Others</t>
+  </si>
+  <si>
+    <t>Management skills</t>
+  </si>
+  <si>
+    <t>Team player</t>
   </si>
 </sst>
 </file>
@@ -1898,7 +1920,7 @@
     </row>
     <row r="7" spans="1:4" ht="28.8">
       <c r="B7" s="4" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
   </sheetData>
@@ -1935,7 +1957,7 @@
         <v>264</v>
       </c>
       <c r="D1" s="13" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -2018,87 +2040,94 @@
   <sheetPr>
     <tabColor rgb="FF0070C0"/>
   </sheetPr>
-  <dimension ref="A1:Q40"/>
+  <dimension ref="A1:S41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Q41" sqref="Q41"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A42" sqref="A42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="20.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="11" width="12" customWidth="1"/>
-    <col min="12" max="12" width="8.33203125" customWidth="1"/>
-    <col min="13" max="13" width="9.33203125" customWidth="1"/>
-    <col min="14" max="14" width="7.44140625" customWidth="1"/>
-    <col min="15" max="15" width="6.88671875" customWidth="1"/>
-    <col min="16" max="16" width="12" customWidth="1"/>
+    <col min="2" max="2" width="15.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="13" width="12" customWidth="1"/>
+    <col min="14" max="14" width="8.33203125" customWidth="1"/>
+    <col min="15" max="15" width="9.33203125" customWidth="1"/>
+    <col min="16" max="16" width="7.44140625" customWidth="1"/>
+    <col min="17" max="17" width="6.88671875" customWidth="1"/>
+    <col min="18" max="18" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="16" customFormat="1" ht="46.8" customHeight="1">
-      <c r="A1" s="14" t="s">
+    <row r="1" spans="1:19" s="16" customFormat="1" ht="46.8" customHeight="1">
+      <c r="A1" s="16" t="s">
+        <v>382</v>
+      </c>
+      <c r="B1" s="16" t="s">
+        <v>171</v>
+      </c>
+      <c r="C1" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="D1" s="15" t="s">
         <v>168</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="E1" s="15" t="s">
         <v>270</v>
       </c>
-      <c r="D1" s="15" t="s">
+      <c r="F1" s="15" t="s">
         <v>172</v>
       </c>
-      <c r="E1" s="15" t="s">
+      <c r="G1" s="15" t="s">
         <v>176</v>
       </c>
-      <c r="F1" s="15" t="s">
+      <c r="H1" s="15" t="s">
         <v>279</v>
       </c>
-      <c r="G1" s="15" t="s">
+      <c r="I1" s="15" t="s">
         <v>186</v>
       </c>
-      <c r="H1" s="15" t="s">
+      <c r="J1" s="15" t="s">
         <v>280</v>
       </c>
-      <c r="I1" s="4" t="s">
-        <v>341</v>
-      </c>
-      <c r="J1" s="15" t="s">
+      <c r="K1" s="4" t="s">
+        <v>340</v>
+      </c>
+      <c r="L1" s="15" t="s">
         <v>234</v>
       </c>
-      <c r="K1" s="15" t="s">
+      <c r="M1" s="15" t="s">
         <v>235</v>
       </c>
-      <c r="L1" s="15" t="s">
+      <c r="N1" s="15" t="s">
         <v>236</v>
       </c>
-      <c r="M1" s="15" t="s">
+      <c r="O1" s="15" t="s">
         <v>241</v>
       </c>
-      <c r="N1" s="15" t="s">
+      <c r="P1" s="15" t="s">
         <v>245</v>
       </c>
-      <c r="O1" s="15" t="s">
-        <v>382</v>
-      </c>
-      <c r="P1" s="15" t="s">
+      <c r="Q1" s="15" t="s">
+        <v>381</v>
+      </c>
+      <c r="R1" s="15" t="s">
         <v>250</v>
       </c>
-      <c r="Q1" s="15" t="s">
+      <c r="S1" s="15" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="2" spans="1:17">
-      <c r="A2" t="s">
+    <row r="2" spans="1:19">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>405</v>
+      </c>
+      <c r="C2" t="s">
         <v>199</v>
       </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
       <c r="D2">
         <v>1</v>
       </c>
@@ -2111,7 +2140,10 @@
       <c r="G2">
         <v>1</v>
       </c>
-      <c r="M2">
+      <c r="H2">
+        <v>1</v>
+      </c>
+      <c r="I2">
         <v>1</v>
       </c>
       <c r="O2">
@@ -2120,17 +2152,20 @@
       <c r="Q2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:17">
-      <c r="A3" t="s">
+      <c r="S2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>405</v>
+      </c>
+      <c r="C3" t="s">
         <v>200</v>
       </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
       <c r="D3">
         <v>1</v>
       </c>
@@ -2143,7 +2178,10 @@
       <c r="G3">
         <v>1</v>
       </c>
-      <c r="M3">
+      <c r="H3">
+        <v>1</v>
+      </c>
+      <c r="I3">
         <v>1</v>
       </c>
       <c r="O3">
@@ -2152,31 +2190,40 @@
       <c r="Q3">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:17">
-      <c r="A4" t="s">
+      <c r="S3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>405</v>
+      </c>
+      <c r="C4" t="s">
         <v>211</v>
       </c>
-      <c r="D4">
-        <v>1</v>
-      </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-      <c r="M4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
-      <c r="A5" t="s">
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="O4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>406</v>
+      </c>
+      <c r="C5" t="s">
         <v>201</v>
       </c>
-      <c r="B5">
-        <v>1</v>
-      </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
       <c r="D5">
         <v>1</v>
       </c>
@@ -2189,39 +2236,57 @@
       <c r="G5">
         <v>1</v>
       </c>
-      <c r="M5">
+      <c r="H5">
+        <v>1</v>
+      </c>
+      <c r="I5">
         <v>1</v>
       </c>
       <c r="O5">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:17">
-      <c r="A6" t="s">
+      <c r="Q5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
+      <c r="A6">
+        <v>1</v>
+      </c>
+      <c r="B6" t="s">
+        <v>405</v>
+      </c>
+      <c r="C6" t="s">
         <v>202</v>
       </c>
-      <c r="B6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
-      <c r="A7" t="s">
+      <c r="D6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
+      <c r="A7">
+        <v>1</v>
+      </c>
+      <c r="B7" t="s">
+        <v>405</v>
+      </c>
+      <c r="C7" t="s">
         <v>203</v>
       </c>
-      <c r="B7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
-      <c r="A8" t="s">
+      <c r="D7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
+      <c r="A8">
+        <v>3</v>
+      </c>
+      <c r="B8" t="s">
+        <v>406</v>
+      </c>
+      <c r="C8" t="s">
         <v>204</v>
       </c>
-      <c r="B8">
-        <v>1</v>
-      </c>
-      <c r="C8">
-        <v>1</v>
-      </c>
       <c r="D8">
         <v>1</v>
       </c>
@@ -2231,164 +2296,233 @@
       <c r="F8">
         <v>1</v>
       </c>
-      <c r="M8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
-      <c r="A9" t="s">
+      <c r="G8">
+        <v>1</v>
+      </c>
+      <c r="H8">
+        <v>1</v>
+      </c>
+      <c r="O8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
+      <c r="A9">
+        <v>1</v>
+      </c>
+      <c r="B9" t="s">
+        <v>405</v>
+      </c>
+      <c r="C9" t="s">
         <v>205</v>
       </c>
-      <c r="D9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
-      <c r="A10" t="s">
+      <c r="F9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
+      <c r="A10">
+        <v>1</v>
+      </c>
+      <c r="B10" t="s">
+        <v>405</v>
+      </c>
+      <c r="C10" t="s">
         <v>275</v>
       </c>
-      <c r="B10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
-      <c r="A11" t="s">
+      <c r="D10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
+      <c r="A11">
+        <v>4</v>
+      </c>
+      <c r="B11" t="s">
+        <v>404</v>
+      </c>
+      <c r="C11" t="s">
         <v>276</v>
       </c>
-      <c r="B11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
-      <c r="A12" t="s">
+      <c r="D11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
+      <c r="A12">
+        <v>1</v>
+      </c>
+      <c r="B12" t="s">
+        <v>405</v>
+      </c>
+      <c r="C12" t="s">
         <v>206</v>
       </c>
-      <c r="B12">
-        <v>1</v>
-      </c>
       <c r="D12">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:17">
-      <c r="A13" t="s">
+      <c r="F12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
+      <c r="A13">
+        <v>3</v>
+      </c>
+      <c r="B13" t="s">
+        <v>406</v>
+      </c>
+      <c r="C13" t="s">
         <v>207</v>
       </c>
-      <c r="B13">
-        <v>1</v>
-      </c>
       <c r="D13">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:17">
-      <c r="A14" t="s">
+      <c r="F13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
+      <c r="A14">
+        <v>1</v>
+      </c>
+      <c r="B14" t="s">
+        <v>405</v>
+      </c>
+      <c r="C14" t="s">
         <v>208</v>
       </c>
-      <c r="D14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
-      <c r="A15" t="s">
+      <c r="F14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
+      <c r="A15">
+        <v>1</v>
+      </c>
+      <c r="B15" t="s">
+        <v>405</v>
+      </c>
+      <c r="C15" t="s">
         <v>210</v>
       </c>
-      <c r="D15">
-        <v>1</v>
-      </c>
-      <c r="E15">
-        <v>1</v>
-      </c>
       <c r="F15">
         <v>1</v>
       </c>
+      <c r="G15">
+        <v>1</v>
+      </c>
       <c r="H15">
         <v>1</v>
       </c>
-      <c r="I15">
-        <v>1</v>
-      </c>
       <c r="J15">
         <v>1</v>
       </c>
       <c r="K15">
         <v>1</v>
       </c>
-      <c r="Q15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
-      <c r="A16" t="s">
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>1</v>
+      </c>
+      <c r="S15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
+      <c r="A16">
+        <v>6</v>
+      </c>
+      <c r="B16" t="s">
+        <v>407</v>
+      </c>
+      <c r="C16" t="s">
         <v>268</v>
       </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
       <c r="H16">
         <v>1</v>
       </c>
-      <c r="I16">
-        <v>1</v>
-      </c>
       <c r="J16">
         <v>1</v>
       </c>
       <c r="K16">
         <v>1</v>
       </c>
-      <c r="Q16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
-      <c r="A17" t="s">
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>1</v>
+      </c>
+      <c r="S16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
+      <c r="A17">
+        <v>6</v>
+      </c>
+      <c r="B17" t="s">
+        <v>407</v>
+      </c>
+      <c r="C17" t="s">
         <v>212</v>
       </c>
-      <c r="H17">
-        <v>1</v>
-      </c>
-      <c r="I17">
-        <v>1</v>
-      </c>
       <c r="J17">
         <v>1</v>
       </c>
       <c r="K17">
         <v>1</v>
       </c>
-      <c r="Q17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
-      <c r="A18" t="s">
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>1</v>
+      </c>
+      <c r="S17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
+      <c r="A18">
+        <v>6</v>
+      </c>
+      <c r="B18" t="s">
+        <v>407</v>
+      </c>
+      <c r="C18" t="s">
         <v>198</v>
       </c>
-      <c r="B18">
-        <v>1</v>
-      </c>
       <c r="D18">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:17">
-      <c r="A19" t="s">
+      <c r="F18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
+      <c r="A19">
+        <v>1</v>
+      </c>
+      <c r="B19" t="s">
+        <v>405</v>
+      </c>
+      <c r="C19" t="s">
         <v>214</v>
       </c>
-      <c r="B19">
-        <v>1</v>
-      </c>
       <c r="D19">
         <v>1</v>
       </c>
-      <c r="E19">
-        <v>1</v>
-      </c>
       <c r="F19">
         <v>1</v>
       </c>
-      <c r="M19">
+      <c r="G19">
+        <v>1</v>
+      </c>
+      <c r="H19">
         <v>1</v>
       </c>
       <c r="O19">
@@ -2397,132 +2531,201 @@
       <c r="Q19">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="1:17">
-      <c r="A20" t="s">
+      <c r="S19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
+      <c r="A20">
+        <v>1</v>
+      </c>
+      <c r="B20" t="s">
+        <v>405</v>
+      </c>
+      <c r="C20" t="s">
         <v>215</v>
       </c>
-      <c r="B20">
-        <v>1</v>
-      </c>
       <c r="D20">
         <v>1</v>
       </c>
-      <c r="E20">
-        <v>1</v>
-      </c>
       <c r="F20">
         <v>1</v>
       </c>
-      <c r="M20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
-      <c r="A21" t="s">
+      <c r="G20">
+        <v>1</v>
+      </c>
+      <c r="H20">
+        <v>1</v>
+      </c>
+      <c r="O20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
+      <c r="A21">
+        <v>1</v>
+      </c>
+      <c r="B21" t="s">
+        <v>405</v>
+      </c>
+      <c r="C21" t="s">
         <v>216</v>
       </c>
-      <c r="B21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
-      <c r="A22" t="s">
+      <c r="D21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
+      <c r="A22">
+        <v>1</v>
+      </c>
+      <c r="B22" t="s">
+        <v>405</v>
+      </c>
+      <c r="C22" t="s">
         <v>209</v>
       </c>
-      <c r="N22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
-      <c r="A23" t="s">
+      <c r="P22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
+      <c r="A23">
+        <v>1</v>
+      </c>
+      <c r="B23" t="s">
+        <v>405</v>
+      </c>
+      <c r="C23" t="s">
         <v>213</v>
       </c>
-      <c r="N23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
-      <c r="A24" t="s">
+      <c r="P23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
+      <c r="A24">
+        <v>6</v>
+      </c>
+      <c r="B24" t="s">
+        <v>407</v>
+      </c>
+      <c r="C24" t="s">
         <v>277</v>
       </c>
-      <c r="K24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
-      <c r="A25" t="s">
+      <c r="M24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
+      <c r="A25">
+        <v>1</v>
+      </c>
+      <c r="B25" t="s">
+        <v>405</v>
+      </c>
+      <c r="C25" t="s">
         <v>278</v>
       </c>
-      <c r="K25">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17">
-      <c r="A26" t="s">
+      <c r="M25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19">
+      <c r="A26">
+        <v>4</v>
+      </c>
+      <c r="B26" t="s">
+        <v>404</v>
+      </c>
+      <c r="C26" t="s">
         <v>281</v>
       </c>
-      <c r="B26">
-        <v>1</v>
-      </c>
-      <c r="L26">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17">
-      <c r="A27" t="s">
+      <c r="D26">
+        <v>1</v>
+      </c>
+      <c r="N26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19">
+      <c r="A27">
+        <v>4</v>
+      </c>
+      <c r="B27" t="s">
+        <v>404</v>
+      </c>
+      <c r="C27" t="s">
         <v>282</v>
       </c>
-      <c r="B27">
-        <v>1</v>
-      </c>
-      <c r="L27">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17">
-      <c r="A28" t="s">
+      <c r="D27">
+        <v>1</v>
+      </c>
+      <c r="N27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19">
+      <c r="A28">
+        <v>3</v>
+      </c>
+      <c r="B28" t="s">
+        <v>406</v>
+      </c>
+      <c r="C28" t="s">
         <v>283</v>
       </c>
-      <c r="N28">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:17">
-      <c r="A29" t="s">
+      <c r="P28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19">
+      <c r="A29">
+        <v>5</v>
+      </c>
+      <c r="B29" t="s">
+        <v>408</v>
+      </c>
+      <c r="C29" t="s">
         <v>284</v>
       </c>
-      <c r="J29">
-        <v>1</v>
-      </c>
-      <c r="P29">
-        <v>1</v>
-      </c>
-      <c r="Q29">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:17">
-      <c r="A30" t="s">
+      <c r="L29">
+        <v>1</v>
+      </c>
+      <c r="R29">
+        <v>1</v>
+      </c>
+      <c r="S29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19">
+      <c r="A30">
+        <v>5</v>
+      </c>
+      <c r="B30" t="s">
+        <v>408</v>
+      </c>
+      <c r="C30" t="s">
         <v>285</v>
       </c>
-      <c r="J30">
-        <v>1</v>
-      </c>
-      <c r="K30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:17">
-      <c r="A31" t="s">
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19">
+      <c r="A31">
+        <v>2</v>
+      </c>
+      <c r="B31" t="s">
+        <v>402</v>
+      </c>
+      <c r="C31" t="s">
         <v>286</v>
       </c>
-      <c r="B31">
-        <v>1</v>
-      </c>
-      <c r="C31">
-        <v>1</v>
-      </c>
       <c r="D31">
         <v>1</v>
       </c>
@@ -2544,66 +2747,84 @@
       <c r="J31">
         <v>1</v>
       </c>
-      <c r="M31">
-        <v>1</v>
-      </c>
-      <c r="N31">
+      <c r="K31">
+        <v>1</v>
+      </c>
+      <c r="L31">
         <v>1</v>
       </c>
       <c r="O31">
         <v>1</v>
       </c>
+      <c r="P31">
+        <v>1</v>
+      </c>
       <c r="Q31">
         <v>1</v>
       </c>
-    </row>
-    <row r="32" spans="1:17">
-      <c r="A32" t="s">
+      <c r="S31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19">
+      <c r="A32">
+        <v>4</v>
+      </c>
+      <c r="B32" t="s">
+        <v>404</v>
+      </c>
+      <c r="C32" t="s">
         <v>287</v>
       </c>
-      <c r="B32">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:17">
-      <c r="A33" t="s">
+      <c r="D32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:19">
+      <c r="A33">
+        <v>2</v>
+      </c>
+      <c r="B33" t="s">
+        <v>402</v>
+      </c>
+      <c r="C33" t="s">
         <v>288</v>
       </c>
-      <c r="D33">
-        <v>1</v>
-      </c>
-      <c r="E33">
-        <v>1</v>
-      </c>
       <c r="F33">
         <v>1</v>
       </c>
+      <c r="G33">
+        <v>1</v>
+      </c>
       <c r="H33">
         <v>1</v>
       </c>
-      <c r="I33">
-        <v>1</v>
-      </c>
       <c r="J33">
         <v>1</v>
       </c>
       <c r="K33">
         <v>1</v>
       </c>
-      <c r="Q33">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:17">
-      <c r="A34" t="s">
+      <c r="L33">
+        <v>1</v>
+      </c>
+      <c r="M33">
+        <v>1</v>
+      </c>
+      <c r="S33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:19">
+      <c r="A34">
+        <v>2</v>
+      </c>
+      <c r="B34" t="s">
+        <v>402</v>
+      </c>
+      <c r="C34" t="s">
         <v>289</v>
       </c>
-      <c r="B34">
-        <v>1</v>
-      </c>
-      <c r="C34">
-        <v>1</v>
-      </c>
       <c r="D34">
         <v>1</v>
       </c>
@@ -2616,23 +2837,29 @@
       <c r="G34">
         <v>1</v>
       </c>
-      <c r="M34">
-        <v>1</v>
-      </c>
-      <c r="N34">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:17">
-      <c r="A35" t="s">
+      <c r="H34">
+        <v>1</v>
+      </c>
+      <c r="I34">
+        <v>1</v>
+      </c>
+      <c r="O34">
+        <v>1</v>
+      </c>
+      <c r="P34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:19">
+      <c r="A35">
+        <v>2</v>
+      </c>
+      <c r="B35" t="s">
+        <v>402</v>
+      </c>
+      <c r="C35" t="s">
         <v>290</v>
       </c>
-      <c r="B35">
-        <v>1</v>
-      </c>
-      <c r="C35">
-        <v>1</v>
-      </c>
       <c r="D35">
         <v>1</v>
       </c>
@@ -2645,58 +2872,79 @@
       <c r="G35">
         <v>1</v>
       </c>
-      <c r="M35">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:17">
-      <c r="A36" t="s">
+      <c r="H35">
+        <v>1</v>
+      </c>
+      <c r="I35">
+        <v>1</v>
+      </c>
+      <c r="O35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:19">
+      <c r="A36">
+        <v>2</v>
+      </c>
+      <c r="B36" t="s">
+        <v>402</v>
+      </c>
+      <c r="C36" t="s">
         <v>291</v>
       </c>
-      <c r="D36">
-        <v>1</v>
-      </c>
-      <c r="E36">
-        <v>1</v>
-      </c>
       <c r="F36">
         <v>1</v>
       </c>
+      <c r="G36">
+        <v>1</v>
+      </c>
       <c r="H36">
         <v>1</v>
       </c>
       <c r="J36">
         <v>1</v>
       </c>
-    </row>
-    <row r="37" spans="1:17">
-      <c r="A37" t="s">
+      <c r="L36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:19">
+      <c r="A37">
+        <v>2</v>
+      </c>
+      <c r="B37" t="s">
+        <v>402</v>
+      </c>
+      <c r="C37" t="s">
         <v>292</v>
       </c>
-      <c r="E37">
-        <v>1</v>
-      </c>
-      <c r="H37">
-        <v>1</v>
-      </c>
-      <c r="I37">
+      <c r="G37">
         <v>1</v>
       </c>
       <c r="J37">
         <v>1</v>
       </c>
-      <c r="Q37">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:17">
-      <c r="A38" t="s">
+      <c r="K37">
+        <v>1</v>
+      </c>
+      <c r="L37">
+        <v>1</v>
+      </c>
+      <c r="S37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:19">
+      <c r="A38">
+        <v>5</v>
+      </c>
+      <c r="B38" t="s">
+        <v>408</v>
+      </c>
+      <c r="C38" t="s">
         <v>293</v>
       </c>
-      <c r="E38">
-        <v>1</v>
-      </c>
-      <c r="F38">
+      <c r="G38">
         <v>1</v>
       </c>
       <c r="H38">
@@ -2705,57 +2953,111 @@
       <c r="J38">
         <v>1</v>
       </c>
-      <c r="Q38">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:17">
-      <c r="A39" t="s">
+      <c r="L38">
+        <v>1</v>
+      </c>
+      <c r="S38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:19">
+      <c r="A39">
+        <v>5</v>
+      </c>
+      <c r="B39" t="s">
+        <v>408</v>
+      </c>
+      <c r="C39" t="s">
         <v>294</v>
       </c>
-      <c r="E39">
-        <v>1</v>
-      </c>
-      <c r="F39">
+      <c r="G39">
         <v>1</v>
       </c>
       <c r="H39">
         <v>1</v>
       </c>
-      <c r="I39">
-        <v>1</v>
-      </c>
       <c r="J39">
         <v>1</v>
       </c>
-      <c r="Q39">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:17">
-      <c r="A40" t="s">
-        <v>295</v>
-      </c>
-      <c r="C40">
-        <v>1</v>
+      <c r="K39">
+        <v>1</v>
+      </c>
+      <c r="L39">
+        <v>1</v>
+      </c>
+      <c r="S39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:19">
+      <c r="A40">
+        <v>3</v>
+      </c>
+      <c r="B40" t="s">
+        <v>406</v>
+      </c>
+      <c r="C40" t="s">
+        <v>403</v>
       </c>
       <c r="E40">
         <v>1</v>
       </c>
-      <c r="F40">
+      <c r="G40">
         <v>1</v>
       </c>
       <c r="H40">
         <v>1</v>
       </c>
-      <c r="I40">
-        <v>1</v>
-      </c>
-      <c r="Q40">
+      <c r="J40">
+        <v>1</v>
+      </c>
+      <c r="K40">
+        <v>1</v>
+      </c>
+      <c r="S40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:19">
+      <c r="A41">
+        <v>5</v>
+      </c>
+      <c r="B41" t="s">
+        <v>408</v>
+      </c>
+      <c r="C41" t="s">
+        <v>409</v>
+      </c>
+      <c r="D41">
+        <v>1</v>
+      </c>
+      <c r="E41">
+        <v>1</v>
+      </c>
+      <c r="F41">
+        <v>1</v>
+      </c>
+      <c r="G41">
+        <v>1</v>
+      </c>
+      <c r="H41">
+        <v>1</v>
+      </c>
+      <c r="I41">
+        <v>1</v>
+      </c>
+      <c r="J41">
+        <v>1</v>
+      </c>
+      <c r="K41">
+        <v>1</v>
+      </c>
+      <c r="S41">
         <v>1</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="B1:S41" xr:uid="{0F6AA804-1BFC-41E9-8A60-E939144DD02F}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2804,10 +3106,10 @@
         <v>177</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="H1" s="6" t="s">
         <v>171</v>
@@ -2830,25 +3132,25 @@
         <v>45992</v>
       </c>
       <c r="C2" s="4" t="s">
+        <v>377</v>
+      </c>
+      <c r="D2" s="4" t="s">
         <v>378</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="E2" s="4" t="s">
         <v>379</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="F2" s="4" t="s">
+        <v>320</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>313</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>316</v>
+      </c>
+      <c r="J2" s="4" t="s">
         <v>380</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>321</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>314</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>317</v>
-      </c>
-      <c r="J2" s="4" t="s">
-        <v>381</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="43.2">
@@ -2859,28 +3161,28 @@
         <v>45323</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="F3" s="4" t="s">
         <v>217</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="I3" s="4" t="s">
         <v>222</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="43.2">
@@ -2900,13 +3202,13 @@
         <v>178</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="I4" s="4" t="s">
         <v>223</v>
@@ -2932,13 +3234,13 @@
         <v>271</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="I5" s="4" t="s">
         <v>223</v>
@@ -2964,13 +3266,13 @@
         <v>179</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="I6" s="4" t="s">
         <v>224</v>
@@ -2996,13 +3298,13 @@
         <v>180</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="I7" s="4" t="s">
         <v>224</v>
@@ -3028,13 +3330,13 @@
         <v>183</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="I8" s="4" t="s">
         <v>224</v>
@@ -3060,13 +3362,13 @@
         <v>267</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="I9" s="4" t="s">
         <v>224</v>
@@ -3083,25 +3385,25 @@
         <v>43556</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="G10" s="4" t="s">
+        <v>315</v>
+      </c>
+      <c r="H10" s="4" t="s">
         <v>316</v>
-      </c>
-      <c r="H10" s="4" t="s">
-        <v>317</v>
       </c>
       <c r="I10" s="4" t="s">
         <v>224</v>
       </c>
       <c r="J10" s="4" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="43.2">
@@ -3121,13 +3423,13 @@
         <v>189</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="G11" s="4" t="s">
+        <v>315</v>
+      </c>
+      <c r="H11" s="4" t="s">
         <v>316</v>
-      </c>
-      <c r="H11" s="4" t="s">
-        <v>317</v>
       </c>
       <c r="I11" s="4" t="s">
         <v>226</v>
@@ -3144,28 +3446,28 @@
         <v>41183</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="E12" s="4" t="s">
         <v>273</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="G12" s="4" t="s">
+        <v>315</v>
+      </c>
+      <c r="H12" s="4" t="s">
         <v>316</v>
-      </c>
-      <c r="H12" s="4" t="s">
-        <v>317</v>
       </c>
       <c r="I12" s="4" t="s">
         <v>226</v>
       </c>
       <c r="J12" s="4" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -3176,25 +3478,25 @@
         <v>40664</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="G13" s="4" t="s">
+        <v>315</v>
+      </c>
+      <c r="H13" s="4" t="s">
         <v>316</v>
-      </c>
-      <c r="H13" s="4" t="s">
-        <v>317</v>
       </c>
       <c r="I13" s="4" t="s">
         <v>226</v>
       </c>
       <c r="J13" s="4" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="72">
@@ -3211,22 +3513,22 @@
         <v>274</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="G14" s="4" t="s">
+        <v>315</v>
+      </c>
+      <c r="H14" s="4" t="s">
         <v>316</v>
-      </c>
-      <c r="H14" s="4" t="s">
-        <v>317</v>
       </c>
       <c r="I14" s="4" t="s">
         <v>224</v>
       </c>
       <c r="J14" s="4" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="72">
@@ -3240,25 +3542,25 @@
         <v>234</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="F15" s="4" t="s">
         <v>217</v>
       </c>
       <c r="G15" s="4" t="s">
+        <v>315</v>
+      </c>
+      <c r="H15" s="4" t="s">
         <v>316</v>
-      </c>
-      <c r="H15" s="4" t="s">
-        <v>317</v>
       </c>
       <c r="I15" s="4" t="s">
         <v>224</v>
       </c>
       <c r="J15" s="4" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="86.4">
@@ -3272,25 +3574,25 @@
         <v>234</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="F16" s="4" t="s">
         <v>217</v>
       </c>
       <c r="G16" s="4" t="s">
+        <v>315</v>
+      </c>
+      <c r="H16" s="4" t="s">
         <v>316</v>
-      </c>
-      <c r="H16" s="4" t="s">
-        <v>317</v>
       </c>
       <c r="I16" s="4" t="s">
         <v>224</v>
       </c>
       <c r="J16" s="4" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="115.2">
@@ -3304,25 +3606,25 @@
         <v>235</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="F17" s="4" t="s">
         <v>217</v>
       </c>
       <c r="G17" s="4" t="s">
+        <v>315</v>
+      </c>
+      <c r="H17" s="4" t="s">
         <v>316</v>
-      </c>
-      <c r="H17" s="4" t="s">
-        <v>317</v>
       </c>
       <c r="I17" s="4" t="s">
         <v>226</v>
       </c>
       <c r="J17" s="4" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="28.8">
@@ -3336,19 +3638,19 @@
         <v>236</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="F18" s="4" t="s">
         <v>217</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="H18" s="4" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="I18" s="4" t="s">
         <v>223</v>
@@ -3368,19 +3670,19 @@
         <v>241</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="F19" s="4" t="s">
         <v>217</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="H19" s="4" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="I19" s="4" t="s">
         <v>223</v>
@@ -3400,19 +3702,19 @@
         <v>245</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="F20" s="4" t="s">
         <v>217</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="H20" s="4" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="I20" s="4" t="s">
         <v>223</v>
@@ -3432,19 +3734,19 @@
         <v>245</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="F21" s="4" t="s">
         <v>217</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="H21" s="4" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="I21" s="4" t="s">
         <v>223</v>
@@ -3461,28 +3763,28 @@
         <v>43555</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F22" s="4" t="s">
         <v>217</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="H22" s="4" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="I22" s="4" t="s">
         <v>226</v>
       </c>
       <c r="J22" s="4" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="23" spans="1:10" ht="43.2">
@@ -3496,19 +3798,19 @@
         <v>250</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="F23" s="4" t="s">
         <v>217</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="H23" s="4" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="I23" s="4" t="s">
         <v>226</v>
@@ -3528,25 +3830,25 @@
         <v>250</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="H24" s="4" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="I24" s="17" t="s">
         <v>224</v>
       </c>
       <c r="J24" s="4" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="25" spans="1:10" ht="72">
@@ -3557,28 +3859,28 @@
         <v>43983</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="F25" s="17" t="s">
         <v>259</v>
       </c>
       <c r="G25" s="4" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="H25" s="4" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="I25" s="17" t="s">
         <v>224</v>
       </c>
       <c r="J25" s="4" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="26" spans="1:10" ht="86.4">
@@ -3592,25 +3894,25 @@
         <v>260</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="F26" s="17" t="s">
         <v>259</v>
       </c>
       <c r="G26" s="4" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="H26" s="4" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="I26" s="17" t="s">
         <v>224</v>
       </c>
       <c r="J26" s="4" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
   </sheetData>
@@ -3644,13 +3946,13 @@
         <v>163</v>
       </c>
       <c r="B1" s="6" t="s">
+        <v>309</v>
+      </c>
+      <c r="C1" s="6" t="s">
         <v>310</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="D1" s="6" t="s">
         <v>311</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>312</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="100.8">
@@ -3658,13 +3960,13 @@
         <v>168</v>
       </c>
       <c r="B2" s="17" t="s">
+        <v>305</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>306</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="D2" s="4" t="s">
         <v>307</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>308</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="57.6">
@@ -3672,13 +3974,13 @@
         <v>270</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="187.2">
@@ -3686,13 +3988,13 @@
         <v>172</v>
       </c>
       <c r="B4" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="C4" s="4" t="s">
         <v>303</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="D4" s="4" t="s">
         <v>304</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>305</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="201.6">
@@ -3709,22 +4011,22 @@
         <v>232</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="F11" s="4" t="s">
         <v>217</v>
       </c>
       <c r="G11" s="4" t="s">
+        <v>315</v>
+      </c>
+      <c r="H11" s="4" t="s">
         <v>316</v>
-      </c>
-      <c r="H11" s="4" t="s">
-        <v>317</v>
       </c>
       <c r="I11" s="4" t="s">
         <v>224</v>
       </c>
       <c r="J11" s="4" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="230.4">
@@ -3738,25 +4040,25 @@
         <v>234</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="F12" s="4" t="s">
         <v>217</v>
       </c>
       <c r="G12" s="4" t="s">
+        <v>315</v>
+      </c>
+      <c r="H12" s="4" t="s">
         <v>316</v>
-      </c>
-      <c r="H12" s="4" t="s">
-        <v>317</v>
       </c>
       <c r="I12" s="4" t="s">
         <v>224</v>
       </c>
       <c r="J12" s="4" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="244.8">
@@ -3773,22 +4075,22 @@
         <v>233</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="F13" s="4" t="s">
         <v>217</v>
       </c>
       <c r="G13" s="4" t="s">
+        <v>315</v>
+      </c>
+      <c r="H13" s="4" t="s">
         <v>316</v>
-      </c>
-      <c r="H13" s="4" t="s">
-        <v>317</v>
       </c>
       <c r="I13" s="4" t="s">
         <v>224</v>
       </c>
       <c r="J13" s="4" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="409.6">
@@ -3802,25 +4104,25 @@
         <v>235</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="F14" s="4" t="s">
         <v>217</v>
       </c>
       <c r="G14" s="4" t="s">
+        <v>315</v>
+      </c>
+      <c r="H14" s="4" t="s">
         <v>316</v>
-      </c>
-      <c r="H14" s="4" t="s">
-        <v>317</v>
       </c>
       <c r="I14" s="4" t="s">
         <v>226</v>
       </c>
       <c r="J14" s="4" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="86.4">
@@ -3837,16 +4139,16 @@
         <v>237</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="F15" s="4" t="s">
         <v>217</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="H15" s="4" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="I15" s="4" t="s">
         <v>223</v>
@@ -3869,16 +4171,16 @@
         <v>240</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="F16" s="4" t="s">
         <v>217</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="H16" s="4" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="I16" s="4" t="s">
         <v>223</v>
@@ -3901,16 +4203,16 @@
         <v>243</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="F17" s="4" t="s">
         <v>217</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="H17" s="4" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="I17" s="4" t="s">
         <v>223</v>
@@ -3933,16 +4235,16 @@
         <v>246</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="F18" s="4" t="s">
         <v>217</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="H18" s="4" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="I18" s="4" t="s">
         <v>223</v>
@@ -3959,22 +4261,22 @@
         <v>43555</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F19" s="4" t="s">
         <v>217</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="H19" s="4" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="I19" s="4" t="s">
         <v>226</v>
@@ -3997,16 +4299,16 @@
         <v>284</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="F20" s="4" t="s">
         <v>217</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="H20" s="4" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="I20" s="4" t="s">
         <v>226</v>
@@ -4026,19 +4328,19 @@
         <v>250</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="H21" s="4" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="I21" s="17" t="s">
         <v>224</v>
@@ -4055,28 +4357,28 @@
         <v>43983</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="F22" s="17" t="s">
         <v>259</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="H22" s="4" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="I22" s="17" t="s">
         <v>224</v>
       </c>
       <c r="J22" s="4" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="23" spans="1:10" ht="409.6">
@@ -4090,25 +4392,25 @@
         <v>260</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="F23" s="17" t="s">
         <v>259</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="H23" s="4" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="I23" s="17" t="s">
         <v>224</v>
       </c>
       <c r="J23" s="4" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
   </sheetData>
@@ -4179,7 +4481,7 @@
         <v>197</v>
       </c>
       <c r="B5" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
   </sheetData>
@@ -4221,7 +4523,7 @@
     </row>
     <row r="2" spans="1:3" ht="43.2">
       <c r="A2" s="4" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>34</v>
@@ -4246,7 +4548,7 @@
         <v>24</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>25</v>
@@ -4276,13 +4578,13 @@
     </row>
     <row r="7" spans="1:3" ht="28.8">
       <c r="A7" s="4" t="s">
+        <v>342</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>352</v>
+      </c>
+      <c r="C7" s="4" t="s">
         <v>343</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>353</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>344</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="43.2">
@@ -4334,7 +4636,7 @@
         <v>26</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>42</v>
@@ -4342,13 +4644,13 @@
     </row>
     <row r="13" spans="1:3" ht="43.2">
       <c r="A13" s="4" t="s">
+        <v>346</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>351</v>
+      </c>
+      <c r="C13" s="4" t="s">
         <v>347</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>352</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>348</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="28.8">
@@ -4356,7 +4658,7 @@
         <v>78</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>79</v>
@@ -4367,7 +4669,7 @@
         <v>37</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>36</v>
@@ -4389,7 +4691,7 @@
         <v>52</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>53</v>
@@ -4408,24 +4710,24 @@
     </row>
     <row r="19" spans="1:3" ht="43.2">
       <c r="A19" s="4" t="s">
+        <v>344</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>365</v>
+      </c>
+      <c r="C19" s="4" t="s">
         <v>345</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>366</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>346</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="28.8">
       <c r="A20" s="4" t="s">
+        <v>349</v>
+      </c>
+      <c r="B20" s="4" t="s">
         <v>350</v>
       </c>
-      <c r="B20" s="4" t="s">
-        <v>351</v>
-      </c>
       <c r="C20" s="4" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -4433,7 +4735,7 @@
         <v>71</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>72</v>
@@ -4444,7 +4746,7 @@
         <v>87</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C22" s="4" t="s">
         <v>88</v>
@@ -4455,7 +4757,7 @@
         <v>89</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C23" s="4" t="s">
         <v>90</v>
@@ -4488,7 +4790,7 @@
         <v>30</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C26" s="4" t="s">
         <v>45</v>
@@ -4499,10 +4801,10 @@
         <v>46</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="28.8">
@@ -4510,7 +4812,7 @@
         <v>93</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C28" s="4" t="s">
         <v>94</v>
@@ -4532,7 +4834,7 @@
         <v>83</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C30" s="4" t="s">
         <v>84</v>
@@ -4543,7 +4845,7 @@
         <v>49</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C31" s="4" t="s">
         <v>50</v>
@@ -4554,10 +4856,10 @@
         <v>55</v>
       </c>
       <c r="B32" s="4" t="s">
+        <v>358</v>
+      </c>
+      <c r="C32" s="4" t="s">
         <v>359</v>
-      </c>
-      <c r="C32" s="4" t="s">
-        <v>360</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="72">
@@ -4565,7 +4867,7 @@
         <v>28</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C33" s="4" t="s">
         <v>27</v>
@@ -4576,7 +4878,7 @@
         <v>76</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C34" s="4" t="s">
         <v>77</v>
@@ -4587,7 +4889,7 @@
         <v>29</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C35" s="4" t="s">
         <v>51</v>
@@ -4598,7 +4900,7 @@
         <v>85</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C36" s="4" t="s">
         <v>86</v>
@@ -4609,7 +4911,7 @@
         <v>103</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C37" s="4" t="s">
         <v>102</v>

--- a/data Ukraine.xlsx
+++ b/data Ukraine.xlsx
@@ -8,24 +8,25 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\_GitHub\DataSources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D65F586C-553A-4A8A-96C0-8A8B3128C4E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18501533-69FA-4881-890B-97F52711D99B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="898" activeTab="2" xr2:uid="{21FA5A86-4C69-4AEC-AC84-BE14EF54DEBB}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="898" activeTab="4" xr2:uid="{21FA5A86-4C69-4AEC-AC84-BE14EF54DEBB}"/>
   </bookViews>
   <sheets>
     <sheet name="personal data" sheetId="12" r:id="rId1"/>
     <sheet name="language" sheetId="13" r:id="rId2"/>
     <sheet name="tools" sheetId="10" r:id="rId3"/>
     <sheet name="experience" sheetId="4" r:id="rId4"/>
-    <sheet name="recommendations" sheetId="7" r:id="rId5"/>
-    <sheet name="demo" sheetId="9" r:id="rId6"/>
-    <sheet name="famous people" sheetId="3" r:id="rId7"/>
-    <sheet name="facts Ukraine" sheetId="8" r:id="rId8"/>
-    <sheet name="video" sheetId="2" r:id="rId9"/>
-    <sheet name="Аркуш1" sheetId="1" r:id="rId10"/>
+    <sheet name="cert" sheetId="14" r:id="rId5"/>
+    <sheet name="recommendations" sheetId="7" r:id="rId6"/>
+    <sheet name="demo" sheetId="9" r:id="rId7"/>
+    <sheet name="famous people" sheetId="3" r:id="rId8"/>
+    <sheet name="facts Ukraine" sheetId="8" r:id="rId9"/>
+    <sheet name="video" sheetId="2" r:id="rId10"/>
+    <sheet name="Аркуш1" sheetId="1" r:id="rId11"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'famous people'!$A$1:$C$39</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">'famous people'!$A$1:$C$39</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">tools!$B$1:$S$41</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -49,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="692" uniqueCount="410">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="708" uniqueCount="410">
   <si>
     <t>Ukraine is the second-largest European country (kraine covers an area of 603,550 sq km)</t>
   </si>
@@ -1864,6 +1865,107 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDA4DB2E-DB6C-4E35-B21F-139C5A41CDD5}">
+  <dimension ref="A1:B9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="22.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="B9" t="s">
+        <v>263</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" r:id="rId1" xr:uid="{6151F4A3-F572-42D6-92D0-791E83DA3ADB}"/>
+    <hyperlink ref="A2" r:id="rId2" xr:uid="{55074C7C-B36C-4E46-9755-A91FB41B9C47}"/>
+    <hyperlink ref="A3" r:id="rId3" xr:uid="{A37221CA-FC93-43BB-B596-095F3471923D}"/>
+    <hyperlink ref="A4" r:id="rId4" xr:uid="{2452429A-11FC-4AF3-B472-3FAB71F54931}"/>
+    <hyperlink ref="A5" r:id="rId5" xr:uid="{5520EB9C-D3ED-47E2-8F61-AA0474B2A249}"/>
+    <hyperlink ref="A6" r:id="rId6" xr:uid="{2A3CBB15-64E1-496D-AB33-BB0DAA08ECCF}"/>
+    <hyperlink ref="A7" r:id="rId7" xr:uid="{CEFEBCF3-BF1F-4805-AF8B-5850B30702B4}"/>
+    <hyperlink ref="A8" r:id="rId8" xr:uid="{966F0224-80C7-4BC8-BA2D-A8F6334FB9D4}"/>
+    <hyperlink ref="A9" r:id="rId9" xr:uid="{2FC6CA49-2999-4728-8F7C-6705810AE0A7}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B26FD4B6-EA49-4964-A42D-930F3EF100E6}">
   <dimension ref="A2:F7"/>
   <sheetViews>
@@ -2042,7 +2144,7 @@
   </sheetPr>
   <dimension ref="A1:S41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A42" sqref="A42"/>
     </sheetView>
@@ -3922,6 +4024,87 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60AAA419-B16A-4C82-A4D3-3B095659126F}">
+  <sheetPr>
+    <tabColor rgb="FF0070C0"/>
+  </sheetPr>
+  <dimension ref="A1:E4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="19.109375" style="17" customWidth="1"/>
+    <col min="2" max="2" width="11.6640625" style="17" customWidth="1"/>
+    <col min="3" max="3" width="48.88671875" style="17" customWidth="1"/>
+    <col min="4" max="4" width="103.88671875" style="17" customWidth="1"/>
+    <col min="5" max="5" width="8.88671875" style="17"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>309</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>310</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="100.8">
+      <c r="A2" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="B2" s="17" t="s">
+        <v>305</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>306</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="57.6">
+      <c r="A3" s="4" t="s">
+        <v>270</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>308</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="187.2">
+      <c r="A4" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>303</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>304</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83430140-274C-40B2-9E29-E667A2288A02}">
   <sheetPr>
     <tabColor rgb="FF0070C0"/>
@@ -4427,7 +4610,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{064E40EF-E5D7-4914-937C-9A0EDD94EC40}">
   <sheetPr>
     <tabColor rgb="FF0070C0"/>
@@ -4489,7 +4672,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D23FE8FE-059B-4013-8CE6-251A60371C34}">
   <sheetPr>
     <tabColor rgb="FF0070C0"/>
@@ -4948,7 +5131,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83EB879E-03B7-4150-BCB1-D599391A685D}">
   <dimension ref="A1:R47"/>
   <sheetViews>
@@ -5324,105 +5507,4 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDA4DB2E-DB6C-4E35-B21F-139C5A41CDD5}">
-  <dimension ref="A1:B9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
-  <cols>
-    <col min="1" max="1" width="22.6640625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B6" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B8" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="B9" t="s">
-        <v>263</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A1" r:id="rId1" xr:uid="{6151F4A3-F572-42D6-92D0-791E83DA3ADB}"/>
-    <hyperlink ref="A2" r:id="rId2" xr:uid="{55074C7C-B36C-4E46-9755-A91FB41B9C47}"/>
-    <hyperlink ref="A3" r:id="rId3" xr:uid="{A37221CA-FC93-43BB-B596-095F3471923D}"/>
-    <hyperlink ref="A4" r:id="rId4" xr:uid="{2452429A-11FC-4AF3-B472-3FAB71F54931}"/>
-    <hyperlink ref="A5" r:id="rId5" xr:uid="{5520EB9C-D3ED-47E2-8F61-AA0474B2A249}"/>
-    <hyperlink ref="A6" r:id="rId6" xr:uid="{2A3CBB15-64E1-496D-AB33-BB0DAA08ECCF}"/>
-    <hyperlink ref="A7" r:id="rId7" xr:uid="{CEFEBCF3-BF1F-4805-AF8B-5850B30702B4}"/>
-    <hyperlink ref="A8" r:id="rId8" xr:uid="{966F0224-80C7-4BC8-BA2D-A8F6334FB9D4}"/>
-    <hyperlink ref="A9" r:id="rId9" xr:uid="{2FC6CA49-2999-4728-8F7C-6705810AE0A7}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/data Ukraine.xlsx
+++ b/data Ukraine.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\_GitHub\DataSources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18501533-69FA-4881-890B-97F52711D99B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{554AFC98-E407-4809-A90B-212E10246922}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="898" activeTab="4" xr2:uid="{21FA5A86-4C69-4AEC-AC84-BE14EF54DEBB}"/>
   </bookViews>
@@ -17,16 +17,15 @@
     <sheet name="language" sheetId="13" r:id="rId2"/>
     <sheet name="tools" sheetId="10" r:id="rId3"/>
     <sheet name="experience" sheetId="4" r:id="rId4"/>
-    <sheet name="cert" sheetId="14" r:id="rId5"/>
-    <sheet name="recommendations" sheetId="7" r:id="rId6"/>
-    <sheet name="demo" sheetId="9" r:id="rId7"/>
-    <sheet name="famous people" sheetId="3" r:id="rId8"/>
-    <sheet name="facts Ukraine" sheetId="8" r:id="rId9"/>
-    <sheet name="video" sheetId="2" r:id="rId10"/>
-    <sheet name="Аркуш1" sheetId="1" r:id="rId11"/>
+    <sheet name="recommendations" sheetId="14" r:id="rId5"/>
+    <sheet name="demo" sheetId="9" r:id="rId6"/>
+    <sheet name="famous people" sheetId="3" r:id="rId7"/>
+    <sheet name="facts Ukraine" sheetId="8" r:id="rId8"/>
+    <sheet name="video" sheetId="2" r:id="rId9"/>
+    <sheet name="Аркуш1" sheetId="1" r:id="rId10"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">'famous people'!$A$1:$C$39</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'famous people'!$A$1:$C$39</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">tools!$B$1:$S$41</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -50,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="708" uniqueCount="410">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="606" uniqueCount="394">
   <si>
     <t>Ukraine is the second-largest European country (kraine covers an area of 603,550 sq km)</t>
   </si>
@@ -778,9 +777,6 @@
     <t>C2</t>
   </si>
   <si>
-    <t xml:space="preserve">Postgraduate in Economics, organization and management of enterprises </t>
-  </si>
-  <si>
     <t>Bachelor's degree in Philology (English-Ukrainian)</t>
   </si>
   <si>
@@ -799,37 +795,19 @@
     <t>URL</t>
   </si>
   <si>
-    <t>https://www.udemy.com/certificate/UC-2b4eed0a-4e65-404a-a636-fa6374e0ac36/</t>
-  </si>
-  <si>
     <t>Microsoft Certified: Power BI Data Analyst Associate</t>
   </si>
   <si>
     <t>Microsoft</t>
   </si>
   <si>
-    <t>https://learn.microsoft.com/api/credentials/share/en-us/IrynaChyzh-8236/DA9D754986606DB3?sharingId=304D97E601AFCC77</t>
-  </si>
-  <si>
     <t>Analyzing and Visualizing Data in Looker</t>
   </si>
   <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/f7ffcede-792e-4ac1-814a-528be5d01e68/badges/2741202</t>
-  </si>
-  <si>
     <t>Google</t>
   </si>
   <si>
     <t>Google Cloud Essentials</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/f7ffcede-792e-4ac1-814a-528be5d01e68/badges/2736371</t>
-  </si>
-  <si>
-    <t>https://my.l-a-b-a.com/uploads/certificates/pdf_certificate/5ddfe46a7eae2.pdf</t>
-  </si>
-  <si>
-    <t>https://certs.prometheus.org.ua/downloads/6e0e7508680e4e7aae3e352263a2bbcf/Certificate.pdf</t>
   </si>
   <si>
     <t>Prometheus</t>
@@ -860,9 +838,6 @@
 Efficient and collaborative team player, strong analytical and problem-solving skills, high attention to details, ability to connect with people at different levels within the organization, ability to organize teamwork.</t>
   </si>
   <si>
-    <t>https://prometheus.org.ua/prometheus-plus/data-analytics-basics/</t>
-  </si>
-  <si>
     <t>Volunteering</t>
   </si>
   <si>
@@ -976,9 +951,6 @@
   </si>
   <si>
     <t>Waldorf School</t>
-  </si>
-  <si>
-    <t>Author and Trainer of Business Intelligence Online Course</t>
   </si>
   <si>
     <t>Ukraine</t>
@@ -1094,22 +1066,9 @@
     <t>Assisting the Head of the Management Department, conducting practical classes in business Ukrainian language and management; participating in marketing research for Auchan Group before entering company the Ukrainian market (analyzing the attractiveness of locations for opening stores identified by the customer, preparing a detailed report).</t>
   </si>
   <si>
-    <t>Writing a dissertation on the topic Competencies of a trading company.</t>
-  </si>
-  <si>
-    <t>Diploma on Formation of optimal organizational behavior of an enterprise. Internship at Metro Cash &amp; Carry (8 weeks).5</t>
-  </si>
-  <si>
-    <t>At the same time I was getting a second high degree in linguistics - so that I wouldn't forget English :) 
-My second language is German.</t>
-  </si>
-  <si>
     <t>In 2014 Russia's war against Ukraine began. People from eastern regions (where I come from) were the first to feel it. My friend with three children and a niece needed help: we organized their departure from the occupied territory, found housing in western Ukraine and for several years helped them with clothes, things, money and usefull contacts.</t>
   </si>
   <si>
-    <t>We decided that our daughter would attend a Waldorf school. This means that parents are actively involved in the school's life. So, my analytical and organizational skills came in handy: in the financial team I set the school budget and monitored its implementation; organized catering for pupils; in the household team I was in charge of purchasing inventory and later became the secretary of the school's Board.</t>
-  </si>
-  <si>
     <t>Parental leave (2.)</t>
   </si>
   <si>
@@ -1246,17 +1205,6 @@
   </si>
   <si>
     <t>Help the family-migrants</t>
-  </si>
-  <si>
-    <t>Power BI</t>
-  </si>
-  <si>
-    <t>Economic Cybernetics</t>
-  </si>
-  <si>
-    <t>I had an incredibly interesting study of economic cybernetics with great teachers. But I decided to change my specialty on the 4th course because I didn't really understand what I would be able to do after graduation. 
-Now I realize that it was Data science :) 
-As life has shown, I could not stay without data and its analysis for a long time, so I “returned” to my vocation.</t>
   </si>
   <si>
     <t>Master's degree in "Management of Organizations, Business Manager"</t>
@@ -1817,7 +1765,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="B2" t="s">
         <v>218</v>
@@ -1825,7 +1773,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>219</v>
@@ -1833,7 +1781,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="B4" s="12" t="s">
         <v>220</v>
@@ -1841,18 +1789,18 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>256</v>
+        <v>249</v>
       </c>
       <c r="B5" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>265</v>
+        <v>257</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>266</v>
+        <v>258</v>
       </c>
     </row>
   </sheetData>
@@ -1865,107 +1813,6 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDA4DB2E-DB6C-4E35-B21F-139C5A41CDD5}">
-  <dimension ref="A1:B9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
-  <cols>
-    <col min="1" max="1" width="22.6640625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B6" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B8" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="B9" t="s">
-        <v>263</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A1" r:id="rId1" xr:uid="{6151F4A3-F572-42D6-92D0-791E83DA3ADB}"/>
-    <hyperlink ref="A2" r:id="rId2" xr:uid="{55074C7C-B36C-4E46-9755-A91FB41B9C47}"/>
-    <hyperlink ref="A3" r:id="rId3" xr:uid="{A37221CA-FC93-43BB-B596-095F3471923D}"/>
-    <hyperlink ref="A4" r:id="rId4" xr:uid="{2452429A-11FC-4AF3-B472-3FAB71F54931}"/>
-    <hyperlink ref="A5" r:id="rId5" xr:uid="{5520EB9C-D3ED-47E2-8F61-AA0474B2A249}"/>
-    <hyperlink ref="A6" r:id="rId6" xr:uid="{2A3CBB15-64E1-496D-AB33-BB0DAA08ECCF}"/>
-    <hyperlink ref="A7" r:id="rId7" xr:uid="{CEFEBCF3-BF1F-4805-AF8B-5850B30702B4}"/>
-    <hyperlink ref="A8" r:id="rId8" xr:uid="{966F0224-80C7-4BC8-BA2D-A8F6334FB9D4}"/>
-    <hyperlink ref="A9" r:id="rId9" xr:uid="{2FC6CA49-2999-4728-8F7C-6705810AE0A7}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B26FD4B6-EA49-4964-A42D-930F3EF100E6}">
   <dimension ref="A2:F7"/>
   <sheetViews>
@@ -2017,12 +1864,12 @@
     </row>
     <row r="5" spans="1:4" ht="28.8">
       <c r="B5" s="5" t="s">
-        <v>261</v>
+        <v>253</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="28.8">
       <c r="B7" s="4" t="s">
-        <v>348</v>
+        <v>335</v>
       </c>
     </row>
   </sheetData>
@@ -2050,16 +1897,16 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="13" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="B1" s="13" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="C1" s="13" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="D1" s="13" t="s">
-        <v>382</v>
+        <v>369</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -2163,7 +2010,7 @@
   <sheetData>
     <row r="1" spans="1:19" s="16" customFormat="1" ht="46.8" customHeight="1">
       <c r="A1" s="16" t="s">
-        <v>382</v>
+        <v>369</v>
       </c>
       <c r="B1" s="16" t="s">
         <v>171</v>
@@ -2175,7 +2022,7 @@
         <v>168</v>
       </c>
       <c r="E1" s="15" t="s">
-        <v>270</v>
+        <v>262</v>
       </c>
       <c r="F1" s="15" t="s">
         <v>172</v>
@@ -2184,40 +2031,40 @@
         <v>176</v>
       </c>
       <c r="H1" s="15" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="I1" s="15" t="s">
         <v>186</v>
       </c>
       <c r="J1" s="15" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>340</v>
+        <v>327</v>
       </c>
       <c r="L1" s="15" t="s">
+        <v>233</v>
+      </c>
+      <c r="M1" s="15" t="s">
         <v>234</v>
       </c>
-      <c r="M1" s="15" t="s">
+      <c r="N1" s="15" t="s">
         <v>235</v>
       </c>
-      <c r="N1" s="15" t="s">
-        <v>236</v>
-      </c>
       <c r="O1" s="15" t="s">
+        <v>239</v>
+      </c>
+      <c r="P1" s="15" t="s">
         <v>241</v>
       </c>
-      <c r="P1" s="15" t="s">
-        <v>245</v>
-      </c>
       <c r="Q1" s="15" t="s">
-        <v>381</v>
+        <v>368</v>
       </c>
       <c r="R1" s="15" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="S1" s="15" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
     </row>
     <row r="2" spans="1:19">
@@ -2225,7 +2072,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>405</v>
+        <v>389</v>
       </c>
       <c r="C2" t="s">
         <v>199</v>
@@ -2263,7 +2110,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>405</v>
+        <v>389</v>
       </c>
       <c r="C3" t="s">
         <v>200</v>
@@ -2301,7 +2148,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>405</v>
+        <v>389</v>
       </c>
       <c r="C4" t="s">
         <v>211</v>
@@ -2321,7 +2168,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>406</v>
+        <v>390</v>
       </c>
       <c r="C5" t="s">
         <v>201</v>
@@ -2356,7 +2203,7 @@
         <v>1</v>
       </c>
       <c r="B6" t="s">
-        <v>405</v>
+        <v>389</v>
       </c>
       <c r="C6" t="s">
         <v>202</v>
@@ -2370,7 +2217,7 @@
         <v>1</v>
       </c>
       <c r="B7" t="s">
-        <v>405</v>
+        <v>389</v>
       </c>
       <c r="C7" t="s">
         <v>203</v>
@@ -2384,7 +2231,7 @@
         <v>3</v>
       </c>
       <c r="B8" t="s">
-        <v>406</v>
+        <v>390</v>
       </c>
       <c r="C8" t="s">
         <v>204</v>
@@ -2413,7 +2260,7 @@
         <v>1</v>
       </c>
       <c r="B9" t="s">
-        <v>405</v>
+        <v>389</v>
       </c>
       <c r="C9" t="s">
         <v>205</v>
@@ -2427,10 +2274,10 @@
         <v>1</v>
       </c>
       <c r="B10" t="s">
-        <v>405</v>
+        <v>389</v>
       </c>
       <c r="C10" t="s">
-        <v>275</v>
+        <v>267</v>
       </c>
       <c r="D10">
         <v>1</v>
@@ -2441,10 +2288,10 @@
         <v>4</v>
       </c>
       <c r="B11" t="s">
-        <v>404</v>
+        <v>388</v>
       </c>
       <c r="C11" t="s">
-        <v>276</v>
+        <v>268</v>
       </c>
       <c r="D11">
         <v>1</v>
@@ -2455,7 +2302,7 @@
         <v>1</v>
       </c>
       <c r="B12" t="s">
-        <v>405</v>
+        <v>389</v>
       </c>
       <c r="C12" t="s">
         <v>206</v>
@@ -2472,7 +2319,7 @@
         <v>3</v>
       </c>
       <c r="B13" t="s">
-        <v>406</v>
+        <v>390</v>
       </c>
       <c r="C13" t="s">
         <v>207</v>
@@ -2489,7 +2336,7 @@
         <v>1</v>
       </c>
       <c r="B14" t="s">
-        <v>405</v>
+        <v>389</v>
       </c>
       <c r="C14" t="s">
         <v>208</v>
@@ -2503,7 +2350,7 @@
         <v>1</v>
       </c>
       <c r="B15" t="s">
-        <v>405</v>
+        <v>389</v>
       </c>
       <c r="C15" t="s">
         <v>210</v>
@@ -2538,10 +2385,10 @@
         <v>6</v>
       </c>
       <c r="B16" t="s">
-        <v>407</v>
+        <v>391</v>
       </c>
       <c r="C16" t="s">
-        <v>268</v>
+        <v>260</v>
       </c>
       <c r="H16">
         <v>1</v>
@@ -2567,7 +2414,7 @@
         <v>6</v>
       </c>
       <c r="B17" t="s">
-        <v>407</v>
+        <v>391</v>
       </c>
       <c r="C17" t="s">
         <v>212</v>
@@ -2593,7 +2440,7 @@
         <v>6</v>
       </c>
       <c r="B18" t="s">
-        <v>407</v>
+        <v>391</v>
       </c>
       <c r="C18" t="s">
         <v>198</v>
@@ -2610,7 +2457,7 @@
         <v>1</v>
       </c>
       <c r="B19" t="s">
-        <v>405</v>
+        <v>389</v>
       </c>
       <c r="C19" t="s">
         <v>214</v>
@@ -2642,7 +2489,7 @@
         <v>1</v>
       </c>
       <c r="B20" t="s">
-        <v>405</v>
+        <v>389</v>
       </c>
       <c r="C20" t="s">
         <v>215</v>
@@ -2668,7 +2515,7 @@
         <v>1</v>
       </c>
       <c r="B21" t="s">
-        <v>405</v>
+        <v>389</v>
       </c>
       <c r="C21" t="s">
         <v>216</v>
@@ -2682,7 +2529,7 @@
         <v>1</v>
       </c>
       <c r="B22" t="s">
-        <v>405</v>
+        <v>389</v>
       </c>
       <c r="C22" t="s">
         <v>209</v>
@@ -2696,7 +2543,7 @@
         <v>1</v>
       </c>
       <c r="B23" t="s">
-        <v>405</v>
+        <v>389</v>
       </c>
       <c r="C23" t="s">
         <v>213</v>
@@ -2710,10 +2557,10 @@
         <v>6</v>
       </c>
       <c r="B24" t="s">
-        <v>407</v>
+        <v>391</v>
       </c>
       <c r="C24" t="s">
-        <v>277</v>
+        <v>269</v>
       </c>
       <c r="M24">
         <v>1</v>
@@ -2724,10 +2571,10 @@
         <v>1</v>
       </c>
       <c r="B25" t="s">
-        <v>405</v>
+        <v>389</v>
       </c>
       <c r="C25" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="M25">
         <v>1</v>
@@ -2738,10 +2585,10 @@
         <v>4</v>
       </c>
       <c r="B26" t="s">
-        <v>404</v>
+        <v>388</v>
       </c>
       <c r="C26" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="D26">
         <v>1</v>
@@ -2755,10 +2602,10 @@
         <v>4</v>
       </c>
       <c r="B27" t="s">
-        <v>404</v>
+        <v>388</v>
       </c>
       <c r="C27" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="D27">
         <v>1</v>
@@ -2772,10 +2619,10 @@
         <v>3</v>
       </c>
       <c r="B28" t="s">
-        <v>406</v>
+        <v>390</v>
       </c>
       <c r="C28" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="P28">
         <v>1</v>
@@ -2786,10 +2633,10 @@
         <v>5</v>
       </c>
       <c r="B29" t="s">
-        <v>408</v>
+        <v>392</v>
       </c>
       <c r="C29" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="L29">
         <v>1</v>
@@ -2806,10 +2653,10 @@
         <v>5</v>
       </c>
       <c r="B30" t="s">
-        <v>408</v>
+        <v>392</v>
       </c>
       <c r="C30" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c r="L30">
         <v>1</v>
@@ -2823,10 +2670,10 @@
         <v>2</v>
       </c>
       <c r="B31" t="s">
-        <v>402</v>
+        <v>386</v>
       </c>
       <c r="C31" t="s">
-        <v>286</v>
+        <v>278</v>
       </c>
       <c r="D31">
         <v>1</v>
@@ -2873,10 +2720,10 @@
         <v>4</v>
       </c>
       <c r="B32" t="s">
-        <v>404</v>
+        <v>388</v>
       </c>
       <c r="C32" t="s">
-        <v>287</v>
+        <v>279</v>
       </c>
       <c r="D32">
         <v>1</v>
@@ -2887,10 +2734,10 @@
         <v>2</v>
       </c>
       <c r="B33" t="s">
-        <v>402</v>
+        <v>386</v>
       </c>
       <c r="C33" t="s">
-        <v>288</v>
+        <v>280</v>
       </c>
       <c r="F33">
         <v>1</v>
@@ -2922,10 +2769,10 @@
         <v>2</v>
       </c>
       <c r="B34" t="s">
-        <v>402</v>
+        <v>386</v>
       </c>
       <c r="C34" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
       <c r="D34">
         <v>1</v>
@@ -2957,10 +2804,10 @@
         <v>2</v>
       </c>
       <c r="B35" t="s">
-        <v>402</v>
+        <v>386</v>
       </c>
       <c r="C35" t="s">
-        <v>290</v>
+        <v>282</v>
       </c>
       <c r="D35">
         <v>1</v>
@@ -2989,10 +2836,10 @@
         <v>2</v>
       </c>
       <c r="B36" t="s">
-        <v>402</v>
+        <v>386</v>
       </c>
       <c r="C36" t="s">
-        <v>291</v>
+        <v>283</v>
       </c>
       <c r="F36">
         <v>1</v>
@@ -3015,10 +2862,10 @@
         <v>2</v>
       </c>
       <c r="B37" t="s">
-        <v>402</v>
+        <v>386</v>
       </c>
       <c r="C37" t="s">
-        <v>292</v>
+        <v>284</v>
       </c>
       <c r="G37">
         <v>1</v>
@@ -3041,10 +2888,10 @@
         <v>5</v>
       </c>
       <c r="B38" t="s">
-        <v>408</v>
+        <v>392</v>
       </c>
       <c r="C38" t="s">
-        <v>293</v>
+        <v>285</v>
       </c>
       <c r="G38">
         <v>1</v>
@@ -3067,10 +2914,10 @@
         <v>5</v>
       </c>
       <c r="B39" t="s">
-        <v>408</v>
+        <v>392</v>
       </c>
       <c r="C39" t="s">
-        <v>294</v>
+        <v>286</v>
       </c>
       <c r="G39">
         <v>1</v>
@@ -3096,10 +2943,10 @@
         <v>3</v>
       </c>
       <c r="B40" t="s">
-        <v>406</v>
+        <v>390</v>
       </c>
       <c r="C40" t="s">
-        <v>403</v>
+        <v>387</v>
       </c>
       <c r="E40">
         <v>1</v>
@@ -3125,10 +2972,10 @@
         <v>5</v>
       </c>
       <c r="B41" t="s">
-        <v>408</v>
+        <v>392</v>
       </c>
       <c r="C41" t="s">
-        <v>409</v>
+        <v>393</v>
       </c>
       <c r="D41">
         <v>1</v>
@@ -3172,8 +3019,8 @@
   <dimension ref="A1:K26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C26" sqref="C2:C26"/>
+      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J18" sqref="J18:J23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -3208,16 +3055,16 @@
         <v>177</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>319</v>
+        <v>310</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>312</v>
+        <v>303</v>
       </c>
       <c r="H1" s="6" t="s">
         <v>171</v>
       </c>
       <c r="I1" s="6" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="J1" s="6" t="s">
         <v>40</v>
@@ -3234,25 +3081,25 @@
         <v>45992</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>377</v>
+        <v>364</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>378</v>
+        <v>365</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>379</v>
+        <v>366</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>320</v>
+        <v>311</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>313</v>
+        <v>304</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>316</v>
+        <v>307</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>380</v>
+        <v>367</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="43.2">
@@ -3263,28 +3110,28 @@
         <v>45323</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>322</v>
+        <v>313</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>394</v>
+        <v>378</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>318</v>
+        <v>309</v>
       </c>
       <c r="F3" s="4" t="s">
         <v>217</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>313</v>
+        <v>304</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>316</v>
+        <v>307</v>
       </c>
       <c r="I3" s="4" t="s">
         <v>222</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>395</v>
+        <v>379</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="43.2">
@@ -3304,13 +3151,13 @@
         <v>178</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>320</v>
+        <v>311</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>313</v>
+        <v>304</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>316</v>
+        <v>307</v>
       </c>
       <c r="I4" s="4" t="s">
         <v>223</v>
@@ -3327,28 +3174,28 @@
         <v>44621</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>270</v>
+        <v>262</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>271</v>
+        <v>263</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>320</v>
+        <v>311</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>313</v>
+        <v>304</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>317</v>
+        <v>308</v>
       </c>
       <c r="I5" s="4" t="s">
         <v>223</v>
       </c>
       <c r="J5" s="4" t="s">
-        <v>272</v>
+        <v>264</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="57.6">
@@ -3368,13 +3215,13 @@
         <v>179</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>320</v>
+        <v>311</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>314</v>
+        <v>305</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>317</v>
+        <v>308</v>
       </c>
       <c r="I6" s="4" t="s">
         <v>224</v>
@@ -3400,13 +3247,13 @@
         <v>180</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>320</v>
+        <v>311</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>314</v>
+        <v>305</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>317</v>
+        <v>308</v>
       </c>
       <c r="I7" s="4" t="s">
         <v>224</v>
@@ -3423,7 +3270,7 @@
         <v>44317</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>182</v>
@@ -3432,13 +3279,13 @@
         <v>183</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>320</v>
+        <v>311</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>313</v>
+        <v>304</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>317</v>
+        <v>308</v>
       </c>
       <c r="I8" s="4" t="s">
         <v>224</v>
@@ -3461,16 +3308,16 @@
         <v>185</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>320</v>
+        <v>311</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>313</v>
+        <v>304</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>317</v>
+        <v>308</v>
       </c>
       <c r="I9" s="4" t="s">
         <v>224</v>
@@ -3487,25 +3334,25 @@
         <v>43556</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>339</v>
+        <v>326</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>391</v>
+        <v>375</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>321</v>
+        <v>312</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>315</v>
+        <v>306</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>316</v>
+        <v>307</v>
       </c>
       <c r="I10" s="4" t="s">
         <v>224</v>
       </c>
       <c r="J10" s="4" t="s">
-        <v>330</v>
+        <v>321</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="43.2">
@@ -3516,7 +3363,7 @@
         <v>42856</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="D11" s="4" t="s">
         <v>188</v>
@@ -3525,13 +3372,13 @@
         <v>189</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>320</v>
+        <v>311</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>315</v>
+        <v>306</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>316</v>
+        <v>307</v>
       </c>
       <c r="I11" s="4" t="s">
         <v>226</v>
@@ -3548,28 +3395,28 @@
         <v>41183</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>340</v>
+        <v>327</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>389</v>
+        <v>373</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>273</v>
+        <v>265</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>320</v>
+        <v>311</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>315</v>
+        <v>306</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>316</v>
+        <v>307</v>
       </c>
       <c r="I12" s="4" t="s">
         <v>226</v>
       </c>
       <c r="J12" s="4" t="s">
-        <v>332</v>
+        <v>323</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -3580,25 +3427,25 @@
         <v>40664</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>341</v>
+        <v>328</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>390</v>
+        <v>374</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>321</v>
+        <v>312</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>315</v>
+        <v>306</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>316</v>
+        <v>307</v>
       </c>
       <c r="I13" s="4" t="s">
         <v>226</v>
       </c>
       <c r="J13" s="4" t="s">
-        <v>331</v>
+        <v>322</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="72">
@@ -3609,28 +3456,28 @@
         <v>39873</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>323</v>
+        <v>314</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>320</v>
+        <v>311</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>315</v>
+        <v>306</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>316</v>
+        <v>307</v>
       </c>
       <c r="I14" s="4" t="s">
         <v>224</v>
       </c>
       <c r="J14" s="4" t="s">
-        <v>333</v>
+        <v>324</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="72">
@@ -3641,28 +3488,28 @@
         <v>39873</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>393</v>
+        <v>377</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>323</v>
+        <v>314</v>
       </c>
       <c r="F15" s="4" t="s">
         <v>217</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>315</v>
+        <v>306</v>
       </c>
       <c r="H15" s="4" t="s">
-        <v>316</v>
+        <v>307</v>
       </c>
       <c r="I15" s="4" t="s">
         <v>224</v>
       </c>
       <c r="J15" s="4" t="s">
-        <v>392</v>
+        <v>376</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="86.4">
@@ -3673,28 +3520,28 @@
         <v>38504</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>394</v>
+        <v>378</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>323</v>
+        <v>314</v>
       </c>
       <c r="F16" s="4" t="s">
         <v>217</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>315</v>
+        <v>306</v>
       </c>
       <c r="H16" s="4" t="s">
-        <v>316</v>
+        <v>307</v>
       </c>
       <c r="I16" s="4" t="s">
         <v>224</v>
       </c>
       <c r="J16" s="4" t="s">
-        <v>398</v>
+        <v>382</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="115.2">
@@ -3705,28 +3552,28 @@
         <v>37408</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>394</v>
+        <v>378</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>324</v>
+        <v>315</v>
       </c>
       <c r="F17" s="4" t="s">
         <v>217</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>315</v>
+        <v>306</v>
       </c>
       <c r="H17" s="4" t="s">
-        <v>316</v>
+        <v>307</v>
       </c>
       <c r="I17" s="4" t="s">
         <v>226</v>
       </c>
       <c r="J17" s="4" t="s">
-        <v>397</v>
+        <v>381</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="28.8">
@@ -3737,28 +3584,28 @@
         <v>45392</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>394</v>
+        <v>378</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>325</v>
+        <v>316</v>
       </c>
       <c r="F18" s="4" t="s">
         <v>217</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>313</v>
+        <v>304</v>
       </c>
       <c r="H18" s="4" t="s">
-        <v>317</v>
+        <v>308</v>
       </c>
       <c r="I18" s="4" t="s">
         <v>223</v>
       </c>
       <c r="J18" s="4" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="43.2">
@@ -3769,28 +3616,28 @@
         <v>44681</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>394</v>
+        <v>378</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>326</v>
+        <v>317</v>
       </c>
       <c r="F19" s="4" t="s">
         <v>217</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>313</v>
+        <v>304</v>
       </c>
       <c r="H19" s="4" t="s">
-        <v>317</v>
+        <v>308</v>
       </c>
       <c r="I19" s="4" t="s">
         <v>223</v>
       </c>
       <c r="J19" s="4" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="43.2">
@@ -3801,28 +3648,28 @@
         <v>44859</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>394</v>
+        <v>378</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>326</v>
+        <v>317</v>
       </c>
       <c r="F20" s="4" t="s">
         <v>217</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>313</v>
+        <v>304</v>
       </c>
       <c r="H20" s="4" t="s">
-        <v>317</v>
+        <v>308</v>
       </c>
       <c r="I20" s="4" t="s">
         <v>223</v>
       </c>
       <c r="J20" s="4" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="43.2">
@@ -3833,28 +3680,28 @@
         <v>44865</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>394</v>
+        <v>378</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>326</v>
+        <v>317</v>
       </c>
       <c r="F21" s="4" t="s">
         <v>217</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>313</v>
+        <v>304</v>
       </c>
       <c r="H21" s="4" t="s">
-        <v>317</v>
+        <v>308</v>
       </c>
       <c r="I21" s="4" t="s">
         <v>223</v>
       </c>
       <c r="J21" s="4" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="28.8">
@@ -3865,28 +3712,28 @@
         <v>43555</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>381</v>
+        <v>368</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>394</v>
+        <v>378</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>328</v>
+        <v>319</v>
       </c>
       <c r="F22" s="4" t="s">
         <v>217</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>313</v>
+        <v>304</v>
       </c>
       <c r="H22" s="4" t="s">
-        <v>317</v>
+        <v>308</v>
       </c>
       <c r="I22" s="4" t="s">
         <v>226</v>
       </c>
       <c r="J22" s="4" t="s">
-        <v>396</v>
+        <v>380</v>
       </c>
     </row>
     <row r="23" spans="1:10" ht="43.2">
@@ -3897,28 +3744,28 @@
         <v>42029</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>394</v>
+        <v>378</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>327</v>
+        <v>318</v>
       </c>
       <c r="F23" s="4" t="s">
         <v>217</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>313</v>
+        <v>304</v>
       </c>
       <c r="H23" s="4" t="s">
-        <v>317</v>
+        <v>308</v>
       </c>
       <c r="I23" s="4" t="s">
         <v>226</v>
       </c>
       <c r="J23" s="4" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
     </row>
     <row r="24" spans="1:10" ht="57.6">
@@ -3929,28 +3776,28 @@
         <v>45261</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>399</v>
+        <v>383</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>295</v>
+        <v>287</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>320</v>
+        <v>311</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>313</v>
+        <v>304</v>
       </c>
       <c r="H24" s="4" t="s">
-        <v>317</v>
+        <v>308</v>
       </c>
       <c r="I24" s="17" t="s">
         <v>224</v>
       </c>
       <c r="J24" s="4" t="s">
-        <v>400</v>
+        <v>384</v>
       </c>
     </row>
     <row r="25" spans="1:10" ht="72">
@@ -3961,28 +3808,28 @@
         <v>43983</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>298</v>
+        <v>289</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>384</v>
+        <v>371</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>329</v>
+        <v>320</v>
       </c>
       <c r="F25" s="17" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="G25" s="4" t="s">
-        <v>313</v>
+        <v>304</v>
       </c>
       <c r="H25" s="4" t="s">
-        <v>317</v>
+        <v>308</v>
       </c>
       <c r="I25" s="17" t="s">
         <v>224</v>
       </c>
       <c r="J25" s="4" t="s">
-        <v>337</v>
+        <v>325</v>
       </c>
     </row>
     <row r="26" spans="1:10" ht="86.4">
@@ -3993,28 +3840,28 @@
         <v>44593</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>383</v>
+        <v>370</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>296</v>
+        <v>288</v>
       </c>
       <c r="F26" s="17" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="G26" s="4" t="s">
-        <v>313</v>
+        <v>304</v>
       </c>
       <c r="H26" s="4" t="s">
-        <v>317</v>
+        <v>308</v>
       </c>
       <c r="I26" s="17" t="s">
         <v>224</v>
       </c>
       <c r="J26" s="4" t="s">
-        <v>401</v>
+        <v>385</v>
       </c>
     </row>
   </sheetData>
@@ -4028,10 +3875,10 @@
   <sheetPr>
     <tabColor rgb="FF0070C0"/>
   </sheetPr>
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -4048,13 +3895,13 @@
         <v>163</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>309</v>
+        <v>300</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>310</v>
+        <v>301</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>311</v>
+        <v>302</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="100.8">
@@ -4062,27 +3909,27 @@
         <v>168</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>305</v>
+        <v>296</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>306</v>
+        <v>297</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>307</v>
+        <v>298</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="57.6">
       <c r="A3" s="4" t="s">
-        <v>270</v>
+        <v>262</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>301</v>
+        <v>292</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>308</v>
+        <v>299</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>300</v>
+        <v>291</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="187.2">
@@ -4090,13 +3937,85 @@
         <v>172</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>302</v>
+        <v>293</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>303</v>
+        <v>294</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>304</v>
+        <v>295</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="43.2">
+      <c r="A5" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="43.2">
+      <c r="A6" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="28.8">
+      <c r="A7" s="4" t="s">
+        <v>313</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="28.8">
+      <c r="A12" s="4" t="s">
+        <v>368</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>276</v>
       </c>
     </row>
   </sheetData>
@@ -4105,512 +4024,6 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83430140-274C-40B2-9E29-E667A2288A02}">
-  <sheetPr>
-    <tabColor rgb="FF0070C0"/>
-  </sheetPr>
-  <dimension ref="A1:J23"/>
-  <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11:J23"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
-  <cols>
-    <col min="1" max="1" width="19.109375" style="17" customWidth="1"/>
-    <col min="2" max="2" width="11.6640625" style="17" customWidth="1"/>
-    <col min="3" max="3" width="48.88671875" style="17" customWidth="1"/>
-    <col min="4" max="4" width="103.88671875" style="17" customWidth="1"/>
-    <col min="5" max="5" width="8.88671875" style="17"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10">
-      <c r="A1" s="6" t="s">
-        <v>163</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>309</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>310</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" ht="100.8">
-      <c r="A2" s="4" t="s">
-        <v>168</v>
-      </c>
-      <c r="B2" s="17" t="s">
-        <v>305</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>306</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" ht="57.6">
-      <c r="A3" s="4" t="s">
-        <v>270</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>301</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>308</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="187.2">
-      <c r="A4" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>302</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>303</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="201.6">
-      <c r="A11" s="11">
-        <v>38626</v>
-      </c>
-      <c r="B11" s="11">
-        <v>39873</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>234</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>232</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>323</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>217</v>
-      </c>
-      <c r="G11" s="4" t="s">
-        <v>315</v>
-      </c>
-      <c r="H11" s="4" t="s">
-        <v>316</v>
-      </c>
-      <c r="I11" s="4" t="s">
-        <v>224</v>
-      </c>
-      <c r="J11" s="4" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" ht="230.4">
-      <c r="A12" s="11">
-        <v>37408</v>
-      </c>
-      <c r="B12" s="11">
-        <v>38504</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>234</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>388</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>323</v>
-      </c>
-      <c r="F12" s="4" t="s">
-        <v>217</v>
-      </c>
-      <c r="G12" s="4" t="s">
-        <v>315</v>
-      </c>
-      <c r="H12" s="4" t="s">
-        <v>316</v>
-      </c>
-      <c r="I12" s="4" t="s">
-        <v>224</v>
-      </c>
-      <c r="J12" s="4" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" ht="244.8">
-      <c r="A13" s="11">
-        <v>37408</v>
-      </c>
-      <c r="B13" s="11">
-        <v>38504</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>234</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>233</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>323</v>
-      </c>
-      <c r="F13" s="4" t="s">
-        <v>217</v>
-      </c>
-      <c r="G13" s="4" t="s">
-        <v>315</v>
-      </c>
-      <c r="H13" s="4" t="s">
-        <v>316</v>
-      </c>
-      <c r="I13" s="4" t="s">
-        <v>224</v>
-      </c>
-      <c r="J13" s="4" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" ht="409.6">
-      <c r="A14" s="11">
-        <v>36039</v>
-      </c>
-      <c r="B14" s="11">
-        <v>37408</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>235</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>386</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>324</v>
-      </c>
-      <c r="F14" s="4" t="s">
-        <v>217</v>
-      </c>
-      <c r="G14" s="4" t="s">
-        <v>315</v>
-      </c>
-      <c r="H14" s="4" t="s">
-        <v>316</v>
-      </c>
-      <c r="I14" s="4" t="s">
-        <v>226</v>
-      </c>
-      <c r="J14" s="4" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" ht="86.4">
-      <c r="A15" s="11">
-        <v>45383</v>
-      </c>
-      <c r="B15" s="11">
-        <v>45392</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>236</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>237</v>
-      </c>
-      <c r="E15" s="4" t="s">
-        <v>325</v>
-      </c>
-      <c r="F15" s="4" t="s">
-        <v>217</v>
-      </c>
-      <c r="G15" s="4" t="s">
-        <v>313</v>
-      </c>
-      <c r="H15" s="4" t="s">
-        <v>317</v>
-      </c>
-      <c r="I15" s="4" t="s">
-        <v>223</v>
-      </c>
-      <c r="J15" s="1" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" ht="129.6">
-      <c r="A16" s="11">
-        <v>44621</v>
-      </c>
-      <c r="B16" s="11">
-        <v>44681</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>241</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>240</v>
-      </c>
-      <c r="E16" s="4" t="s">
-        <v>326</v>
-      </c>
-      <c r="F16" s="4" t="s">
-        <v>217</v>
-      </c>
-      <c r="G16" s="4" t="s">
-        <v>313</v>
-      </c>
-      <c r="H16" s="4" t="s">
-        <v>317</v>
-      </c>
-      <c r="I16" s="4" t="s">
-        <v>223</v>
-      </c>
-      <c r="J16" s="1" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" ht="129.6">
-      <c r="A17" s="11">
-        <v>44835</v>
-      </c>
-      <c r="B17" s="11">
-        <v>44859</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>245</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>243</v>
-      </c>
-      <c r="E17" s="4" t="s">
-        <v>326</v>
-      </c>
-      <c r="F17" s="4" t="s">
-        <v>217</v>
-      </c>
-      <c r="G17" s="4" t="s">
-        <v>313</v>
-      </c>
-      <c r="H17" s="4" t="s">
-        <v>317</v>
-      </c>
-      <c r="I17" s="4" t="s">
-        <v>223</v>
-      </c>
-      <c r="J17" s="1" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" ht="129.6">
-      <c r="A18" s="11">
-        <v>44859</v>
-      </c>
-      <c r="B18" s="11">
-        <v>44865</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>245</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>246</v>
-      </c>
-      <c r="E18" s="4" t="s">
-        <v>326</v>
-      </c>
-      <c r="F18" s="4" t="s">
-        <v>217</v>
-      </c>
-      <c r="G18" s="4" t="s">
-        <v>313</v>
-      </c>
-      <c r="H18" s="4" t="s">
-        <v>317</v>
-      </c>
-      <c r="I18" s="4" t="s">
-        <v>223</v>
-      </c>
-      <c r="J18" s="1" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" ht="57.6">
-      <c r="A19" s="11">
-        <v>43525</v>
-      </c>
-      <c r="B19" s="11">
-        <v>43555</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>381</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>385</v>
-      </c>
-      <c r="E19" s="4" t="s">
-        <v>328</v>
-      </c>
-      <c r="F19" s="4" t="s">
-        <v>217</v>
-      </c>
-      <c r="G19" s="4" t="s">
-        <v>313</v>
-      </c>
-      <c r="H19" s="4" t="s">
-        <v>317</v>
-      </c>
-      <c r="I19" s="4" t="s">
-        <v>226</v>
-      </c>
-      <c r="J19" s="1" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" ht="115.2">
-      <c r="A20" s="11">
-        <v>42005</v>
-      </c>
-      <c r="B20" s="11">
-        <v>42029</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>250</v>
-      </c>
-      <c r="D20" s="4" t="s">
-        <v>284</v>
-      </c>
-      <c r="E20" s="4" t="s">
-        <v>327</v>
-      </c>
-      <c r="F20" s="4" t="s">
-        <v>217</v>
-      </c>
-      <c r="G20" s="4" t="s">
-        <v>313</v>
-      </c>
-      <c r="H20" s="4" t="s">
-        <v>317</v>
-      </c>
-      <c r="I20" s="4" t="s">
-        <v>226</v>
-      </c>
-      <c r="J20" s="1" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" ht="115.2">
-      <c r="A21" s="11">
-        <v>44470</v>
-      </c>
-      <c r="B21" s="11">
-        <v>45383</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>250</v>
-      </c>
-      <c r="D21" s="4" t="s">
-        <v>297</v>
-      </c>
-      <c r="E21" s="4" t="s">
-        <v>295</v>
-      </c>
-      <c r="F21" s="4" t="s">
-        <v>320</v>
-      </c>
-      <c r="G21" s="4" t="s">
-        <v>313</v>
-      </c>
-      <c r="H21" s="4" t="s">
-        <v>317</v>
-      </c>
-      <c r="I21" s="17" t="s">
-        <v>224</v>
-      </c>
-      <c r="J21" s="1" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" ht="409.6">
-      <c r="A22" s="11">
-        <v>41791</v>
-      </c>
-      <c r="B22" s="11">
-        <v>43983</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>298</v>
-      </c>
-      <c r="D22" s="4" t="s">
-        <v>384</v>
-      </c>
-      <c r="E22" s="4" t="s">
-        <v>329</v>
-      </c>
-      <c r="F22" s="17" t="s">
-        <v>259</v>
-      </c>
-      <c r="G22" s="4" t="s">
-        <v>313</v>
-      </c>
-      <c r="H22" s="4" t="s">
-        <v>317</v>
-      </c>
-      <c r="I22" s="17" t="s">
-        <v>224</v>
-      </c>
-      <c r="J22" s="4" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" ht="409.6">
-      <c r="A23" s="11">
-        <v>42156</v>
-      </c>
-      <c r="B23" s="11">
-        <v>44593</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>260</v>
-      </c>
-      <c r="D23" s="4" t="s">
-        <v>383</v>
-      </c>
-      <c r="E23" s="4" t="s">
-        <v>296</v>
-      </c>
-      <c r="F23" s="17" t="s">
-        <v>259</v>
-      </c>
-      <c r="G23" s="4" t="s">
-        <v>313</v>
-      </c>
-      <c r="H23" s="4" t="s">
-        <v>317</v>
-      </c>
-      <c r="I23" s="17" t="s">
-        <v>224</v>
-      </c>
-      <c r="J23" s="4" t="s">
-        <v>338</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="J15" r:id="rId1" xr:uid="{B6C59A97-A03F-4D90-B30C-3B0EDD31DBE3}"/>
-    <hyperlink ref="J16" r:id="rId2" xr:uid="{BA071E1B-013B-4B01-AC2A-DDF3792DF5C2}"/>
-    <hyperlink ref="J17" r:id="rId3" xr:uid="{96A3CBB5-9D8F-4B03-A0C2-3680ABC42B9C}"/>
-    <hyperlink ref="J18" r:id="rId4" xr:uid="{AE95BF82-060B-4250-978C-4016E7730066}"/>
-    <hyperlink ref="J19" r:id="rId5" xr:uid="{9D95A897-4739-4330-A265-AE646BF7F704}"/>
-    <hyperlink ref="J20" r:id="rId6" xr:uid="{657F26E4-26BD-4204-8966-C88EA2CA32A9}"/>
-    <hyperlink ref="J21" r:id="rId7" xr:uid="{04C22C6B-86A6-41CC-BC08-B1DEE0E7E148}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{064E40EF-E5D7-4914-937C-9A0EDD94EC40}">
   <sheetPr>
     <tabColor rgb="FF0070C0"/>
@@ -4632,7 +4045,7 @@
         <v>39</v>
       </c>
       <c r="B1" s="13" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -4664,7 +4077,7 @@
         <v>197</v>
       </c>
       <c r="B5" t="s">
-        <v>299</v>
+        <v>290</v>
       </c>
     </row>
   </sheetData>
@@ -4672,7 +4085,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D23FE8FE-059B-4013-8CE6-251A60371C34}">
   <sheetPr>
     <tabColor rgb="FF0070C0"/>
@@ -4706,7 +4119,7 @@
     </row>
     <row r="2" spans="1:3" ht="43.2">
       <c r="A2" s="4" t="s">
-        <v>360</v>
+        <v>347</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>34</v>
@@ -4731,7 +4144,7 @@
         <v>24</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>361</v>
+        <v>348</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>25</v>
@@ -4761,13 +4174,13 @@
     </row>
     <row r="7" spans="1:3" ht="28.8">
       <c r="A7" s="4" t="s">
-        <v>342</v>
+        <v>329</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>352</v>
+        <v>339</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>343</v>
+        <v>330</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="43.2">
@@ -4819,7 +4232,7 @@
         <v>26</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>362</v>
+        <v>349</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>42</v>
@@ -4827,13 +4240,13 @@
     </row>
     <row r="13" spans="1:3" ht="43.2">
       <c r="A13" s="4" t="s">
-        <v>346</v>
+        <v>333</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>351</v>
+        <v>338</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>347</v>
+        <v>334</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="28.8">
@@ -4841,7 +4254,7 @@
         <v>78</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>354</v>
+        <v>341</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>79</v>
@@ -4852,7 +4265,7 @@
         <v>37</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>363</v>
+        <v>350</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>36</v>
@@ -4874,7 +4287,7 @@
         <v>52</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>364</v>
+        <v>351</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>53</v>
@@ -4893,24 +4306,24 @@
     </row>
     <row r="19" spans="1:3" ht="43.2">
       <c r="A19" s="4" t="s">
-        <v>344</v>
+        <v>331</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>365</v>
+        <v>352</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>345</v>
+        <v>332</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="28.8">
       <c r="A20" s="4" t="s">
-        <v>349</v>
+        <v>336</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>350</v>
+        <v>337</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>353</v>
+        <v>340</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -4918,7 +4331,7 @@
         <v>71</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>355</v>
+        <v>342</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>72</v>
@@ -4929,7 +4342,7 @@
         <v>87</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>366</v>
+        <v>353</v>
       </c>
       <c r="C22" s="4" t="s">
         <v>88</v>
@@ -4940,7 +4353,7 @@
         <v>89</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>367</v>
+        <v>354</v>
       </c>
       <c r="C23" s="4" t="s">
         <v>90</v>
@@ -4973,7 +4386,7 @@
         <v>30</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>368</v>
+        <v>355</v>
       </c>
       <c r="C26" s="4" t="s">
         <v>45</v>
@@ -4984,10 +4397,10 @@
         <v>46</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>370</v>
+        <v>357</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>369</v>
+        <v>356</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="28.8">
@@ -4995,7 +4408,7 @@
         <v>93</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>356</v>
+        <v>343</v>
       </c>
       <c r="C28" s="4" t="s">
         <v>94</v>
@@ -5017,7 +4430,7 @@
         <v>83</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>371</v>
+        <v>358</v>
       </c>
       <c r="C30" s="4" t="s">
         <v>84</v>
@@ -5028,7 +4441,7 @@
         <v>49</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>357</v>
+        <v>344</v>
       </c>
       <c r="C31" s="4" t="s">
         <v>50</v>
@@ -5039,10 +4452,10 @@
         <v>55</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>358</v>
+        <v>345</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>359</v>
+        <v>346</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="72">
@@ -5050,7 +4463,7 @@
         <v>28</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>372</v>
+        <v>359</v>
       </c>
       <c r="C33" s="4" t="s">
         <v>27</v>
@@ -5061,7 +4474,7 @@
         <v>76</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>373</v>
+        <v>360</v>
       </c>
       <c r="C34" s="4" t="s">
         <v>77</v>
@@ -5072,7 +4485,7 @@
         <v>29</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>374</v>
+        <v>361</v>
       </c>
       <c r="C35" s="4" t="s">
         <v>51</v>
@@ -5083,7 +4496,7 @@
         <v>85</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>375</v>
+        <v>362</v>
       </c>
       <c r="C36" s="4" t="s">
         <v>86</v>
@@ -5094,7 +4507,7 @@
         <v>103</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>376</v>
+        <v>363</v>
       </c>
       <c r="C37" s="4" t="s">
         <v>102</v>
@@ -5131,7 +4544,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83EB879E-03B7-4150-BCB1-D599391A685D}">
   <dimension ref="A1:R47"/>
   <sheetViews>
@@ -5507,4 +4920,105 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDA4DB2E-DB6C-4E35-B21F-139C5A41CDD5}">
+  <dimension ref="A1:B9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="22.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="B9" t="s">
+        <v>255</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" r:id="rId1" xr:uid="{6151F4A3-F572-42D6-92D0-791E83DA3ADB}"/>
+    <hyperlink ref="A2" r:id="rId2" xr:uid="{55074C7C-B36C-4E46-9755-A91FB41B9C47}"/>
+    <hyperlink ref="A3" r:id="rId3" xr:uid="{A37221CA-FC93-43BB-B596-095F3471923D}"/>
+    <hyperlink ref="A4" r:id="rId4" xr:uid="{2452429A-11FC-4AF3-B472-3FAB71F54931}"/>
+    <hyperlink ref="A5" r:id="rId5" xr:uid="{5520EB9C-D3ED-47E2-8F61-AA0474B2A249}"/>
+    <hyperlink ref="A6" r:id="rId6" xr:uid="{2A3CBB15-64E1-496D-AB33-BB0DAA08ECCF}"/>
+    <hyperlink ref="A7" r:id="rId7" xr:uid="{CEFEBCF3-BF1F-4805-AF8B-5850B30702B4}"/>
+    <hyperlink ref="A8" r:id="rId8" xr:uid="{966F0224-80C7-4BC8-BA2D-A8F6334FB9D4}"/>
+    <hyperlink ref="A9" r:id="rId9" xr:uid="{2FC6CA49-2999-4728-8F7C-6705810AE0A7}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/data Ukraine.xlsx
+++ b/data Ukraine.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\_GitHub\DataSources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{554AFC98-E407-4809-A90B-212E10246922}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87FC6BEB-C824-4D97-89E5-CEE0A9613714}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="898" activeTab="4" xr2:uid="{21FA5A86-4C69-4AEC-AC84-BE14EF54DEBB}"/>
   </bookViews>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="606" uniqueCount="394">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="606" uniqueCount="397">
   <si>
     <t>Ukraine is the second-largest European country (kraine covers an area of 603,550 sq km)</t>
   </si>
@@ -777,9 +777,6 @@
     <t>C2</t>
   </si>
   <si>
-    <t>Bachelor's degree in Philology (English-Ukrainian)</t>
-  </si>
-  <si>
     <t>Kyiv National University of Trade and Economics (H+)</t>
   </si>
   <si>
@@ -1207,9 +1204,6 @@
     <t>Help the family-migrants</t>
   </si>
   <si>
-    <t>Master's degree in "Management of Organizations, Business Manager"</t>
-  </si>
-  <si>
     <t>Assistant of Sales Director</t>
   </si>
   <si>
@@ -1278,6 +1272,21 @@
   </si>
   <si>
     <t>Team player</t>
+  </si>
+  <si>
+    <t>DTZ B1</t>
+  </si>
+  <si>
+    <t>Power BI</t>
+  </si>
+  <si>
+    <t>Master's degree</t>
+  </si>
+  <si>
+    <t>Bachelor's degree</t>
+  </si>
+  <si>
+    <t>Microsoft Certified Power BI Data Analyst Associate</t>
   </si>
 </sst>
 </file>
@@ -1765,7 +1774,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B2" t="s">
         <v>218</v>
@@ -1773,7 +1782,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>219</v>
@@ -1781,7 +1790,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B4" s="12" t="s">
         <v>220</v>
@@ -1789,18 +1798,18 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
+        <v>248</v>
+      </c>
+      <c r="B5" t="s">
         <v>249</v>
-      </c>
-      <c r="B5" t="s">
-        <v>250</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
+        <v>256</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>257</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>258</v>
       </c>
     </row>
   </sheetData>
@@ -1864,12 +1873,12 @@
     </row>
     <row r="5" spans="1:4" ht="28.8">
       <c r="B5" s="5" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="28.8">
       <c r="B7" s="4" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
   </sheetData>
@@ -1897,16 +1906,16 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="13" t="s">
+        <v>243</v>
+      </c>
+      <c r="B1" s="13" t="s">
         <v>244</v>
       </c>
-      <c r="B1" s="13" t="s">
-        <v>245</v>
-      </c>
       <c r="C1" s="13" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D1" s="13" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -2010,7 +2019,7 @@
   <sheetData>
     <row r="1" spans="1:19" s="16" customFormat="1" ht="46.8" customHeight="1">
       <c r="A1" s="16" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B1" s="16" t="s">
         <v>171</v>
@@ -2022,7 +2031,7 @@
         <v>168</v>
       </c>
       <c r="E1" s="15" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="F1" s="15" t="s">
         <v>172</v>
@@ -2031,40 +2040,40 @@
         <v>176</v>
       </c>
       <c r="H1" s="15" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="I1" s="15" t="s">
         <v>186</v>
       </c>
       <c r="J1" s="15" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="L1" s="15" t="s">
+        <v>232</v>
+      </c>
+      <c r="M1" s="15" t="s">
         <v>233</v>
       </c>
-      <c r="M1" s="15" t="s">
+      <c r="N1" s="15" t="s">
         <v>234</v>
       </c>
-      <c r="N1" s="15" t="s">
-        <v>235</v>
-      </c>
       <c r="O1" s="15" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="P1" s="15" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="Q1" s="15" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="R1" s="15" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="S1" s="15" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="2" spans="1:19">
@@ -2072,7 +2081,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="C2" t="s">
         <v>199</v>
@@ -2110,7 +2119,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="C3" t="s">
         <v>200</v>
@@ -2148,7 +2157,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="C4" t="s">
         <v>211</v>
@@ -2168,7 +2177,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="C5" t="s">
         <v>201</v>
@@ -2203,7 +2212,7 @@
         <v>1</v>
       </c>
       <c r="B6" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="C6" t="s">
         <v>202</v>
@@ -2217,7 +2226,7 @@
         <v>1</v>
       </c>
       <c r="B7" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="C7" t="s">
         <v>203</v>
@@ -2231,7 +2240,7 @@
         <v>3</v>
       </c>
       <c r="B8" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="C8" t="s">
         <v>204</v>
@@ -2260,7 +2269,7 @@
         <v>1</v>
       </c>
       <c r="B9" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="C9" t="s">
         <v>205</v>
@@ -2274,10 +2283,10 @@
         <v>1</v>
       </c>
       <c r="B10" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="C10" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D10">
         <v>1</v>
@@ -2288,10 +2297,10 @@
         <v>4</v>
       </c>
       <c r="B11" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="C11" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D11">
         <v>1</v>
@@ -2302,7 +2311,7 @@
         <v>1</v>
       </c>
       <c r="B12" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="C12" t="s">
         <v>206</v>
@@ -2319,7 +2328,7 @@
         <v>3</v>
       </c>
       <c r="B13" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="C13" t="s">
         <v>207</v>
@@ -2336,7 +2345,7 @@
         <v>1</v>
       </c>
       <c r="B14" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="C14" t="s">
         <v>208</v>
@@ -2350,7 +2359,7 @@
         <v>1</v>
       </c>
       <c r="B15" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="C15" t="s">
         <v>210</v>
@@ -2385,10 +2394,10 @@
         <v>6</v>
       </c>
       <c r="B16" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="C16" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="H16">
         <v>1</v>
@@ -2414,7 +2423,7 @@
         <v>6</v>
       </c>
       <c r="B17" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="C17" t="s">
         <v>212</v>
@@ -2440,7 +2449,7 @@
         <v>6</v>
       </c>
       <c r="B18" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="C18" t="s">
         <v>198</v>
@@ -2457,7 +2466,7 @@
         <v>1</v>
       </c>
       <c r="B19" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="C19" t="s">
         <v>214</v>
@@ -2489,7 +2498,7 @@
         <v>1</v>
       </c>
       <c r="B20" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="C20" t="s">
         <v>215</v>
@@ -2515,7 +2524,7 @@
         <v>1</v>
       </c>
       <c r="B21" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="C21" t="s">
         <v>216</v>
@@ -2529,7 +2538,7 @@
         <v>1</v>
       </c>
       <c r="B22" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="C22" t="s">
         <v>209</v>
@@ -2543,7 +2552,7 @@
         <v>1</v>
       </c>
       <c r="B23" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="C23" t="s">
         <v>213</v>
@@ -2557,10 +2566,10 @@
         <v>6</v>
       </c>
       <c r="B24" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="C24" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="M24">
         <v>1</v>
@@ -2571,10 +2580,10 @@
         <v>1</v>
       </c>
       <c r="B25" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="C25" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="M25">
         <v>1</v>
@@ -2585,10 +2594,10 @@
         <v>4</v>
       </c>
       <c r="B26" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="C26" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D26">
         <v>1</v>
@@ -2602,10 +2611,10 @@
         <v>4</v>
       </c>
       <c r="B27" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="C27" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D27">
         <v>1</v>
@@ -2619,10 +2628,10 @@
         <v>3</v>
       </c>
       <c r="B28" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="C28" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="P28">
         <v>1</v>
@@ -2633,10 +2642,10 @@
         <v>5</v>
       </c>
       <c r="B29" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="C29" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="L29">
         <v>1</v>
@@ -2653,10 +2662,10 @@
         <v>5</v>
       </c>
       <c r="B30" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="C30" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="L30">
         <v>1</v>
@@ -2670,10 +2679,10 @@
         <v>2</v>
       </c>
       <c r="B31" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="C31" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D31">
         <v>1</v>
@@ -2720,10 +2729,10 @@
         <v>4</v>
       </c>
       <c r="B32" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="C32" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D32">
         <v>1</v>
@@ -2734,10 +2743,10 @@
         <v>2</v>
       </c>
       <c r="B33" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="C33" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F33">
         <v>1</v>
@@ -2769,10 +2778,10 @@
         <v>2</v>
       </c>
       <c r="B34" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="C34" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D34">
         <v>1</v>
@@ -2804,10 +2813,10 @@
         <v>2</v>
       </c>
       <c r="B35" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="C35" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D35">
         <v>1</v>
@@ -2836,10 +2845,10 @@
         <v>2</v>
       </c>
       <c r="B36" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="C36" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="F36">
         <v>1</v>
@@ -2862,10 +2871,10 @@
         <v>2</v>
       </c>
       <c r="B37" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="C37" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="G37">
         <v>1</v>
@@ -2888,10 +2897,10 @@
         <v>5</v>
       </c>
       <c r="B38" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="C38" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="G38">
         <v>1</v>
@@ -2914,10 +2923,10 @@
         <v>5</v>
       </c>
       <c r="B39" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="C39" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="G39">
         <v>1</v>
@@ -2943,10 +2952,10 @@
         <v>3</v>
       </c>
       <c r="B40" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="C40" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="E40">
         <v>1</v>
@@ -2972,10 +2981,10 @@
         <v>5</v>
       </c>
       <c r="B41" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="C41" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="D41">
         <v>1</v>
@@ -3055,16 +3064,16 @@
         <v>177</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="H1" s="6" t="s">
         <v>171</v>
       </c>
       <c r="I1" s="6" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="J1" s="6" t="s">
         <v>40</v>
@@ -3081,25 +3090,25 @@
         <v>45992</v>
       </c>
       <c r="C2" s="4" t="s">
+        <v>363</v>
+      </c>
+      <c r="D2" s="4" t="s">
         <v>364</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="E2" s="4" t="s">
         <v>365</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="F2" s="4" t="s">
+        <v>310</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>303</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>306</v>
+      </c>
+      <c r="J2" s="4" t="s">
         <v>366</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>311</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>304</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>307</v>
-      </c>
-      <c r="J2" s="4" t="s">
-        <v>367</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="43.2">
@@ -3110,28 +3119,28 @@
         <v>45323</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="F3" s="4" t="s">
         <v>217</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="I3" s="4" t="s">
         <v>222</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="43.2">
@@ -3151,13 +3160,13 @@
         <v>178</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="I4" s="4" t="s">
         <v>223</v>
@@ -3174,28 +3183,28 @@
         <v>44621</v>
       </c>
       <c r="C5" s="4" t="s">
+        <v>261</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="E5" s="4" t="s">
         <v>262</v>
       </c>
-      <c r="D5" s="4" t="s">
-        <v>261</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>263</v>
-      </c>
       <c r="F5" s="4" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="I5" s="4" t="s">
         <v>223</v>
       </c>
       <c r="J5" s="4" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="57.6">
@@ -3215,13 +3224,13 @@
         <v>179</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="I6" s="4" t="s">
         <v>224</v>
@@ -3247,13 +3256,13 @@
         <v>180</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="I7" s="4" t="s">
         <v>224</v>
@@ -3270,7 +3279,7 @@
         <v>44317</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>182</v>
@@ -3279,13 +3288,13 @@
         <v>183</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="I8" s="4" t="s">
         <v>224</v>
@@ -3308,16 +3317,16 @@
         <v>185</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="I9" s="4" t="s">
         <v>224</v>
@@ -3334,25 +3343,25 @@
         <v>43556</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="G10" s="4" t="s">
+        <v>305</v>
+      </c>
+      <c r="H10" s="4" t="s">
         <v>306</v>
-      </c>
-      <c r="H10" s="4" t="s">
-        <v>307</v>
       </c>
       <c r="I10" s="4" t="s">
         <v>224</v>
       </c>
       <c r="J10" s="4" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="43.2">
@@ -3363,7 +3372,7 @@
         <v>42856</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D11" s="4" t="s">
         <v>188</v>
@@ -3372,13 +3381,13 @@
         <v>189</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="G11" s="4" t="s">
+        <v>305</v>
+      </c>
+      <c r="H11" s="4" t="s">
         <v>306</v>
-      </c>
-      <c r="H11" s="4" t="s">
-        <v>307</v>
       </c>
       <c r="I11" s="4" t="s">
         <v>226</v>
@@ -3395,28 +3404,28 @@
         <v>41183</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="G12" s="4" t="s">
+        <v>305</v>
+      </c>
+      <c r="H12" s="4" t="s">
         <v>306</v>
-      </c>
-      <c r="H12" s="4" t="s">
-        <v>307</v>
       </c>
       <c r="I12" s="4" t="s">
         <v>226</v>
       </c>
       <c r="J12" s="4" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -3427,25 +3436,25 @@
         <v>40664</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="G13" s="4" t="s">
+        <v>305</v>
+      </c>
+      <c r="H13" s="4" t="s">
         <v>306</v>
-      </c>
-      <c r="H13" s="4" t="s">
-        <v>307</v>
       </c>
       <c r="I13" s="4" t="s">
         <v>226</v>
       </c>
       <c r="J13" s="4" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="72">
@@ -3456,28 +3465,28 @@
         <v>39873</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="G14" s="4" t="s">
+        <v>305</v>
+      </c>
+      <c r="H14" s="4" t="s">
         <v>306</v>
-      </c>
-      <c r="H14" s="4" t="s">
-        <v>307</v>
       </c>
       <c r="I14" s="4" t="s">
         <v>224</v>
       </c>
       <c r="J14" s="4" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="72">
@@ -3488,28 +3497,28 @@
         <v>39873</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="F15" s="4" t="s">
         <v>217</v>
       </c>
       <c r="G15" s="4" t="s">
+        <v>305</v>
+      </c>
+      <c r="H15" s="4" t="s">
         <v>306</v>
-      </c>
-      <c r="H15" s="4" t="s">
-        <v>307</v>
       </c>
       <c r="I15" s="4" t="s">
         <v>224</v>
       </c>
       <c r="J15" s="4" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="86.4">
@@ -3520,28 +3529,28 @@
         <v>38504</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="F16" s="4" t="s">
         <v>217</v>
       </c>
       <c r="G16" s="4" t="s">
+        <v>305</v>
+      </c>
+      <c r="H16" s="4" t="s">
         <v>306</v>
-      </c>
-      <c r="H16" s="4" t="s">
-        <v>307</v>
       </c>
       <c r="I16" s="4" t="s">
         <v>224</v>
       </c>
       <c r="J16" s="4" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="115.2">
@@ -3552,28 +3561,28 @@
         <v>37408</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="F17" s="4" t="s">
         <v>217</v>
       </c>
       <c r="G17" s="4" t="s">
+        <v>305</v>
+      </c>
+      <c r="H17" s="4" t="s">
         <v>306</v>
-      </c>
-      <c r="H17" s="4" t="s">
-        <v>307</v>
       </c>
       <c r="I17" s="4" t="s">
         <v>226</v>
       </c>
       <c r="J17" s="4" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="28.8">
@@ -3584,28 +3593,28 @@
         <v>45392</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="F18" s="4" t="s">
         <v>217</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="H18" s="4" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="I18" s="4" t="s">
         <v>223</v>
       </c>
       <c r="J18" s="4" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="43.2">
@@ -3616,28 +3625,28 @@
         <v>44681</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="F19" s="4" t="s">
         <v>217</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="H19" s="4" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="I19" s="4" t="s">
         <v>223</v>
       </c>
       <c r="J19" s="4" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="43.2">
@@ -3648,28 +3657,28 @@
         <v>44859</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="F20" s="4" t="s">
         <v>217</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="H20" s="4" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="I20" s="4" t="s">
         <v>223</v>
       </c>
       <c r="J20" s="4" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="43.2">
@@ -3680,28 +3689,28 @@
         <v>44865</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="F21" s="4" t="s">
         <v>217</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="H21" s="4" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="I21" s="4" t="s">
         <v>223</v>
       </c>
       <c r="J21" s="4" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="28.8">
@@ -3712,28 +3721,28 @@
         <v>43555</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="F22" s="4" t="s">
         <v>217</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="H22" s="4" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="I22" s="4" t="s">
         <v>226</v>
       </c>
       <c r="J22" s="4" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
     </row>
     <row r="23" spans="1:10" ht="43.2">
@@ -3744,28 +3753,28 @@
         <v>42029</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="F23" s="4" t="s">
         <v>217</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="H23" s="4" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="I23" s="4" t="s">
         <v>226</v>
       </c>
       <c r="J23" s="4" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="24" spans="1:10" ht="57.6">
@@ -3776,28 +3785,28 @@
         <v>45261</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="H24" s="4" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="I24" s="17" t="s">
         <v>224</v>
       </c>
       <c r="J24" s="4" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
     </row>
     <row r="25" spans="1:10" ht="72">
@@ -3808,28 +3817,28 @@
         <v>43983</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="F25" s="17" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="G25" s="4" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="H25" s="4" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="I25" s="17" t="s">
         <v>224</v>
       </c>
       <c r="J25" s="4" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="26" spans="1:10" ht="86.4">
@@ -3840,28 +3849,28 @@
         <v>44593</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="F26" s="17" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="G26" s="4" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="H26" s="4" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="I26" s="17" t="s">
         <v>224</v>
       </c>
       <c r="J26" s="4" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
     </row>
   </sheetData>
@@ -3878,13 +3887,13 @@
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="19.109375" style="17" customWidth="1"/>
-    <col min="2" max="2" width="11.6640625" style="17" customWidth="1"/>
+    <col min="2" max="2" width="25.5546875" style="17" customWidth="1"/>
     <col min="3" max="3" width="48.88671875" style="17" customWidth="1"/>
     <col min="4" max="4" width="103.88671875" style="17" customWidth="1"/>
     <col min="5" max="5" width="8.88671875" style="17"/>
@@ -3895,13 +3904,13 @@
         <v>163</v>
       </c>
       <c r="B1" s="6" t="s">
+        <v>299</v>
+      </c>
+      <c r="C1" s="6" t="s">
         <v>300</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="D1" s="6" t="s">
         <v>301</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>302</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="100.8">
@@ -3909,27 +3918,27 @@
         <v>168</v>
       </c>
       <c r="B2" s="17" t="s">
+        <v>295</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>296</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="D2" s="4" t="s">
         <v>297</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>298</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="57.6">
       <c r="A3" s="4" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="187.2">
@@ -3937,85 +3946,85 @@
         <v>172</v>
       </c>
       <c r="B4" s="4" t="s">
+        <v>292</v>
+      </c>
+      <c r="C4" s="4" t="s">
         <v>293</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="D4" s="4" t="s">
         <v>294</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>295</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="43.2">
       <c r="A5" s="4" t="s">
-        <v>233</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>372</v>
+        <v>232</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>394</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="43.2">
       <c r="A6" s="4" t="s">
-        <v>233</v>
-      </c>
-      <c r="C6" s="4" t="s">
         <v>232</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>395</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="28.8">
       <c r="A7" s="4" t="s">
-        <v>313</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>312</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="28.8">
       <c r="A8" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="B8" s="4" t="s">
         <v>235</v>
       </c>
-      <c r="C8" s="4" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+    </row>
+    <row r="9" spans="1:4" ht="28.8">
       <c r="A9" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="28.8">
+      <c r="A10" s="4" t="s">
+        <v>240</v>
+      </c>
+      <c r="B10" s="4" t="s">
         <v>239</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="4" t="s">
-        <v>241</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>240</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="4" t="s">
+        <v>240</v>
+      </c>
+      <c r="B11" s="4" t="s">
         <v>241</v>
       </c>
-      <c r="C11" s="4" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="28.8">
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12" s="4" t="s">
-        <v>368</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>380</v>
+        <v>367</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>393</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="4" t="s">
-        <v>243</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>276</v>
+        <v>242</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>275</v>
       </c>
     </row>
   </sheetData>
@@ -4045,7 +4054,7 @@
         <v>39</v>
       </c>
       <c r="B1" s="13" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -4077,7 +4086,7 @@
         <v>197</v>
       </c>
       <c r="B5" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
   </sheetData>
@@ -4119,7 +4128,7 @@
     </row>
     <row r="2" spans="1:3" ht="43.2">
       <c r="A2" s="4" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>34</v>
@@ -4144,7 +4153,7 @@
         <v>24</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>25</v>
@@ -4174,13 +4183,13 @@
     </row>
     <row r="7" spans="1:3" ht="28.8">
       <c r="A7" s="4" t="s">
+        <v>328</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>338</v>
+      </c>
+      <c r="C7" s="4" t="s">
         <v>329</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>339</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>330</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="43.2">
@@ -4232,7 +4241,7 @@
         <v>26</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>42</v>
@@ -4240,13 +4249,13 @@
     </row>
     <row r="13" spans="1:3" ht="43.2">
       <c r="A13" s="4" t="s">
+        <v>332</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>337</v>
+      </c>
+      <c r="C13" s="4" t="s">
         <v>333</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>338</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>334</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="28.8">
@@ -4254,7 +4263,7 @@
         <v>78</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>79</v>
@@ -4265,7 +4274,7 @@
         <v>37</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>36</v>
@@ -4287,7 +4296,7 @@
         <v>52</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>53</v>
@@ -4306,24 +4315,24 @@
     </row>
     <row r="19" spans="1:3" ht="43.2">
       <c r="A19" s="4" t="s">
+        <v>330</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>351</v>
+      </c>
+      <c r="C19" s="4" t="s">
         <v>331</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>352</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>332</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="28.8">
       <c r="A20" s="4" t="s">
+        <v>335</v>
+      </c>
+      <c r="B20" s="4" t="s">
         <v>336</v>
       </c>
-      <c r="B20" s="4" t="s">
-        <v>337</v>
-      </c>
       <c r="C20" s="4" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -4331,7 +4340,7 @@
         <v>71</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>72</v>
@@ -4342,7 +4351,7 @@
         <v>87</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C22" s="4" t="s">
         <v>88</v>
@@ -4353,7 +4362,7 @@
         <v>89</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C23" s="4" t="s">
         <v>90</v>
@@ -4386,7 +4395,7 @@
         <v>30</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C26" s="4" t="s">
         <v>45</v>
@@ -4397,10 +4406,10 @@
         <v>46</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="28.8">
@@ -4408,7 +4417,7 @@
         <v>93</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C28" s="4" t="s">
         <v>94</v>
@@ -4430,7 +4439,7 @@
         <v>83</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C30" s="4" t="s">
         <v>84</v>
@@ -4441,7 +4450,7 @@
         <v>49</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C31" s="4" t="s">
         <v>50</v>
@@ -4452,10 +4461,10 @@
         <v>55</v>
       </c>
       <c r="B32" s="4" t="s">
+        <v>344</v>
+      </c>
+      <c r="C32" s="4" t="s">
         <v>345</v>
-      </c>
-      <c r="C32" s="4" t="s">
-        <v>346</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="72">
@@ -4463,7 +4472,7 @@
         <v>28</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C33" s="4" t="s">
         <v>27</v>
@@ -4474,7 +4483,7 @@
         <v>76</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C34" s="4" t="s">
         <v>77</v>
@@ -4485,7 +4494,7 @@
         <v>29</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C35" s="4" t="s">
         <v>51</v>
@@ -4496,7 +4505,7 @@
         <v>85</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C36" s="4" t="s">
         <v>86</v>
@@ -4507,7 +4516,7 @@
         <v>103</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C37" s="4" t="s">
         <v>102</v>
@@ -5001,10 +5010,10 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="B9" t="s">
         <v>254</v>
-      </c>
-      <c r="B9" t="s">
-        <v>255</v>
       </c>
     </row>
   </sheetData>

--- a/data Ukraine.xlsx
+++ b/data Ukraine.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\_GitHub\DataSources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87FC6BEB-C824-4D97-89E5-CEE0A9613714}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFC2F90C-D8FE-4B80-871E-20984B6A2947}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="898" activeTab="4" xr2:uid="{21FA5A86-4C69-4AEC-AC84-BE14EF54DEBB}"/>
   </bookViews>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="606" uniqueCount="397">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="602" uniqueCount="393">
   <si>
     <t>Ukraine is the second-largest European country (kraine covers an area of 603,550 sq km)</t>
   </si>
@@ -956,9 +956,6 @@
     <t>https://app.powerbi.com/view?r=eyJrIjoiZTYzMTdhZTMtNjFiYy00ZWEwLThjMzItMzc4MmU5MzNlNzdkIiwidCI6IjQ2ODI3OThjLWU0YTYtNGQ5NC1iMDI1LTdkZGQ1Mjc5NTkwYiIsImMiOjl9</t>
   </si>
   <si>
-    <t>Iryna helped me create Power BI dashboards for event response for a large (re)insurer. Her Power BI expertise was evident from the first interaction. Iryna excels at bringing concepts to life, and also at training less skilled users to function independently.</t>
-  </si>
-  <si>
     <t>Usha Badrinath</t>
   </si>
   <si>
@@ -968,23 +965,12 @@
     <t>CEO - DAN.IT education, EdTech enthusiast, Tech training leader and career advisorCEO - DAN.IT education, EdTech enthusiast, Tech training leader and career advisor</t>
   </si>
   <si>
-    <t>Iryna made the outstanding contribution as a trainer for our Business Intelligence course, that have significantly enriched the learning experience of our participants.
-Iryna's development of a comprehensive program covering Power BI, Tableau, and MS Excel modules has been instrumental in equipping our students with essential skills and knowledge in the field of Business Intelligence. Her curriculum, which includes topics such as ETL in Power Query/Tableau Prep, data modeling, DAX, visualizations, Power Query and Pivot, and utilizing Power BI Service/Tableau Online, is exceptionally well-structured and tailored to meet the demands of today's dynamic business environment.
-Iryna's ability to convey complex concepts in a clear and concise manner has been highly commendable. Participants consistently praise her teaching style, noting her patience, enthusiasm, and willingness to support their learning journey. Iryna's practical approach, supplemented by real-world examples and hands-on exercises, has enabled our students to grasp key concepts effectively and apply them with confidence.
-Furthermore, Iryna's responsiveness to student queries and ongoing support beyond the classroom reflect her genuine commitment to student success. I wholeheartedly recommend Iryna as a Business Intelligence course trainer.</t>
-  </si>
-  <si>
     <t>Taras Kloba</t>
   </si>
   <si>
     <t>Senior Partner Solutions Architect, Data &amp; AI at Microsoft | Co-Founder at PostgreSQL Ukraine | PhDSenior Partner Solutions Architect, Data &amp; AI at Microsoft | Co-Founder at PostgreSQL Ukraine | PhD</t>
   </si>
   <si>
-    <t>I recommend Iryna as a Senior DW/BI Specialist. In our collaborative projects, Iryna demonstrated expertise in frontend architecture, effectively using PowerBI and integrating PowerApps and Power Automate to improve user experience.
-Her skills in TigerGraph, Git, Postman, and Swagger were essential for ensuring smooth integration and effective communication within our projects. Iryna consistently led our team through technical challenges, delivering quality work on schedule.
-Iryna’s dedication to professional development and her ability to quickly adapt to new technologies have been significant assets to our team.</t>
-  </si>
-  <si>
     <t>SVP - Ping Data | Founder - Insurtech Advisory | Ex-Head of Global Data Products &amp; Services at RMSSVP - Ping Data | Founder - Insurtech Advisory | Ex-Head of Global Data Products &amp; Services at RMS</t>
   </si>
   <si>
@@ -992,9 +978,6 @@
   </si>
   <si>
     <t>Who is</t>
-  </si>
-  <si>
-    <t>Recommendation</t>
   </si>
   <si>
     <t>Workplace</t>
@@ -1878,7 +1861,7 @@
     </row>
     <row r="7" spans="1:4" ht="28.8">
       <c r="B7" s="4" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
     </row>
   </sheetData>
@@ -1915,7 +1898,7 @@
         <v>255</v>
       </c>
       <c r="D1" s="13" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -2019,7 +2002,7 @@
   <sheetData>
     <row r="1" spans="1:19" s="16" customFormat="1" ht="46.8" customHeight="1">
       <c r="A1" s="16" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="B1" s="16" t="s">
         <v>171</v>
@@ -2049,7 +2032,7 @@
         <v>271</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="L1" s="15" t="s">
         <v>232</v>
@@ -2067,7 +2050,7 @@
         <v>240</v>
       </c>
       <c r="Q1" s="15" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="R1" s="15" t="s">
         <v>242</v>
@@ -2081,7 +2064,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="C2" t="s">
         <v>199</v>
@@ -2119,7 +2102,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="C3" t="s">
         <v>200</v>
@@ -2157,7 +2140,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="C4" t="s">
         <v>211</v>
@@ -2177,7 +2160,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="C5" t="s">
         <v>201</v>
@@ -2212,7 +2195,7 @@
         <v>1</v>
       </c>
       <c r="B6" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="C6" t="s">
         <v>202</v>
@@ -2226,7 +2209,7 @@
         <v>1</v>
       </c>
       <c r="B7" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="C7" t="s">
         <v>203</v>
@@ -2240,7 +2223,7 @@
         <v>3</v>
       </c>
       <c r="B8" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="C8" t="s">
         <v>204</v>
@@ -2269,7 +2252,7 @@
         <v>1</v>
       </c>
       <c r="B9" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="C9" t="s">
         <v>205</v>
@@ -2283,7 +2266,7 @@
         <v>1</v>
       </c>
       <c r="B10" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="C10" t="s">
         <v>266</v>
@@ -2297,7 +2280,7 @@
         <v>4</v>
       </c>
       <c r="B11" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="C11" t="s">
         <v>267</v>
@@ -2311,7 +2294,7 @@
         <v>1</v>
       </c>
       <c r="B12" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="C12" t="s">
         <v>206</v>
@@ -2328,7 +2311,7 @@
         <v>3</v>
       </c>
       <c r="B13" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="C13" t="s">
         <v>207</v>
@@ -2345,7 +2328,7 @@
         <v>1</v>
       </c>
       <c r="B14" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="C14" t="s">
         <v>208</v>
@@ -2359,7 +2342,7 @@
         <v>1</v>
       </c>
       <c r="B15" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="C15" t="s">
         <v>210</v>
@@ -2394,7 +2377,7 @@
         <v>6</v>
       </c>
       <c r="B16" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="C16" t="s">
         <v>259</v>
@@ -2423,7 +2406,7 @@
         <v>6</v>
       </c>
       <c r="B17" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="C17" t="s">
         <v>212</v>
@@ -2449,7 +2432,7 @@
         <v>6</v>
       </c>
       <c r="B18" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="C18" t="s">
         <v>198</v>
@@ -2466,7 +2449,7 @@
         <v>1</v>
       </c>
       <c r="B19" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="C19" t="s">
         <v>214</v>
@@ -2498,7 +2481,7 @@
         <v>1</v>
       </c>
       <c r="B20" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="C20" t="s">
         <v>215</v>
@@ -2524,7 +2507,7 @@
         <v>1</v>
       </c>
       <c r="B21" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="C21" t="s">
         <v>216</v>
@@ -2538,7 +2521,7 @@
         <v>1</v>
       </c>
       <c r="B22" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="C22" t="s">
         <v>209</v>
@@ -2552,7 +2535,7 @@
         <v>1</v>
       </c>
       <c r="B23" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="C23" t="s">
         <v>213</v>
@@ -2566,7 +2549,7 @@
         <v>6</v>
       </c>
       <c r="B24" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="C24" t="s">
         <v>268</v>
@@ -2580,7 +2563,7 @@
         <v>1</v>
       </c>
       <c r="B25" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="C25" t="s">
         <v>269</v>
@@ -2594,7 +2577,7 @@
         <v>4</v>
       </c>
       <c r="B26" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="C26" t="s">
         <v>272</v>
@@ -2611,7 +2594,7 @@
         <v>4</v>
       </c>
       <c r="B27" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="C27" t="s">
         <v>273</v>
@@ -2628,7 +2611,7 @@
         <v>3</v>
       </c>
       <c r="B28" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="C28" t="s">
         <v>274</v>
@@ -2642,7 +2625,7 @@
         <v>5</v>
       </c>
       <c r="B29" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="C29" t="s">
         <v>275</v>
@@ -2662,7 +2645,7 @@
         <v>5</v>
       </c>
       <c r="B30" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="C30" t="s">
         <v>276</v>
@@ -2679,7 +2662,7 @@
         <v>2</v>
       </c>
       <c r="B31" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="C31" t="s">
         <v>277</v>
@@ -2729,7 +2712,7 @@
         <v>4</v>
       </c>
       <c r="B32" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="C32" t="s">
         <v>278</v>
@@ -2743,7 +2726,7 @@
         <v>2</v>
       </c>
       <c r="B33" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="C33" t="s">
         <v>279</v>
@@ -2778,7 +2761,7 @@
         <v>2</v>
       </c>
       <c r="B34" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="C34" t="s">
         <v>280</v>
@@ -2813,7 +2796,7 @@
         <v>2</v>
       </c>
       <c r="B35" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="C35" t="s">
         <v>281</v>
@@ -2845,7 +2828,7 @@
         <v>2</v>
       </c>
       <c r="B36" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="C36" t="s">
         <v>282</v>
@@ -2871,7 +2854,7 @@
         <v>2</v>
       </c>
       <c r="B37" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="C37" t="s">
         <v>283</v>
@@ -2897,7 +2880,7 @@
         <v>5</v>
       </c>
       <c r="B38" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="C38" t="s">
         <v>284</v>
@@ -2923,7 +2906,7 @@
         <v>5</v>
       </c>
       <c r="B39" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="C39" t="s">
         <v>285</v>
@@ -2952,10 +2935,10 @@
         <v>3</v>
       </c>
       <c r="B40" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="C40" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="E40">
         <v>1</v>
@@ -2981,10 +2964,10 @@
         <v>5</v>
       </c>
       <c r="B41" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="C41" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="D41">
         <v>1</v>
@@ -3064,10 +3047,10 @@
         <v>177</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="H1" s="6" t="s">
         <v>171</v>
@@ -3090,25 +3073,25 @@
         <v>45992</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="43.2">
@@ -3119,28 +3102,28 @@
         <v>45323</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="F3" s="4" t="s">
         <v>217</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="I3" s="4" t="s">
         <v>222</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="43.2">
@@ -3160,13 +3143,13 @@
         <v>178</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="I4" s="4" t="s">
         <v>223</v>
@@ -3192,13 +3175,13 @@
         <v>262</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="G5" s="4" t="s">
+        <v>299</v>
+      </c>
+      <c r="H5" s="4" t="s">
         <v>303</v>
-      </c>
-      <c r="H5" s="4" t="s">
-        <v>307</v>
       </c>
       <c r="I5" s="4" t="s">
         <v>223</v>
@@ -3224,13 +3207,13 @@
         <v>179</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="I6" s="4" t="s">
         <v>224</v>
@@ -3256,13 +3239,13 @@
         <v>180</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="I7" s="4" t="s">
         <v>224</v>
@@ -3288,13 +3271,13 @@
         <v>183</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="G8" s="4" t="s">
+        <v>299</v>
+      </c>
+      <c r="H8" s="4" t="s">
         <v>303</v>
-      </c>
-      <c r="H8" s="4" t="s">
-        <v>307</v>
       </c>
       <c r="I8" s="4" t="s">
         <v>224</v>
@@ -3320,13 +3303,13 @@
         <v>258</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="G9" s="4" t="s">
+        <v>299</v>
+      </c>
+      <c r="H9" s="4" t="s">
         <v>303</v>
-      </c>
-      <c r="H9" s="4" t="s">
-        <v>307</v>
       </c>
       <c r="I9" s="4" t="s">
         <v>224</v>
@@ -3343,25 +3326,25 @@
         <v>43556</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="I10" s="4" t="s">
         <v>224</v>
       </c>
       <c r="J10" s="4" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="43.2">
@@ -3381,13 +3364,13 @@
         <v>189</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="I11" s="4" t="s">
         <v>226</v>
@@ -3404,28 +3387,28 @@
         <v>41183</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="E12" s="4" t="s">
         <v>264</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="I12" s="4" t="s">
         <v>226</v>
       </c>
       <c r="J12" s="4" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -3436,25 +3419,25 @@
         <v>40664</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="I13" s="4" t="s">
         <v>226</v>
       </c>
       <c r="J13" s="4" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="72">
@@ -3471,22 +3454,22 @@
         <v>265</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="I14" s="4" t="s">
         <v>224</v>
       </c>
       <c r="J14" s="4" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="72">
@@ -3500,25 +3483,25 @@
         <v>232</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="F15" s="4" t="s">
         <v>217</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="H15" s="4" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="I15" s="4" t="s">
         <v>224</v>
       </c>
       <c r="J15" s="4" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="86.4">
@@ -3532,25 +3515,25 @@
         <v>232</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="F16" s="4" t="s">
         <v>217</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="H16" s="4" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="I16" s="4" t="s">
         <v>224</v>
       </c>
       <c r="J16" s="4" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="115.2">
@@ -3564,25 +3547,25 @@
         <v>233</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="F17" s="4" t="s">
         <v>217</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="H17" s="4" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="I17" s="4" t="s">
         <v>226</v>
       </c>
       <c r="J17" s="4" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="28.8">
@@ -3596,19 +3579,19 @@
         <v>234</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="F18" s="4" t="s">
         <v>217</v>
       </c>
       <c r="G18" s="4" t="s">
+        <v>299</v>
+      </c>
+      <c r="H18" s="4" t="s">
         <v>303</v>
-      </c>
-      <c r="H18" s="4" t="s">
-        <v>307</v>
       </c>
       <c r="I18" s="4" t="s">
         <v>223</v>
@@ -3628,19 +3611,19 @@
         <v>238</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="F19" s="4" t="s">
         <v>217</v>
       </c>
       <c r="G19" s="4" t="s">
+        <v>299</v>
+      </c>
+      <c r="H19" s="4" t="s">
         <v>303</v>
-      </c>
-      <c r="H19" s="4" t="s">
-        <v>307</v>
       </c>
       <c r="I19" s="4" t="s">
         <v>223</v>
@@ -3660,19 +3643,19 @@
         <v>240</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="F20" s="4" t="s">
         <v>217</v>
       </c>
       <c r="G20" s="4" t="s">
+        <v>299</v>
+      </c>
+      <c r="H20" s="4" t="s">
         <v>303</v>
-      </c>
-      <c r="H20" s="4" t="s">
-        <v>307</v>
       </c>
       <c r="I20" s="4" t="s">
         <v>223</v>
@@ -3692,19 +3675,19 @@
         <v>240</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="F21" s="4" t="s">
         <v>217</v>
       </c>
       <c r="G21" s="4" t="s">
+        <v>299</v>
+      </c>
+      <c r="H21" s="4" t="s">
         <v>303</v>
-      </c>
-      <c r="H21" s="4" t="s">
-        <v>307</v>
       </c>
       <c r="I21" s="4" t="s">
         <v>223</v>
@@ -3721,28 +3704,28 @@
         <v>43555</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="F22" s="4" t="s">
         <v>217</v>
       </c>
       <c r="G22" s="4" t="s">
+        <v>299</v>
+      </c>
+      <c r="H22" s="4" t="s">
         <v>303</v>
-      </c>
-      <c r="H22" s="4" t="s">
-        <v>307</v>
       </c>
       <c r="I22" s="4" t="s">
         <v>226</v>
       </c>
       <c r="J22" s="4" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
     </row>
     <row r="23" spans="1:10" ht="43.2">
@@ -3756,19 +3739,19 @@
         <v>242</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="F23" s="4" t="s">
         <v>217</v>
       </c>
       <c r="G23" s="4" t="s">
+        <v>299</v>
+      </c>
+      <c r="H23" s="4" t="s">
         <v>303</v>
-      </c>
-      <c r="H23" s="4" t="s">
-        <v>307</v>
       </c>
       <c r="I23" s="4" t="s">
         <v>226</v>
@@ -3788,25 +3771,25 @@
         <v>242</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="E24" s="4" t="s">
         <v>286</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="G24" s="4" t="s">
+        <v>299</v>
+      </c>
+      <c r="H24" s="4" t="s">
         <v>303</v>
-      </c>
-      <c r="H24" s="4" t="s">
-        <v>307</v>
       </c>
       <c r="I24" s="17" t="s">
         <v>224</v>
       </c>
       <c r="J24" s="4" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
     </row>
     <row r="25" spans="1:10" ht="72">
@@ -3820,25 +3803,25 @@
         <v>288</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="F25" s="17" t="s">
         <v>250</v>
       </c>
       <c r="G25" s="4" t="s">
+        <v>299</v>
+      </c>
+      <c r="H25" s="4" t="s">
         <v>303</v>
-      </c>
-      <c r="H25" s="4" t="s">
-        <v>307</v>
       </c>
       <c r="I25" s="17" t="s">
         <v>224</v>
       </c>
       <c r="J25" s="4" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
     </row>
     <row r="26" spans="1:10" ht="86.4">
@@ -3852,7 +3835,7 @@
         <v>251</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="E26" s="4" t="s">
         <v>287</v>
@@ -3861,16 +3844,16 @@
         <v>250</v>
       </c>
       <c r="G26" s="4" t="s">
+        <v>299</v>
+      </c>
+      <c r="H26" s="4" t="s">
         <v>303</v>
-      </c>
-      <c r="H26" s="4" t="s">
-        <v>307</v>
       </c>
       <c r="I26" s="17" t="s">
         <v>224</v>
       </c>
       <c r="J26" s="4" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
     </row>
   </sheetData>
@@ -3884,10 +3867,10 @@
   <sheetPr>
     <tabColor rgb="FF0070C0"/>
   </sheetPr>
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -3895,91 +3878,78 @@
     <col min="1" max="1" width="19.109375" style="17" customWidth="1"/>
     <col min="2" max="2" width="25.5546875" style="17" customWidth="1"/>
     <col min="3" max="3" width="48.88671875" style="17" customWidth="1"/>
-    <col min="4" max="4" width="103.88671875" style="17" customWidth="1"/>
-    <col min="5" max="5" width="8.88671875" style="17"/>
+    <col min="4" max="4" width="8.88671875" style="17"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:3">
       <c r="A1" s="6" t="s">
         <v>163</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>300</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="100.8">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="57.6">
       <c r="A2" s="4" t="s">
         <v>168</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>296</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="57.6">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="57.6">
       <c r="A3" s="4" t="s">
         <v>261</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>298</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="187.2">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="43.2">
       <c r="A4" s="4" t="s">
         <v>172</v>
       </c>
       <c r="B4" s="4" t="s">
+        <v>291</v>
+      </c>
+      <c r="C4" s="4" t="s">
         <v>292</v>
       </c>
-      <c r="C4" s="4" t="s">
-        <v>293</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="43.2">
+    </row>
+    <row r="5" spans="1:3" ht="43.2">
       <c r="A5" s="4" t="s">
         <v>232</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="43.2">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="43.2">
       <c r="A6" s="4" t="s">
         <v>232</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="28.8">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="28.8">
       <c r="A7" s="4" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="28.8">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="28.8">
       <c r="A8" s="4" t="s">
         <v>234</v>
       </c>
@@ -3987,15 +3957,15 @@
         <v>235</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="28.8">
+    <row r="9" spans="1:3" ht="28.8">
       <c r="A9" s="4" t="s">
         <v>238</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="28.8">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="28.8">
       <c r="A10" s="4" t="s">
         <v>240</v>
       </c>
@@ -4003,7 +3973,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:3">
       <c r="A11" s="4" t="s">
         <v>240</v>
       </c>
@@ -4011,15 +3981,15 @@
         <v>241</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:3">
       <c r="A12" s="4" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
       <c r="A13" s="4" t="s">
         <v>242</v>
       </c>
@@ -4128,7 +4098,7 @@
     </row>
     <row r="2" spans="1:3" ht="43.2">
       <c r="A2" s="4" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>34</v>
@@ -4153,7 +4123,7 @@
         <v>24</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>25</v>
@@ -4183,13 +4153,13 @@
     </row>
     <row r="7" spans="1:3" ht="28.8">
       <c r="A7" s="4" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="43.2">
@@ -4241,7 +4211,7 @@
         <v>26</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>42</v>
@@ -4249,13 +4219,13 @@
     </row>
     <row r="13" spans="1:3" ht="43.2">
       <c r="A13" s="4" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="28.8">
@@ -4263,7 +4233,7 @@
         <v>78</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>79</v>
@@ -4274,7 +4244,7 @@
         <v>37</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>36</v>
@@ -4296,7 +4266,7 @@
         <v>52</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>53</v>
@@ -4315,24 +4285,24 @@
     </row>
     <row r="19" spans="1:3" ht="43.2">
       <c r="A19" s="4" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="28.8">
       <c r="A20" s="4" t="s">
+        <v>331</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>332</v>
+      </c>
+      <c r="C20" s="4" t="s">
         <v>335</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>336</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>339</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -4340,7 +4310,7 @@
         <v>71</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>72</v>
@@ -4351,7 +4321,7 @@
         <v>87</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="C22" s="4" t="s">
         <v>88</v>
@@ -4362,7 +4332,7 @@
         <v>89</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="C23" s="4" t="s">
         <v>90</v>
@@ -4395,7 +4365,7 @@
         <v>30</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="C26" s="4" t="s">
         <v>45</v>
@@ -4406,10 +4376,10 @@
         <v>46</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="28.8">
@@ -4417,7 +4387,7 @@
         <v>93</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="C28" s="4" t="s">
         <v>94</v>
@@ -4439,7 +4409,7 @@
         <v>83</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="C30" s="4" t="s">
         <v>84</v>
@@ -4450,7 +4420,7 @@
         <v>49</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="C31" s="4" t="s">
         <v>50</v>
@@ -4461,10 +4431,10 @@
         <v>55</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="72">
@@ -4472,7 +4442,7 @@
         <v>28</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="C33" s="4" t="s">
         <v>27</v>
@@ -4483,7 +4453,7 @@
         <v>76</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="C34" s="4" t="s">
         <v>77</v>
@@ -4494,7 +4464,7 @@
         <v>29</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="C35" s="4" t="s">
         <v>51</v>
@@ -4505,7 +4475,7 @@
         <v>85</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="C36" s="4" t="s">
         <v>86</v>
@@ -4516,7 +4486,7 @@
         <v>103</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="C37" s="4" t="s">
         <v>102</v>

--- a/data Ukraine.xlsx
+++ b/data Ukraine.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\_GitHub\DataSources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFC2F90C-D8FE-4B80-871E-20984B6A2947}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FED8D01-9B5A-4ED6-B5AB-C18232A5E6EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="898" activeTab="4" xr2:uid="{21FA5A86-4C69-4AEC-AC84-BE14EF54DEBB}"/>
   </bookViews>
@@ -1357,7 +1357,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1397,6 +1397,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3012,7 +3015,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J18" sqref="J18:J23"/>
+      <selection pane="bottomLeft" activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -3867,137 +3870,177 @@
   <sheetPr>
     <tabColor rgb="FF0070C0"/>
   </sheetPr>
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="19.109375" style="17" customWidth="1"/>
-    <col min="2" max="2" width="25.5546875" style="17" customWidth="1"/>
-    <col min="3" max="3" width="48.88671875" style="17" customWidth="1"/>
-    <col min="4" max="4" width="8.88671875" style="17"/>
+    <col min="1" max="1" width="8.88671875" style="18"/>
+    <col min="2" max="2" width="31.6640625" style="17" customWidth="1"/>
+    <col min="3" max="3" width="25.5546875" style="17" customWidth="1"/>
+    <col min="4" max="4" width="67.6640625" style="17" customWidth="1"/>
+    <col min="5" max="5" width="8.88671875" style="17"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:4">
+      <c r="B1" s="6" t="s">
         <v>163</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="C1" s="6" t="s">
         <v>296</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="D1" s="6" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="57.6">
-      <c r="A2" s="4" t="s">
+    <row r="2" spans="1:4" ht="28.8">
+      <c r="A2" s="18">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="28.8">
+      <c r="A3" s="18">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="18">
+        <v>3</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="18">
+        <v>4</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>363</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="18">
+        <v>5</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>240</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="28.8">
+      <c r="A7" s="18">
+        <v>6</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>240</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="28.8">
+      <c r="A8" s="18">
+        <v>7</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="43.2">
+      <c r="A9" s="18">
+        <v>8</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>261</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>290</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="43.2">
+      <c r="A10" s="18">
+        <v>9</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>291</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="43.2">
+      <c r="A11" s="18">
+        <v>10</v>
+      </c>
+      <c r="B11" s="4" t="s">
         <v>168</v>
       </c>
-      <c r="B2" s="17" t="s">
+      <c r="C11" s="17" t="s">
         <v>293</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="D11" s="4" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="57.6">
-      <c r="A3" s="4" t="s">
-        <v>261</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>290</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="43.2">
-      <c r="A4" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>291</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="43.2">
-      <c r="A5" s="4" t="s">
-        <v>232</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="43.2">
-      <c r="A6" s="4" t="s">
-        <v>232</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="28.8">
-      <c r="A7" s="4" t="s">
+    <row r="12" spans="1:4">
+      <c r="A12" s="18">
+        <v>11</v>
+      </c>
+      <c r="B12" s="4" t="s">
         <v>308</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="C12" s="4" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="28.8">
-      <c r="A8" s="4" t="s">
+    <row r="13" spans="1:4" ht="28.8">
+      <c r="A13" s="18">
+        <v>12</v>
+      </c>
+      <c r="B13" s="4" t="s">
         <v>234</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="C13" s="4" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="28.8">
-      <c r="A9" s="4" t="s">
-        <v>238</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="28.8">
-      <c r="A10" s="4" t="s">
-        <v>240</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" s="4" t="s">
-        <v>240</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" s="4" t="s">
-        <v>363</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" s="4" t="s">
-        <v>242</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>275</v>
-      </c>
-    </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D13">
+    <sortCondition ref="A2:A13"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/data Ukraine.xlsx
+++ b/data Ukraine.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\_GitHub\DataSources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FED8D01-9B5A-4ED6-B5AB-C18232A5E6EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98BF3285-4D16-47C2-AAB8-6C1950D735D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="898" activeTab="4" xr2:uid="{21FA5A86-4C69-4AEC-AC84-BE14EF54DEBB}"/>
   </bookViews>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="602" uniqueCount="393">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="603" uniqueCount="394">
   <si>
     <t>Ukraine is the second-largest European country (kraine covers an area of 603,550 sq km)</t>
   </si>
@@ -1270,6 +1270,9 @@
   </si>
   <si>
     <t>Microsoft Certified Power BI Data Analyst Associate</t>
+  </si>
+  <si>
+    <t>Date</t>
   </si>
 </sst>
 </file>
@@ -3014,8 +3017,8 @@
   <dimension ref="A1:K26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C22" sqref="C22"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -3870,175 +3873,215 @@
   <sheetPr>
     <tabColor rgb="FF0070C0"/>
   </sheetPr>
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="8.88671875" style="18"/>
-    <col min="2" max="2" width="31.6640625" style="17" customWidth="1"/>
-    <col min="3" max="3" width="25.5546875" style="17" customWidth="1"/>
-    <col min="4" max="4" width="67.6640625" style="17" customWidth="1"/>
-    <col min="5" max="5" width="8.88671875" style="17"/>
+    <col min="2" max="2" width="10.109375" style="18" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.6640625" style="17" customWidth="1"/>
+    <col min="4" max="4" width="25.5546875" style="17" customWidth="1"/>
+    <col min="5" max="5" width="67.6640625" style="17" customWidth="1"/>
+    <col min="6" max="6" width="8.88671875" style="17"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
-      <c r="B1" s="6" t="s">
+    <row r="1" spans="1:5">
+      <c r="B1" s="18" t="s">
+        <v>393</v>
+      </c>
+      <c r="C1" s="6" t="s">
         <v>163</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="D1" s="6" t="s">
         <v>296</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="E1" s="6" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="28.8">
+    <row r="2" spans="1:5" ht="28.8">
       <c r="A2" s="18">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="11">
+        <v>38473</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>232</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="D2" s="4" t="s">
         <v>391</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="28.8">
+    <row r="3" spans="1:5" ht="28.8">
       <c r="A3" s="18">
         <v>2</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="11">
+        <v>38534</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>232</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="D3" s="4" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:5">
       <c r="A4" s="18">
         <v>3</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="11">
+        <v>42029</v>
+      </c>
+      <c r="C4" s="4" t="s">
         <v>242</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="D4" s="4" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:5">
       <c r="A5" s="18">
         <v>4</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="11">
+        <v>43555</v>
+      </c>
+      <c r="C5" s="4" t="s">
         <v>363</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="D5" s="4" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:5">
       <c r="A6" s="18">
         <v>5</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="11">
+        <v>44859</v>
+      </c>
+      <c r="C6" s="4" t="s">
         <v>240</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="D6" s="4" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="28.8">
+    <row r="7" spans="1:5" ht="28.8">
       <c r="A7" s="18">
         <v>6</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="11">
+        <v>44865</v>
+      </c>
+      <c r="C7" s="4" t="s">
         <v>240</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="D7" s="4" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="28.8">
+    <row r="8" spans="1:5" ht="28.8">
       <c r="A8" s="18">
         <v>7</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="11">
+        <v>44681</v>
+      </c>
+      <c r="C8" s="4" t="s">
         <v>238</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="D8" s="4" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="43.2">
+    <row r="9" spans="1:5" ht="43.2">
       <c r="A9" s="18">
         <v>8</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="11">
+        <v>44593</v>
+      </c>
+      <c r="C9" s="4" t="s">
         <v>261</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="D9" s="4" t="s">
         <v>290</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="E9" s="4" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="43.2">
+    <row r="10" spans="1:5" ht="43.2">
       <c r="A10" s="18">
         <v>9</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="11">
+        <v>45261</v>
+      </c>
+      <c r="C10" s="4" t="s">
         <v>172</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="D10" s="4" t="s">
         <v>291</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="E10" s="4" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="43.2">
+    <row r="11" spans="1:5" ht="43.2">
       <c r="A11" s="18">
         <v>10</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="11">
+        <v>44621</v>
+      </c>
+      <c r="C11" s="4" t="s">
         <v>168</v>
       </c>
-      <c r="C11" s="17" t="s">
+      <c r="D11" s="17" t="s">
         <v>293</v>
       </c>
-      <c r="D11" s="4" t="s">
+      <c r="E11" s="4" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:5">
       <c r="A12" s="18">
         <v>11</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="11">
+        <v>45323</v>
+      </c>
+      <c r="C12" s="4" t="s">
         <v>308</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="D12" s="4" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="28.8">
+    <row r="13" spans="1:5" ht="28.8">
       <c r="A13" s="18">
         <v>12</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="11">
+        <v>45392</v>
+      </c>
+      <c r="C13" s="4" t="s">
         <v>234</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="D13" s="4" t="s">
         <v>235</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D13">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E13">
     <sortCondition ref="A2:A13"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data Ukraine.xlsx
+++ b/data Ukraine.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\_GitHub\DataSources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98BF3285-4D16-47C2-AAB8-6C1950D735D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3255DC49-D5AE-4C7E-A0BD-70CB759E06E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="898" activeTab="4" xr2:uid="{21FA5A86-4C69-4AEC-AC84-BE14EF54DEBB}"/>
   </bookViews>
@@ -3876,7 +3876,7 @@
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -3959,18 +3959,21 @@
         <v>389</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" ht="43.2">
       <c r="A6" s="18">
         <v>5</v>
       </c>
       <c r="B6" s="11">
-        <v>44859</v>
+        <v>44593</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>240</v>
+        <v>261</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>241</v>
+        <v>290</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>295</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="28.8">
@@ -3978,44 +3981,41 @@
         <v>6</v>
       </c>
       <c r="B7" s="11">
-        <v>44865</v>
+        <v>44681</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="28.8">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8" s="18">
         <v>7</v>
       </c>
       <c r="B8" s="11">
-        <v>44681</v>
+        <v>44859</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="43.2">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="28.8">
       <c r="A9" s="18">
         <v>8</v>
       </c>
       <c r="B9" s="11">
-        <v>44593</v>
+        <v>44865</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>261</v>
+        <v>240</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>290</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>295</v>
+        <v>239</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="43.2">
@@ -4023,16 +4023,16 @@
         <v>9</v>
       </c>
       <c r="B10" s="11">
-        <v>45261</v>
+        <v>44621</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>291</v>
+        <v>168</v>
+      </c>
+      <c r="D10" s="17" t="s">
+        <v>293</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="43.2">
@@ -4040,16 +4040,16 @@
         <v>10</v>
       </c>
       <c r="B11" s="11">
-        <v>44621</v>
+        <v>45261</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>168</v>
-      </c>
-      <c r="D11" s="17" t="s">
-        <v>293</v>
+        <v>172</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>291</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
     <row r="12" spans="1:5">

--- a/data Ukraine.xlsx
+++ b/data Ukraine.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\_GitHub\DataSources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3255DC49-D5AE-4C7E-A0BD-70CB759E06E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7882782E-AC31-4F06-8112-3F4EC9A68990}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="898" activeTab="4" xr2:uid="{21FA5A86-4C69-4AEC-AC84-BE14EF54DEBB}"/>
   </bookViews>
@@ -3876,7 +3876,7 @@
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -4023,7 +4023,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="11">
-        <v>44621</v>
+        <v>44986</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>168</v>

--- a/data Ukraine.xlsx
+++ b/data Ukraine.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\_GitHub\DataSources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7882782E-AC31-4F06-8112-3F4EC9A68990}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11DABFB9-5218-44E1-8BBB-9E4974E42BF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="898" activeTab="4" xr2:uid="{21FA5A86-4C69-4AEC-AC84-BE14EF54DEBB}"/>
   </bookViews>
@@ -3876,7 +3876,7 @@
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -3995,7 +3995,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="11">
-        <v>44859</v>
+        <v>44835</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>240</v>
@@ -4009,7 +4009,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="11">
-        <v>44865</v>
+        <v>44866</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>240</v>

--- a/data Ukraine.xlsx
+++ b/data Ukraine.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\_GitHub\DataSources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11DABFB9-5218-44E1-8BBB-9E4974E42BF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFF63D5C-9AEE-42AC-B5E6-9B64EB63EAAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="898" activeTab="4" xr2:uid="{21FA5A86-4C69-4AEC-AC84-BE14EF54DEBB}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="898" activeTab="3" xr2:uid="{21FA5A86-4C69-4AEC-AC84-BE14EF54DEBB}"/>
   </bookViews>
   <sheets>
     <sheet name="personal data" sheetId="12" r:id="rId1"/>
@@ -3016,9 +3016,9 @@
   </sheetPr>
   <dimension ref="A1:K26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -3201,7 +3201,7 @@
         <v>44287</v>
       </c>
       <c r="B6" s="11">
-        <v>45261</v>
+        <v>44621</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>172</v>
@@ -3771,7 +3771,7 @@
         <v>44470</v>
       </c>
       <c r="B24" s="11">
-        <v>45261</v>
+        <v>44593</v>
       </c>
       <c r="C24" s="4" t="s">
         <v>242</v>
@@ -3875,8 +3875,8 @@
   </sheetPr>
   <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C13" sqref="C2:C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>

--- a/data Ukraine.xlsx
+++ b/data Ukraine.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\_GitHub\DataSources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFF63D5C-9AEE-42AC-B5E6-9B64EB63EAAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D516E92-6D8D-4709-A352-956D8A10556E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="898" activeTab="3" xr2:uid="{21FA5A86-4C69-4AEC-AC84-BE14EF54DEBB}"/>
   </bookViews>
@@ -1007,9 +1007,6 @@
     <t>Work</t>
   </si>
   <si>
-    <t>Leave</t>
-  </si>
-  <si>
     <t>Internationaler Bund (IB), Germany</t>
   </si>
   <si>
@@ -1273,6 +1270,9 @@
   </si>
   <si>
     <t>Date</t>
+  </si>
+  <si>
+    <t>Maternity</t>
   </si>
 </sst>
 </file>
@@ -1867,7 +1867,7 @@
     </row>
     <row r="7" spans="1:4" ht="28.8">
       <c r="B7" s="4" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
   </sheetData>
@@ -1904,7 +1904,7 @@
         <v>255</v>
       </c>
       <c r="D1" s="13" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -2008,7 +2008,7 @@
   <sheetData>
     <row r="1" spans="1:19" s="16" customFormat="1" ht="46.8" customHeight="1">
       <c r="A1" s="16" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B1" s="16" t="s">
         <v>171</v>
@@ -2038,7 +2038,7 @@
         <v>271</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="L1" s="15" t="s">
         <v>232</v>
@@ -2056,7 +2056,7 @@
         <v>240</v>
       </c>
       <c r="Q1" s="15" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="R1" s="15" t="s">
         <v>242</v>
@@ -2070,7 +2070,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C2" t="s">
         <v>199</v>
@@ -2108,7 +2108,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C3" t="s">
         <v>200</v>
@@ -2146,7 +2146,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C4" t="s">
         <v>211</v>
@@ -2166,7 +2166,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C5" t="s">
         <v>201</v>
@@ -2201,7 +2201,7 @@
         <v>1</v>
       </c>
       <c r="B6" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C6" t="s">
         <v>202</v>
@@ -2215,7 +2215,7 @@
         <v>1</v>
       </c>
       <c r="B7" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C7" t="s">
         <v>203</v>
@@ -2229,7 +2229,7 @@
         <v>3</v>
       </c>
       <c r="B8" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C8" t="s">
         <v>204</v>
@@ -2258,7 +2258,7 @@
         <v>1</v>
       </c>
       <c r="B9" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C9" t="s">
         <v>205</v>
@@ -2272,7 +2272,7 @@
         <v>1</v>
       </c>
       <c r="B10" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C10" t="s">
         <v>266</v>
@@ -2286,7 +2286,7 @@
         <v>4</v>
       </c>
       <c r="B11" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C11" t="s">
         <v>267</v>
@@ -2300,7 +2300,7 @@
         <v>1</v>
       </c>
       <c r="B12" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C12" t="s">
         <v>206</v>
@@ -2317,7 +2317,7 @@
         <v>3</v>
       </c>
       <c r="B13" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C13" t="s">
         <v>207</v>
@@ -2334,7 +2334,7 @@
         <v>1</v>
       </c>
       <c r="B14" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C14" t="s">
         <v>208</v>
@@ -2348,7 +2348,7 @@
         <v>1</v>
       </c>
       <c r="B15" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C15" t="s">
         <v>210</v>
@@ -2383,7 +2383,7 @@
         <v>6</v>
       </c>
       <c r="B16" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C16" t="s">
         <v>259</v>
@@ -2412,7 +2412,7 @@
         <v>6</v>
       </c>
       <c r="B17" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C17" t="s">
         <v>212</v>
@@ -2438,7 +2438,7 @@
         <v>6</v>
       </c>
       <c r="B18" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C18" t="s">
         <v>198</v>
@@ -2455,7 +2455,7 @@
         <v>1</v>
       </c>
       <c r="B19" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C19" t="s">
         <v>214</v>
@@ -2487,7 +2487,7 @@
         <v>1</v>
       </c>
       <c r="B20" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C20" t="s">
         <v>215</v>
@@ -2513,7 +2513,7 @@
         <v>1</v>
       </c>
       <c r="B21" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C21" t="s">
         <v>216</v>
@@ -2527,7 +2527,7 @@
         <v>1</v>
       </c>
       <c r="B22" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C22" t="s">
         <v>209</v>
@@ -2541,7 +2541,7 @@
         <v>1</v>
       </c>
       <c r="B23" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C23" t="s">
         <v>213</v>
@@ -2555,7 +2555,7 @@
         <v>6</v>
       </c>
       <c r="B24" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C24" t="s">
         <v>268</v>
@@ -2569,7 +2569,7 @@
         <v>1</v>
       </c>
       <c r="B25" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C25" t="s">
         <v>269</v>
@@ -2583,7 +2583,7 @@
         <v>4</v>
       </c>
       <c r="B26" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C26" t="s">
         <v>272</v>
@@ -2600,7 +2600,7 @@
         <v>4</v>
       </c>
       <c r="B27" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C27" t="s">
         <v>273</v>
@@ -2617,7 +2617,7 @@
         <v>3</v>
       </c>
       <c r="B28" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C28" t="s">
         <v>274</v>
@@ -2631,7 +2631,7 @@
         <v>5</v>
       </c>
       <c r="B29" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C29" t="s">
         <v>275</v>
@@ -2651,7 +2651,7 @@
         <v>5</v>
       </c>
       <c r="B30" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C30" t="s">
         <v>276</v>
@@ -2668,7 +2668,7 @@
         <v>2</v>
       </c>
       <c r="B31" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C31" t="s">
         <v>277</v>
@@ -2718,7 +2718,7 @@
         <v>4</v>
       </c>
       <c r="B32" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C32" t="s">
         <v>278</v>
@@ -2732,7 +2732,7 @@
         <v>2</v>
       </c>
       <c r="B33" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C33" t="s">
         <v>279</v>
@@ -2767,7 +2767,7 @@
         <v>2</v>
       </c>
       <c r="B34" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C34" t="s">
         <v>280</v>
@@ -2802,7 +2802,7 @@
         <v>2</v>
       </c>
       <c r="B35" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C35" t="s">
         <v>281</v>
@@ -2834,7 +2834,7 @@
         <v>2</v>
       </c>
       <c r="B36" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C36" t="s">
         <v>282</v>
@@ -2860,7 +2860,7 @@
         <v>2</v>
       </c>
       <c r="B37" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C37" t="s">
         <v>283</v>
@@ -2886,7 +2886,7 @@
         <v>5</v>
       </c>
       <c r="B38" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C38" t="s">
         <v>284</v>
@@ -2912,7 +2912,7 @@
         <v>5</v>
       </c>
       <c r="B39" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C39" t="s">
         <v>285</v>
@@ -2941,10 +2941,10 @@
         <v>3</v>
       </c>
       <c r="B40" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C40" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="E40">
         <v>1</v>
@@ -2970,10 +2970,10 @@
         <v>5</v>
       </c>
       <c r="B41" t="s">
+        <v>385</v>
+      </c>
+      <c r="C41" t="s">
         <v>386</v>
-      </c>
-      <c r="C41" t="s">
-        <v>387</v>
       </c>
       <c r="D41">
         <v>1</v>
@@ -3017,8 +3017,8 @@
   <dimension ref="A1:K26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B25" sqref="B25"/>
+      <pane ySplit="1" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -3079,13 +3079,13 @@
         <v>45992</v>
       </c>
       <c r="C2" s="4" t="s">
+        <v>358</v>
+      </c>
+      <c r="D2" s="4" t="s">
         <v>359</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="E2" s="4" t="s">
         <v>360</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>361</v>
       </c>
       <c r="F2" s="4" t="s">
         <v>306</v>
@@ -3097,7 +3097,7 @@
         <v>302</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="43.2">
@@ -3108,10 +3108,10 @@
         <v>45323</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="E3" s="4" t="s">
         <v>304</v>
@@ -3129,7 +3129,7 @@
         <v>222</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="43.2">
@@ -3332,13 +3332,13 @@
         <v>43556</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>307</v>
+        <v>393</v>
       </c>
       <c r="G10" s="4" t="s">
         <v>301</v>
@@ -3350,7 +3350,7 @@
         <v>224</v>
       </c>
       <c r="J10" s="4" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="43.2">
@@ -3393,10 +3393,10 @@
         <v>41183</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E12" s="4" t="s">
         <v>264</v>
@@ -3414,7 +3414,7 @@
         <v>226</v>
       </c>
       <c r="J12" s="4" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -3425,13 +3425,13 @@
         <v>40664</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>307</v>
+        <v>393</v>
       </c>
       <c r="G13" s="4" t="s">
         <v>301</v>
@@ -3443,7 +3443,7 @@
         <v>226</v>
       </c>
       <c r="J13" s="4" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="72">
@@ -3460,7 +3460,7 @@
         <v>265</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="F14" s="4" t="s">
         <v>306</v>
@@ -3475,7 +3475,7 @@
         <v>224</v>
       </c>
       <c r="J14" s="4" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="72">
@@ -3489,10 +3489,10 @@
         <v>232</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="F15" s="4" t="s">
         <v>217</v>
@@ -3507,7 +3507,7 @@
         <v>224</v>
       </c>
       <c r="J15" s="4" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="86.4">
@@ -3521,10 +3521,10 @@
         <v>232</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="F16" s="4" t="s">
         <v>217</v>
@@ -3539,7 +3539,7 @@
         <v>224</v>
       </c>
       <c r="J16" s="4" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="115.2">
@@ -3553,10 +3553,10 @@
         <v>233</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="F17" s="4" t="s">
         <v>217</v>
@@ -3571,7 +3571,7 @@
         <v>226</v>
       </c>
       <c r="J17" s="4" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="28.8">
@@ -3585,10 +3585,10 @@
         <v>234</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="F18" s="4" t="s">
         <v>217</v>
@@ -3617,10 +3617,10 @@
         <v>238</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="F19" s="4" t="s">
         <v>217</v>
@@ -3649,10 +3649,10 @@
         <v>240</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="F20" s="4" t="s">
         <v>217</v>
@@ -3681,10 +3681,10 @@
         <v>240</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="F21" s="4" t="s">
         <v>217</v>
@@ -3710,13 +3710,13 @@
         <v>43555</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="F22" s="4" t="s">
         <v>217</v>
@@ -3731,7 +3731,7 @@
         <v>226</v>
       </c>
       <c r="J22" s="4" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="23" spans="1:10" ht="43.2">
@@ -3745,10 +3745,10 @@
         <v>242</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="F23" s="4" t="s">
         <v>217</v>
@@ -3777,7 +3777,7 @@
         <v>242</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="E24" s="4" t="s">
         <v>286</v>
@@ -3795,7 +3795,7 @@
         <v>224</v>
       </c>
       <c r="J24" s="4" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="25" spans="1:10" ht="72">
@@ -3809,10 +3809,10 @@
         <v>288</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="F25" s="17" t="s">
         <v>250</v>
@@ -3827,7 +3827,7 @@
         <v>224</v>
       </c>
       <c r="J25" s="4" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="26" spans="1:10" ht="86.4">
@@ -3841,7 +3841,7 @@
         <v>251</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="E26" s="4" t="s">
         <v>287</v>
@@ -3859,7 +3859,7 @@
         <v>224</v>
       </c>
       <c r="J26" s="4" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
   </sheetData>
@@ -3891,7 +3891,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="18" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C1" s="6" t="s">
         <v>163</v>
@@ -3914,7 +3914,7 @@
         <v>232</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="28.8">
@@ -3928,7 +3928,7 @@
         <v>232</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -3953,10 +3953,10 @@
         <v>43555</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="43.2">
@@ -3987,7 +3987,7 @@
         <v>238</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -4060,10 +4060,10 @@
         <v>45323</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="28.8">
@@ -4184,7 +4184,7 @@
     </row>
     <row r="2" spans="1:3" ht="43.2">
       <c r="A2" s="4" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>34</v>
@@ -4209,7 +4209,7 @@
         <v>24</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>25</v>
@@ -4239,13 +4239,13 @@
     </row>
     <row r="7" spans="1:3" ht="28.8">
       <c r="A7" s="4" t="s">
+        <v>323</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>333</v>
+      </c>
+      <c r="C7" s="4" t="s">
         <v>324</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>334</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>325</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="43.2">
@@ -4297,7 +4297,7 @@
         <v>26</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>42</v>
@@ -4305,13 +4305,13 @@
     </row>
     <row r="13" spans="1:3" ht="43.2">
       <c r="A13" s="4" t="s">
+        <v>327</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>332</v>
+      </c>
+      <c r="C13" s="4" t="s">
         <v>328</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>333</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>329</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="28.8">
@@ -4319,7 +4319,7 @@
         <v>78</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>79</v>
@@ -4330,7 +4330,7 @@
         <v>37</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>36</v>
@@ -4352,7 +4352,7 @@
         <v>52</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>53</v>
@@ -4371,24 +4371,24 @@
     </row>
     <row r="19" spans="1:3" ht="43.2">
       <c r="A19" s="4" t="s">
+        <v>325</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>346</v>
+      </c>
+      <c r="C19" s="4" t="s">
         <v>326</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>347</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>327</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="28.8">
       <c r="A20" s="4" t="s">
+        <v>330</v>
+      </c>
+      <c r="B20" s="4" t="s">
         <v>331</v>
       </c>
-      <c r="B20" s="4" t="s">
-        <v>332</v>
-      </c>
       <c r="C20" s="4" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -4396,7 +4396,7 @@
         <v>71</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>72</v>
@@ -4407,7 +4407,7 @@
         <v>87</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C22" s="4" t="s">
         <v>88</v>
@@ -4418,7 +4418,7 @@
         <v>89</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C23" s="4" t="s">
         <v>90</v>
@@ -4451,7 +4451,7 @@
         <v>30</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C26" s="4" t="s">
         <v>45</v>
@@ -4462,10 +4462,10 @@
         <v>46</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="28.8">
@@ -4473,7 +4473,7 @@
         <v>93</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C28" s="4" t="s">
         <v>94</v>
@@ -4495,7 +4495,7 @@
         <v>83</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C30" s="4" t="s">
         <v>84</v>
@@ -4506,7 +4506,7 @@
         <v>49</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C31" s="4" t="s">
         <v>50</v>
@@ -4517,10 +4517,10 @@
         <v>55</v>
       </c>
       <c r="B32" s="4" t="s">
+        <v>339</v>
+      </c>
+      <c r="C32" s="4" t="s">
         <v>340</v>
-      </c>
-      <c r="C32" s="4" t="s">
-        <v>341</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="72">
@@ -4528,7 +4528,7 @@
         <v>28</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C33" s="4" t="s">
         <v>27</v>
@@ -4539,7 +4539,7 @@
         <v>76</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C34" s="4" t="s">
         <v>77</v>
@@ -4550,7 +4550,7 @@
         <v>29</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C35" s="4" t="s">
         <v>51</v>
@@ -4561,7 +4561,7 @@
         <v>85</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C36" s="4" t="s">
         <v>86</v>
@@ -4572,7 +4572,7 @@
         <v>103</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C37" s="4" t="s">
         <v>102</v>

--- a/data Ukraine.xlsx
+++ b/data Ukraine.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\_GitHub\DataSources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D516E92-6D8D-4709-A352-956D8A10556E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21CA0BC8-6A30-4705-B481-AC6FF58E72A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="898" activeTab="3" xr2:uid="{21FA5A86-4C69-4AEC-AC84-BE14EF54DEBB}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="898" activeTab="4" xr2:uid="{21FA5A86-4C69-4AEC-AC84-BE14EF54DEBB}"/>
   </bookViews>
   <sheets>
     <sheet name="personal data" sheetId="12" r:id="rId1"/>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="603" uniqueCount="394">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="616" uniqueCount="398">
   <si>
     <t>Ukraine is the second-largest European country (kraine covers an area of 603,550 sq km)</t>
   </si>
@@ -158,9 +158,6 @@
   </si>
   <si>
     <t>His grandparents were Jewish immigrants from Ukraine</t>
-  </si>
-  <si>
-    <t>Дідусь по материнській лінії — Самуель Луїс Темелес емігрував до США в 1910 році з Золочева, тоді Австро-Угорщини, нині Львівської області України.</t>
   </si>
   <si>
     <t>Jeff Goldblum</t>
@@ -1273,6 +1270,21 @@
   </si>
   <si>
     <t>Maternity</t>
+  </si>
+  <si>
+    <t>His maternal grandfather, Samuel Louis Temeles, emigrated to the United States in 1910 from Zolochiv, then Austria-Hungary, now Lviv Oblast, Ukraine.</t>
+  </si>
+  <si>
+    <t>IB, Germany</t>
+  </si>
+  <si>
+    <t>Short</t>
+  </si>
+  <si>
+    <t>KNUTE</t>
+  </si>
+  <si>
+    <t>DAN.IT, Ukraine</t>
   </si>
 </sst>
 </file>
@@ -1755,50 +1767,50 @@
   <sheetData>
     <row r="1" spans="1:2" ht="43.2">
       <c r="A1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B2" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
+        <v>247</v>
+      </c>
+      <c r="B5" t="s">
         <v>248</v>
-      </c>
-      <c r="B5" t="s">
-        <v>249</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
+        <v>255</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>256</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>257</v>
       </c>
     </row>
   </sheetData>
@@ -1862,12 +1874,12 @@
     </row>
     <row r="5" spans="1:4" ht="28.8">
       <c r="B5" s="5" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="28.8">
       <c r="B7" s="4" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
   </sheetData>
@@ -1895,24 +1907,24 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="13" t="s">
+        <v>242</v>
+      </c>
+      <c r="B1" s="13" t="s">
         <v>243</v>
       </c>
-      <c r="B1" s="13" t="s">
-        <v>244</v>
-      </c>
       <c r="C1" s="13" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D1" s="13" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C2">
         <v>14</v>
@@ -1923,10 +1935,10 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B3" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C3">
         <v>12</v>
@@ -1937,10 +1949,10 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B4" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C4">
         <v>9</v>
@@ -1951,10 +1963,10 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B5" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C5">
         <v>6</v>
@@ -1965,10 +1977,10 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B6" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C6">
         <v>2</v>
@@ -2008,61 +2020,61 @@
   <sheetData>
     <row r="1" spans="1:19" s="16" customFormat="1" ht="46.8" customHeight="1">
       <c r="A1" s="16" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B1" s="16" t="s">
+        <v>170</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1" s="15" t="s">
+        <v>167</v>
+      </c>
+      <c r="E1" s="15" t="s">
+        <v>260</v>
+      </c>
+      <c r="F1" s="15" t="s">
         <v>171</v>
       </c>
-      <c r="C1" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="D1" s="15" t="s">
-        <v>168</v>
-      </c>
-      <c r="E1" s="15" t="s">
-        <v>261</v>
-      </c>
-      <c r="F1" s="15" t="s">
-        <v>172</v>
-      </c>
       <c r="G1" s="15" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="H1" s="15" t="s">
+        <v>269</v>
+      </c>
+      <c r="I1" s="15" t="s">
+        <v>185</v>
+      </c>
+      <c r="J1" s="15" t="s">
         <v>270</v>
       </c>
-      <c r="I1" s="15" t="s">
-        <v>186</v>
-      </c>
-      <c r="J1" s="15" t="s">
-        <v>271</v>
-      </c>
       <c r="K1" s="4" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="L1" s="15" t="s">
+        <v>231</v>
+      </c>
+      <c r="M1" s="15" t="s">
         <v>232</v>
       </c>
-      <c r="M1" s="15" t="s">
+      <c r="N1" s="15" t="s">
         <v>233</v>
       </c>
-      <c r="N1" s="15" t="s">
-        <v>234</v>
-      </c>
       <c r="O1" s="15" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="P1" s="15" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="Q1" s="15" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="R1" s="15" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="S1" s="15" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="2" spans="1:19">
@@ -2070,10 +2082,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -2108,10 +2120,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C3" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -2146,10 +2158,10 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C4" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F4">
         <v>1</v>
@@ -2166,10 +2178,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C5" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -2201,10 +2213,10 @@
         <v>1</v>
       </c>
       <c r="B6" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C6" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D6">
         <v>1</v>
@@ -2215,10 +2227,10 @@
         <v>1</v>
       </c>
       <c r="B7" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C7" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D7">
         <v>1</v>
@@ -2229,10 +2241,10 @@
         <v>3</v>
       </c>
       <c r="B8" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C8" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D8">
         <v>1</v>
@@ -2258,10 +2270,10 @@
         <v>1</v>
       </c>
       <c r="B9" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C9" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F9">
         <v>1</v>
@@ -2272,10 +2284,10 @@
         <v>1</v>
       </c>
       <c r="B10" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C10" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D10">
         <v>1</v>
@@ -2286,10 +2298,10 @@
         <v>4</v>
       </c>
       <c r="B11" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C11" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D11">
         <v>1</v>
@@ -2300,10 +2312,10 @@
         <v>1</v>
       </c>
       <c r="B12" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C12" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D12">
         <v>1</v>
@@ -2317,10 +2329,10 @@
         <v>3</v>
       </c>
       <c r="B13" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C13" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D13">
         <v>1</v>
@@ -2334,10 +2346,10 @@
         <v>1</v>
       </c>
       <c r="B14" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C14" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F14">
         <v>1</v>
@@ -2348,10 +2360,10 @@
         <v>1</v>
       </c>
       <c r="B15" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C15" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F15">
         <v>1</v>
@@ -2383,10 +2395,10 @@
         <v>6</v>
       </c>
       <c r="B16" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C16" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="H16">
         <v>1</v>
@@ -2412,10 +2424,10 @@
         <v>6</v>
       </c>
       <c r="B17" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C17" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="J17">
         <v>1</v>
@@ -2438,10 +2450,10 @@
         <v>6</v>
       </c>
       <c r="B18" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C18" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D18">
         <v>1</v>
@@ -2455,10 +2467,10 @@
         <v>1</v>
       </c>
       <c r="B19" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C19" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D19">
         <v>1</v>
@@ -2487,10 +2499,10 @@
         <v>1</v>
       </c>
       <c r="B20" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C20" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D20">
         <v>1</v>
@@ -2513,10 +2525,10 @@
         <v>1</v>
       </c>
       <c r="B21" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C21" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D21">
         <v>1</v>
@@ -2527,10 +2539,10 @@
         <v>1</v>
       </c>
       <c r="B22" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C22" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="P22">
         <v>1</v>
@@ -2541,10 +2553,10 @@
         <v>1</v>
       </c>
       <c r="B23" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C23" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="P23">
         <v>1</v>
@@ -2555,10 +2567,10 @@
         <v>6</v>
       </c>
       <c r="B24" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C24" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="M24">
         <v>1</v>
@@ -2569,10 +2581,10 @@
         <v>1</v>
       </c>
       <c r="B25" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C25" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="M25">
         <v>1</v>
@@ -2583,10 +2595,10 @@
         <v>4</v>
       </c>
       <c r="B26" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C26" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D26">
         <v>1</v>
@@ -2600,10 +2612,10 @@
         <v>4</v>
       </c>
       <c r="B27" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C27" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D27">
         <v>1</v>
@@ -2617,10 +2629,10 @@
         <v>3</v>
       </c>
       <c r="B28" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C28" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="P28">
         <v>1</v>
@@ -2631,10 +2643,10 @@
         <v>5</v>
       </c>
       <c r="B29" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C29" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="L29">
         <v>1</v>
@@ -2651,10 +2663,10 @@
         <v>5</v>
       </c>
       <c r="B30" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C30" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="L30">
         <v>1</v>
@@ -2668,10 +2680,10 @@
         <v>2</v>
       </c>
       <c r="B31" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C31" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D31">
         <v>1</v>
@@ -2718,10 +2730,10 @@
         <v>4</v>
       </c>
       <c r="B32" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C32" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D32">
         <v>1</v>
@@ -2732,10 +2744,10 @@
         <v>2</v>
       </c>
       <c r="B33" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C33" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="F33">
         <v>1</v>
@@ -2767,10 +2779,10 @@
         <v>2</v>
       </c>
       <c r="B34" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C34" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D34">
         <v>1</v>
@@ -2802,10 +2814,10 @@
         <v>2</v>
       </c>
       <c r="B35" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C35" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D35">
         <v>1</v>
@@ -2834,10 +2846,10 @@
         <v>2</v>
       </c>
       <c r="B36" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C36" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="F36">
         <v>1</v>
@@ -2860,10 +2872,10 @@
         <v>2</v>
       </c>
       <c r="B37" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C37" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="G37">
         <v>1</v>
@@ -2886,10 +2898,10 @@
         <v>5</v>
       </c>
       <c r="B38" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C38" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="G38">
         <v>1</v>
@@ -2912,10 +2924,10 @@
         <v>5</v>
       </c>
       <c r="B39" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C39" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="G39">
         <v>1</v>
@@ -2941,10 +2953,10 @@
         <v>3</v>
       </c>
       <c r="B40" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C40" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="E40">
         <v>1</v>
@@ -2970,10 +2982,10 @@
         <v>5</v>
       </c>
       <c r="B41" t="s">
+        <v>384</v>
+      </c>
+      <c r="C41" t="s">
         <v>385</v>
-      </c>
-      <c r="C41" t="s">
-        <v>386</v>
       </c>
       <c r="D41">
         <v>1</v>
@@ -3016,7 +3028,7 @@
   </sheetPr>
   <dimension ref="A1:K26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="F11" sqref="F11"/>
     </sheetView>
@@ -3038,37 +3050,37 @@
   <sheetData>
     <row r="1" spans="1:11">
       <c r="A1" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="B1" s="6" t="s">
         <v>166</v>
       </c>
-      <c r="B1" s="6" t="s">
-        <v>167</v>
-      </c>
       <c r="C1" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="D1" s="6" t="s">
         <v>163</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="E1" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>304</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>297</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>242</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="K1" s="6" t="s">
         <v>164</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>177</v>
-      </c>
-      <c r="F1" s="6" t="s">
-        <v>305</v>
-      </c>
-      <c r="G1" s="6" t="s">
-        <v>298</v>
-      </c>
-      <c r="H1" s="6" t="s">
-        <v>171</v>
-      </c>
-      <c r="I1" s="6" t="s">
-        <v>243</v>
-      </c>
-      <c r="J1" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="K1" s="6" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="86.4">
@@ -3079,25 +3091,25 @@
         <v>45992</v>
       </c>
       <c r="C2" s="4" t="s">
+        <v>357</v>
+      </c>
+      <c r="D2" s="4" t="s">
         <v>358</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="E2" s="4" t="s">
         <v>359</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="F2" s="4" t="s">
+        <v>305</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>298</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="J2" s="4" t="s">
         <v>360</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>306</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>299</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>302</v>
-      </c>
-      <c r="J2" s="4" t="s">
-        <v>361</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="43.2">
@@ -3108,28 +3120,28 @@
         <v>45323</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D3" s="4" t="s">
+        <v>370</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>303</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>298</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="J3" s="4" t="s">
         <v>371</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>304</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>217</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>299</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>302</v>
-      </c>
-      <c r="I3" s="4" t="s">
-        <v>222</v>
-      </c>
-      <c r="J3" s="4" t="s">
-        <v>372</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="43.2">
@@ -3140,28 +3152,28 @@
         <v>44621</v>
       </c>
       <c r="C4" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="D4" s="4" t="s">
         <v>168</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="E4" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>305</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>298</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="J4" s="4" t="s">
         <v>169</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>178</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>306</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>299</v>
-      </c>
-      <c r="H4" s="4" t="s">
-        <v>302</v>
-      </c>
-      <c r="I4" s="4" t="s">
-        <v>223</v>
-      </c>
-      <c r="J4" s="4" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="43.2">
@@ -3172,28 +3184,28 @@
         <v>44621</v>
       </c>
       <c r="C5" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="E5" s="4" t="s">
         <v>261</v>
       </c>
-      <c r="D5" s="4" t="s">
-        <v>260</v>
-      </c>
-      <c r="E5" s="4" t="s">
+      <c r="F5" s="4" t="s">
+        <v>305</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>298</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="J5" s="4" t="s">
         <v>262</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>306</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>299</v>
-      </c>
-      <c r="H5" s="4" t="s">
-        <v>303</v>
-      </c>
-      <c r="I5" s="4" t="s">
-        <v>223</v>
-      </c>
-      <c r="J5" s="4" t="s">
-        <v>263</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="57.6">
@@ -3204,28 +3216,28 @@
         <v>44621</v>
       </c>
       <c r="C6" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>305</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>299</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="J6" s="4" t="s">
         <v>172</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>174</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>306</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>300</v>
-      </c>
-      <c r="H6" s="4" t="s">
-        <v>303</v>
-      </c>
-      <c r="I6" s="4" t="s">
-        <v>224</v>
-      </c>
-      <c r="J6" s="4" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="43.2">
@@ -3236,28 +3248,28 @@
         <v>44531</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E7" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>305</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>299</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="J7" s="4" t="s">
         <v>180</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>306</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>300</v>
-      </c>
-      <c r="H7" s="4" t="s">
-        <v>303</v>
-      </c>
-      <c r="I7" s="4" t="s">
-        <v>224</v>
-      </c>
-      <c r="J7" s="4" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="43.2">
@@ -3268,28 +3280,28 @@
         <v>44317</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D8" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="E8" s="4" t="s">
         <v>182</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="F8" s="4" t="s">
+        <v>305</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>298</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="J8" s="4" t="s">
         <v>183</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>306</v>
-      </c>
-      <c r="G8" s="4" t="s">
-        <v>299</v>
-      </c>
-      <c r="H8" s="4" t="s">
-        <v>303</v>
-      </c>
-      <c r="I8" s="4" t="s">
-        <v>224</v>
-      </c>
-      <c r="J8" s="4" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="72">
@@ -3300,28 +3312,28 @@
         <v>44317</v>
       </c>
       <c r="C9" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>305</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>298</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="I9" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="J9" s="4" t="s">
         <v>186</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>258</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>306</v>
-      </c>
-      <c r="G9" s="4" t="s">
-        <v>299</v>
-      </c>
-      <c r="H9" s="4" t="s">
-        <v>303</v>
-      </c>
-      <c r="I9" s="4" t="s">
-        <v>224</v>
-      </c>
-      <c r="J9" s="4" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="28.8">
@@ -3332,25 +3344,25 @@
         <v>43556</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="G10" s="4" t="s">
+        <v>300</v>
+      </c>
+      <c r="H10" s="4" t="s">
         <v>301</v>
       </c>
-      <c r="H10" s="4" t="s">
-        <v>302</v>
-      </c>
       <c r="I10" s="4" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="J10" s="4" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="43.2">
@@ -3361,28 +3373,28 @@
         <v>42856</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D11" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="E11" s="4" t="s">
         <v>188</v>
       </c>
-      <c r="E11" s="4" t="s">
+      <c r="F11" s="4" t="s">
+        <v>305</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>300</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="I11" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="J11" s="4" t="s">
         <v>189</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>306</v>
-      </c>
-      <c r="G11" s="4" t="s">
-        <v>301</v>
-      </c>
-      <c r="H11" s="4" t="s">
-        <v>302</v>
-      </c>
-      <c r="I11" s="4" t="s">
-        <v>226</v>
-      </c>
-      <c r="J11" s="4" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="43.2">
@@ -3393,28 +3405,28 @@
         <v>41183</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="G12" s="4" t="s">
+        <v>300</v>
+      </c>
+      <c r="H12" s="4" t="s">
         <v>301</v>
       </c>
-      <c r="H12" s="4" t="s">
-        <v>302</v>
-      </c>
       <c r="I12" s="4" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="J12" s="4" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -3425,25 +3437,25 @@
         <v>40664</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="G13" s="4" t="s">
+        <v>300</v>
+      </c>
+      <c r="H13" s="4" t="s">
         <v>301</v>
       </c>
-      <c r="H13" s="4" t="s">
-        <v>302</v>
-      </c>
       <c r="I13" s="4" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="J13" s="4" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="72">
@@ -3454,28 +3466,28 @@
         <v>39873</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="G14" s="4" t="s">
+        <v>300</v>
+      </c>
+      <c r="H14" s="4" t="s">
         <v>301</v>
       </c>
-      <c r="H14" s="4" t="s">
-        <v>302</v>
-      </c>
       <c r="I14" s="4" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="J14" s="4" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="72">
@@ -3486,28 +3498,28 @@
         <v>39873</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="G15" s="4" t="s">
+        <v>300</v>
+      </c>
+      <c r="H15" s="4" t="s">
         <v>301</v>
       </c>
-      <c r="H15" s="4" t="s">
-        <v>302</v>
-      </c>
       <c r="I15" s="4" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="J15" s="4" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="86.4">
@@ -3518,28 +3530,28 @@
         <v>38504</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="G16" s="4" t="s">
+        <v>300</v>
+      </c>
+      <c r="H16" s="4" t="s">
         <v>301</v>
       </c>
-      <c r="H16" s="4" t="s">
-        <v>302</v>
-      </c>
       <c r="I16" s="4" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="J16" s="4" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="115.2">
@@ -3550,28 +3562,28 @@
         <v>37408</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="G17" s="4" t="s">
+        <v>300</v>
+      </c>
+      <c r="H17" s="4" t="s">
         <v>301</v>
       </c>
-      <c r="H17" s="4" t="s">
-        <v>302</v>
-      </c>
       <c r="I17" s="4" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="J17" s="4" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="28.8">
@@ -3582,28 +3594,28 @@
         <v>45392</v>
       </c>
       <c r="C18" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>370</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>309</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>298</v>
+      </c>
+      <c r="H18" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="I18" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="J18" s="4" t="s">
         <v>234</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>371</v>
-      </c>
-      <c r="E18" s="4" t="s">
-        <v>310</v>
-      </c>
-      <c r="F18" s="4" t="s">
-        <v>217</v>
-      </c>
-      <c r="G18" s="4" t="s">
-        <v>299</v>
-      </c>
-      <c r="H18" s="4" t="s">
-        <v>303</v>
-      </c>
-      <c r="I18" s="4" t="s">
-        <v>223</v>
-      </c>
-      <c r="J18" s="4" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="43.2">
@@ -3614,28 +3626,28 @@
         <v>44681</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="H19" s="4" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="I19" s="4" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="J19" s="4" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="43.2">
@@ -3646,28 +3658,28 @@
         <v>44859</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="H20" s="4" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="I20" s="4" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="J20" s="4" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="43.2">
@@ -3678,28 +3690,28 @@
         <v>44865</v>
       </c>
       <c r="C21" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>370</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>310</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="G21" s="4" t="s">
+        <v>298</v>
+      </c>
+      <c r="H21" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="I21" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="J21" s="4" t="s">
         <v>240</v>
-      </c>
-      <c r="D21" s="4" t="s">
-        <v>371</v>
-      </c>
-      <c r="E21" s="4" t="s">
-        <v>311</v>
-      </c>
-      <c r="F21" s="4" t="s">
-        <v>217</v>
-      </c>
-      <c r="G21" s="4" t="s">
-        <v>299</v>
-      </c>
-      <c r="H21" s="4" t="s">
-        <v>303</v>
-      </c>
-      <c r="I21" s="4" t="s">
-        <v>223</v>
-      </c>
-      <c r="J21" s="4" t="s">
-        <v>241</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="28.8">
@@ -3710,28 +3722,28 @@
         <v>43555</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="H22" s="4" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="I22" s="4" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="J22" s="4" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="23" spans="1:10" ht="43.2">
@@ -3742,28 +3754,28 @@
         <v>42029</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="H23" s="4" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="I23" s="4" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="J23" s="4" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="24" spans="1:10" ht="57.6">
@@ -3774,28 +3786,28 @@
         <v>44593</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D24" s="4" t="s">
+        <v>375</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>285</v>
+      </c>
+      <c r="F24" s="4" t="s">
+        <v>305</v>
+      </c>
+      <c r="G24" s="4" t="s">
+        <v>298</v>
+      </c>
+      <c r="H24" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="I24" s="17" t="s">
+        <v>223</v>
+      </c>
+      <c r="J24" s="4" t="s">
         <v>376</v>
-      </c>
-      <c r="E24" s="4" t="s">
-        <v>286</v>
-      </c>
-      <c r="F24" s="4" t="s">
-        <v>306</v>
-      </c>
-      <c r="G24" s="4" t="s">
-        <v>299</v>
-      </c>
-      <c r="H24" s="4" t="s">
-        <v>303</v>
-      </c>
-      <c r="I24" s="17" t="s">
-        <v>224</v>
-      </c>
-      <c r="J24" s="4" t="s">
-        <v>377</v>
       </c>
     </row>
     <row r="25" spans="1:10" ht="72">
@@ -3806,28 +3818,28 @@
         <v>43983</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="F25" s="17" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G25" s="4" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="H25" s="4" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="I25" s="17" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="J25" s="4" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="26" spans="1:10" ht="86.4">
@@ -3838,28 +3850,28 @@
         <v>44593</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="F26" s="17" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G26" s="4" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="H26" s="4" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="I26" s="17" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="J26" s="4" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
   </sheetData>
@@ -3873,10 +3885,10 @@
   <sheetPr>
     <tabColor rgb="FF0070C0"/>
   </sheetPr>
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C2:C13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -3884,26 +3896,30 @@
     <col min="1" max="1" width="8.88671875" style="18"/>
     <col min="2" max="2" width="10.109375" style="18" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="31.6640625" style="17" customWidth="1"/>
-    <col min="4" max="4" width="25.5546875" style="17" customWidth="1"/>
-    <col min="5" max="5" width="67.6640625" style="17" customWidth="1"/>
-    <col min="6" max="6" width="8.88671875" style="17"/>
+    <col min="4" max="4" width="19.44140625" style="17" customWidth="1"/>
+    <col min="5" max="5" width="25.5546875" style="17" customWidth="1"/>
+    <col min="6" max="6" width="67.6640625" style="17" customWidth="1"/>
+    <col min="7" max="7" width="8.88671875" style="17"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="B1" s="18" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D1" s="6" t="s">
+        <v>395</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>295</v>
+      </c>
+      <c r="F1" s="6" t="s">
         <v>296</v>
       </c>
-      <c r="E1" s="6" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="28.8">
+    </row>
+    <row r="2" spans="1:6" ht="28.8">
       <c r="A2" s="18">
         <v>1</v>
       </c>
@@ -3911,13 +3927,16 @@
         <v>38473</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="28.8">
+        <v>396</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="28.8">
       <c r="A3" s="18">
         <v>2</v>
       </c>
@@ -3925,13 +3944,16 @@
         <v>38534</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+        <v>396</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="18">
         <v>3</v>
       </c>
@@ -3939,13 +3961,16 @@
         <v>42029</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>241</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="18">
         <v>4</v>
       </c>
@@ -3953,13 +3978,16 @@
         <v>43555</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="43.2">
+        <v>361</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="43.2">
       <c r="A6" s="18">
         <v>5</v>
       </c>
@@ -3967,16 +3995,19 @@
         <v>44593</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>290</v>
+        <v>260</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="28.8">
+        <v>289</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="28.8">
       <c r="A7" s="18">
         <v>6</v>
       </c>
@@ -3984,13 +4015,16 @@
         <v>44681</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>237</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="18">
         <v>7</v>
       </c>
@@ -3998,13 +4032,16 @@
         <v>44835</v>
       </c>
       <c r="C8" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="E8" s="4" t="s">
         <v>240</v>
       </c>
-      <c r="D8" s="4" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="28.8">
+    </row>
+    <row r="9" spans="1:6" ht="28.8">
       <c r="A9" s="18">
         <v>8</v>
       </c>
@@ -4012,13 +4049,16 @@
         <v>44866</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D9" s="4" t="s">
         <v>239</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" ht="43.2">
+      <c r="E9" s="4" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="43.2">
       <c r="A10" s="18">
         <v>9</v>
       </c>
@@ -4026,16 +4066,19 @@
         <v>44986</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>168</v>
-      </c>
-      <c r="D10" s="17" t="s">
+        <v>167</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="E10" s="17" t="s">
+        <v>292</v>
+      </c>
+      <c r="F10" s="4" t="s">
         <v>293</v>
       </c>
-      <c r="E10" s="4" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="43.2">
+    </row>
+    <row r="11" spans="1:6" ht="43.2">
       <c r="A11" s="18">
         <v>10</v>
       </c>
@@ -4043,16 +4086,19 @@
         <v>45261</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D11" s="4" t="s">
+        <v>397</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>290</v>
+      </c>
+      <c r="F11" s="4" t="s">
         <v>291</v>
       </c>
-      <c r="E11" s="4" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" s="18">
         <v>11</v>
       </c>
@@ -4060,13 +4106,16 @@
         <v>45323</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="28.8">
+        <v>394</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="28.8">
       <c r="A13" s="18">
         <v>12</v>
       </c>
@@ -4074,14 +4123,17 @@
         <v>45392</v>
       </c>
       <c r="C13" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="E13" s="4" t="s">
         <v>234</v>
       </c>
-      <c r="D13" s="4" t="s">
-        <v>235</v>
-      </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E13">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F13">
     <sortCondition ref="A2:A13"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4107,42 +4159,42 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="13" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B1" s="13" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
+        <v>192</v>
+      </c>
+      <c r="B3" t="s">
         <v>193</v>
-      </c>
-      <c r="B3" t="s">
-        <v>194</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B4" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B5" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
   </sheetData>
@@ -4157,8 +4209,8 @@
   </sheetPr>
   <dimension ref="A1:I39"/>
   <sheetViews>
-    <sheetView topLeftCell="A33" workbookViewId="0">
-      <selection activeCell="B38" sqref="B38"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -4173,18 +4225,18 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="C1" s="6" t="s">
         <v>40</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="43.2">
       <c r="A2" s="4" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>34</v>
@@ -4195,13 +4247,13 @@
     </row>
     <row r="3" spans="1:3" ht="28.8">
       <c r="A3" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="B3" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="C3" s="4" t="s">
         <v>81</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="43.2">
@@ -4209,7 +4261,7 @@
         <v>24</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>25</v>
@@ -4217,79 +4269,79 @@
     </row>
     <row r="5" spans="1:3" ht="28.8">
       <c r="A5" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="B5" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="C5" s="4" t="s">
         <v>66</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="43.2">
       <c r="A6" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="B6" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="C6" s="4" t="s">
         <v>61</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="28.8">
       <c r="A7" s="4" t="s">
+        <v>322</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>332</v>
+      </c>
+      <c r="C7" s="4" t="s">
         <v>323</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>333</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>324</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="43.2">
       <c r="A8" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B8" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="B8" s="4" t="s">
-        <v>59</v>
-      </c>
       <c r="C8" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="43.2">
       <c r="A9" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="B9" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="B9" s="4" t="s">
-        <v>70</v>
-      </c>
       <c r="C9" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="28.8">
       <c r="A10" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B10" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C10" s="4" t="s">
         <v>43</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="28.8">
       <c r="A11" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="C11" s="4" t="s">
         <v>98</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="43.2">
@@ -4297,142 +4349,142 @@
         <v>26</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="43.2">
       <c r="A13" s="4" t="s">
+        <v>326</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>331</v>
+      </c>
+      <c r="C13" s="4" t="s">
         <v>327</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>332</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>328</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="28.8">
       <c r="A14" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>334</v>
+      </c>
+      <c r="C14" s="4" t="s">
         <v>78</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>335</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="43.2">
       <c r="A15" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>36</v>
+        <v>393</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="43.2">
       <c r="A16" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="B16" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="C16" s="4" t="s">
         <v>105</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="28.8">
       <c r="A17" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>344</v>
+      </c>
+      <c r="C17" s="4" t="s">
         <v>52</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>345</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="43.2">
       <c r="A18" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="B18" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="B18" s="4" t="s">
-        <v>64</v>
-      </c>
       <c r="C18" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="43.2">
       <c r="A19" s="4" t="s">
+        <v>324</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>345</v>
+      </c>
+      <c r="C19" s="4" t="s">
         <v>325</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>346</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>326</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="28.8">
       <c r="A20" s="4" t="s">
+        <v>329</v>
+      </c>
+      <c r="B20" s="4" t="s">
         <v>330</v>
       </c>
-      <c r="B20" s="4" t="s">
-        <v>331</v>
-      </c>
       <c r="C20" s="4" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>335</v>
+      </c>
+      <c r="C21" s="4" t="s">
         <v>71</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>336</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="43.2">
       <c r="A22" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>346</v>
+      </c>
+      <c r="C22" s="4" t="s">
         <v>87</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>347</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="28.8">
       <c r="A23" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>347</v>
+      </c>
+      <c r="C23" s="4" t="s">
         <v>89</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>348</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="57.6">
       <c r="A24" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B24" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="B24" s="4" t="s">
-        <v>57</v>
-      </c>
       <c r="C24" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="72">
@@ -4451,76 +4503,76 @@
         <v>30</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="43.2">
       <c r="A27" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="28.8">
       <c r="A28" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>336</v>
+      </c>
+      <c r="C28" s="4" t="s">
         <v>93</v>
-      </c>
-      <c r="B28" s="4" t="s">
-        <v>337</v>
-      </c>
-      <c r="C28" s="4" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="28.8">
       <c r="A29" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="B29" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="B29" s="4" t="s">
+      <c r="C29" s="4" t="s">
         <v>74</v>
-      </c>
-      <c r="C29" s="4" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="43.2">
       <c r="A30" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>351</v>
+      </c>
+      <c r="C30" s="4" t="s">
         <v>83</v>
-      </c>
-      <c r="B30" s="4" t="s">
-        <v>352</v>
-      </c>
-      <c r="C30" s="4" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="28.8">
       <c r="A31" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>337</v>
+      </c>
+      <c r="C31" s="4" t="s">
         <v>49</v>
-      </c>
-      <c r="B31" s="4" t="s">
-        <v>338</v>
-      </c>
-      <c r="C31" s="4" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="43.2">
       <c r="A32" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B32" s="4" t="s">
+        <v>338</v>
+      </c>
+      <c r="C32" s="4" t="s">
         <v>339</v>
-      </c>
-      <c r="C32" s="4" t="s">
-        <v>340</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="72">
@@ -4528,7 +4580,7 @@
         <v>28</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C33" s="4" t="s">
         <v>27</v>
@@ -4536,13 +4588,13 @@
     </row>
     <row r="34" spans="1:3" ht="43.2">
       <c r="A34" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>353</v>
+      </c>
+      <c r="C34" s="4" t="s">
         <v>76</v>
-      </c>
-      <c r="B34" s="4" t="s">
-        <v>354</v>
-      </c>
-      <c r="C34" s="4" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="57.6">
@@ -4550,54 +4602,54 @@
         <v>29</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="57.6">
       <c r="A36" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>355</v>
+      </c>
+      <c r="C36" s="4" t="s">
         <v>85</v>
-      </c>
-      <c r="B36" s="4" t="s">
-        <v>356</v>
-      </c>
-      <c r="C36" s="4" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="86.4">
       <c r="A37" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="57.6">
       <c r="A38" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="28.8">
       <c r="A39" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
   </sheetData>
@@ -4625,23 +4677,23 @@
   <sheetData>
     <row r="1" spans="1:18" ht="25.8">
       <c r="B1" s="10" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="2" spans="1:18" ht="24.6">
       <c r="B2" s="9" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="R2" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="3" spans="1:18">
       <c r="R3" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="4" spans="1:18">
@@ -4649,328 +4701,328 @@
     </row>
     <row r="5" spans="1:18">
       <c r="B5" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="R5" s="1"/>
     </row>
     <row r="6" spans="1:18">
       <c r="B6" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="R6" s="1"/>
     </row>
     <row r="7" spans="1:18">
       <c r="B7" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="R7" s="1"/>
     </row>
     <row r="8" spans="1:18">
       <c r="B8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="9" spans="1:18">
       <c r="B9" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="10" spans="1:18">
       <c r="B10" s="7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="11" spans="1:18">
       <c r="B11" s="7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="12" spans="1:18">
       <c r="B12" s="7" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="13" spans="1:18">
       <c r="B13" s="7" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="14" spans="1:18">
       <c r="B14" s="7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="15" spans="1:18">
       <c r="B15" s="7" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="16" spans="1:18">
       <c r="A16" s="8" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="8" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="B18" s="8" t="s">
         <v>118</v>
-      </c>
-      <c r="B18" s="8" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="8" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="8" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="8" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="8" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="B23" s="8" t="s">
         <v>124</v>
-      </c>
-      <c r="B23" s="8" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="8" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="8" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="8" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="8" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="8" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="B29" s="8" t="s">
         <v>131</v>
-      </c>
-      <c r="B29" s="8" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="33" spans="1:12">
       <c r="A33" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="B33" s="8" t="s">
         <v>136</v>
-      </c>
-      <c r="B33" s="8" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="34" spans="1:12">
       <c r="A34" s="8" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B34" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="35" spans="1:12">
       <c r="A35" s="8" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="36" spans="1:12">
       <c r="A36" s="8" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B36" s="8" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="37" spans="1:12">
       <c r="A37" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="B37" s="8" t="s">
         <v>146</v>
       </c>
-      <c r="B37" s="8" t="s">
-        <v>147</v>
-      </c>
       <c r="G37" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="J37" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="J37" s="1" t="s">
-        <v>160</v>
-      </c>
       <c r="L37" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="38" spans="1:12">
       <c r="A38" s="8" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B38" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="C38" s="1" t="s">
         <v>148</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="39" spans="1:12">
       <c r="A39" s="8" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B39" s="8" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="40" spans="1:12">
       <c r="A40" s="8" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B40" s="8" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="41" spans="1:12">
       <c r="A41" s="8" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B41" s="8" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="42" spans="1:12">
       <c r="A42" s="8" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B42" s="8" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="43" spans="1:12">
       <c r="A43" s="8" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B43" s="8" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="44" spans="1:12">
       <c r="A44" s="8" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B44" s="8" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="45" spans="1:12">
       <c r="A45" s="8" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B45" s="8" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="46" spans="1:12">
       <c r="A46" s="8" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B46" s="8" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="47" spans="1:12">
       <c r="A47" s="8" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B47" s="8" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
   </sheetData>
@@ -5066,10 +5118,10 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="B9" t="s">
         <v>253</v>
-      </c>
-      <c r="B9" t="s">
-        <v>254</v>
       </c>
     </row>
   </sheetData>

--- a/data Ukraine.xlsx
+++ b/data Ukraine.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\_GitHub\DataSources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21CA0BC8-6A30-4705-B481-AC6FF58E72A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5F30E80-E6E6-457D-BB23-896E54DCC453}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="898" activeTab="4" xr2:uid="{21FA5A86-4C69-4AEC-AC84-BE14EF54DEBB}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="898" activeTab="3" xr2:uid="{21FA5A86-4C69-4AEC-AC84-BE14EF54DEBB}"/>
   </bookViews>
   <sheets>
     <sheet name="personal data" sheetId="12" r:id="rId1"/>
@@ -1206,17 +1206,6 @@
     <t>Power BI. Power BI. Visualization and Dashboards, cloud business analytics</t>
   </si>
   <si>
-    <t>Economic Cybernetics (1-4 courses), Faculty of Engineering and Management. 
-I had an incredibly interesting study of economic cybernetics with great teachers. But I decided to change my specialty because I didn't really understand what I would be able to do after graduation. 
-Now I realize that it was Data science :) 
-As life has shown, I could not stay without data and its analysis for a long time, so I “returned” to my vocation.</t>
-  </si>
-  <si>
-    <t>Master's degree in "Management of Organizations, Business Manager". 
-Diploma on Formation of optimal organizational behavior of an enterprise. Internship at Metro Cash &amp; Carry (8 weeks).
-Bachelor's degree in Philology (English-Ukrainian). At the same time I was getting a second high degree in linguistics - so that I wouldn't forget English :) My second language was German.</t>
-  </si>
-  <si>
     <t>Author/Trainer of Online Course</t>
   </si>
   <si>
@@ -1285,6 +1274,14 @@
   </si>
   <si>
     <t>DAN.IT, Ukraine</t>
+  </si>
+  <si>
+    <t>Master's degree in "Management of Organizations, Business Manager". 
+Diploma on Formation of optimal organizational behavior of an enterprise. Internship at Metro Cash &amp; Carry (8 weeks). Bachelor's degree in Philology (English-Ukrainian). At the same time I was getting a second high degree in linguistics - so that I wouldn't forget English :) My second language was German.</t>
+  </si>
+  <si>
+    <t>Economic Cybernetics (1-4 courses), Faculty of Engineering and Management. 
+I had an incredibly interesting study of economic cybernetics with great teachers. But I decided to change my specialty because I didn't really understand what I would be able to do after graduation. Now I realize that it was Data science :)  As life has shown, I could not stay without data and its analysis for a long time, so I “returned” to my vocation.</t>
   </si>
 </sst>
 </file>
@@ -1757,7 +1754,7 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -2082,7 +2079,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="C2" t="s">
         <v>198</v>
@@ -2120,7 +2117,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="C3" t="s">
         <v>199</v>
@@ -2158,7 +2155,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="C4" t="s">
         <v>210</v>
@@ -2178,7 +2175,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="C5" t="s">
         <v>200</v>
@@ -2213,7 +2210,7 @@
         <v>1</v>
       </c>
       <c r="B6" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="C6" t="s">
         <v>201</v>
@@ -2227,7 +2224,7 @@
         <v>1</v>
       </c>
       <c r="B7" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="C7" t="s">
         <v>202</v>
@@ -2241,7 +2238,7 @@
         <v>3</v>
       </c>
       <c r="B8" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="C8" t="s">
         <v>203</v>
@@ -2270,7 +2267,7 @@
         <v>1</v>
       </c>
       <c r="B9" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="C9" t="s">
         <v>204</v>
@@ -2284,7 +2281,7 @@
         <v>1</v>
       </c>
       <c r="B10" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="C10" t="s">
         <v>265</v>
@@ -2298,7 +2295,7 @@
         <v>4</v>
       </c>
       <c r="B11" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="C11" t="s">
         <v>266</v>
@@ -2312,7 +2309,7 @@
         <v>1</v>
       </c>
       <c r="B12" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="C12" t="s">
         <v>205</v>
@@ -2329,7 +2326,7 @@
         <v>3</v>
       </c>
       <c r="B13" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="C13" t="s">
         <v>206</v>
@@ -2346,7 +2343,7 @@
         <v>1</v>
       </c>
       <c r="B14" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="C14" t="s">
         <v>207</v>
@@ -2360,7 +2357,7 @@
         <v>1</v>
       </c>
       <c r="B15" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="C15" t="s">
         <v>209</v>
@@ -2395,7 +2392,7 @@
         <v>6</v>
       </c>
       <c r="B16" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="C16" t="s">
         <v>258</v>
@@ -2424,7 +2421,7 @@
         <v>6</v>
       </c>
       <c r="B17" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="C17" t="s">
         <v>211</v>
@@ -2450,7 +2447,7 @@
         <v>6</v>
       </c>
       <c r="B18" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="C18" t="s">
         <v>197</v>
@@ -2467,7 +2464,7 @@
         <v>1</v>
       </c>
       <c r="B19" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="C19" t="s">
         <v>213</v>
@@ -2499,7 +2496,7 @@
         <v>1</v>
       </c>
       <c r="B20" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="C20" t="s">
         <v>214</v>
@@ -2525,7 +2522,7 @@
         <v>1</v>
       </c>
       <c r="B21" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="C21" t="s">
         <v>215</v>
@@ -2539,7 +2536,7 @@
         <v>1</v>
       </c>
       <c r="B22" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="C22" t="s">
         <v>208</v>
@@ -2553,7 +2550,7 @@
         <v>1</v>
       </c>
       <c r="B23" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="C23" t="s">
         <v>212</v>
@@ -2567,7 +2564,7 @@
         <v>6</v>
       </c>
       <c r="B24" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="C24" t="s">
         <v>267</v>
@@ -2581,7 +2578,7 @@
         <v>1</v>
       </c>
       <c r="B25" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="C25" t="s">
         <v>268</v>
@@ -2595,7 +2592,7 @@
         <v>4</v>
       </c>
       <c r="B26" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="C26" t="s">
         <v>271</v>
@@ -2612,7 +2609,7 @@
         <v>4</v>
       </c>
       <c r="B27" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="C27" t="s">
         <v>272</v>
@@ -2629,7 +2626,7 @@
         <v>3</v>
       </c>
       <c r="B28" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="C28" t="s">
         <v>273</v>
@@ -2643,7 +2640,7 @@
         <v>5</v>
       </c>
       <c r="B29" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="C29" t="s">
         <v>274</v>
@@ -2663,7 +2660,7 @@
         <v>5</v>
       </c>
       <c r="B30" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="C30" t="s">
         <v>275</v>
@@ -2680,7 +2677,7 @@
         <v>2</v>
       </c>
       <c r="B31" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="C31" t="s">
         <v>276</v>
@@ -2730,7 +2727,7 @@
         <v>4</v>
       </c>
       <c r="B32" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="C32" t="s">
         <v>277</v>
@@ -2744,7 +2741,7 @@
         <v>2</v>
       </c>
       <c r="B33" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="C33" t="s">
         <v>278</v>
@@ -2779,7 +2776,7 @@
         <v>2</v>
       </c>
       <c r="B34" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="C34" t="s">
         <v>279</v>
@@ -2814,7 +2811,7 @@
         <v>2</v>
       </c>
       <c r="B35" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="C35" t="s">
         <v>280</v>
@@ -2846,7 +2843,7 @@
         <v>2</v>
       </c>
       <c r="B36" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="C36" t="s">
         <v>281</v>
@@ -2872,7 +2869,7 @@
         <v>2</v>
       </c>
       <c r="B37" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="C37" t="s">
         <v>282</v>
@@ -2898,7 +2895,7 @@
         <v>5</v>
       </c>
       <c r="B38" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="C38" t="s">
         <v>283</v>
@@ -2924,7 +2921,7 @@
         <v>5</v>
       </c>
       <c r="B39" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="C39" t="s">
         <v>284</v>
@@ -2953,10 +2950,10 @@
         <v>3</v>
       </c>
       <c r="B40" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="C40" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="E40">
         <v>1</v>
@@ -2982,10 +2979,10 @@
         <v>5</v>
       </c>
       <c r="B41" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="C41" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="D41">
         <v>1</v>
@@ -3028,9 +3025,9 @@
   </sheetPr>
   <dimension ref="A1:K26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F11" sqref="F11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -3043,7 +3040,7 @@
     <col min="7" max="7" width="10" style="4" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="8.21875" style="4" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="8.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="59.88671875" style="4" customWidth="1"/>
+    <col min="10" max="10" width="69.77734375" style="4" customWidth="1"/>
     <col min="11" max="11" width="26.6640625" style="4" customWidth="1"/>
     <col min="12" max="16384" width="8.88671875" style="4"/>
   </cols>
@@ -3350,7 +3347,7 @@
         <v>367</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="G10" s="4" t="s">
         <v>300</v>
@@ -3443,7 +3440,7 @@
         <v>366</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="G13" s="4" t="s">
         <v>300</v>
@@ -3522,7 +3519,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="86.4">
+    <row r="16" spans="1:11" ht="72">
       <c r="A16" s="11">
         <v>37438</v>
       </c>
@@ -3551,10 +3548,10 @@
         <v>223</v>
       </c>
       <c r="J16" s="4" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" ht="115.2">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="86.4">
       <c r="A17" s="11">
         <v>36039</v>
       </c>
@@ -3583,7 +3580,7 @@
         <v>225</v>
       </c>
       <c r="J17" s="4" t="s">
-        <v>373</v>
+        <v>397</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="28.8">
@@ -3778,7 +3775,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="24" spans="1:10" ht="57.6">
+    <row r="24" spans="1:10" ht="43.2">
       <c r="A24" s="11">
         <v>44470</v>
       </c>
@@ -3789,7 +3786,7 @@
         <v>241</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="E24" s="4" t="s">
         <v>285</v>
@@ -3807,7 +3804,7 @@
         <v>223</v>
       </c>
       <c r="J24" s="4" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="25" spans="1:10" ht="72">
@@ -3842,7 +3839,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="26" spans="1:10" ht="86.4">
+    <row r="26" spans="1:10" ht="72">
       <c r="A26" s="11">
         <v>42156</v>
       </c>
@@ -3871,7 +3868,7 @@
         <v>223</v>
       </c>
       <c r="J26" s="4" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
     </row>
   </sheetData>
@@ -3887,7 +3884,7 @@
   </sheetPr>
   <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
@@ -3904,13 +3901,13 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" s="18" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="C1" s="6" t="s">
         <v>162</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="E1" s="6" t="s">
         <v>295</v>
@@ -3930,10 +3927,10 @@
         <v>231</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="28.8">
@@ -3947,10 +3944,10 @@
         <v>231</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -3984,7 +3981,7 @@
         <v>361</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="43.2">
@@ -4021,7 +4018,7 @@
         <v>237</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -4089,7 +4086,7 @@
         <v>171</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="E11" s="4" t="s">
         <v>290</v>
@@ -4109,10 +4106,10 @@
         <v>306</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="28.8">
@@ -4385,7 +4382,7 @@
         <v>343</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="43.2">
@@ -4666,7 +4663,7 @@
   <dimension ref="A1:R47"/>
   <sheetViews>
     <sheetView topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="A41" sqref="A41"/>
+      <selection activeCell="D51" sqref="D51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>

--- a/data Ukraine.xlsx
+++ b/data Ukraine.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\_GitHub\DataSources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5F30E80-E6E6-457D-BB23-896E54DCC453}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC3C75C1-90FF-4377-A68E-76729709445F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="898" activeTab="3" xr2:uid="{21FA5A86-4C69-4AEC-AC84-BE14EF54DEBB}"/>
   </bookViews>
@@ -1280,8 +1280,7 @@
 Diploma on Formation of optimal organizational behavior of an enterprise. Internship at Metro Cash &amp; Carry (8 weeks). Bachelor's degree in Philology (English-Ukrainian). At the same time I was getting a second high degree in linguistics - so that I wouldn't forget English :) My second language was German.</t>
   </si>
   <si>
-    <t>Economic Cybernetics (1-4 courses), Faculty of Engineering and Management. 
-I had an incredibly interesting study of economic cybernetics with great teachers. But I decided to change my specialty because I didn't really understand what I would be able to do after graduation. Now I realize that it was Data science :)  As life has shown, I could not stay without data and its analysis for a long time, so I “returned” to my vocation.</t>
+    <t>Economic Cybernetics (1-4 courses), Faculty of Engineering and Management. I had an incredibly interesting study of economic cybernetics with great teachers. But I decided to change my specialty because I didn't really understand what I would be able to do after graduation. Now I realize that it was Data science :)  As life has shown, I could not stay without data and its analysis for a long time, so I “returned” to my vocation.</t>
   </si>
 </sst>
 </file>
@@ -3026,8 +3025,8 @@
   <dimension ref="A1:K26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K15" sqref="K15"/>
+      <pane ySplit="1" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -3080,7 +3079,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="86.4">
+    <row r="2" spans="1:11" ht="72">
       <c r="A2" s="11">
         <v>45444</v>
       </c>
@@ -3205,7 +3204,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="57.6">
+    <row r="6" spans="1:11" ht="43.2">
       <c r="A6" s="11">
         <v>44287</v>
       </c>
@@ -3301,7 +3300,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="72">
+    <row r="9" spans="1:11" ht="57.6">
       <c r="A9" s="11">
         <v>43586</v>
       </c>
@@ -3333,7 +3332,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="28.8">
+    <row r="10" spans="1:11">
       <c r="A10" s="11">
         <v>42917</v>
       </c>
@@ -3394,7 +3393,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="43.2">
+    <row r="12" spans="1:11" ht="28.8">
       <c r="A12" s="11">
         <v>40695</v>
       </c>

--- a/data Ukraine.xlsx
+++ b/data Ukraine.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\_GitHub\DataSources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC3C75C1-90FF-4377-A68E-76729709445F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88B7A70C-8CD9-4526-9C7E-2D8C0EFCBA79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="898" activeTab="3" xr2:uid="{21FA5A86-4C69-4AEC-AC84-BE14EF54DEBB}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="898" activeTab="2" xr2:uid="{21FA5A86-4C69-4AEC-AC84-BE14EF54DEBB}"/>
   </bookViews>
   <sheets>
     <sheet name="personal data" sheetId="12" r:id="rId1"/>
@@ -1997,9 +1997,9 @@
   </sheetPr>
   <dimension ref="A1:S41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A42" sqref="A42"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -2396,7 +2396,22 @@
       <c r="C16" t="s">
         <v>258</v>
       </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>1</v>
+      </c>
       <c r="H16">
+        <v>1</v>
+      </c>
+      <c r="I16">
         <v>1</v>
       </c>
       <c r="J16">
@@ -2424,6 +2439,24 @@
       </c>
       <c r="C17" t="s">
         <v>211</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>1</v>
+      </c>
+      <c r="H17">
+        <v>1</v>
+      </c>
+      <c r="I17">
+        <v>1</v>
       </c>
       <c r="J17">
         <v>1</v>
@@ -3024,7 +3057,7 @@
   </sheetPr>
   <dimension ref="A1:K26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="J17" sqref="J17"/>
     </sheetView>

--- a/data Ukraine.xlsx
+++ b/data Ukraine.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\_GitHub\DataSources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88B7A70C-8CD9-4526-9C7E-2D8C0EFCBA79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDAE8598-7B35-4394-AE2D-6EBC398D7D49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="898" activeTab="2" xr2:uid="{21FA5A86-4C69-4AEC-AC84-BE14EF54DEBB}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="898" activeTab="3" xr2:uid="{21FA5A86-4C69-4AEC-AC84-BE14EF54DEBB}"/>
   </bookViews>
   <sheets>
     <sheet name="personal data" sheetId="12" r:id="rId1"/>
@@ -1200,9 +1200,6 @@
     <t>Student</t>
   </si>
   <si>
-    <t>Integration course: German language (DTZ B1), life in Germany (LiD)</t>
-  </si>
-  <si>
     <t>Power BI. Power BI. Visualization and Dashboards, cloud business analytics</t>
   </si>
   <si>
@@ -1281,6 +1278,9 @@
   </si>
   <si>
     <t>Economic Cybernetics (1-4 courses), Faculty of Engineering and Management. I had an incredibly interesting study of economic cybernetics with great teachers. But I decided to change my specialty because I didn't really understand what I would be able to do after graduation. Now I realize that it was Data science :)  As life has shown, I could not stay without data and its analysis for a long time, so I “returned” to my vocation.</t>
+  </si>
+  <si>
+    <t>Integration course: German language (DTZ B1), Life in Germany (LiD)</t>
   </si>
 </sst>
 </file>
@@ -1997,7 +1997,7 @@
   </sheetPr>
   <dimension ref="A1:S41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="F25" sqref="F25"/>
     </sheetView>
@@ -2078,7 +2078,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C2" t="s">
         <v>198</v>
@@ -2116,7 +2116,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C3" t="s">
         <v>199</v>
@@ -2154,7 +2154,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C4" t="s">
         <v>210</v>
@@ -2174,7 +2174,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C5" t="s">
         <v>200</v>
@@ -2209,7 +2209,7 @@
         <v>1</v>
       </c>
       <c r="B6" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C6" t="s">
         <v>201</v>
@@ -2223,7 +2223,7 @@
         <v>1</v>
       </c>
       <c r="B7" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C7" t="s">
         <v>202</v>
@@ -2237,7 +2237,7 @@
         <v>3</v>
       </c>
       <c r="B8" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C8" t="s">
         <v>203</v>
@@ -2266,7 +2266,7 @@
         <v>1</v>
       </c>
       <c r="B9" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C9" t="s">
         <v>204</v>
@@ -2280,7 +2280,7 @@
         <v>1</v>
       </c>
       <c r="B10" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C10" t="s">
         <v>265</v>
@@ -2294,7 +2294,7 @@
         <v>4</v>
       </c>
       <c r="B11" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C11" t="s">
         <v>266</v>
@@ -2308,7 +2308,7 @@
         <v>1</v>
       </c>
       <c r="B12" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C12" t="s">
         <v>205</v>
@@ -2325,7 +2325,7 @@
         <v>3</v>
       </c>
       <c r="B13" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C13" t="s">
         <v>206</v>
@@ -2342,7 +2342,7 @@
         <v>1</v>
       </c>
       <c r="B14" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C14" t="s">
         <v>207</v>
@@ -2356,7 +2356,7 @@
         <v>1</v>
       </c>
       <c r="B15" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C15" t="s">
         <v>209</v>
@@ -2391,7 +2391,7 @@
         <v>6</v>
       </c>
       <c r="B16" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C16" t="s">
         <v>258</v>
@@ -2435,7 +2435,7 @@
         <v>6</v>
       </c>
       <c r="B17" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C17" t="s">
         <v>211</v>
@@ -2479,7 +2479,7 @@
         <v>6</v>
       </c>
       <c r="B18" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C18" t="s">
         <v>197</v>
@@ -2496,7 +2496,7 @@
         <v>1</v>
       </c>
       <c r="B19" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C19" t="s">
         <v>213</v>
@@ -2528,7 +2528,7 @@
         <v>1</v>
       </c>
       <c r="B20" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C20" t="s">
         <v>214</v>
@@ -2554,7 +2554,7 @@
         <v>1</v>
       </c>
       <c r="B21" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C21" t="s">
         <v>215</v>
@@ -2568,7 +2568,7 @@
         <v>1</v>
       </c>
       <c r="B22" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C22" t="s">
         <v>208</v>
@@ -2582,7 +2582,7 @@
         <v>1</v>
       </c>
       <c r="B23" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C23" t="s">
         <v>212</v>
@@ -2596,7 +2596,7 @@
         <v>6</v>
       </c>
       <c r="B24" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C24" t="s">
         <v>267</v>
@@ -2610,7 +2610,7 @@
         <v>1</v>
       </c>
       <c r="B25" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C25" t="s">
         <v>268</v>
@@ -2624,7 +2624,7 @@
         <v>4</v>
       </c>
       <c r="B26" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C26" t="s">
         <v>271</v>
@@ -2641,7 +2641,7 @@
         <v>4</v>
       </c>
       <c r="B27" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C27" t="s">
         <v>272</v>
@@ -2658,7 +2658,7 @@
         <v>3</v>
       </c>
       <c r="B28" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C28" t="s">
         <v>273</v>
@@ -2672,7 +2672,7 @@
         <v>5</v>
       </c>
       <c r="B29" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C29" t="s">
         <v>274</v>
@@ -2692,7 +2692,7 @@
         <v>5</v>
       </c>
       <c r="B30" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C30" t="s">
         <v>275</v>
@@ -2709,7 +2709,7 @@
         <v>2</v>
       </c>
       <c r="B31" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C31" t="s">
         <v>276</v>
@@ -2759,7 +2759,7 @@
         <v>4</v>
       </c>
       <c r="B32" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C32" t="s">
         <v>277</v>
@@ -2773,7 +2773,7 @@
         <v>2</v>
       </c>
       <c r="B33" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C33" t="s">
         <v>278</v>
@@ -2808,7 +2808,7 @@
         <v>2</v>
       </c>
       <c r="B34" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C34" t="s">
         <v>279</v>
@@ -2843,7 +2843,7 @@
         <v>2</v>
       </c>
       <c r="B35" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C35" t="s">
         <v>280</v>
@@ -2875,7 +2875,7 @@
         <v>2</v>
       </c>
       <c r="B36" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C36" t="s">
         <v>281</v>
@@ -2901,7 +2901,7 @@
         <v>2</v>
       </c>
       <c r="B37" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C37" t="s">
         <v>282</v>
@@ -2927,7 +2927,7 @@
         <v>5</v>
       </c>
       <c r="B38" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C38" t="s">
         <v>283</v>
@@ -2953,7 +2953,7 @@
         <v>5</v>
       </c>
       <c r="B39" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C39" t="s">
         <v>284</v>
@@ -2982,10 +2982,10 @@
         <v>3</v>
       </c>
       <c r="B40" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C40" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="E40">
         <v>1</v>
@@ -3011,10 +3011,10 @@
         <v>5</v>
       </c>
       <c r="B41" t="s">
+        <v>381</v>
+      </c>
+      <c r="C41" t="s">
         <v>382</v>
-      </c>
-      <c r="C41" t="s">
-        <v>383</v>
       </c>
       <c r="D41">
         <v>1</v>
@@ -3057,9 +3057,9 @@
   </sheetPr>
   <dimension ref="A1:K26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J17" sqref="J17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -3170,7 +3170,7 @@
         <v>221</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>371</v>
+        <v>397</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="43.2">
@@ -3379,7 +3379,7 @@
         <v>367</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="G10" s="4" t="s">
         <v>300</v>
@@ -3472,7 +3472,7 @@
         <v>366</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="G13" s="4" t="s">
         <v>300</v>
@@ -3580,7 +3580,7 @@
         <v>223</v>
       </c>
       <c r="J16" s="4" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="86.4">
@@ -3612,7 +3612,7 @@
         <v>225</v>
       </c>
       <c r="J17" s="4" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="28.8">
@@ -3772,7 +3772,7 @@
         <v>225</v>
       </c>
       <c r="J22" s="4" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="23" spans="1:10" ht="43.2">
@@ -3818,7 +3818,7 @@
         <v>241</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="E24" s="4" t="s">
         <v>285</v>
@@ -3836,7 +3836,7 @@
         <v>223</v>
       </c>
       <c r="J24" s="4" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="25" spans="1:10" ht="72">
@@ -3900,7 +3900,7 @@
         <v>223</v>
       </c>
       <c r="J26" s="4" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
   </sheetData>
@@ -3933,13 +3933,13 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" s="18" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C1" s="6" t="s">
         <v>162</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="E1" s="6" t="s">
         <v>295</v>
@@ -3959,10 +3959,10 @@
         <v>231</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="28.8">
@@ -3976,10 +3976,10 @@
         <v>231</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -4013,7 +4013,7 @@
         <v>361</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="43.2">
@@ -4050,7 +4050,7 @@
         <v>237</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -4118,7 +4118,7 @@
         <v>171</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="E11" s="4" t="s">
         <v>290</v>
@@ -4138,10 +4138,10 @@
         <v>306</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="28.8">
@@ -4414,7 +4414,7 @@
         <v>343</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="43.2">

--- a/data Ukraine.xlsx
+++ b/data Ukraine.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\_GitHub\DataSources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDAE8598-7B35-4394-AE2D-6EBC398D7D49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8635773A-DC8F-468C-995E-25B1D34B7351}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="898" activeTab="3" xr2:uid="{21FA5A86-4C69-4AEC-AC84-BE14EF54DEBB}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="898" activeTab="1" xr2:uid="{21FA5A86-4C69-4AEC-AC84-BE14EF54DEBB}"/>
   </bookViews>
   <sheets>
     <sheet name="personal data" sheetId="12" r:id="rId1"/>
@@ -759,9 +759,6 @@
     <t>Russian</t>
   </si>
   <si>
-    <t>B1</t>
-  </si>
-  <si>
     <t>B2</t>
   </si>
   <si>
@@ -1281,6 +1278,9 @@
   </si>
   <si>
     <t>Integration course: German language (DTZ B1), Life in Germany (LiD)</t>
+  </si>
+  <si>
+    <t>C1</t>
   </si>
 </sst>
 </file>
@@ -1771,7 +1771,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B2" t="s">
         <v>217</v>
@@ -1779,7 +1779,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>218</v>
@@ -1787,7 +1787,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B4" s="12" t="s">
         <v>219</v>
@@ -1795,18 +1795,18 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
+        <v>246</v>
+      </c>
+      <c r="B5" t="s">
         <v>247</v>
-      </c>
-      <c r="B5" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
+        <v>254</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>255</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>256</v>
       </c>
     </row>
   </sheetData>
@@ -1870,12 +1870,12 @@
     </row>
     <row r="5" spans="1:4" ht="28.8">
       <c r="B5" s="5" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="28.8">
       <c r="B7" s="4" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
   </sheetData>
@@ -1895,24 +1895,24 @@
   </sheetPr>
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="13" t="s">
+        <v>241</v>
+      </c>
+      <c r="B1" s="13" t="s">
         <v>242</v>
       </c>
-      <c r="B1" s="13" t="s">
-        <v>243</v>
-      </c>
       <c r="C1" s="13" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D1" s="13" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1920,7 +1920,7 @@
         <v>223</v>
       </c>
       <c r="B2" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C2">
         <v>14</v>
@@ -1934,7 +1934,7 @@
         <v>225</v>
       </c>
       <c r="B3" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C3">
         <v>12</v>
@@ -1948,7 +1948,7 @@
         <v>222</v>
       </c>
       <c r="B4" t="s">
-        <v>227</v>
+        <v>397</v>
       </c>
       <c r="C4">
         <v>9</v>
@@ -1976,7 +1976,7 @@
         <v>224</v>
       </c>
       <c r="B6" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C6">
         <v>2</v>
@@ -2016,7 +2016,7 @@
   <sheetData>
     <row r="1" spans="1:19" s="16" customFormat="1" ht="46.8" customHeight="1">
       <c r="A1" s="16" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B1" s="16" t="s">
         <v>170</v>
@@ -2028,7 +2028,7 @@
         <v>167</v>
       </c>
       <c r="E1" s="15" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F1" s="15" t="s">
         <v>171</v>
@@ -2037,40 +2037,40 @@
         <v>175</v>
       </c>
       <c r="H1" s="15" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="I1" s="15" t="s">
         <v>185</v>
       </c>
       <c r="J1" s="15" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="L1" s="15" t="s">
+        <v>230</v>
+      </c>
+      <c r="M1" s="15" t="s">
         <v>231</v>
       </c>
-      <c r="M1" s="15" t="s">
+      <c r="N1" s="15" t="s">
         <v>232</v>
       </c>
-      <c r="N1" s="15" t="s">
-        <v>233</v>
-      </c>
       <c r="O1" s="15" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="P1" s="15" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="Q1" s="15" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="R1" s="15" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="S1" s="15" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="2" spans="1:19">
@@ -2078,7 +2078,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C2" t="s">
         <v>198</v>
@@ -2116,7 +2116,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C3" t="s">
         <v>199</v>
@@ -2154,7 +2154,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C4" t="s">
         <v>210</v>
@@ -2174,7 +2174,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C5" t="s">
         <v>200</v>
@@ -2209,7 +2209,7 @@
         <v>1</v>
       </c>
       <c r="B6" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C6" t="s">
         <v>201</v>
@@ -2223,7 +2223,7 @@
         <v>1</v>
       </c>
       <c r="B7" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C7" t="s">
         <v>202</v>
@@ -2237,7 +2237,7 @@
         <v>3</v>
       </c>
       <c r="B8" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C8" t="s">
         <v>203</v>
@@ -2266,7 +2266,7 @@
         <v>1</v>
       </c>
       <c r="B9" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C9" t="s">
         <v>204</v>
@@ -2280,10 +2280,10 @@
         <v>1</v>
       </c>
       <c r="B10" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C10" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D10">
         <v>1</v>
@@ -2294,10 +2294,10 @@
         <v>4</v>
       </c>
       <c r="B11" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C11" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D11">
         <v>1</v>
@@ -2308,7 +2308,7 @@
         <v>1</v>
       </c>
       <c r="B12" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C12" t="s">
         <v>205</v>
@@ -2325,7 +2325,7 @@
         <v>3</v>
       </c>
       <c r="B13" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C13" t="s">
         <v>206</v>
@@ -2342,7 +2342,7 @@
         <v>1</v>
       </c>
       <c r="B14" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C14" t="s">
         <v>207</v>
@@ -2356,7 +2356,7 @@
         <v>1</v>
       </c>
       <c r="B15" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C15" t="s">
         <v>209</v>
@@ -2391,10 +2391,10 @@
         <v>6</v>
       </c>
       <c r="B16" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C16" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D16">
         <v>1</v>
@@ -2435,7 +2435,7 @@
         <v>6</v>
       </c>
       <c r="B17" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C17" t="s">
         <v>211</v>
@@ -2479,7 +2479,7 @@
         <v>6</v>
       </c>
       <c r="B18" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C18" t="s">
         <v>197</v>
@@ -2496,7 +2496,7 @@
         <v>1</v>
       </c>
       <c r="B19" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C19" t="s">
         <v>213</v>
@@ -2528,7 +2528,7 @@
         <v>1</v>
       </c>
       <c r="B20" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C20" t="s">
         <v>214</v>
@@ -2554,7 +2554,7 @@
         <v>1</v>
       </c>
       <c r="B21" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C21" t="s">
         <v>215</v>
@@ -2568,7 +2568,7 @@
         <v>1</v>
       </c>
       <c r="B22" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C22" t="s">
         <v>208</v>
@@ -2582,7 +2582,7 @@
         <v>1</v>
       </c>
       <c r="B23" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C23" t="s">
         <v>212</v>
@@ -2596,10 +2596,10 @@
         <v>6</v>
       </c>
       <c r="B24" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C24" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="M24">
         <v>1</v>
@@ -2610,10 +2610,10 @@
         <v>1</v>
       </c>
       <c r="B25" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C25" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="M25">
         <v>1</v>
@@ -2624,10 +2624,10 @@
         <v>4</v>
       </c>
       <c r="B26" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C26" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D26">
         <v>1</v>
@@ -2641,10 +2641,10 @@
         <v>4</v>
       </c>
       <c r="B27" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C27" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D27">
         <v>1</v>
@@ -2658,10 +2658,10 @@
         <v>3</v>
       </c>
       <c r="B28" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C28" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="P28">
         <v>1</v>
@@ -2672,10 +2672,10 @@
         <v>5</v>
       </c>
       <c r="B29" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C29" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="L29">
         <v>1</v>
@@ -2692,10 +2692,10 @@
         <v>5</v>
       </c>
       <c r="B30" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C30" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="L30">
         <v>1</v>
@@ -2709,10 +2709,10 @@
         <v>2</v>
       </c>
       <c r="B31" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C31" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D31">
         <v>1</v>
@@ -2759,10 +2759,10 @@
         <v>4</v>
       </c>
       <c r="B32" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C32" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D32">
         <v>1</v>
@@ -2773,10 +2773,10 @@
         <v>2</v>
       </c>
       <c r="B33" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C33" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="F33">
         <v>1</v>
@@ -2808,10 +2808,10 @@
         <v>2</v>
       </c>
       <c r="B34" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C34" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D34">
         <v>1</v>
@@ -2843,10 +2843,10 @@
         <v>2</v>
       </c>
       <c r="B35" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C35" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D35">
         <v>1</v>
@@ -2875,10 +2875,10 @@
         <v>2</v>
       </c>
       <c r="B36" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C36" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="F36">
         <v>1</v>
@@ -2901,10 +2901,10 @@
         <v>2</v>
       </c>
       <c r="B37" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C37" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="G37">
         <v>1</v>
@@ -2927,10 +2927,10 @@
         <v>5</v>
       </c>
       <c r="B38" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C38" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="G38">
         <v>1</v>
@@ -2953,10 +2953,10 @@
         <v>5</v>
       </c>
       <c r="B39" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C39" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="G39">
         <v>1</v>
@@ -2982,10 +2982,10 @@
         <v>3</v>
       </c>
       <c r="B40" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C40" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="E40">
         <v>1</v>
@@ -3011,10 +3011,10 @@
         <v>5</v>
       </c>
       <c r="B41" t="s">
+        <v>380</v>
+      </c>
+      <c r="C41" t="s">
         <v>381</v>
-      </c>
-      <c r="C41" t="s">
-        <v>382</v>
       </c>
       <c r="D41">
         <v>1</v>
@@ -3057,7 +3057,7 @@
   </sheetPr>
   <dimension ref="A1:K26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="E3" sqref="E3"/>
     </sheetView>
@@ -3094,16 +3094,16 @@
         <v>176</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="H1" s="6" t="s">
         <v>170</v>
       </c>
       <c r="I1" s="6" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="J1" s="6" t="s">
         <v>39</v>
@@ -3120,25 +3120,25 @@
         <v>45992</v>
       </c>
       <c r="C2" s="4" t="s">
+        <v>356</v>
+      </c>
+      <c r="D2" s="4" t="s">
         <v>357</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="E2" s="4" t="s">
         <v>358</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="F2" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>297</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>300</v>
+      </c>
+      <c r="J2" s="4" t="s">
         <v>359</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>305</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>298</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>301</v>
-      </c>
-      <c r="J2" s="4" t="s">
-        <v>360</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="43.2">
@@ -3149,28 +3149,28 @@
         <v>45323</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="F3" s="4" t="s">
         <v>216</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="I3" s="4" t="s">
         <v>221</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="43.2">
@@ -3190,13 +3190,13 @@
         <v>177</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="I4" s="4" t="s">
         <v>222</v>
@@ -3213,28 +3213,28 @@
         <v>44621</v>
       </c>
       <c r="C5" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="E5" s="4" t="s">
         <v>260</v>
       </c>
-      <c r="D5" s="4" t="s">
-        <v>259</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>261</v>
-      </c>
       <c r="F5" s="4" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="I5" s="4" t="s">
         <v>222</v>
       </c>
       <c r="J5" s="4" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="43.2">
@@ -3254,13 +3254,13 @@
         <v>178</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="I6" s="4" t="s">
         <v>223</v>
@@ -3286,13 +3286,13 @@
         <v>179</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="I7" s="4" t="s">
         <v>223</v>
@@ -3309,7 +3309,7 @@
         <v>44317</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>181</v>
@@ -3318,13 +3318,13 @@
         <v>182</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="I8" s="4" t="s">
         <v>223</v>
@@ -3347,16 +3347,16 @@
         <v>184</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="I9" s="4" t="s">
         <v>223</v>
@@ -3373,25 +3373,25 @@
         <v>43556</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="G10" s="4" t="s">
+        <v>299</v>
+      </c>
+      <c r="H10" s="4" t="s">
         <v>300</v>
-      </c>
-      <c r="H10" s="4" t="s">
-        <v>301</v>
       </c>
       <c r="I10" s="4" t="s">
         <v>223</v>
       </c>
       <c r="J10" s="4" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="43.2">
@@ -3402,7 +3402,7 @@
         <v>42856</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D11" s="4" t="s">
         <v>187</v>
@@ -3411,13 +3411,13 @@
         <v>188</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="G11" s="4" t="s">
+        <v>299</v>
+      </c>
+      <c r="H11" s="4" t="s">
         <v>300</v>
-      </c>
-      <c r="H11" s="4" t="s">
-        <v>301</v>
       </c>
       <c r="I11" s="4" t="s">
         <v>225</v>
@@ -3434,28 +3434,28 @@
         <v>41183</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="G12" s="4" t="s">
+        <v>299</v>
+      </c>
+      <c r="H12" s="4" t="s">
         <v>300</v>
-      </c>
-      <c r="H12" s="4" t="s">
-        <v>301</v>
       </c>
       <c r="I12" s="4" t="s">
         <v>225</v>
       </c>
       <c r="J12" s="4" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -3466,25 +3466,25 @@
         <v>40664</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="G13" s="4" t="s">
+        <v>299</v>
+      </c>
+      <c r="H13" s="4" t="s">
         <v>300</v>
-      </c>
-      <c r="H13" s="4" t="s">
-        <v>301</v>
       </c>
       <c r="I13" s="4" t="s">
         <v>225</v>
       </c>
       <c r="J13" s="4" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="72">
@@ -3495,28 +3495,28 @@
         <v>39873</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="G14" s="4" t="s">
+        <v>299</v>
+      </c>
+      <c r="H14" s="4" t="s">
         <v>300</v>
-      </c>
-      <c r="H14" s="4" t="s">
-        <v>301</v>
       </c>
       <c r="I14" s="4" t="s">
         <v>223</v>
       </c>
       <c r="J14" s="4" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="72">
@@ -3527,28 +3527,28 @@
         <v>39873</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="F15" s="4" t="s">
         <v>216</v>
       </c>
       <c r="G15" s="4" t="s">
+        <v>299</v>
+      </c>
+      <c r="H15" s="4" t="s">
         <v>300</v>
-      </c>
-      <c r="H15" s="4" t="s">
-        <v>301</v>
       </c>
       <c r="I15" s="4" t="s">
         <v>223</v>
       </c>
       <c r="J15" s="4" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="72">
@@ -3559,28 +3559,28 @@
         <v>38504</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="F16" s="4" t="s">
         <v>216</v>
       </c>
       <c r="G16" s="4" t="s">
+        <v>299</v>
+      </c>
+      <c r="H16" s="4" t="s">
         <v>300</v>
-      </c>
-      <c r="H16" s="4" t="s">
-        <v>301</v>
       </c>
       <c r="I16" s="4" t="s">
         <v>223</v>
       </c>
       <c r="J16" s="4" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="86.4">
@@ -3591,28 +3591,28 @@
         <v>37408</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="F17" s="4" t="s">
         <v>216</v>
       </c>
       <c r="G17" s="4" t="s">
+        <v>299</v>
+      </c>
+      <c r="H17" s="4" t="s">
         <v>300</v>
-      </c>
-      <c r="H17" s="4" t="s">
-        <v>301</v>
       </c>
       <c r="I17" s="4" t="s">
         <v>225</v>
       </c>
       <c r="J17" s="4" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="28.8">
@@ -3623,28 +3623,28 @@
         <v>45392</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="F18" s="4" t="s">
         <v>216</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="H18" s="4" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="I18" s="4" t="s">
         <v>222</v>
       </c>
       <c r="J18" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="43.2">
@@ -3655,28 +3655,28 @@
         <v>44681</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="F19" s="4" t="s">
         <v>216</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="H19" s="4" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="I19" s="4" t="s">
         <v>222</v>
       </c>
       <c r="J19" s="4" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="43.2">
@@ -3687,28 +3687,28 @@
         <v>44859</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="F20" s="4" t="s">
         <v>216</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="H20" s="4" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="I20" s="4" t="s">
         <v>222</v>
       </c>
       <c r="J20" s="4" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="43.2">
@@ -3719,28 +3719,28 @@
         <v>44865</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="F21" s="4" t="s">
         <v>216</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="H21" s="4" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="I21" s="4" t="s">
         <v>222</v>
       </c>
       <c r="J21" s="4" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="28.8">
@@ -3751,28 +3751,28 @@
         <v>43555</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="F22" s="4" t="s">
         <v>216</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="H22" s="4" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="I22" s="4" t="s">
         <v>225</v>
       </c>
       <c r="J22" s="4" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="23" spans="1:10" ht="43.2">
@@ -3783,28 +3783,28 @@
         <v>42029</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="F23" s="4" t="s">
         <v>216</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="H23" s="4" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="I23" s="4" t="s">
         <v>225</v>
       </c>
       <c r="J23" s="4" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="24" spans="1:10" ht="43.2">
@@ -3815,28 +3815,28 @@
         <v>44593</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="H24" s="4" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="I24" s="17" t="s">
         <v>223</v>
       </c>
       <c r="J24" s="4" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="25" spans="1:10" ht="72">
@@ -3847,28 +3847,28 @@
         <v>43983</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="F25" s="17" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="G25" s="4" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="H25" s="4" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="I25" s="17" t="s">
         <v>223</v>
       </c>
       <c r="J25" s="4" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="26" spans="1:10" ht="72">
@@ -3879,28 +3879,28 @@
         <v>44593</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="F26" s="17" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="G26" s="4" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="H26" s="4" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="I26" s="17" t="s">
         <v>223</v>
       </c>
       <c r="J26" s="4" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
   </sheetData>
@@ -3933,19 +3933,19 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" s="18" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C1" s="6" t="s">
         <v>162</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="E1" s="6" t="s">
+        <v>294</v>
+      </c>
+      <c r="F1" s="6" t="s">
         <v>295</v>
-      </c>
-      <c r="F1" s="6" t="s">
-        <v>296</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="28.8">
@@ -3956,13 +3956,13 @@
         <v>38473</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="28.8">
@@ -3973,13 +3973,13 @@
         <v>38534</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -3990,13 +3990,13 @@
         <v>42029</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -4007,13 +4007,13 @@
         <v>43555</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="43.2">
@@ -4024,16 +4024,16 @@
         <v>44593</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="28.8">
@@ -4044,13 +4044,13 @@
         <v>44681</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -4061,13 +4061,13 @@
         <v>44835</v>
       </c>
       <c r="C8" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="E8" s="4" t="s">
         <v>239</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>239</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>240</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="28.8">
@@ -4078,13 +4078,13 @@
         <v>44866</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="43.2">
@@ -4101,10 +4101,10 @@
         <v>167</v>
       </c>
       <c r="E10" s="17" t="s">
+        <v>291</v>
+      </c>
+      <c r="F10" s="4" t="s">
         <v>292</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>293</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="43.2">
@@ -4118,13 +4118,13 @@
         <v>171</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="E11" s="4" t="s">
+        <v>289</v>
+      </c>
+      <c r="F11" s="4" t="s">
         <v>290</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>291</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -4135,13 +4135,13 @@
         <v>45323</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="28.8">
@@ -4152,13 +4152,13 @@
         <v>45392</v>
       </c>
       <c r="C13" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="E13" s="4" t="s">
         <v>233</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>233</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>234</v>
       </c>
     </row>
   </sheetData>
@@ -4191,7 +4191,7 @@
         <v>38</v>
       </c>
       <c r="B1" s="13" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -4223,7 +4223,7 @@
         <v>196</v>
       </c>
       <c r="B5" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
   </sheetData>
@@ -4265,7 +4265,7 @@
     </row>
     <row r="2" spans="1:3" ht="43.2">
       <c r="A2" s="4" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>34</v>
@@ -4290,7 +4290,7 @@
         <v>24</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>25</v>
@@ -4320,13 +4320,13 @@
     </row>
     <row r="7" spans="1:3" ht="28.8">
       <c r="A7" s="4" t="s">
+        <v>321</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>331</v>
+      </c>
+      <c r="C7" s="4" t="s">
         <v>322</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>332</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>323</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="43.2">
@@ -4378,7 +4378,7 @@
         <v>26</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>41</v>
@@ -4386,13 +4386,13 @@
     </row>
     <row r="13" spans="1:3" ht="43.2">
       <c r="A13" s="4" t="s">
+        <v>325</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>330</v>
+      </c>
+      <c r="C13" s="4" t="s">
         <v>326</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>331</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>327</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="28.8">
@@ -4400,7 +4400,7 @@
         <v>77</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>78</v>
@@ -4411,10 +4411,10 @@
         <v>36</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="43.2">
@@ -4433,7 +4433,7 @@
         <v>51</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>52</v>
@@ -4452,24 +4452,24 @@
     </row>
     <row r="19" spans="1:3" ht="43.2">
       <c r="A19" s="4" t="s">
+        <v>323</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>344</v>
+      </c>
+      <c r="C19" s="4" t="s">
         <v>324</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>345</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>325</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="28.8">
       <c r="A20" s="4" t="s">
+        <v>328</v>
+      </c>
+      <c r="B20" s="4" t="s">
         <v>329</v>
       </c>
-      <c r="B20" s="4" t="s">
-        <v>330</v>
-      </c>
       <c r="C20" s="4" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -4477,7 +4477,7 @@
         <v>70</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>71</v>
@@ -4488,7 +4488,7 @@
         <v>86</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C22" s="4" t="s">
         <v>87</v>
@@ -4499,7 +4499,7 @@
         <v>88</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C23" s="4" t="s">
         <v>89</v>
@@ -4532,7 +4532,7 @@
         <v>30</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C26" s="4" t="s">
         <v>44</v>
@@ -4543,10 +4543,10 @@
         <v>45</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="28.8">
@@ -4554,7 +4554,7 @@
         <v>92</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C28" s="4" t="s">
         <v>93</v>
@@ -4576,7 +4576,7 @@
         <v>82</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C30" s="4" t="s">
         <v>83</v>
@@ -4587,7 +4587,7 @@
         <v>48</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C31" s="4" t="s">
         <v>49</v>
@@ -4598,10 +4598,10 @@
         <v>54</v>
       </c>
       <c r="B32" s="4" t="s">
+        <v>337</v>
+      </c>
+      <c r="C32" s="4" t="s">
         <v>338</v>
-      </c>
-      <c r="C32" s="4" t="s">
-        <v>339</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="72">
@@ -4609,7 +4609,7 @@
         <v>28</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C33" s="4" t="s">
         <v>27</v>
@@ -4620,7 +4620,7 @@
         <v>75</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C34" s="4" t="s">
         <v>76</v>
@@ -4631,7 +4631,7 @@
         <v>29</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C35" s="4" t="s">
         <v>50</v>
@@ -4642,7 +4642,7 @@
         <v>84</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C36" s="4" t="s">
         <v>85</v>
@@ -4653,7 +4653,7 @@
         <v>102</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C37" s="4" t="s">
         <v>101</v>
@@ -5147,10 +5147,10 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="B9" t="s">
         <v>252</v>
-      </c>
-      <c r="B9" t="s">
-        <v>253</v>
       </c>
     </row>
   </sheetData>

--- a/data Ukraine.xlsx
+++ b/data Ukraine.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\_GitHub\DataSources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8635773A-DC8F-468C-995E-25B1D34B7351}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40AB9701-1AE7-4EC6-93FE-4A25E779A9E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="898" activeTab="1" xr2:uid="{21FA5A86-4C69-4AEC-AC84-BE14EF54DEBB}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="898" activeTab="3" xr2:uid="{21FA5A86-4C69-4AEC-AC84-BE14EF54DEBB}"/>
   </bookViews>
   <sheets>
     <sheet name="personal data" sheetId="12" r:id="rId1"/>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="616" uniqueCount="398">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="632" uniqueCount="400">
   <si>
     <t>Ukraine is the second-largest European country (kraine covers an area of 603,550 sq km)</t>
   </si>
@@ -1281,6 +1281,12 @@
   </si>
   <si>
     <t>C1</t>
+  </si>
+  <si>
+    <t>Figma UI UX Design Essentials</t>
+  </si>
+  <si>
+    <t>Object-Oriented UX Fundamentals</t>
   </si>
 </sst>
 </file>
@@ -1895,7 +1901,7 @@
   </sheetPr>
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
@@ -1998,8 +2004,8 @@
   <dimension ref="A1:S41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F25" sqref="F25"/>
+      <pane ySplit="1" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A18" sqref="A18:XFD18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -3055,11 +3061,11 @@
   <sheetPr>
     <tabColor rgb="FF0070C0"/>
   </sheetPr>
-  <dimension ref="A1:K26"/>
+  <dimension ref="A1:K28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E3" sqref="E3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -3617,10 +3623,10 @@
     </row>
     <row r="18" spans="1:10" ht="28.8">
       <c r="A18" s="11">
-        <v>45383</v>
+        <v>45505</v>
       </c>
       <c r="B18" s="11">
-        <v>45392</v>
+        <v>45505</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>232</v>
@@ -3644,24 +3650,24 @@
         <v>222</v>
       </c>
       <c r="J18" s="4" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" ht="43.2">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="28.8">
       <c r="A19" s="11">
-        <v>44621</v>
+        <v>45474</v>
       </c>
       <c r="B19" s="11">
-        <v>44681</v>
+        <v>45474</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="D19" s="4" t="s">
         <v>369</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="F19" s="4" t="s">
         <v>216</v>
@@ -3676,24 +3682,24 @@
         <v>222</v>
       </c>
       <c r="J19" s="4" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" ht="43.2">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" ht="28.8">
       <c r="A20" s="11">
-        <v>44835</v>
+        <v>45383</v>
       </c>
       <c r="B20" s="11">
-        <v>44859</v>
+        <v>45392</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="D20" s="4" t="s">
         <v>369</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="F20" s="4" t="s">
         <v>216</v>
@@ -3708,18 +3714,18 @@
         <v>222</v>
       </c>
       <c r="J20" s="4" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="43.2">
       <c r="A21" s="11">
-        <v>44859</v>
+        <v>44621</v>
       </c>
       <c r="B21" s="11">
-        <v>44865</v>
+        <v>44681</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D21" s="4" t="s">
         <v>369</v>
@@ -3740,24 +3746,24 @@
         <v>222</v>
       </c>
       <c r="J21" s="4" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" ht="28.8">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="43.2">
       <c r="A22" s="11">
-        <v>43525</v>
+        <v>44835</v>
       </c>
       <c r="B22" s="11">
-        <v>43555</v>
+        <v>44859</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>360</v>
+        <v>238</v>
       </c>
       <c r="D22" s="4" t="s">
         <v>369</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="F22" s="4" t="s">
         <v>216</v>
@@ -3769,27 +3775,27 @@
         <v>301</v>
       </c>
       <c r="I22" s="4" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="J22" s="4" t="s">
-        <v>370</v>
+        <v>237</v>
       </c>
     </row>
     <row r="23" spans="1:10" ht="43.2">
       <c r="A23" s="11">
-        <v>42005</v>
+        <v>44859</v>
       </c>
       <c r="B23" s="11">
-        <v>42029</v>
+        <v>44865</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D23" s="4" t="s">
         <v>369</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="F23" s="4" t="s">
         <v>216</v>
@@ -3801,30 +3807,30 @@
         <v>301</v>
       </c>
       <c r="I23" s="4" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="J23" s="4" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" ht="43.2">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" ht="28.8">
       <c r="A24" s="11">
-        <v>44470</v>
+        <v>43525</v>
       </c>
       <c r="B24" s="11">
-        <v>44593</v>
+        <v>43555</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>240</v>
+        <v>360</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>284</v>
+        <v>311</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>304</v>
+        <v>216</v>
       </c>
       <c r="G24" s="4" t="s">
         <v>297</v>
@@ -3832,31 +3838,31 @@
       <c r="H24" s="4" t="s">
         <v>301</v>
       </c>
-      <c r="I24" s="17" t="s">
-        <v>223</v>
+      <c r="I24" s="4" t="s">
+        <v>225</v>
       </c>
       <c r="J24" s="4" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" ht="72">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" ht="43.2">
       <c r="A25" s="11">
-        <v>41791</v>
+        <v>42005</v>
       </c>
       <c r="B25" s="11">
-        <v>43983</v>
+        <v>42029</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>286</v>
+        <v>240</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>363</v>
+        <v>369</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>312</v>
-      </c>
-      <c r="F25" s="17" t="s">
-        <v>248</v>
+        <v>310</v>
+      </c>
+      <c r="F25" s="4" t="s">
+        <v>216</v>
       </c>
       <c r="G25" s="4" t="s">
         <v>297</v>
@@ -3864,31 +3870,31 @@
       <c r="H25" s="4" t="s">
         <v>301</v>
       </c>
-      <c r="I25" s="17" t="s">
-        <v>223</v>
+      <c r="I25" s="4" t="s">
+        <v>225</v>
       </c>
       <c r="J25" s="4" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" ht="72">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" ht="43.2">
       <c r="A26" s="11">
-        <v>42156</v>
+        <v>44470</v>
       </c>
       <c r="B26" s="11">
         <v>44593</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>249</v>
+        <v>240</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>362</v>
+        <v>371</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>285</v>
-      </c>
-      <c r="F26" s="17" t="s">
-        <v>248</v>
+        <v>284</v>
+      </c>
+      <c r="F26" s="4" t="s">
+        <v>304</v>
       </c>
       <c r="G26" s="4" t="s">
         <v>297</v>
@@ -3900,6 +3906,70 @@
         <v>223</v>
       </c>
       <c r="J26" s="4" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" ht="72">
+      <c r="A27" s="11">
+        <v>41791</v>
+      </c>
+      <c r="B27" s="11">
+        <v>43983</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>286</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>363</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>312</v>
+      </c>
+      <c r="F27" s="17" t="s">
+        <v>248</v>
+      </c>
+      <c r="G27" s="4" t="s">
+        <v>297</v>
+      </c>
+      <c r="H27" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="I27" s="17" t="s">
+        <v>223</v>
+      </c>
+      <c r="J27" s="4" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" ht="72">
+      <c r="A28" s="11">
+        <v>42156</v>
+      </c>
+      <c r="B28" s="11">
+        <v>44593</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>249</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>362</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>285</v>
+      </c>
+      <c r="F28" s="17" t="s">
+        <v>248</v>
+      </c>
+      <c r="G28" s="4" t="s">
+        <v>297</v>
+      </c>
+      <c r="H28" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="I28" s="17" t="s">
+        <v>223</v>
+      </c>
+      <c r="J28" s="4" t="s">
         <v>373</v>
       </c>
     </row>

--- a/data Ukraine.xlsx
+++ b/data Ukraine.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\_GitHub\DataSources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40AB9701-1AE7-4EC6-93FE-4A25E779A9E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{971F910D-AE8F-4757-A299-B1B6A58E6552}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="898" activeTab="3" xr2:uid="{21FA5A86-4C69-4AEC-AC84-BE14EF54DEBB}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="898" activeTab="4" xr2:uid="{21FA5A86-4C69-4AEC-AC84-BE14EF54DEBB}"/>
   </bookViews>
   <sheets>
     <sheet name="personal data" sheetId="12" r:id="rId1"/>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="632" uniqueCount="400">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="638" uniqueCount="400">
   <si>
     <t>Ukraine is the second-largest European country (kraine covers an area of 603,550 sq km)</t>
   </si>
@@ -3063,9 +3063,9 @@
   </sheetPr>
   <dimension ref="A1:K28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J20" sqref="J20"/>
+      <selection pane="bottomLeft" activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -3984,10 +3984,10 @@
   <sheetPr>
     <tabColor rgb="FF0070C0"/>
   </sheetPr>
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:G15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -4229,6 +4229,40 @@
       </c>
       <c r="E13" s="4" t="s">
         <v>233</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="28.8">
+      <c r="A14" s="18">
+        <v>13</v>
+      </c>
+      <c r="B14" s="11">
+        <v>45476</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="18">
+        <v>14</v>
+      </c>
+      <c r="B15" s="11">
+        <v>45533</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>398</v>
       </c>
     </row>
   </sheetData>

--- a/data Ukraine.xlsx
+++ b/data Ukraine.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\_GitHub\DataSources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{971F910D-AE8F-4757-A299-B1B6A58E6552}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9570E4D4-8125-47F6-9193-182949BDA71C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="898" activeTab="4" xr2:uid="{21FA5A86-4C69-4AEC-AC84-BE14EF54DEBB}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="898" activeTab="3" xr2:uid="{21FA5A86-4C69-4AEC-AC84-BE14EF54DEBB}"/>
   </bookViews>
   <sheets>
     <sheet name="personal data" sheetId="12" r:id="rId1"/>
@@ -2004,7 +2004,7 @@
   <dimension ref="A1:S41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A18" sqref="A18:XFD18"/>
     </sheetView>
   </sheetViews>
@@ -2496,6 +2496,9 @@
       <c r="F18">
         <v>1</v>
       </c>
+      <c r="N18">
+        <v>1</v>
+      </c>
     </row>
     <row r="19" spans="1:19">
       <c r="A19">
@@ -3063,9 +3066,9 @@
   </sheetPr>
   <dimension ref="A1:K28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J19" sqref="J19"/>
+      <selection pane="bottomLeft" activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -3986,8 +3989,8 @@
   </sheetPr>
   <dimension ref="A1:G15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
